--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['44', '66']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,7 +1595,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2210,7 +2213,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3649,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -5297,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5712,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6327,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6742,7 +6745,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -8184,7 +8187,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8387,7 +8390,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>2.25</v>
@@ -9214,7 +9217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9417,7 +9420,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>0.4</v>
@@ -9829,7 +9832,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10038,7 +10041,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10859,10 +10862,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11968,6 +11971,418 @@
       </c>
       <c r="BP54">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7321450</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45412.3125</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q55">
+        <v>3.53</v>
+      </c>
+      <c r="R55">
+        <v>1.89</v>
+      </c>
+      <c r="S55">
+        <v>2.78</v>
+      </c>
+      <c r="T55">
+        <v>1.5</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>3.25</v>
+      </c>
+      <c r="W55">
+        <v>1.33</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.06</v>
+      </c>
+      <c r="Z55">
+        <v>2.9</v>
+      </c>
+      <c r="AA55">
+        <v>3.05</v>
+      </c>
+      <c r="AB55">
+        <v>2.35</v>
+      </c>
+      <c r="AC55">
+        <v>1.08</v>
+      </c>
+      <c r="AD55">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>1.4</v>
+      </c>
+      <c r="AF55">
+        <v>2.75</v>
+      </c>
+      <c r="AG55">
+        <v>2.1</v>
+      </c>
+      <c r="AH55">
+        <v>1.65</v>
+      </c>
+      <c r="AI55">
+        <v>1.91</v>
+      </c>
+      <c r="AJ55">
+        <v>1.8</v>
+      </c>
+      <c r="AK55">
+        <v>1.55</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.3</v>
+      </c>
+      <c r="AN55">
+        <v>1.75</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1.6</v>
+      </c>
+      <c r="AQ55">
+        <v>1.83</v>
+      </c>
+      <c r="AR55">
+        <v>1.13</v>
+      </c>
+      <c r="AS55">
+        <v>1.26</v>
+      </c>
+      <c r="AT55">
+        <v>2.39</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
+        <v>6</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
+        <v>10</v>
+      </c>
+      <c r="BD55">
+        <v>2.18</v>
+      </c>
+      <c r="BE55">
+        <v>8.4</v>
+      </c>
+      <c r="BF55">
+        <v>1.94</v>
+      </c>
+      <c r="BG55">
+        <v>1.42</v>
+      </c>
+      <c r="BH55">
+        <v>2.65</v>
+      </c>
+      <c r="BI55">
+        <v>1.78</v>
+      </c>
+      <c r="BJ55">
+        <v>1.97</v>
+      </c>
+      <c r="BK55">
+        <v>2.29</v>
+      </c>
+      <c r="BL55">
+        <v>1.55</v>
+      </c>
+      <c r="BM55">
+        <v>3.08</v>
+      </c>
+      <c r="BN55">
+        <v>1.3</v>
+      </c>
+      <c r="BO55">
+        <v>4.45</v>
+      </c>
+      <c r="BP55">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7321451</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45412.3125</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q56">
+        <v>3.52</v>
+      </c>
+      <c r="R56">
+        <v>1.91</v>
+      </c>
+      <c r="S56">
+        <v>2.77</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.06</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>3.15</v>
+      </c>
+      <c r="AB56">
+        <v>2.2</v>
+      </c>
+      <c r="AC56">
+        <v>1.08</v>
+      </c>
+      <c r="AD56">
+        <v>7</v>
+      </c>
+      <c r="AE56">
+        <v>1.4</v>
+      </c>
+      <c r="AF56">
+        <v>2.75</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.75</v>
+      </c>
+      <c r="AI56">
+        <v>1.91</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.57</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.36</v>
+      </c>
+      <c r="AN56">
+        <v>1.75</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.4</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>2.01</v>
+      </c>
+      <c r="AS56">
+        <v>1.18</v>
+      </c>
+      <c r="AT56">
+        <v>3.19</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>9</v>
+      </c>
+      <c r="AZ56">
+        <v>8</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BD56">
+        <v>2.1</v>
+      </c>
+      <c r="BE56">
+        <v>8</v>
+      </c>
+      <c r="BF56">
+        <v>1.91</v>
+      </c>
+      <c r="BG56">
+        <v>1.38</v>
+      </c>
+      <c r="BH56">
+        <v>2.8</v>
+      </c>
+      <c r="BI56">
+        <v>1.7</v>
+      </c>
+      <c r="BJ56">
+        <v>2.08</v>
+      </c>
+      <c r="BK56">
+        <v>2.16</v>
+      </c>
+      <c r="BL56">
+        <v>1.62</v>
+      </c>
+      <c r="BM56">
+        <v>2.88</v>
+      </c>
+      <c r="BN56">
+        <v>1.34</v>
+      </c>
+      <c r="BO56">
+        <v>4.1</v>
+      </c>
+      <c r="BP56">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['57', '63', '80']</t>
   </si>
   <si>
+    <t>['76', '83']</t>
+  </si>
+  <si>
+    <t>['68', '90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -424,9 +436,6 @@
     <t>['90+3', '90+7']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['45+5', '77']</t>
   </si>
   <si>
@@ -482,6 +491,15 @@
   </si>
   <si>
     <t>['44', '66']</t>
+  </si>
+  <si>
+    <t>['34', '53', '62', '90']</t>
+  </si>
+  <si>
+    <t>['45+6', '53', '70']</t>
+  </si>
+  <si>
+    <t>['44', '82']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1201,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1308,7 +1326,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1720,7 +1738,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1798,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -1926,7 +1944,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2004,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2132,7 +2150,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2210,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2338,7 +2356,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2419,7 +2437,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2544,7 +2562,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2750,7 +2768,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2831,7 +2849,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2956,7 +2974,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3034,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>0.4</v>
@@ -3368,7 +3386,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3574,7 +3592,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3780,7 +3798,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3858,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4273,7 +4291,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4479,7 +4497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4604,7 +4622,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4810,7 +4828,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4891,7 +4909,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5094,7 +5112,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>0.4</v>
@@ -5222,7 +5240,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5428,7 +5446,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5506,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5634,7 +5652,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5712,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5840,7 +5858,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6046,7 +6064,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6333,7 +6351,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6458,7 +6476,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6664,7 +6682,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6948,10 +6966,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7154,7 +7172,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7488,7 +7506,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7566,7 +7584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -7694,7 +7712,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7775,7 +7793,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -7900,7 +7918,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8184,7 +8202,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8312,7 +8330,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8393,7 +8411,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8518,7 +8536,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8599,7 +8617,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8724,7 +8742,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8805,7 +8823,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9136,7 +9154,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9214,7 +9232,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -9548,7 +9566,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9626,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9754,7 +9772,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10166,7 +10184,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10247,7 +10265,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10372,7 +10390,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10450,7 +10468,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -10656,7 +10674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -10784,7 +10802,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -10990,7 +11008,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11608,7 +11626,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11814,7 +11832,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12113,22 +12131,22 @@
         <v>2.39</v>
       </c>
       <c r="AU55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA55">
         <v>5</v>
@@ -12226,7 +12244,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12383,6 +12401,830 @@
       </c>
       <c r="BP56">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7321455</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q57">
+        <v>3.84</v>
+      </c>
+      <c r="R57">
+        <v>2.06</v>
+      </c>
+      <c r="S57">
+        <v>3.35</v>
+      </c>
+      <c r="T57">
+        <v>1.52</v>
+      </c>
+      <c r="U57">
+        <v>2.44</v>
+      </c>
+      <c r="V57">
+        <v>3.44</v>
+      </c>
+      <c r="W57">
+        <v>1.28</v>
+      </c>
+      <c r="X57">
+        <v>9.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.04</v>
+      </c>
+      <c r="Z57">
+        <v>3</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>2.45</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>6.8</v>
+      </c>
+      <c r="AE57">
+        <v>1.43</v>
+      </c>
+      <c r="AF57">
+        <v>2.54</v>
+      </c>
+      <c r="AG57">
+        <v>2.31</v>
+      </c>
+      <c r="AH57">
+        <v>1.56</v>
+      </c>
+      <c r="AI57">
+        <v>2.03</v>
+      </c>
+      <c r="AJ57">
+        <v>1.81</v>
+      </c>
+      <c r="AK57">
+        <v>1.53</v>
+      </c>
+      <c r="AL57">
+        <v>1.4</v>
+      </c>
+      <c r="AM57">
+        <v>1.4</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>2.25</v>
+      </c>
+      <c r="AP57">
+        <v>1.6</v>
+      </c>
+      <c r="AQ57">
+        <v>2.4</v>
+      </c>
+      <c r="AR57">
+        <v>1.91</v>
+      </c>
+      <c r="AS57">
+        <v>1.51</v>
+      </c>
+      <c r="AT57">
+        <v>3.42</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>14</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>12</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>14</v>
+      </c>
+      <c r="BD57">
+        <v>2.05</v>
+      </c>
+      <c r="BE57">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF57">
+        <v>2.07</v>
+      </c>
+      <c r="BG57">
+        <v>1.57</v>
+      </c>
+      <c r="BH57">
+        <v>2.37</v>
+      </c>
+      <c r="BI57">
+        <v>1.94</v>
+      </c>
+      <c r="BJ57">
+        <v>1.85</v>
+      </c>
+      <c r="BK57">
+        <v>2.48</v>
+      </c>
+      <c r="BL57">
+        <v>1.53</v>
+      </c>
+      <c r="BM57">
+        <v>3.42</v>
+      </c>
+      <c r="BN57">
+        <v>1.25</v>
+      </c>
+      <c r="BO57">
+        <v>5.05</v>
+      </c>
+      <c r="BP57">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7321453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58">
+        <v>3.26</v>
+      </c>
+      <c r="R58">
+        <v>1.91</v>
+      </c>
+      <c r="S58">
+        <v>2.93</v>
+      </c>
+      <c r="T58">
+        <v>1.46</v>
+      </c>
+      <c r="U58">
+        <v>2.84</v>
+      </c>
+      <c r="V58">
+        <v>3.26</v>
+      </c>
+      <c r="W58">
+        <v>1.37</v>
+      </c>
+      <c r="X58">
+        <v>8.1</v>
+      </c>
+      <c r="Y58">
+        <v>1.06</v>
+      </c>
+      <c r="Z58">
+        <v>2.75</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>2.6</v>
+      </c>
+      <c r="AC58">
+        <v>1.08</v>
+      </c>
+      <c r="AD58">
+        <v>7.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.38</v>
+      </c>
+      <c r="AF58">
+        <v>2.9</v>
+      </c>
+      <c r="AG58">
+        <v>2.03</v>
+      </c>
+      <c r="AH58">
+        <v>1.71</v>
+      </c>
+      <c r="AI58">
+        <v>1.87</v>
+      </c>
+      <c r="AJ58">
+        <v>1.87</v>
+      </c>
+      <c r="AK58">
+        <v>1.47</v>
+      </c>
+      <c r="AL58">
+        <v>1.29</v>
+      </c>
+      <c r="AM58">
+        <v>1.36</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>0.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.64</v>
+      </c>
+      <c r="AS58">
+        <v>1.64</v>
+      </c>
+      <c r="AT58">
+        <v>3.28</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>1.83</v>
+      </c>
+      <c r="BE58">
+        <v>8.6</v>
+      </c>
+      <c r="BF58">
+        <v>2.32</v>
+      </c>
+      <c r="BG58">
+        <v>1.32</v>
+      </c>
+      <c r="BH58">
+        <v>2.98</v>
+      </c>
+      <c r="BI58">
+        <v>1.65</v>
+      </c>
+      <c r="BJ58">
+        <v>2.21</v>
+      </c>
+      <c r="BK58">
+        <v>2.04</v>
+      </c>
+      <c r="BL58">
+        <v>1.76</v>
+      </c>
+      <c r="BM58">
+        <v>2.69</v>
+      </c>
+      <c r="BN58">
+        <v>1.41</v>
+      </c>
+      <c r="BO58">
+        <v>3.65</v>
+      </c>
+      <c r="BP58">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7321454</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>123</v>
+      </c>
+      <c r="P59" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59">
+        <v>3.35</v>
+      </c>
+      <c r="R59">
+        <v>1.97</v>
+      </c>
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59">
+        <v>1.49</v>
+      </c>
+      <c r="U59">
+        <v>2.52</v>
+      </c>
+      <c r="V59">
+        <v>3.22</v>
+      </c>
+      <c r="W59">
+        <v>1.32</v>
+      </c>
+      <c r="X59">
+        <v>8.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.62</v>
+      </c>
+      <c r="AA59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>2.75</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>7.2</v>
+      </c>
+      <c r="AE59">
+        <v>1.37</v>
+      </c>
+      <c r="AF59">
+        <v>2.76</v>
+      </c>
+      <c r="AG59">
+        <v>2.18</v>
+      </c>
+      <c r="AH59">
+        <v>1.61</v>
+      </c>
+      <c r="AI59">
+        <v>1.91</v>
+      </c>
+      <c r="AJ59">
+        <v>1.92</v>
+      </c>
+      <c r="AK59">
+        <v>1.46</v>
+      </c>
+      <c r="AL59">
+        <v>1.36</v>
+      </c>
+      <c r="AM59">
+        <v>1.47</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1.2</v>
+      </c>
+      <c r="AQ59">
+        <v>0.75</v>
+      </c>
+      <c r="AR59">
+        <v>1.43</v>
+      </c>
+      <c r="AS59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT59">
+        <v>2.37</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>8</v>
+      </c>
+      <c r="AW59">
+        <v>12</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>2.07</v>
+      </c>
+      <c r="BE59">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF59">
+        <v>2.02</v>
+      </c>
+      <c r="BG59">
+        <v>1.31</v>
+      </c>
+      <c r="BH59">
+        <v>3.04</v>
+      </c>
+      <c r="BI59">
+        <v>1.67</v>
+      </c>
+      <c r="BJ59">
+        <v>2.19</v>
+      </c>
+      <c r="BK59">
+        <v>2.05</v>
+      </c>
+      <c r="BL59">
+        <v>1.76</v>
+      </c>
+      <c r="BM59">
+        <v>2.65</v>
+      </c>
+      <c r="BN59">
+        <v>1.42</v>
+      </c>
+      <c r="BO59">
+        <v>3.64</v>
+      </c>
+      <c r="BP59">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7321452</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>124</v>
+      </c>
+      <c r="P60" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60">
+        <v>4.2</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
+        <v>1.44</v>
+      </c>
+      <c r="U60">
+        <v>2.62</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>3.25</v>
+      </c>
+      <c r="AA60">
+        <v>3.5</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.33</v>
+      </c>
+      <c r="AF60">
+        <v>3.25</v>
+      </c>
+      <c r="AG60">
+        <v>1.9</v>
+      </c>
+      <c r="AH60">
+        <v>1.8</v>
+      </c>
+      <c r="AI60">
+        <v>1.8</v>
+      </c>
+      <c r="AJ60">
+        <v>1.91</v>
+      </c>
+      <c r="AK60">
+        <v>1.77</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.25</v>
+      </c>
+      <c r="AN60">
+        <v>0.75</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>0.6</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.47</v>
+      </c>
+      <c r="AS60">
+        <v>1.52</v>
+      </c>
+      <c r="AT60">
+        <v>2.99</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>2.81</v>
+      </c>
+      <c r="BE60">
+        <v>7.4</v>
+      </c>
+      <c r="BF60">
+        <v>1.67</v>
+      </c>
+      <c r="BG60">
+        <v>1.51</v>
+      </c>
+      <c r="BH60">
+        <v>2.46</v>
+      </c>
+      <c r="BI60">
+        <v>1.88</v>
+      </c>
+      <c r="BJ60">
+        <v>1.86</v>
+      </c>
+      <c r="BK60">
+        <v>2.42</v>
+      </c>
+      <c r="BL60">
+        <v>1.52</v>
+      </c>
+      <c r="BM60">
+        <v>3.2</v>
+      </c>
+      <c r="BN60">
+        <v>1.31</v>
+      </c>
+      <c r="BO60">
+        <v>4.6</v>
+      </c>
+      <c r="BP60">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['39', '49', '75']</t>
   </si>
   <si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['44', '82']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1329,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1738,7 +1741,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1944,7 +1947,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2150,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2356,7 +2359,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2437,7 +2440,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2562,7 +2565,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2768,7 +2771,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2849,7 +2852,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2974,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3258,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3386,7 +3389,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3592,7 +3595,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3798,7 +3801,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4082,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4288,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -4497,7 +4500,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4909,7 +4912,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -6142,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6351,7 +6354,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6760,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -6969,7 +6972,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -8820,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>2.4</v>
@@ -9566,7 +9569,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10056,7 +10059,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.83</v>
@@ -10262,10 +10265,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11498,7 +11501,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12737,7 +12740,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13149,7 +13152,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13225,6 +13228,418 @@
       </c>
       <c r="BP60">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7321456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45416.10416666666</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q61">
+        <v>3.6</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>2.88</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>2.75</v>
+      </c>
+      <c r="AA61">
+        <v>3.2</v>
+      </c>
+      <c r="AB61">
+        <v>2.25</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.25</v>
+      </c>
+      <c r="AF61">
+        <v>3.6</v>
+      </c>
+      <c r="AG61">
+        <v>1.8</v>
+      </c>
+      <c r="AH61">
+        <v>1.91</v>
+      </c>
+      <c r="AI61">
+        <v>1.62</v>
+      </c>
+      <c r="AJ61">
+        <v>2.2</v>
+      </c>
+      <c r="AK61">
+        <v>1.62</v>
+      </c>
+      <c r="AL61">
+        <v>1.33</v>
+      </c>
+      <c r="AM61">
+        <v>1.38</v>
+      </c>
+      <c r="AN61">
+        <v>1.4</v>
+      </c>
+      <c r="AO61">
+        <v>1.75</v>
+      </c>
+      <c r="AP61">
+        <v>1.17</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>1.48</v>
+      </c>
+      <c r="AS61">
+        <v>1.53</v>
+      </c>
+      <c r="AT61">
+        <v>3.01</v>
+      </c>
+      <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>9</v>
+      </c>
+      <c r="BD61">
+        <v>2.41</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>1.81</v>
+      </c>
+      <c r="BG61">
+        <v>1.44</v>
+      </c>
+      <c r="BH61">
+        <v>2.58</v>
+      </c>
+      <c r="BI61">
+        <v>1.8</v>
+      </c>
+      <c r="BJ61">
+        <v>1.95</v>
+      </c>
+      <c r="BK61">
+        <v>2.33</v>
+      </c>
+      <c r="BL61">
+        <v>1.53</v>
+      </c>
+      <c r="BM61">
+        <v>3.14</v>
+      </c>
+      <c r="BN61">
+        <v>1.29</v>
+      </c>
+      <c r="BO61">
+        <v>4.55</v>
+      </c>
+      <c r="BP61">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7321457</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45416.1875</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>125</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62">
+        <v>3.33</v>
+      </c>
+      <c r="R62">
+        <v>2.15</v>
+      </c>
+      <c r="S62">
+        <v>3.65</v>
+      </c>
+      <c r="T62">
+        <v>1.47</v>
+      </c>
+      <c r="U62">
+        <v>2.79</v>
+      </c>
+      <c r="V62">
+        <v>3.3</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>8.75</v>
+      </c>
+      <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>2.6</v>
+      </c>
+      <c r="AA62">
+        <v>2.9</v>
+      </c>
+      <c r="AB62">
+        <v>2.6</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>9.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.35</v>
+      </c>
+      <c r="AF62">
+        <v>3</v>
+      </c>
+      <c r="AG62">
+        <v>2.05</v>
+      </c>
+      <c r="AH62">
+        <v>1.7</v>
+      </c>
+      <c r="AI62">
+        <v>1.8</v>
+      </c>
+      <c r="AJ62">
+        <v>1.9</v>
+      </c>
+      <c r="AK62">
+        <v>1.4</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>1.48</v>
+      </c>
+      <c r="AN62">
+        <v>1.8</v>
+      </c>
+      <c r="AO62">
+        <v>0.8</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>0.67</v>
+      </c>
+      <c r="AR62">
+        <v>1.62</v>
+      </c>
+      <c r="AS62">
+        <v>1.63</v>
+      </c>
+      <c r="AT62">
+        <v>3.25</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>13</v>
+      </c>
+      <c r="AX62">
+        <v>5</v>
+      </c>
+      <c r="AY62">
+        <v>16</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.88</v>
+      </c>
+      <c r="BE62">
+        <v>8.4</v>
+      </c>
+      <c r="BF62">
+        <v>2.3</v>
+      </c>
+      <c r="BG62">
+        <v>1.46</v>
+      </c>
+      <c r="BH62">
+        <v>2.52</v>
+      </c>
+      <c r="BI62">
+        <v>1.85</v>
+      </c>
+      <c r="BJ62">
+        <v>1.89</v>
+      </c>
+      <c r="BK62">
+        <v>2.41</v>
+      </c>
+      <c r="BL62">
+        <v>1.5</v>
+      </c>
+      <c r="BM62">
+        <v>3.28</v>
+      </c>
+      <c r="BN62">
+        <v>1.27</v>
+      </c>
+      <c r="BO62">
+        <v>4.75</v>
+      </c>
+      <c r="BP62">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,12 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['6', '57']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -503,6 +509,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['78', '86']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,7 +1341,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1741,7 +1753,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1947,7 +1959,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2153,7 +2165,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2359,7 +2371,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2437,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2565,7 +2577,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2771,7 +2783,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2849,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2977,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3264,7 +3276,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3389,7 +3401,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3470,7 +3482,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3595,7 +3607,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3676,7 +3688,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4497,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4625,7 +4637,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4706,7 +4718,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4831,7 +4843,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5243,7 +5255,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5321,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22">
         <v>1.83</v>
@@ -5449,7 +5461,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5861,7 +5873,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6067,7 +6079,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6479,7 +6491,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6560,7 +6572,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6685,7 +6697,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7509,7 +7521,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7715,7 +7727,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7793,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -7921,7 +7933,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8002,7 +8014,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8333,7 +8345,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8539,7 +8551,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8745,7 +8757,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9032,7 +9044,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9157,7 +9169,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9441,7 +9453,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>0.4</v>
@@ -9569,7 +9581,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9775,7 +9787,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9853,7 +9865,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10187,7 +10199,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10393,7 +10405,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10474,7 +10486,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10805,7 +10817,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11011,7 +11023,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11295,10 +11307,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11504,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11629,7 +11641,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11835,7 +11847,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12247,7 +12259,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12325,7 +12337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12453,7 +12465,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12865,7 +12877,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13071,7 +13083,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13277,7 +13289,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13640,6 +13652,418 @@
       </c>
       <c r="BP62">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7321458</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45417.08333333334</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q63">
+        <v>3.25</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>3.4</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>2.68</v>
+      </c>
+      <c r="AC63">
+        <v>1.07</v>
+      </c>
+      <c r="AD63">
+        <v>6.8</v>
+      </c>
+      <c r="AE63">
+        <v>1.32</v>
+      </c>
+      <c r="AF63">
+        <v>3.1</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>1.72</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.35</v>
+      </c>
+      <c r="AL63">
+        <v>1.35</v>
+      </c>
+      <c r="AM63">
+        <v>1.47</v>
+      </c>
+      <c r="AN63">
+        <v>1.4</v>
+      </c>
+      <c r="AO63">
+        <v>0.8</v>
+      </c>
+      <c r="AP63">
+        <v>1.17</v>
+      </c>
+      <c r="AQ63">
+        <v>1.17</v>
+      </c>
+      <c r="AR63">
+        <v>1.93</v>
+      </c>
+      <c r="AS63">
+        <v>1.3</v>
+      </c>
+      <c r="AT63">
+        <v>3.23</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>8</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>13</v>
+      </c>
+      <c r="AZ63">
+        <v>7</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>5</v>
+      </c>
+      <c r="BD63">
+        <v>2.2</v>
+      </c>
+      <c r="BE63">
+        <v>7.5</v>
+      </c>
+      <c r="BF63">
+        <v>1.91</v>
+      </c>
+      <c r="BG63">
+        <v>1.53</v>
+      </c>
+      <c r="BH63">
+        <v>2.48</v>
+      </c>
+      <c r="BI63">
+        <v>1.92</v>
+      </c>
+      <c r="BJ63">
+        <v>1.88</v>
+      </c>
+      <c r="BK63">
+        <v>2.38</v>
+      </c>
+      <c r="BL63">
+        <v>1.57</v>
+      </c>
+      <c r="BM63">
+        <v>3.2</v>
+      </c>
+      <c r="BN63">
+        <v>1.28</v>
+      </c>
+      <c r="BO63">
+        <v>4.7</v>
+      </c>
+      <c r="BP63">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7321459</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45417.1875</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q64">
+        <v>3.2</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>3.6</v>
+      </c>
+      <c r="T64">
+        <v>1.5</v>
+      </c>
+      <c r="U64">
+        <v>2.5</v>
+      </c>
+      <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.35</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
+        <v>2.97</v>
+      </c>
+      <c r="AC64">
+        <v>1.07</v>
+      </c>
+      <c r="AD64">
+        <v>8.75</v>
+      </c>
+      <c r="AE64">
+        <v>1.38</v>
+      </c>
+      <c r="AF64">
+        <v>2.85</v>
+      </c>
+      <c r="AG64">
+        <v>2.11</v>
+      </c>
+      <c r="AH64">
+        <v>1.65</v>
+      </c>
+      <c r="AI64">
+        <v>1.83</v>
+      </c>
+      <c r="AJ64">
+        <v>1.83</v>
+      </c>
+      <c r="AK64">
+        <v>1.38</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.5</v>
+      </c>
+      <c r="AN64">
+        <v>2.25</v>
+      </c>
+      <c r="AO64">
+        <v>1.2</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>1.17</v>
+      </c>
+      <c r="AR64">
+        <v>1.38</v>
+      </c>
+      <c r="AS64">
+        <v>1.77</v>
+      </c>
+      <c r="AT64">
+        <v>3.15</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>13</v>
+      </c>
+      <c r="AY64">
+        <v>14</v>
+      </c>
+      <c r="AZ64">
+        <v>16</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>1.95</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.1</v>
+      </c>
+      <c r="BG64">
+        <v>1.36</v>
+      </c>
+      <c r="BH64">
+        <v>2.88</v>
+      </c>
+      <c r="BI64">
+        <v>1.72</v>
+      </c>
+      <c r="BJ64">
+        <v>2.12</v>
+      </c>
+      <c r="BK64">
+        <v>2.15</v>
+      </c>
+      <c r="BL64">
+        <v>1.7</v>
+      </c>
+      <c r="BM64">
+        <v>2.79</v>
+      </c>
+      <c r="BN64">
+        <v>1.36</v>
+      </c>
+      <c r="BO64">
+        <v>3.98</v>
+      </c>
+      <c r="BP64">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['6', '57']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['52', '87']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -515,6 +521,9 @@
   </si>
   <si>
     <t>['78', '86']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1350,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1422,7 +1431,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1625,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1753,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1959,7 +1968,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2165,7 +2174,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2371,7 +2380,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2577,7 +2586,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2658,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2783,7 +2792,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2989,7 +2998,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3067,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3401,7 +3410,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3479,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3607,7 +3616,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4637,7 +4646,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4843,7 +4852,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5130,7 +5139,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5255,7 +5264,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5461,7 +5470,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5539,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>2.4</v>
@@ -5873,7 +5882,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5951,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6079,7 +6088,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6491,7 +6500,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6569,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6697,7 +6706,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6981,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7190,7 +7199,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7521,7 +7530,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7727,7 +7736,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7933,7 +7942,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8345,7 +8354,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8551,7 +8560,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8757,7 +8766,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9169,7 +9178,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9247,7 +9256,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -9456,7 +9465,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9581,7 +9590,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9662,7 +9671,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -9787,7 +9796,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10199,7 +10208,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10405,7 +10414,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10692,7 +10701,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10817,7 +10826,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11023,7 +11032,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11101,7 +11110,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11641,7 +11650,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11722,7 +11731,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -11847,7 +11856,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12259,7 +12268,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12465,7 +12474,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12877,7 +12886,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -12955,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>0.75</v>
@@ -13083,7 +13092,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13289,7 +13298,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13701,7 +13710,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13907,7 +13916,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14064,6 +14073,418 @@
       </c>
       <c r="BP64">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7321460</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q65">
+        <v>3.14</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>3.94</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.49</v>
+      </c>
+      <c r="V65">
+        <v>3.16</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>8.4</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.4</v>
+      </c>
+      <c r="AA65">
+        <v>2.88</v>
+      </c>
+      <c r="AB65">
+        <v>2.88</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8</v>
+      </c>
+      <c r="AE65">
+        <v>1.36</v>
+      </c>
+      <c r="AF65">
+        <v>2.9</v>
+      </c>
+      <c r="AG65">
+        <v>2.2</v>
+      </c>
+      <c r="AH65">
+        <v>1.63</v>
+      </c>
+      <c r="AI65">
+        <v>1.87</v>
+      </c>
+      <c r="AJ65">
+        <v>1.89</v>
+      </c>
+      <c r="AK65">
+        <v>1.14</v>
+      </c>
+      <c r="AL65">
+        <v>1.38</v>
+      </c>
+      <c r="AM65">
+        <v>1.68</v>
+      </c>
+      <c r="AN65">
+        <v>1.2</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.5</v>
+      </c>
+      <c r="AS65">
+        <v>1.51</v>
+      </c>
+      <c r="AT65">
+        <v>3.01</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>15</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>5</v>
+      </c>
+      <c r="BD65">
+        <v>1.82</v>
+      </c>
+      <c r="BE65">
+        <v>7.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.4</v>
+      </c>
+      <c r="BG65">
+        <v>1.41</v>
+      </c>
+      <c r="BH65">
+        <v>2.69</v>
+      </c>
+      <c r="BI65">
+        <v>1.98</v>
+      </c>
+      <c r="BJ65">
+        <v>1.82</v>
+      </c>
+      <c r="BK65">
+        <v>2.09</v>
+      </c>
+      <c r="BL65">
+        <v>1.74</v>
+      </c>
+      <c r="BM65">
+        <v>2.98</v>
+      </c>
+      <c r="BN65">
+        <v>1.32</v>
+      </c>
+      <c r="BO65">
+        <v>4.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7321461</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45418.1875</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.18</v>
+      </c>
+      <c r="S66">
+        <v>4.5</v>
+      </c>
+      <c r="T66">
+        <v>1.45</v>
+      </c>
+      <c r="U66">
+        <v>2.82</v>
+      </c>
+      <c r="V66">
+        <v>3.25</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>8.75</v>
+      </c>
+      <c r="Y66">
+        <v>1.07</v>
+      </c>
+      <c r="Z66">
+        <v>1.85</v>
+      </c>
+      <c r="AA66">
+        <v>3.25</v>
+      </c>
+      <c r="AB66">
+        <v>3.8</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>9.75</v>
+      </c>
+      <c r="AE66">
+        <v>1.35</v>
+      </c>
+      <c r="AF66">
+        <v>3</v>
+      </c>
+      <c r="AG66">
+        <v>2.08</v>
+      </c>
+      <c r="AH66">
+        <v>1.7</v>
+      </c>
+      <c r="AI66">
+        <v>1.88</v>
+      </c>
+      <c r="AJ66">
+        <v>1.82</v>
+      </c>
+      <c r="AK66">
+        <v>1.27</v>
+      </c>
+      <c r="AL66">
+        <v>1.27</v>
+      </c>
+      <c r="AM66">
+        <v>1.72</v>
+      </c>
+      <c r="AN66">
+        <v>1.2</v>
+      </c>
+      <c r="AO66">
+        <v>0.4</v>
+      </c>
+      <c r="AP66">
+        <v>1.5</v>
+      </c>
+      <c r="AQ66">
+        <v>0.33</v>
+      </c>
+      <c r="AR66">
+        <v>1.85</v>
+      </c>
+      <c r="AS66">
+        <v>1.46</v>
+      </c>
+      <c r="AT66">
+        <v>3.31</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>1</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>6</v>
+      </c>
+      <c r="AZ66">
+        <v>7</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>2.77</v>
+      </c>
+      <c r="BG66">
+        <v>1.41</v>
+      </c>
+      <c r="BH66">
+        <v>2.69</v>
+      </c>
+      <c r="BI66">
+        <v>1.85</v>
+      </c>
+      <c r="BJ66">
+        <v>1.95</v>
+      </c>
+      <c r="BK66">
+        <v>2.25</v>
+      </c>
+      <c r="BL66">
+        <v>1.57</v>
+      </c>
+      <c r="BM66">
+        <v>3.04</v>
+      </c>
+      <c r="BN66">
+        <v>1.31</v>
+      </c>
+      <c r="BO66">
+        <v>4.33</v>
+      </c>
+      <c r="BP66">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['52', '87']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -524,6 +527,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['49', '63']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,7 +1356,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1637,7 +1643,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1762,7 +1768,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1840,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -1968,7 +1974,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2174,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2380,7 +2386,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2586,7 +2592,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2792,7 +2798,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2998,7 +3004,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3410,7 +3416,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3616,7 +3622,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4646,7 +4652,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4852,7 +4858,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5136,7 +5142,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5264,7 +5270,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5470,7 +5476,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5757,7 +5763,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5882,7 +5888,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6088,7 +6094,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6500,7 +6506,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6706,7 +6712,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7530,7 +7536,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7608,7 +7614,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -7736,7 +7742,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7942,7 +7948,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8229,7 +8235,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8354,7 +8360,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8560,7 +8566,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8766,7 +8772,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9178,7 +9184,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9590,7 +9596,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9668,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>0.83</v>
@@ -9796,7 +9802,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10208,7 +10214,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10414,7 +10420,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10826,7 +10832,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -10907,7 +10913,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11032,7 +11038,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11650,7 +11656,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11856,7 +11862,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12268,7 +12274,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12349,7 +12355,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12474,7 +12480,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12758,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -12886,7 +12892,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13092,7 +13098,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13298,7 +13304,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13710,7 +13716,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13916,7 +13922,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14328,7 +14334,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14485,6 +14491,212 @@
       </c>
       <c r="BP66">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7321462</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45423.1875</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>130</v>
+      </c>
+      <c r="P67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q67">
+        <v>2.95</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>3.6</v>
+      </c>
+      <c r="T67">
+        <v>1.45</v>
+      </c>
+      <c r="U67">
+        <v>2.55</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>8.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.2</v>
+      </c>
+      <c r="AA67">
+        <v>3.13</v>
+      </c>
+      <c r="AB67">
+        <v>2.9</v>
+      </c>
+      <c r="AC67">
+        <v>1.07</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.38</v>
+      </c>
+      <c r="AF67">
+        <v>3</v>
+      </c>
+      <c r="AG67">
+        <v>2.1</v>
+      </c>
+      <c r="AH67">
+        <v>1.65</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.36</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
+        <v>1.57</v>
+      </c>
+      <c r="AN67">
+        <v>1.4</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.17</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.64</v>
+      </c>
+      <c r="AS67">
+        <v>1.19</v>
+      </c>
+      <c r="AT67">
+        <v>2.83</v>
+      </c>
+      <c r="AU67">
+        <v>-1</v>
+      </c>
+      <c r="AV67">
+        <v>-1</v>
+      </c>
+      <c r="AW67">
+        <v>-1</v>
+      </c>
+      <c r="AX67">
+        <v>-1</v>
+      </c>
+      <c r="AY67">
+        <v>-1</v>
+      </c>
+      <c r="AZ67">
+        <v>-1</v>
+      </c>
+      <c r="BA67">
+        <v>-1</v>
+      </c>
+      <c r="BB67">
+        <v>-1</v>
+      </c>
+      <c r="BC67">
+        <v>-1</v>
+      </c>
+      <c r="BD67">
+        <v>1.75</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.53</v>
+      </c>
+      <c r="BG67">
+        <v>1.39</v>
+      </c>
+      <c r="BH67">
+        <v>2.76</v>
+      </c>
+      <c r="BI67">
+        <v>1.82</v>
+      </c>
+      <c r="BJ67">
+        <v>1.98</v>
+      </c>
+      <c r="BK67">
+        <v>2.16</v>
+      </c>
+      <c r="BL67">
+        <v>1.69</v>
+      </c>
+      <c r="BM67">
+        <v>2.93</v>
+      </c>
+      <c r="BN67">
+        <v>1.33</v>
+      </c>
+      <c r="BO67">
+        <v>4.2</v>
+      </c>
+      <c r="BP67">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['7', '26', '87']</t>
+  </si>
+  <si>
+    <t>['41', '63', '72']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -530,6 +536,12 @@
   </si>
   <si>
     <t>['49', '63']</t>
+  </si>
+  <si>
+    <t>['6', '10']</t>
+  </si>
+  <si>
+    <t>['2', '22', '90+13']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1368,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1437,7 +1449,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1768,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1974,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2052,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2180,7 +2192,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2258,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2386,7 +2398,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2592,7 +2604,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2798,7 +2810,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3004,7 +3016,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3085,7 +3097,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3416,7 +3428,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3622,7 +3634,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3906,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4321,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4652,7 +4664,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4858,7 +4870,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5145,7 +5157,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5270,7 +5282,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5476,7 +5488,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5760,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5888,7 +5900,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6094,7 +6106,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6506,7 +6518,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6712,7 +6724,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7202,7 +7214,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.83</v>
@@ -7536,7 +7548,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7742,7 +7754,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7823,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -7948,7 +7960,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8232,7 +8244,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8360,7 +8372,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8566,7 +8578,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8647,7 +8659,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8772,7 +8784,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9184,7 +9196,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9471,7 +9483,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9596,7 +9608,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9802,7 +9814,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10214,7 +10226,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10420,7 +10432,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10498,7 +10510,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -10704,10 +10716,10 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10832,7 +10844,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11038,7 +11050,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11656,7 +11668,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11862,7 +11874,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12274,7 +12286,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12480,7 +12492,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12558,7 +12570,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>2.4</v>
@@ -12892,7 +12904,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -12973,7 +12985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13098,7 +13110,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13176,7 +13188,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13304,7 +13316,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13716,7 +13728,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13922,7 +13934,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14334,7 +14346,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14415,7 +14427,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14540,7 +14552,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14633,31 +14645,31 @@
         <v>2.83</v>
       </c>
       <c r="AU67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX67">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY67">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ67">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC67">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD67">
         <v>1.75</v>
@@ -14696,6 +14708,418 @@
         <v>4.2</v>
       </c>
       <c r="BP67">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7321463</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45423.29166666666</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>131</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68">
+        <v>3.92</v>
+      </c>
+      <c r="R68">
+        <v>2.04</v>
+      </c>
+      <c r="S68">
+        <v>3.33</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.45</v>
+      </c>
+      <c r="V68">
+        <v>3.2</v>
+      </c>
+      <c r="W68">
+        <v>1.3</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>2.75</v>
+      </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <v>2.38</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>8.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.4</v>
+      </c>
+      <c r="AF68">
+        <v>2.75</v>
+      </c>
+      <c r="AG68">
+        <v>2.2</v>
+      </c>
+      <c r="AH68">
+        <v>1.6</v>
+      </c>
+      <c r="AI68">
+        <v>1.9</v>
+      </c>
+      <c r="AJ68">
+        <v>1.78</v>
+      </c>
+      <c r="AK68">
+        <v>1.5</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.4</v>
+      </c>
+      <c r="AN68">
+        <v>0.6</v>
+      </c>
+      <c r="AO68">
+        <v>0.75</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>0.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.49</v>
+      </c>
+      <c r="AS68">
+        <v>1.11</v>
+      </c>
+      <c r="AT68">
+        <v>2.6</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>8</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>7</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>2.2</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.91</v>
+      </c>
+      <c r="BG68">
+        <v>1.51</v>
+      </c>
+      <c r="BH68">
+        <v>2.51</v>
+      </c>
+      <c r="BI68">
+        <v>1.88</v>
+      </c>
+      <c r="BJ68">
+        <v>1.92</v>
+      </c>
+      <c r="BK68">
+        <v>2.32</v>
+      </c>
+      <c r="BL68">
+        <v>1.59</v>
+      </c>
+      <c r="BM68">
+        <v>3.2</v>
+      </c>
+      <c r="BN68">
+        <v>1.28</v>
+      </c>
+      <c r="BO68">
+        <v>4.65</v>
+      </c>
+      <c r="BP68">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7321464</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45423.29166666666</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69" t="s">
+        <v>132</v>
+      </c>
+      <c r="P69" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q69">
+        <v>2.89</v>
+      </c>
+      <c r="R69">
+        <v>2.08</v>
+      </c>
+      <c r="S69">
+        <v>4.57</v>
+      </c>
+      <c r="T69">
+        <v>1.52</v>
+      </c>
+      <c r="U69">
+        <v>2.61</v>
+      </c>
+      <c r="V69">
+        <v>3.42</v>
+      </c>
+      <c r="W69">
+        <v>1.32</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.05</v>
+      </c>
+      <c r="Z69">
+        <v>2.05</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>3.3</v>
+      </c>
+      <c r="AC69">
+        <v>1.08</v>
+      </c>
+      <c r="AD69">
+        <v>7.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.42</v>
+      </c>
+      <c r="AF69">
+        <v>2.8</v>
+      </c>
+      <c r="AG69">
+        <v>2.25</v>
+      </c>
+      <c r="AH69">
+        <v>1.57</v>
+      </c>
+      <c r="AI69">
+        <v>1.93</v>
+      </c>
+      <c r="AJ69">
+        <v>1.75</v>
+      </c>
+      <c r="AK69">
+        <v>1.28</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.7</v>
+      </c>
+      <c r="AN69">
+        <v>1.6</v>
+      </c>
+      <c r="AO69">
+        <v>0.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>0.43</v>
+      </c>
+      <c r="AR69">
+        <v>2.07</v>
+      </c>
+      <c r="AS69">
+        <v>1.43</v>
+      </c>
+      <c r="AT69">
+        <v>3.5</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.64</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.78</v>
+      </c>
+      <c r="BG69">
+        <v>1.55</v>
+      </c>
+      <c r="BH69">
+        <v>2.44</v>
+      </c>
+      <c r="BI69">
+        <v>1.98</v>
+      </c>
+      <c r="BJ69">
+        <v>1.82</v>
+      </c>
+      <c r="BK69">
+        <v>2.44</v>
+      </c>
+      <c r="BL69">
+        <v>1.54</v>
+      </c>
+      <c r="BM69">
+        <v>3.3</v>
+      </c>
+      <c r="BN69">
+        <v>1.3</v>
+      </c>
+      <c r="BO69">
+        <v>4.7</v>
+      </c>
+      <c r="BP69">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,15 @@
     <t>['41', '63', '72']</t>
   </si>
   <si>
+    <t>['25', '35']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['3', '52']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -542,6 +551,15 @@
   </si>
   <si>
     <t>['2', '22', '90+13']</t>
+  </si>
+  <si>
+    <t>['57', '81', '84']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['30', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>2.4</v>
@@ -1368,7 +1386,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1446,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.43</v>
@@ -1780,7 +1798,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1861,7 +1879,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1986,7 +2004,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2067,7 +2085,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2192,7 +2210,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2273,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2398,7 +2416,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2604,7 +2622,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2682,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -2810,7 +2828,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3016,7 +3034,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3428,7 +3446,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3634,7 +3652,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3921,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4127,7 +4145,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4330,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
         <v>0.6</v>
@@ -4664,7 +4682,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4742,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -4870,7 +4888,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4948,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5282,7 +5300,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5363,7 +5381,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5488,7 +5506,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5900,7 +5918,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6106,7 +6124,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6184,10 +6202,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6518,7 +6536,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6724,7 +6742,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6805,7 +6823,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7420,10 +7438,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7548,7 +7566,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7629,7 +7647,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7754,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7960,7 +7978,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8038,7 +8056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.17</v>
@@ -8372,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8578,7 +8596,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8656,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -8784,7 +8802,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9068,7 +9086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9196,7 +9214,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9277,7 +9295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9608,7 +9626,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9814,7 +9832,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9895,7 +9913,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10098,10 +10116,10 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10226,7 +10244,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10432,7 +10450,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10844,7 +10862,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11050,7 +11068,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11131,7 +11149,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11540,7 +11558,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
         <v>1.17</v>
@@ -11668,7 +11686,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11746,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -11874,7 +11892,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -11952,10 +11970,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12161,7 +12179,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12286,7 +12304,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12492,7 +12510,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12904,7 +12922,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13110,7 +13128,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13316,7 +13334,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13600,7 +13618,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -13728,7 +13746,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13934,7 +13952,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14346,7 +14364,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14552,7 +14570,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14758,7 +14776,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14964,7 +14982,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15120,6 +15138,624 @@
         <v>4.7</v>
       </c>
       <c r="BP69">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7321465</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q70">
+        <v>2.25</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>4.5</v>
+      </c>
+      <c r="T70">
+        <v>1.33</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.55</v>
+      </c>
+      <c r="W70">
+        <v>1.46</v>
+      </c>
+      <c r="X70">
+        <v>6.2</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>1.7</v>
+      </c>
+      <c r="AA70">
+        <v>3.8</v>
+      </c>
+      <c r="AB70">
+        <v>4.2</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>9.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.22</v>
+      </c>
+      <c r="AF70">
+        <v>4</v>
+      </c>
+      <c r="AG70">
+        <v>1.7</v>
+      </c>
+      <c r="AH70">
+        <v>1.95</v>
+      </c>
+      <c r="AI70">
+        <v>1.7</v>
+      </c>
+      <c r="AJ70">
+        <v>2.1</v>
+      </c>
+      <c r="AK70">
+        <v>1.16</v>
+      </c>
+      <c r="AL70">
+        <v>1.2</v>
+      </c>
+      <c r="AM70">
+        <v>2.05</v>
+      </c>
+      <c r="AN70">
+        <v>1.2</v>
+      </c>
+      <c r="AO70">
+        <v>1.6</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>1.83</v>
+      </c>
+      <c r="AR70">
+        <v>1.5</v>
+      </c>
+      <c r="AS70">
+        <v>1.39</v>
+      </c>
+      <c r="AT70">
+        <v>2.89</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>14</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>9</v>
+      </c>
+      <c r="BC70">
+        <v>12</v>
+      </c>
+      <c r="BD70">
+        <v>1.51</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>3.26</v>
+      </c>
+      <c r="BG70">
+        <v>1.36</v>
+      </c>
+      <c r="BH70">
+        <v>2.79</v>
+      </c>
+      <c r="BI70">
+        <v>1.82</v>
+      </c>
+      <c r="BJ70">
+        <v>1.98</v>
+      </c>
+      <c r="BK70">
+        <v>2.03</v>
+      </c>
+      <c r="BL70">
+        <v>1.79</v>
+      </c>
+      <c r="BM70">
+        <v>2.88</v>
+      </c>
+      <c r="BN70">
+        <v>1.36</v>
+      </c>
+      <c r="BO70">
+        <v>3.98</v>
+      </c>
+      <c r="BP70">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7321467</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45424.1875</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q71">
+        <v>2.38</v>
+      </c>
+      <c r="R71">
+        <v>2.13</v>
+      </c>
+      <c r="S71">
+        <v>4.95</v>
+      </c>
+      <c r="T71">
+        <v>1.42</v>
+      </c>
+      <c r="U71">
+        <v>2.75</v>
+      </c>
+      <c r="V71">
+        <v>2.95</v>
+      </c>
+      <c r="W71">
+        <v>1.37</v>
+      </c>
+      <c r="X71">
+        <v>7.6</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>1.75</v>
+      </c>
+      <c r="AA71">
+        <v>3.4</v>
+      </c>
+      <c r="AB71">
+        <v>4.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>8.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.3</v>
+      </c>
+      <c r="AF71">
+        <v>3.1</v>
+      </c>
+      <c r="AG71">
+        <v>1.95</v>
+      </c>
+      <c r="AH71">
+        <v>1.7</v>
+      </c>
+      <c r="AI71">
+        <v>1.89</v>
+      </c>
+      <c r="AJ71">
+        <v>1.85</v>
+      </c>
+      <c r="AK71">
+        <v>1.21</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>0.8</v>
+      </c>
+      <c r="AP71">
+        <v>1.86</v>
+      </c>
+      <c r="AQ71">
+        <v>0.83</v>
+      </c>
+      <c r="AR71">
+        <v>1.65</v>
+      </c>
+      <c r="AS71">
+        <v>1.56</v>
+      </c>
+      <c r="AT71">
+        <v>3.21</v>
+      </c>
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>9</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>14</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>1.64</v>
+      </c>
+      <c r="BE71">
+        <v>7.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.78</v>
+      </c>
+      <c r="BG71">
+        <v>1.47</v>
+      </c>
+      <c r="BH71">
+        <v>2.62</v>
+      </c>
+      <c r="BI71">
+        <v>1.95</v>
+      </c>
+      <c r="BJ71">
+        <v>1.85</v>
+      </c>
+      <c r="BK71">
+        <v>2.15</v>
+      </c>
+      <c r="BL71">
+        <v>1.69</v>
+      </c>
+      <c r="BM71">
+        <v>3.2</v>
+      </c>
+      <c r="BN71">
+        <v>1.28</v>
+      </c>
+      <c r="BO71">
+        <v>4.6</v>
+      </c>
+      <c r="BP71">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7321466</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45424.1875</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>135</v>
+      </c>
+      <c r="P72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72">
+        <v>2.15</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>2.88</v>
+      </c>
+      <c r="V72">
+        <v>2.65</v>
+      </c>
+      <c r="W72">
+        <v>1.42</v>
+      </c>
+      <c r="X72">
+        <v>6.9</v>
+      </c>
+      <c r="Y72">
+        <v>1.08</v>
+      </c>
+      <c r="Z72">
+        <v>1.65</v>
+      </c>
+      <c r="AA72">
+        <v>3.75</v>
+      </c>
+      <c r="AB72">
+        <v>5.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.28</v>
+      </c>
+      <c r="AF72">
+        <v>3.55</v>
+      </c>
+      <c r="AG72">
+        <v>1.85</v>
+      </c>
+      <c r="AH72">
+        <v>1.93</v>
+      </c>
+      <c r="AI72">
+        <v>1.77</v>
+      </c>
+      <c r="AJ72">
+        <v>1.9</v>
+      </c>
+      <c r="AK72">
+        <v>1.15</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>2.2</v>
+      </c>
+      <c r="AN72">
+        <v>2.6</v>
+      </c>
+      <c r="AO72">
+        <v>1.83</v>
+      </c>
+      <c r="AP72">
+        <v>2.33</v>
+      </c>
+      <c r="AQ72">
+        <v>1.71</v>
+      </c>
+      <c r="AR72">
+        <v>2.15</v>
+      </c>
+      <c r="AS72">
+        <v>1.29</v>
+      </c>
+      <c r="AT72">
+        <v>3.44</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
+        <v>14</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>10</v>
+      </c>
+      <c r="BC72">
+        <v>15</v>
+      </c>
+      <c r="BD72">
+        <v>1.51</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>3.17</v>
+      </c>
+      <c r="BG72">
+        <v>1.4</v>
+      </c>
+      <c r="BH72">
+        <v>2.72</v>
+      </c>
+      <c r="BI72">
+        <v>1.79</v>
+      </c>
+      <c r="BJ72">
+        <v>2.03</v>
+      </c>
+      <c r="BK72">
+        <v>2.26</v>
+      </c>
+      <c r="BL72">
+        <v>1.64</v>
+      </c>
+      <c r="BM72">
+        <v>2.98</v>
+      </c>
+      <c r="BN72">
+        <v>1.32</v>
+      </c>
+      <c r="BO72">
+        <v>4.25</v>
+      </c>
+      <c r="BP72">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['3', '52']</t>
   </si>
   <si>
+    <t>['59', '82']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['30', '90+5']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1392,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1798,7 +1804,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2004,7 +2010,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2210,7 +2216,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2416,7 +2422,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2622,7 +2628,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2828,7 +2834,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2909,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3034,7 +3040,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3446,7 +3452,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3524,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3652,7 +3658,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4682,7 +4688,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4888,7 +4894,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4969,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5300,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5506,7 +5512,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5918,7 +5924,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5996,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
         <v>0.83</v>
@@ -6124,7 +6130,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6411,7 +6417,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6536,7 +6542,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6614,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6742,7 +6748,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7566,7 +7572,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7772,7 +7778,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7978,7 +7984,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8390,7 +8396,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8596,7 +8602,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8802,7 +8808,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9214,7 +9220,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9626,7 +9632,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9832,7 +9838,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10244,7 +10250,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10450,7 +10456,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10862,7 +10868,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11068,7 +11074,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11146,7 +11152,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11686,7 +11692,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11892,7 +11898,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12304,7 +12310,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12510,7 +12516,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12922,7 +12928,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13128,7 +13134,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13209,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13334,7 +13340,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13415,7 +13421,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13746,7 +13752,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13952,7 +13958,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14364,7 +14370,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14442,7 +14448,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>0.43</v>
@@ -14570,7 +14576,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14776,7 +14782,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14982,7 +14988,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15188,7 +15194,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15394,7 +15400,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15600,7 +15606,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15757,6 +15763,212 @@
       </c>
       <c r="BP72">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7321438</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45427.1875</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>136</v>
+      </c>
+      <c r="P73" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q73">
+        <v>3.88</v>
+      </c>
+      <c r="R73">
+        <v>2.18</v>
+      </c>
+      <c r="S73">
+        <v>3.09</v>
+      </c>
+      <c r="T73">
+        <v>1.45</v>
+      </c>
+      <c r="U73">
+        <v>2.86</v>
+      </c>
+      <c r="V73">
+        <v>3.22</v>
+      </c>
+      <c r="W73">
+        <v>1.37</v>
+      </c>
+      <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>3.1</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>2.25</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>8</v>
+      </c>
+      <c r="AE73">
+        <v>1.33</v>
+      </c>
+      <c r="AF73">
+        <v>3</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>1.7</v>
+      </c>
+      <c r="AI73">
+        <v>1.87</v>
+      </c>
+      <c r="AJ73">
+        <v>1.99</v>
+      </c>
+      <c r="AK73">
+        <v>1.61</v>
+      </c>
+      <c r="AL73">
+        <v>1.37</v>
+      </c>
+      <c r="AM73">
+        <v>1.39</v>
+      </c>
+      <c r="AN73">
+        <v>1.5</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>1.71</v>
+      </c>
+      <c r="AQ73">
+        <v>1.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.78</v>
+      </c>
+      <c r="AS73">
+        <v>1.58</v>
+      </c>
+      <c r="AT73">
+        <v>3.36</v>
+      </c>
+      <c r="AU73">
+        <v>7</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>3</v>
+      </c>
+      <c r="BD73">
+        <v>2.2</v>
+      </c>
+      <c r="BE73">
+        <v>7.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.91</v>
+      </c>
+      <c r="BG73">
+        <v>1.39</v>
+      </c>
+      <c r="BH73">
+        <v>2.77</v>
+      </c>
+      <c r="BI73">
+        <v>1.73</v>
+      </c>
+      <c r="BJ73">
+        <v>1.99</v>
+      </c>
+      <c r="BK73">
+        <v>2.23</v>
+      </c>
+      <c r="BL73">
+        <v>1.58</v>
+      </c>
+      <c r="BM73">
+        <v>3.05</v>
+      </c>
+      <c r="BN73">
+        <v>1.33</v>
+      </c>
+      <c r="BO73">
+        <v>4.5</v>
+      </c>
+      <c r="BP73">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3327,7 +3330,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1.17</v>
@@ -4769,7 +4772,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -6414,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -6623,7 +6626,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -8474,7 +8477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2.4</v>
@@ -10537,7 +10540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10946,7 +10949,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11567,7 +11570,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -12182,7 +12185,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
         <v>1.71</v>
@@ -14039,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -15969,6 +15972,212 @@
       </c>
       <c r="BP73">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7321468</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45430.1875</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q74">
+        <v>3.5</v>
+      </c>
+      <c r="R74">
+        <v>1.93</v>
+      </c>
+      <c r="S74">
+        <v>3.1</v>
+      </c>
+      <c r="T74">
+        <v>1.42</v>
+      </c>
+      <c r="U74">
+        <v>2.65</v>
+      </c>
+      <c r="V74">
+        <v>3.1</v>
+      </c>
+      <c r="W74">
+        <v>1.32</v>
+      </c>
+      <c r="X74">
+        <v>7.2</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.75</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>2.29</v>
+      </c>
+      <c r="AC74">
+        <v>1.07</v>
+      </c>
+      <c r="AD74">
+        <v>6.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.32</v>
+      </c>
+      <c r="AF74">
+        <v>3.1</v>
+      </c>
+      <c r="AG74">
+        <v>2.04</v>
+      </c>
+      <c r="AH74">
+        <v>1.69</v>
+      </c>
+      <c r="AI74">
+        <v>1.83</v>
+      </c>
+      <c r="AJ74">
+        <v>1.85</v>
+      </c>
+      <c r="AK74">
+        <v>1.5</v>
+      </c>
+      <c r="AL74">
+        <v>1.27</v>
+      </c>
+      <c r="AM74">
+        <v>1.4</v>
+      </c>
+      <c r="AN74">
+        <v>1.6</v>
+      </c>
+      <c r="AO74">
+        <v>1.17</v>
+      </c>
+      <c r="AP74">
+        <v>1.33</v>
+      </c>
+      <c r="AQ74">
+        <v>1.43</v>
+      </c>
+      <c r="AR74">
+        <v>1.19</v>
+      </c>
+      <c r="AS74">
+        <v>1.77</v>
+      </c>
+      <c r="AT74">
+        <v>2.96</v>
+      </c>
+      <c r="AU74">
+        <v>-1</v>
+      </c>
+      <c r="AV74">
+        <v>-1</v>
+      </c>
+      <c r="AW74">
+        <v>-1</v>
+      </c>
+      <c r="AX74">
+        <v>-1</v>
+      </c>
+      <c r="AY74">
+        <v>-1</v>
+      </c>
+      <c r="AZ74">
+        <v>-1</v>
+      </c>
+      <c r="BA74">
+        <v>-1</v>
+      </c>
+      <c r="BB74">
+        <v>-1</v>
+      </c>
+      <c r="BC74">
+        <v>-1</v>
+      </c>
+      <c r="BD74">
+        <v>2.25</v>
+      </c>
+      <c r="BE74">
+        <v>7.5</v>
+      </c>
+      <c r="BF74">
+        <v>1.91</v>
+      </c>
+      <c r="BG74">
+        <v>1.39</v>
+      </c>
+      <c r="BH74">
+        <v>2.77</v>
+      </c>
+      <c r="BI74">
+        <v>1.98</v>
+      </c>
+      <c r="BJ74">
+        <v>1.82</v>
+      </c>
+      <c r="BK74">
+        <v>2.27</v>
+      </c>
+      <c r="BL74">
+        <v>1.56</v>
+      </c>
+      <c r="BM74">
+        <v>3.1</v>
+      </c>
+      <c r="BN74">
+        <v>1.32</v>
+      </c>
+      <c r="BO74">
+        <v>4.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -930,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2094,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -4154,7 +4154,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -7656,7 +7656,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -9922,7 +9922,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.17</v>
@@ -11982,7 +11982,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -14039,7 +14039,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -15484,7 +15484,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -16114,31 +16114,31 @@
         <v>2.96</v>
       </c>
       <c r="AU74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW74">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY74">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB74">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD74">
         <v>2.25</v>
@@ -16178,6 +16178,212 @@
       </c>
       <c r="BP74">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7321470</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45430.29166666666</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q75">
+        <v>2.69</v>
+      </c>
+      <c r="R75">
+        <v>2.06</v>
+      </c>
+      <c r="S75">
+        <v>4.25</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.67</v>
+      </c>
+      <c r="V75">
+        <v>2.95</v>
+      </c>
+      <c r="W75">
+        <v>1.37</v>
+      </c>
+      <c r="X75">
+        <v>7.6</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>1.93</v>
+      </c>
+      <c r="AA75">
+        <v>3.2</v>
+      </c>
+      <c r="AB75">
+        <v>3.3</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>8.1</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.1</v>
+      </c>
+      <c r="AG75">
+        <v>1.9</v>
+      </c>
+      <c r="AH75">
+        <v>1.8</v>
+      </c>
+      <c r="AI75">
+        <v>1.82</v>
+      </c>
+      <c r="AJ75">
+        <v>1.92</v>
+      </c>
+      <c r="AK75">
+        <v>1.29</v>
+      </c>
+      <c r="AL75">
+        <v>1.33</v>
+      </c>
+      <c r="AM75">
+        <v>1.74</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>0.83</v>
+      </c>
+      <c r="AP75">
+        <v>2.17</v>
+      </c>
+      <c r="AQ75">
+        <v>0.71</v>
+      </c>
+      <c r="AR75">
+        <v>1.46</v>
+      </c>
+      <c r="AS75">
+        <v>1.65</v>
+      </c>
+      <c r="AT75">
+        <v>3.11</v>
+      </c>
+      <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>6</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.82</v>
+      </c>
+      <c r="BE75">
+        <v>7.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.42</v>
+      </c>
+      <c r="BG75">
+        <v>1.32</v>
+      </c>
+      <c r="BH75">
+        <v>2.98</v>
+      </c>
+      <c r="BI75">
+        <v>1.67</v>
+      </c>
+      <c r="BJ75">
+        <v>2.21</v>
+      </c>
+      <c r="BK75">
+        <v>2.07</v>
+      </c>
+      <c r="BL75">
+        <v>1.76</v>
+      </c>
+      <c r="BM75">
+        <v>2.72</v>
+      </c>
+      <c r="BN75">
+        <v>1.4</v>
+      </c>
+      <c r="BO75">
+        <v>3.74</v>
+      </c>
+      <c r="BP75">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['59', '82']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -569,6 +572,12 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['28', '31', '47']</t>
+  </si>
+  <si>
+    <t>['57', '70']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1279,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1395,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1679,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1807,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2013,7 +2022,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2091,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
         <v>0.71</v>
@@ -2219,7 +2228,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2425,7 +2434,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2503,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2631,7 +2640,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2712,7 +2721,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2837,7 +2846,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2918,7 +2927,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3043,7 +3052,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3327,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.43</v>
@@ -3455,7 +3464,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3533,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3661,7 +3670,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4151,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4566,7 +4575,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4691,7 +4700,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4897,7 +4906,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4978,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5309,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5387,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>1.71</v>
@@ -5515,7 +5524,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5596,7 +5605,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5799,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5927,7 +5936,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6005,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6133,7 +6142,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6420,7 +6429,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6545,7 +6554,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6623,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.43</v>
@@ -6751,7 +6760,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6829,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1.71</v>
@@ -7038,7 +7047,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7241,10 +7250,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7575,7 +7584,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7781,7 +7790,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7987,7 +7996,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8399,7 +8408,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8480,7 +8489,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8605,7 +8614,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8811,7 +8820,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8889,10 +8898,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9223,7 +9232,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9507,7 +9516,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.43</v>
@@ -9635,7 +9644,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9716,7 +9725,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -9841,7 +9850,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9919,7 +9928,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -10253,7 +10262,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10331,10 +10340,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10459,7 +10468,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10537,7 +10546,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10871,7 +10880,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11077,7 +11086,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11155,7 +11164,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.83</v>
@@ -11695,7 +11704,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11776,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -11901,7 +11910,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12313,7 +12322,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12391,7 +12400,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12519,7 +12528,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12597,10 +12606,10 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -12806,7 +12815,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -12931,7 +12940,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13137,7 +13146,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13218,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13343,7 +13352,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13421,10 +13430,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13630,7 +13639,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13755,7 +13764,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13833,7 +13842,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -13961,7 +13970,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14248,7 +14257,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14373,7 +14382,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14451,7 +14460,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.43</v>
@@ -14579,7 +14588,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14785,7 +14794,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14991,7 +15000,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15069,7 +15078,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
         <v>0.43</v>
@@ -15197,7 +15206,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15403,7 +15412,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15609,7 +15618,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15815,7 +15824,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -15893,10 +15902,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16021,7 +16030,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16114,31 +16123,31 @@
         <v>2.96</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW74">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AX74">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY74">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BD74">
         <v>2.25</v>
@@ -16320,31 +16329,31 @@
         <v>3.11</v>
       </c>
       <c r="AU75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV75">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW75">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX75">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY75">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB75">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC75">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD75">
         <v>1.82</v>
@@ -16384,6 +16393,830 @@
       </c>
       <c r="BP75">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7321469</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45431.1875</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q76">
+        <v>2.88</v>
+      </c>
+      <c r="R76">
+        <v>1.99</v>
+      </c>
+      <c r="S76">
+        <v>3.12</v>
+      </c>
+      <c r="T76">
+        <v>1.42</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.95</v>
+      </c>
+      <c r="W76">
+        <v>1.37</v>
+      </c>
+      <c r="X76">
+        <v>7.6</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>2.35</v>
+      </c>
+      <c r="AA76">
+        <v>3.1</v>
+      </c>
+      <c r="AB76">
+        <v>2.85</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>8.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.1</v>
+      </c>
+      <c r="AG76">
+        <v>1.94</v>
+      </c>
+      <c r="AH76">
+        <v>1.82</v>
+      </c>
+      <c r="AI76">
+        <v>1.79</v>
+      </c>
+      <c r="AJ76">
+        <v>1.96</v>
+      </c>
+      <c r="AK76">
+        <v>1.38</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.46</v>
+      </c>
+      <c r="AN76">
+        <v>1.71</v>
+      </c>
+      <c r="AO76">
+        <v>0.67</v>
+      </c>
+      <c r="AP76">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1.78</v>
+      </c>
+      <c r="AS76">
+        <v>1.56</v>
+      </c>
+      <c r="AT76">
+        <v>3.34</v>
+      </c>
+      <c r="AU76">
+        <v>-1</v>
+      </c>
+      <c r="AV76">
+        <v>-1</v>
+      </c>
+      <c r="AW76">
+        <v>-1</v>
+      </c>
+      <c r="AX76">
+        <v>-1</v>
+      </c>
+      <c r="AY76">
+        <v>-1</v>
+      </c>
+      <c r="AZ76">
+        <v>-1</v>
+      </c>
+      <c r="BA76">
+        <v>-1</v>
+      </c>
+      <c r="BB76">
+        <v>-1</v>
+      </c>
+      <c r="BC76">
+        <v>-1</v>
+      </c>
+      <c r="BD76">
+        <v>1.75</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.52</v>
+      </c>
+      <c r="BG76">
+        <v>1.29</v>
+      </c>
+      <c r="BH76">
+        <v>3.14</v>
+      </c>
+      <c r="BI76">
+        <v>1.68</v>
+      </c>
+      <c r="BJ76">
+        <v>2.18</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.95</v>
+      </c>
+      <c r="BM76">
+        <v>2.58</v>
+      </c>
+      <c r="BN76">
+        <v>1.44</v>
+      </c>
+      <c r="BO76">
+        <v>3.48</v>
+      </c>
+      <c r="BP76">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7321471</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45431.1875</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>95</v>
+      </c>
+      <c r="P77" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q77">
+        <v>2.57</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>3.73</v>
+      </c>
+      <c r="T77">
+        <v>1.46</v>
+      </c>
+      <c r="U77">
+        <v>2.55</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>7.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>2.06</v>
+      </c>
+      <c r="AA77">
+        <v>3.25</v>
+      </c>
+      <c r="AB77">
+        <v>3.3</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>1.36</v>
+      </c>
+      <c r="AF77">
+        <v>3</v>
+      </c>
+      <c r="AG77">
+        <v>2.08</v>
+      </c>
+      <c r="AH77">
+        <v>1.7</v>
+      </c>
+      <c r="AI77">
+        <v>1.85</v>
+      </c>
+      <c r="AJ77">
+        <v>1.9</v>
+      </c>
+      <c r="AK77">
+        <v>1.23</v>
+      </c>
+      <c r="AL77">
+        <v>1.26</v>
+      </c>
+      <c r="AM77">
+        <v>1.72</v>
+      </c>
+      <c r="AN77">
+        <v>1.17</v>
+      </c>
+      <c r="AO77">
+        <v>0.83</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1.14</v>
+      </c>
+      <c r="AR77">
+        <v>1.48</v>
+      </c>
+      <c r="AS77">
+        <v>1.48</v>
+      </c>
+      <c r="AT77">
+        <v>2.96</v>
+      </c>
+      <c r="AU77">
+        <v>-1</v>
+      </c>
+      <c r="AV77">
+        <v>-1</v>
+      </c>
+      <c r="AW77">
+        <v>-1</v>
+      </c>
+      <c r="AX77">
+        <v>-1</v>
+      </c>
+      <c r="AY77">
+        <v>-1</v>
+      </c>
+      <c r="AZ77">
+        <v>-1</v>
+      </c>
+      <c r="BA77">
+        <v>-1</v>
+      </c>
+      <c r="BB77">
+        <v>-1</v>
+      </c>
+      <c r="BC77">
+        <v>-1</v>
+      </c>
+      <c r="BD77">
+        <v>1.82</v>
+      </c>
+      <c r="BE77">
+        <v>7.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.42</v>
+      </c>
+      <c r="BG77">
+        <v>1.6</v>
+      </c>
+      <c r="BH77">
+        <v>2.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.99</v>
+      </c>
+      <c r="BJ77">
+        <v>1.82</v>
+      </c>
+      <c r="BK77">
+        <v>2.48</v>
+      </c>
+      <c r="BL77">
+        <v>1.52</v>
+      </c>
+      <c r="BM77">
+        <v>3.42</v>
+      </c>
+      <c r="BN77">
+        <v>1.25</v>
+      </c>
+      <c r="BO77">
+        <v>5</v>
+      </c>
+      <c r="BP77">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7321472</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45431.1875</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>137</v>
+      </c>
+      <c r="P78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q78">
+        <v>3.62</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>2.54</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.82</v>
+      </c>
+      <c r="V78">
+        <v>2.82</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>7.2</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>3.25</v>
+      </c>
+      <c r="AA78">
+        <v>3.35</v>
+      </c>
+      <c r="AB78">
+        <v>2.02</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>1.28</v>
+      </c>
+      <c r="AF78">
+        <v>3.22</v>
+      </c>
+      <c r="AG78">
+        <v>1.92</v>
+      </c>
+      <c r="AH78">
+        <v>1.83</v>
+      </c>
+      <c r="AI78">
+        <v>1.75</v>
+      </c>
+      <c r="AJ78">
+        <v>1.95</v>
+      </c>
+      <c r="AK78">
+        <v>1.71</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.25</v>
+      </c>
+      <c r="AN78">
+        <v>1.5</v>
+      </c>
+      <c r="AO78">
+        <v>1.67</v>
+      </c>
+      <c r="AP78">
+        <v>1.71</v>
+      </c>
+      <c r="AQ78">
+        <v>1.43</v>
+      </c>
+      <c r="AR78">
+        <v>2.04</v>
+      </c>
+      <c r="AS78">
+        <v>1.56</v>
+      </c>
+      <c r="AT78">
+        <v>3.6</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>-1</v>
+      </c>
+      <c r="BB78">
+        <v>-1</v>
+      </c>
+      <c r="BC78">
+        <v>-1</v>
+      </c>
+      <c r="BD78">
+        <v>2.33</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.85</v>
+      </c>
+      <c r="BG78">
+        <v>1.56</v>
+      </c>
+      <c r="BH78">
+        <v>2.4</v>
+      </c>
+      <c r="BI78">
+        <v>1.92</v>
+      </c>
+      <c r="BJ78">
+        <v>1.88</v>
+      </c>
+      <c r="BK78">
+        <v>2.44</v>
+      </c>
+      <c r="BL78">
+        <v>1.55</v>
+      </c>
+      <c r="BM78">
+        <v>3.48</v>
+      </c>
+      <c r="BN78">
+        <v>1.24</v>
+      </c>
+      <c r="BO78">
+        <v>5.15</v>
+      </c>
+      <c r="BP78">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7321473</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45431.29166666666</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79">
+        <v>3.22</v>
+      </c>
+      <c r="R79">
+        <v>2.06</v>
+      </c>
+      <c r="S79">
+        <v>2.69</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>2.63</v>
+      </c>
+      <c r="AA79">
+        <v>3.3</v>
+      </c>
+      <c r="AB79">
+        <v>2.4</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>1.28</v>
+      </c>
+      <c r="AF79">
+        <v>3.5</v>
+      </c>
+      <c r="AG79">
+        <v>1.81</v>
+      </c>
+      <c r="AH79">
+        <v>1.95</v>
+      </c>
+      <c r="AI79">
+        <v>1.68</v>
+      </c>
+      <c r="AJ79">
+        <v>2.1</v>
+      </c>
+      <c r="AK79">
+        <v>1.53</v>
+      </c>
+      <c r="AL79">
+        <v>1.27</v>
+      </c>
+      <c r="AM79">
+        <v>1.34</v>
+      </c>
+      <c r="AN79">
+        <v>1.17</v>
+      </c>
+      <c r="AO79">
+        <v>2.4</v>
+      </c>
+      <c r="AP79">
+        <v>1.43</v>
+      </c>
+      <c r="AQ79">
+        <v>2</v>
+      </c>
+      <c r="AR79">
+        <v>1.91</v>
+      </c>
+      <c r="AS79">
+        <v>1.47</v>
+      </c>
+      <c r="AT79">
+        <v>3.38</v>
+      </c>
+      <c r="AU79">
+        <v>-1</v>
+      </c>
+      <c r="AV79">
+        <v>-1</v>
+      </c>
+      <c r="AW79">
+        <v>-1</v>
+      </c>
+      <c r="AX79">
+        <v>-1</v>
+      </c>
+      <c r="AY79">
+        <v>-1</v>
+      </c>
+      <c r="AZ79">
+        <v>-1</v>
+      </c>
+      <c r="BA79">
+        <v>-1</v>
+      </c>
+      <c r="BB79">
+        <v>-1</v>
+      </c>
+      <c r="BC79">
+        <v>-1</v>
+      </c>
+      <c r="BD79">
+        <v>2.1</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>1.95</v>
+      </c>
+      <c r="BG79">
+        <v>1.5</v>
+      </c>
+      <c r="BH79">
+        <v>2.57</v>
+      </c>
+      <c r="BI79">
+        <v>1.98</v>
+      </c>
+      <c r="BJ79">
+        <v>1.82</v>
+      </c>
+      <c r="BK79">
+        <v>2.3</v>
+      </c>
+      <c r="BL79">
+        <v>1.61</v>
+      </c>
+      <c r="BM79">
+        <v>3.14</v>
+      </c>
+      <c r="BN79">
+        <v>1.29</v>
+      </c>
+      <c r="BO79">
+        <v>4.5</v>
+      </c>
+      <c r="BP79">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -16123,31 +16123,31 @@
         <v>2.96</v>
       </c>
       <c r="AU74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW74">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY74">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB74">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD74">
         <v>2.25</v>
@@ -16329,31 +16329,31 @@
         <v>3.11</v>
       </c>
       <c r="AU75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV75">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW75">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX75">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY75">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB75">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC75">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD75">
         <v>1.82</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -16535,31 +16535,31 @@
         <v>3.34</v>
       </c>
       <c r="AU76">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW76">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY76">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ76">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA76">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC76">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD76">
         <v>1.75</v>
@@ -16741,31 +16741,31 @@
         <v>2.96</v>
       </c>
       <c r="AU77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV77">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW77">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY77">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ77">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA77">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC77">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD77">
         <v>1.82</v>
@@ -16947,31 +16947,31 @@
         <v>3.6</v>
       </c>
       <c r="AU78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY78">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD78">
         <v>2.33</v>
@@ -17153,31 +17153,31 @@
         <v>3.38</v>
       </c>
       <c r="AU79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW79">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX79">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY79">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ79">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB79">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC79">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD79">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['36', '65', '76', '90+3']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -939,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1404,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1816,7 +1819,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2022,7 +2025,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2228,7 +2231,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2309,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2434,7 +2437,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2640,7 +2643,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2846,7 +2849,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3052,7 +3055,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3133,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3464,7 +3467,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3670,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4700,7 +4703,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4778,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -4906,7 +4909,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5193,7 +5196,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5318,7 +5321,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5399,7 +5402,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5524,7 +5527,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5936,7 +5939,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6142,7 +6145,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6554,7 +6557,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6760,7 +6763,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6841,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7456,7 +7459,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ32">
         <v>1.83</v>
@@ -7584,7 +7587,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7790,7 +7793,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7996,7 +7999,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8408,7 +8411,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8614,7 +8617,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8820,7 +8823,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9104,7 +9107,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9232,7 +9235,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9313,7 +9316,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9519,7 +9522,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9644,7 +9647,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9850,7 +9853,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10137,7 +10140,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10262,7 +10265,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10468,7 +10471,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10755,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10880,7 +10883,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11086,7 +11089,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11704,7 +11707,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11910,7 +11913,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -11988,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ54">
         <v>0.71</v>
@@ -12197,7 +12200,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12322,7 +12325,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12528,7 +12531,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12940,7 +12943,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13146,7 +13149,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13352,7 +13355,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13764,7 +13767,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13970,7 +13973,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14382,7 +14385,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14463,7 +14466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14588,7 +14591,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14794,7 +14797,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15000,7 +15003,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15081,7 +15084,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15206,7 +15209,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15412,7 +15415,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15618,7 +15621,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15696,10 +15699,10 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -15824,7 +15827,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -16030,7 +16033,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16442,7 +16445,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16648,7 +16651,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17216,6 +17219,418 @@
         <v>4.5</v>
       </c>
       <c r="BP79">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7321474</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45437.08333333334</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>85</v>
+      </c>
+      <c r="P80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80">
+        <v>2.67</v>
+      </c>
+      <c r="R80">
+        <v>2.17</v>
+      </c>
+      <c r="S80">
+        <v>3.88</v>
+      </c>
+      <c r="T80">
+        <v>1.37</v>
+      </c>
+      <c r="U80">
+        <v>2.95</v>
+      </c>
+      <c r="V80">
+        <v>2.71</v>
+      </c>
+      <c r="W80">
+        <v>1.43</v>
+      </c>
+      <c r="X80">
+        <v>6.75</v>
+      </c>
+      <c r="Y80">
+        <v>1.09</v>
+      </c>
+      <c r="Z80">
+        <v>2.01</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>3.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>9.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.42</v>
+      </c>
+      <c r="AG80">
+        <v>1.79</v>
+      </c>
+      <c r="AH80">
+        <v>1.97</v>
+      </c>
+      <c r="AI80">
+        <v>1.71</v>
+      </c>
+      <c r="AJ80">
+        <v>2.06</v>
+      </c>
+      <c r="AK80">
+        <v>1.3</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.7</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1.71</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>1.63</v>
+      </c>
+      <c r="AR80">
+        <v>1.47</v>
+      </c>
+      <c r="AS80">
+        <v>1.41</v>
+      </c>
+      <c r="AT80">
+        <v>2.88</v>
+      </c>
+      <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>16</v>
+      </c>
+      <c r="AY80">
+        <v>6</v>
+      </c>
+      <c r="AZ80">
+        <v>22</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>1.91</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.2</v>
+      </c>
+      <c r="BG80">
+        <v>1.33</v>
+      </c>
+      <c r="BH80">
+        <v>2.93</v>
+      </c>
+      <c r="BI80">
+        <v>1.68</v>
+      </c>
+      <c r="BJ80">
+        <v>2.16</v>
+      </c>
+      <c r="BK80">
+        <v>2.09</v>
+      </c>
+      <c r="BL80">
+        <v>1.73</v>
+      </c>
+      <c r="BM80">
+        <v>2.76</v>
+      </c>
+      <c r="BN80">
+        <v>1.39</v>
+      </c>
+      <c r="BO80">
+        <v>3.74</v>
+      </c>
+      <c r="BP80">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7321475</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45437.1875</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q81">
+        <v>2.24</v>
+      </c>
+      <c r="R81">
+        <v>2.29</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3.16</v>
+      </c>
+      <c r="V81">
+        <v>2.55</v>
+      </c>
+      <c r="W81">
+        <v>1.48</v>
+      </c>
+      <c r="X81">
+        <v>6.15</v>
+      </c>
+      <c r="Y81">
+        <v>1.1</v>
+      </c>
+      <c r="Z81">
+        <v>1.71</v>
+      </c>
+      <c r="AA81">
+        <v>3.82</v>
+      </c>
+      <c r="AB81">
+        <v>4.48</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>10.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.21</v>
+      </c>
+      <c r="AF81">
+        <v>3.75</v>
+      </c>
+      <c r="AG81">
+        <v>1.68</v>
+      </c>
+      <c r="AH81">
+        <v>2.1</v>
+      </c>
+      <c r="AI81">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81">
+        <v>2.04</v>
+      </c>
+      <c r="AK81">
+        <v>1.18</v>
+      </c>
+      <c r="AL81">
+        <v>1.2</v>
+      </c>
+      <c r="AM81">
+        <v>2.05</v>
+      </c>
+      <c r="AN81">
+        <v>2.33</v>
+      </c>
+      <c r="AO81">
+        <v>0.43</v>
+      </c>
+      <c r="AP81">
+        <v>2.43</v>
+      </c>
+      <c r="AQ81">
+        <v>0.38</v>
+      </c>
+      <c r="AR81">
+        <v>2.08</v>
+      </c>
+      <c r="AS81">
+        <v>1.46</v>
+      </c>
+      <c r="AT81">
+        <v>3.54</v>
+      </c>
+      <c r="AU81">
+        <v>10</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>12</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>22</v>
+      </c>
+      <c r="AZ81">
+        <v>3</v>
+      </c>
+      <c r="BA81">
+        <v>10</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>10</v>
+      </c>
+      <c r="BD81">
+        <v>1.51</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>3.26</v>
+      </c>
+      <c r="BG81">
+        <v>1.43</v>
+      </c>
+      <c r="BH81">
+        <v>2.62</v>
+      </c>
+      <c r="BI81">
+        <v>1.9</v>
+      </c>
+      <c r="BJ81">
+        <v>1.9</v>
+      </c>
+      <c r="BK81">
+        <v>2.29</v>
+      </c>
+      <c r="BL81">
+        <v>1.55</v>
+      </c>
+      <c r="BM81">
+        <v>3.08</v>
+      </c>
+      <c r="BN81">
+        <v>1.3</v>
+      </c>
+      <c r="BO81">
+        <v>4.45</v>
+      </c>
+      <c r="BP81">
         <v>1.15</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,12 @@
     <t>['36', '65', '76', '90+3']</t>
   </si>
   <si>
+    <t>['5', '85']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -581,6 +587,12 @@
   </si>
   <si>
     <t>['57', '70']</t>
+  </si>
+  <si>
+    <t>['42', '87']</t>
+  </si>
+  <si>
+    <t>['53', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1694,7 +1706,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1897,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>1.83</v>
@@ -2025,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2231,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2309,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
         <v>1.63</v>
@@ -2437,7 +2449,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2643,7 +2655,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2721,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -2849,7 +2861,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3055,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3467,7 +3479,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3548,7 +3560,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3673,7 +3685,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3754,7 +3766,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3957,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.83</v>
@@ -4369,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4703,7 +4715,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4909,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5193,7 +5205,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>0.38</v>
@@ -5321,7 +5333,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5527,7 +5539,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5814,7 +5826,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5939,7 +5951,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6145,7 +6157,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6223,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.83</v>
@@ -6557,7 +6569,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6763,7 +6775,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7587,7 +7599,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7665,7 +7677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
         <v>0.71</v>
@@ -7793,7 +7805,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7874,7 +7886,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -7999,7 +8011,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8080,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8283,10 +8295,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8411,7 +8423,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8617,7 +8629,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8698,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8823,7 +8835,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9110,7 +9122,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9235,7 +9247,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9647,7 +9659,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9725,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -9853,7 +9865,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10137,7 +10149,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10265,7 +10277,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10471,7 +10483,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10755,7 +10767,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
         <v>0.38</v>
@@ -10883,7 +10895,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -10964,7 +10976,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11089,7 +11101,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11376,7 +11388,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11579,7 +11591,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11707,7 +11719,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11913,7 +11925,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12325,7 +12337,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12406,7 +12418,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12531,7 +12543,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12815,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -12943,7 +12955,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13024,7 +13036,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13149,7 +13161,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13227,7 +13239,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13355,7 +13367,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13639,7 +13651,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13767,7 +13779,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13848,7 +13860,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -13973,7 +13985,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14385,7 +14397,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14591,7 +14603,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14669,10 +14681,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14797,7 +14809,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14875,10 +14887,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15003,7 +15015,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15209,7 +15221,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15415,7 +15427,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15493,7 +15505,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -15621,7 +15633,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15827,7 +15839,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -16033,7 +16045,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16445,7 +16457,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16651,7 +16663,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17475,7 +17487,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17632,6 +17644,624 @@
       </c>
       <c r="BP81">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7321476</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45437.29166666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>139</v>
+      </c>
+      <c r="P82" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q82">
+        <v>2.82</v>
+      </c>
+      <c r="R82">
+        <v>2.19</v>
+      </c>
+      <c r="S82">
+        <v>4.28</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.86</v>
+      </c>
+      <c r="V82">
+        <v>3.18</v>
+      </c>
+      <c r="W82">
+        <v>1.37</v>
+      </c>
+      <c r="X82">
+        <v>7.6</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.02</v>
+      </c>
+      <c r="AA82">
+        <v>3.09</v>
+      </c>
+      <c r="AB82">
+        <v>3.22</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>8.4</v>
+      </c>
+      <c r="AE82">
+        <v>1.3</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.03</v>
+      </c>
+      <c r="AH82">
+        <v>1.85</v>
+      </c>
+      <c r="AI82">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82">
+        <v>1.91</v>
+      </c>
+      <c r="AK82">
+        <v>1.31</v>
+      </c>
+      <c r="AL82">
+        <v>1.31</v>
+      </c>
+      <c r="AM82">
+        <v>1.73</v>
+      </c>
+      <c r="AN82">
+        <v>1.86</v>
+      </c>
+      <c r="AO82">
+        <v>1.33</v>
+      </c>
+      <c r="AP82">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82">
+        <v>1.29</v>
+      </c>
+      <c r="AR82">
+        <v>1.65</v>
+      </c>
+      <c r="AS82">
+        <v>1.29</v>
+      </c>
+      <c r="AT82">
+        <v>2.94</v>
+      </c>
+      <c r="AU82">
+        <v>6</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>1</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>1.69</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.64</v>
+      </c>
+      <c r="BG82">
+        <v>1.49</v>
+      </c>
+      <c r="BH82">
+        <v>2.44</v>
+      </c>
+      <c r="BI82">
+        <v>1.89</v>
+      </c>
+      <c r="BJ82">
+        <v>1.85</v>
+      </c>
+      <c r="BK82">
+        <v>2.46</v>
+      </c>
+      <c r="BL82">
+        <v>1.48</v>
+      </c>
+      <c r="BM82">
+        <v>3.42</v>
+      </c>
+      <c r="BN82">
+        <v>1.25</v>
+      </c>
+      <c r="BO82">
+        <v>4.95</v>
+      </c>
+      <c r="BP82">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7321477</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45437.29166666666</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>140</v>
+      </c>
+      <c r="P83" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>3.5</v>
+      </c>
+      <c r="T83">
+        <v>1.48</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>3.1</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.05</v>
+      </c>
+      <c r="Z83">
+        <v>2.39</v>
+      </c>
+      <c r="AA83">
+        <v>2.9</v>
+      </c>
+      <c r="AB83">
+        <v>2.72</v>
+      </c>
+      <c r="AC83">
+        <v>1.09</v>
+      </c>
+      <c r="AD83">
+        <v>7</v>
+      </c>
+      <c r="AE83">
+        <v>1.4</v>
+      </c>
+      <c r="AF83">
+        <v>2.88</v>
+      </c>
+      <c r="AG83">
+        <v>2.15</v>
+      </c>
+      <c r="AH83">
+        <v>1.65</v>
+      </c>
+      <c r="AI83">
+        <v>1.83</v>
+      </c>
+      <c r="AJ83">
+        <v>1.85</v>
+      </c>
+      <c r="AK83">
+        <v>1.36</v>
+      </c>
+      <c r="AL83">
+        <v>1.35</v>
+      </c>
+      <c r="AM83">
+        <v>1.48</v>
+      </c>
+      <c r="AN83">
+        <v>1.17</v>
+      </c>
+      <c r="AO83">
+        <v>0.6</v>
+      </c>
+      <c r="AP83">
+        <v>1.14</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.59</v>
+      </c>
+      <c r="AS83">
+        <v>1.26</v>
+      </c>
+      <c r="AT83">
+        <v>2.85</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>11</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>13</v>
+      </c>
+      <c r="AZ83">
+        <v>13</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>1.91</v>
+      </c>
+      <c r="BE83">
+        <v>7.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.2</v>
+      </c>
+      <c r="BG83">
+        <v>1.42</v>
+      </c>
+      <c r="BH83">
+        <v>2.65</v>
+      </c>
+      <c r="BI83">
+        <v>1.88</v>
+      </c>
+      <c r="BJ83">
+        <v>1.92</v>
+      </c>
+      <c r="BK83">
+        <v>2.27</v>
+      </c>
+      <c r="BL83">
+        <v>1.56</v>
+      </c>
+      <c r="BM83">
+        <v>3.08</v>
+      </c>
+      <c r="BN83">
+        <v>1.3</v>
+      </c>
+      <c r="BO83">
+        <v>4.4</v>
+      </c>
+      <c r="BP83">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7321478</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45438.1875</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>126</v>
+      </c>
+      <c r="P84" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84">
+        <v>3.25</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>3.6</v>
+      </c>
+      <c r="T84">
+        <v>1.5</v>
+      </c>
+      <c r="U84">
+        <v>2.5</v>
+      </c>
+      <c r="V84">
+        <v>3.4</v>
+      </c>
+      <c r="W84">
+        <v>1.3</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>2.5</v>
+      </c>
+      <c r="AA84">
+        <v>3</v>
+      </c>
+      <c r="AB84">
+        <v>2.8</v>
+      </c>
+      <c r="AC84">
+        <v>1.09</v>
+      </c>
+      <c r="AD84">
+        <v>7</v>
+      </c>
+      <c r="AE84">
+        <v>1.38</v>
+      </c>
+      <c r="AF84">
+        <v>2.9</v>
+      </c>
+      <c r="AG84">
+        <v>2.2</v>
+      </c>
+      <c r="AH84">
+        <v>1.62</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>1.38</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.5</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1.17</v>
+      </c>
+      <c r="AP84">
+        <v>0.86</v>
+      </c>
+      <c r="AQ84">
+        <v>1.43</v>
+      </c>
+      <c r="AR84">
+        <v>1.46</v>
+      </c>
+      <c r="AS84">
+        <v>1.28</v>
+      </c>
+      <c r="AT84">
+        <v>2.74</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>7</v>
+      </c>
+      <c r="AZ84">
+        <v>10</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>2.1</v>
+      </c>
+      <c r="BE84">
+        <v>7.5</v>
+      </c>
+      <c r="BF84">
+        <v>2</v>
+      </c>
+      <c r="BG84">
+        <v>1.53</v>
+      </c>
+      <c r="BH84">
+        <v>2.34</v>
+      </c>
+      <c r="BI84">
+        <v>2</v>
+      </c>
+      <c r="BJ84">
+        <v>1.8</v>
+      </c>
+      <c r="BK84">
+        <v>2.58</v>
+      </c>
+      <c r="BL84">
+        <v>1.44</v>
+      </c>
+      <c r="BM84">
+        <v>3.56</v>
+      </c>
+      <c r="BN84">
+        <v>1.23</v>
+      </c>
+      <c r="BO84">
+        <v>5.25</v>
+      </c>
+      <c r="BP84">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['90+9']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -512,9 +515,6 @@
   </si>
   <si>
     <t>['35', '45+4']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['7', '40', '50']</t>
@@ -954,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1831,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1912,7 +1912,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2243,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2449,7 +2449,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2655,7 +2655,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2861,7 +2861,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3067,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>0.38</v>
@@ -3479,7 +3479,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3685,7 +3685,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3972,7 +3972,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4715,7 +4715,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4921,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5333,7 +5333,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5539,7 +5539,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5951,7 +5951,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6157,7 +6157,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6238,7 +6238,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6569,7 +6569,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6775,7 +6775,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7059,7 +7059,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7599,7 +7599,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7805,7 +7805,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8011,7 +8011,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8423,7 +8423,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8629,7 +8629,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8835,7 +8835,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9247,7 +9247,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9325,7 +9325,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1.63</v>
@@ -9659,7 +9659,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9865,7 +9865,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -11182,7 +11182,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
         <v>1.14</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -17487,7 +17487,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -18262,6 +18262,212 @@
       </c>
       <c r="BP84">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7321479</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45438.29166666666</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85">
+        <v>3.1</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>3.2</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>2.4</v>
+      </c>
+      <c r="AA85">
+        <v>3.4</v>
+      </c>
+      <c r="AB85">
+        <v>2.63</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>9</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.73</v>
+      </c>
+      <c r="AH85">
+        <v>2</v>
+      </c>
+      <c r="AI85">
+        <v>1.57</v>
+      </c>
+      <c r="AJ85">
+        <v>2.25</v>
+      </c>
+      <c r="AK85">
+        <v>1.47</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.47</v>
+      </c>
+      <c r="AN85">
+        <v>1.5</v>
+      </c>
+      <c r="AO85">
+        <v>1.83</v>
+      </c>
+      <c r="AP85">
+        <v>1.71</v>
+      </c>
+      <c r="AQ85">
+        <v>1.57</v>
+      </c>
+      <c r="AR85">
+        <v>1.56</v>
+      </c>
+      <c r="AS85">
+        <v>1.53</v>
+      </c>
+      <c r="AT85">
+        <v>3.09</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>6</v>
+      </c>
+      <c r="BD85">
+        <v>1.75</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.45</v>
+      </c>
+      <c r="BG85">
+        <v>1.34</v>
+      </c>
+      <c r="BH85">
+        <v>2.88</v>
+      </c>
+      <c r="BI85">
+        <v>1.82</v>
+      </c>
+      <c r="BJ85">
+        <v>1.98</v>
+      </c>
+      <c r="BK85">
+        <v>2.11</v>
+      </c>
+      <c r="BL85">
+        <v>1.68</v>
+      </c>
+      <c r="BM85">
+        <v>2.8</v>
+      </c>
+      <c r="BN85">
+        <v>1.38</v>
+      </c>
+      <c r="BO85">
+        <v>3.86</v>
+      </c>
+      <c r="BP85">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>['53', '90+2']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1297,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1703,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3557,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -4587,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5620,7 +5623,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5826,7 +5829,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6029,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6647,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1.43</v>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8298,7 +8301,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8504,7 +8507,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8916,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -10976,7 +10979,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11179,7 +11182,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1.57</v>
@@ -11385,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -12418,7 +12421,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12624,7 +12627,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -14063,7 +14066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -14475,7 +14478,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>0.38</v>
@@ -14684,7 +14687,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15917,7 +15920,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16329,7 +16332,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.71</v>
@@ -16535,7 +16538,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17156,7 +17159,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17774,7 +17777,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18468,6 +18471,418 @@
       </c>
       <c r="BP85">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7321481</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45440.3125</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <v>3.1</v>
+      </c>
+      <c r="R86">
+        <v>2.21</v>
+      </c>
+      <c r="S86">
+        <v>3.72</v>
+      </c>
+      <c r="T86">
+        <v>1.43</v>
+      </c>
+      <c r="U86">
+        <v>2.95</v>
+      </c>
+      <c r="V86">
+        <v>3.1</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7.7</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>2.15</v>
+      </c>
+      <c r="AA86">
+        <v>3.25</v>
+      </c>
+      <c r="AB86">
+        <v>3.25</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>8.4</v>
+      </c>
+      <c r="AE86">
+        <v>1.31</v>
+      </c>
+      <c r="AF86">
+        <v>3.04</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.75</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>1.32</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.48</v>
+      </c>
+      <c r="AN86">
+        <v>2.17</v>
+      </c>
+      <c r="AO86">
+        <v>1.29</v>
+      </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.48</v>
+      </c>
+      <c r="AS86">
+        <v>1.34</v>
+      </c>
+      <c r="AT86">
+        <v>2.82</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>10</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>9</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>1.67</v>
+      </c>
+      <c r="BE86">
+        <v>8.6</v>
+      </c>
+      <c r="BF86">
+        <v>2.65</v>
+      </c>
+      <c r="BG86">
+        <v>1.38</v>
+      </c>
+      <c r="BH86">
+        <v>2.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.73</v>
+      </c>
+      <c r="BJ86">
+        <v>2.08</v>
+      </c>
+      <c r="BK86">
+        <v>2.18</v>
+      </c>
+      <c r="BL86">
+        <v>1.66</v>
+      </c>
+      <c r="BM86">
+        <v>2.88</v>
+      </c>
+      <c r="BN86">
+        <v>1.34</v>
+      </c>
+      <c r="BO86">
+        <v>4.1</v>
+      </c>
+      <c r="BP86">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7321480</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45440.3125</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q87">
+        <v>3.09</v>
+      </c>
+      <c r="R87">
+        <v>2.2</v>
+      </c>
+      <c r="S87">
+        <v>3.85</v>
+      </c>
+      <c r="T87">
+        <v>1.43</v>
+      </c>
+      <c r="U87">
+        <v>2.87</v>
+      </c>
+      <c r="V87">
+        <v>3.14</v>
+      </c>
+      <c r="W87">
+        <v>1.37</v>
+      </c>
+      <c r="X87">
+        <v>7.8</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>2.3</v>
+      </c>
+      <c r="AA87">
+        <v>3.2</v>
+      </c>
+      <c r="AB87">
+        <v>3</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>8.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.33</v>
+      </c>
+      <c r="AF87">
+        <v>3</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.73</v>
+      </c>
+      <c r="AI87">
+        <v>1.83</v>
+      </c>
+      <c r="AJ87">
+        <v>1.91</v>
+      </c>
+      <c r="AK87">
+        <v>1.32</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.48</v>
+      </c>
+      <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>1.33</v>
+      </c>
+      <c r="AQ87">
+        <v>2.14</v>
+      </c>
+      <c r="AR87">
+        <v>1.8</v>
+      </c>
+      <c r="AS87">
+        <v>1.59</v>
+      </c>
+      <c r="AT87">
+        <v>3.39</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>11</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>14</v>
+      </c>
+      <c r="AZ87">
+        <v>5</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.68</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.62</v>
+      </c>
+      <c r="BG87">
+        <v>1.47</v>
+      </c>
+      <c r="BH87">
+        <v>2.58</v>
+      </c>
+      <c r="BI87">
+        <v>1.82</v>
+      </c>
+      <c r="BJ87">
+        <v>1.97</v>
+      </c>
+      <c r="BK87">
+        <v>2.3</v>
+      </c>
+      <c r="BL87">
+        <v>1.58</v>
+      </c>
+      <c r="BM87">
+        <v>3.14</v>
+      </c>
+      <c r="BN87">
+        <v>1.29</v>
+      </c>
+      <c r="BO87">
+        <v>4.5</v>
+      </c>
+      <c r="BP87">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['59', '84']</t>
+  </si>
+  <si>
+    <t>['4', '78']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1440,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1834,7 +1852,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1912,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>1.57</v>
@@ -2040,7 +2058,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2118,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2246,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2452,7 +2470,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2530,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2658,7 +2676,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2739,7 +2757,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2864,7 +2882,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2945,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3070,7 +3088,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3482,7 +3500,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3688,7 +3706,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3766,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14">
         <v>1.43</v>
@@ -4181,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4593,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4718,7 +4736,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4924,7 +4942,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5005,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5208,7 +5226,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>0.38</v>
@@ -5336,7 +5354,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5414,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
         <v>1.63</v>
@@ -5542,7 +5560,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5826,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5954,7 +5972,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6035,7 +6053,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6160,7 +6178,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6444,10 +6462,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6572,7 +6590,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6778,7 +6796,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7065,7 +7083,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7268,10 +7286,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7602,7 +7620,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7680,10 +7698,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7808,7 +7826,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8014,7 +8032,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8426,7 +8444,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8504,7 +8522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -8632,7 +8650,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8838,7 +8856,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9250,7 +9268,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9534,7 +9552,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
         <v>0.38</v>
@@ -9662,7 +9680,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9740,10 +9758,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -9946,10 +9964,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10280,7 +10298,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10361,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10486,7 +10504,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10564,7 +10582,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10898,7 +10916,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -10976,7 +10994,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11104,7 +11122,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11722,7 +11740,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11803,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -11928,7 +11946,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12009,7 +12027,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ54">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12212,7 +12230,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12340,7 +12358,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12418,7 +12436,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -12546,7 +12564,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12624,7 +12642,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>2.14</v>
@@ -12830,10 +12848,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -12958,7 +12976,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13164,7 +13182,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13245,7 +13263,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13370,7 +13388,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13451,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13657,7 +13675,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13782,7 +13800,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13860,7 +13878,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -13988,7 +14006,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14275,7 +14293,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14400,7 +14418,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14606,7 +14624,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14684,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14812,7 +14830,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15018,7 +15036,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15096,7 +15114,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>0.38</v>
@@ -15224,7 +15242,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15430,7 +15448,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15511,7 +15529,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15636,7 +15654,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15842,7 +15860,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -15923,7 +15941,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16048,7 +16066,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16126,7 +16144,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>1.43</v>
@@ -16335,7 +16353,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16460,7 +16478,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16541,7 +16559,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16666,7 +16684,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16747,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -16950,10 +16968,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17156,7 +17174,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
         <v>2.14</v>
@@ -17490,7 +17508,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17696,7 +17714,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17980,7 +17998,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18108,7 +18126,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18726,7 +18744,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18883,6 +18901,830 @@
       </c>
       <c r="BP87">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7321482</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45441.3125</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>142</v>
+      </c>
+      <c r="P88" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q88">
+        <v>3.6</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>2.9</v>
+      </c>
+      <c r="T88">
+        <v>1.42</v>
+      </c>
+      <c r="U88">
+        <v>2.65</v>
+      </c>
+      <c r="V88">
+        <v>2.9</v>
+      </c>
+      <c r="W88">
+        <v>1.35</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>3.15</v>
+      </c>
+      <c r="AA88">
+        <v>3.35</v>
+      </c>
+      <c r="AB88">
+        <v>2.41</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>10.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>3.2</v>
+      </c>
+      <c r="AG88">
+        <v>2.07</v>
+      </c>
+      <c r="AH88">
+        <v>1.83</v>
+      </c>
+      <c r="AI88">
+        <v>1.75</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.5</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.32</v>
+      </c>
+      <c r="AN88">
+        <v>1.14</v>
+      </c>
+      <c r="AO88">
+        <v>1.43</v>
+      </c>
+      <c r="AP88">
+        <v>1.13</v>
+      </c>
+      <c r="AQ88">
+        <v>1.38</v>
+      </c>
+      <c r="AR88">
+        <v>1.58</v>
+      </c>
+      <c r="AS88">
+        <v>1.48</v>
+      </c>
+      <c r="AT88">
+        <v>3.06</v>
+      </c>
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>6</v>
+      </c>
+      <c r="BD88">
+        <v>2.2</v>
+      </c>
+      <c r="BE88">
+        <v>7.5</v>
+      </c>
+      <c r="BF88">
+        <v>1.91</v>
+      </c>
+      <c r="BG88">
+        <v>1.47</v>
+      </c>
+      <c r="BH88">
+        <v>2.55</v>
+      </c>
+      <c r="BI88">
+        <v>1.83</v>
+      </c>
+      <c r="BJ88">
+        <v>1.97</v>
+      </c>
+      <c r="BK88">
+        <v>2.3</v>
+      </c>
+      <c r="BL88">
+        <v>1.58</v>
+      </c>
+      <c r="BM88">
+        <v>3.18</v>
+      </c>
+      <c r="BN88">
+        <v>1.28</v>
+      </c>
+      <c r="BO88">
+        <v>4.55</v>
+      </c>
+      <c r="BP88">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7321483</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45441.3125</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>85</v>
+      </c>
+      <c r="P89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89">
+        <v>2.9</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>3.5</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.7</v>
+      </c>
+      <c r="V89">
+        <v>2.8</v>
+      </c>
+      <c r="W89">
+        <v>1.38</v>
+      </c>
+      <c r="X89">
+        <v>7.75</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2.39</v>
+      </c>
+      <c r="AA89">
+        <v>3.45</v>
+      </c>
+      <c r="AB89">
+        <v>3.15</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>1.88</v>
+      </c>
+      <c r="AI89">
+        <v>1.72</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.35</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.58</v>
+      </c>
+      <c r="AN89">
+        <v>1.33</v>
+      </c>
+      <c r="AO89">
+        <v>0.71</v>
+      </c>
+      <c r="AP89">
+        <v>1.14</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.24</v>
+      </c>
+      <c r="AS89">
+        <v>1.65</v>
+      </c>
+      <c r="AT89">
+        <v>2.89</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>11</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>9</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
+        <v>1.95</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>2.1</v>
+      </c>
+      <c r="BG89">
+        <v>1.4</v>
+      </c>
+      <c r="BH89">
+        <v>2.72</v>
+      </c>
+      <c r="BI89">
+        <v>1.8</v>
+      </c>
+      <c r="BJ89">
+        <v>2</v>
+      </c>
+      <c r="BK89">
+        <v>2.24</v>
+      </c>
+      <c r="BL89">
+        <v>1.62</v>
+      </c>
+      <c r="BM89">
+        <v>2.98</v>
+      </c>
+      <c r="BN89">
+        <v>1.32</v>
+      </c>
+      <c r="BO89">
+        <v>4.25</v>
+      </c>
+      <c r="BP89">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7321484</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45441.3125</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>143</v>
+      </c>
+      <c r="P90" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q90">
+        <v>2.85</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>3.6</v>
+      </c>
+      <c r="T90">
+        <v>1.41</v>
+      </c>
+      <c r="U90">
+        <v>2.78</v>
+      </c>
+      <c r="V90">
+        <v>2.82</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>7.75</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.37</v>
+      </c>
+      <c r="AA90">
+        <v>3.5</v>
+      </c>
+      <c r="AB90">
+        <v>3.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.3</v>
+      </c>
+      <c r="AG90">
+        <v>2.02</v>
+      </c>
+      <c r="AH90">
+        <v>1.87</v>
+      </c>
+      <c r="AI90">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>1.36</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.57</v>
+      </c>
+      <c r="AN90">
+        <v>1.43</v>
+      </c>
+      <c r="AO90">
+        <v>1.14</v>
+      </c>
+      <c r="AP90">
+        <v>1.63</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.81</v>
+      </c>
+      <c r="AS90">
+        <v>1.53</v>
+      </c>
+      <c r="AT90">
+        <v>3.34</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>10</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>17</v>
+      </c>
+      <c r="AZ90">
+        <v>11</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>6</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.85</v>
+      </c>
+      <c r="BE90">
+        <v>7.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.29</v>
+      </c>
+      <c r="BG90">
+        <v>1.45</v>
+      </c>
+      <c r="BH90">
+        <v>2.61</v>
+      </c>
+      <c r="BI90">
+        <v>2</v>
+      </c>
+      <c r="BJ90">
+        <v>1.8</v>
+      </c>
+      <c r="BK90">
+        <v>2.28</v>
+      </c>
+      <c r="BL90">
+        <v>1.59</v>
+      </c>
+      <c r="BM90">
+        <v>3.2</v>
+      </c>
+      <c r="BN90">
+        <v>1.28</v>
+      </c>
+      <c r="BO90">
+        <v>4.6</v>
+      </c>
+      <c r="BP90">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7321485</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45441.3125</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>144</v>
+      </c>
+      <c r="P91" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>3.25</v>
+      </c>
+      <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>3.36</v>
+      </c>
+      <c r="T91">
+        <v>1.42</v>
+      </c>
+      <c r="U91">
+        <v>2.97</v>
+      </c>
+      <c r="V91">
+        <v>3.05</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>7.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>2.7</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
+        <v>2.75</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.1</v>
+      </c>
+      <c r="AG91">
+        <v>2.07</v>
+      </c>
+      <c r="AH91">
+        <v>1.83</v>
+      </c>
+      <c r="AI91">
+        <v>1.78</v>
+      </c>
+      <c r="AJ91">
+        <v>2.07</v>
+      </c>
+      <c r="AK91">
+        <v>1.48</v>
+      </c>
+      <c r="AL91">
+        <v>1.36</v>
+      </c>
+      <c r="AM91">
+        <v>1.5</v>
+      </c>
+      <c r="AN91">
+        <v>1.71</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.88</v>
+      </c>
+      <c r="AQ91">
+        <v>0.88</v>
+      </c>
+      <c r="AR91">
+        <v>1.86</v>
+      </c>
+      <c r="AS91">
+        <v>1.48</v>
+      </c>
+      <c r="AT91">
+        <v>3.34</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>13</v>
+      </c>
+      <c r="AZ91">
+        <v>5</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>2</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.75</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.45</v>
+      </c>
+      <c r="BG91">
+        <v>1.4</v>
+      </c>
+      <c r="BH91">
+        <v>2.72</v>
+      </c>
+      <c r="BI91">
+        <v>1.8</v>
+      </c>
+      <c r="BJ91">
+        <v>2</v>
+      </c>
+      <c r="BK91">
+        <v>2.24</v>
+      </c>
+      <c r="BL91">
+        <v>1.62</v>
+      </c>
+      <c r="BM91">
+        <v>2.98</v>
+      </c>
+      <c r="BN91">
+        <v>1.32</v>
+      </c>
+      <c r="BO91">
+        <v>4.25</v>
+      </c>
+      <c r="BP91">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>['4', '78']</t>
+  </si>
+  <si>
+    <t>['27', '45+4', '90+7']</t>
+  </si>
+  <si>
+    <t>['71', '90+8', '90+10']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -975,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1440,7 +1446,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1852,7 +1858,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2058,7 +2064,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2264,7 +2270,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2470,7 +2476,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2548,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2676,7 +2682,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2882,7 +2888,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>1.38</v>
@@ -3088,7 +3094,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3375,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3500,7 +3506,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3706,7 +3712,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4608,10 +4614,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4736,7 +4742,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4814,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4942,7 +4948,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5354,7 +5360,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5432,7 +5438,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22">
         <v>1.63</v>
@@ -5560,7 +5566,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5641,7 +5647,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5972,7 +5978,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6178,7 +6184,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6590,7 +6596,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6671,7 +6677,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6796,7 +6802,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7083,7 +7089,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7492,7 +7498,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>1.57</v>
@@ -7620,7 +7626,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7826,7 +7832,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7904,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8032,7 +8038,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8444,7 +8450,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8525,7 +8531,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8650,7 +8656,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8856,7 +8862,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8937,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9140,7 +9146,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9268,7 +9274,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9552,7 +9558,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
         <v>0.38</v>
@@ -9680,7 +9686,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9964,7 +9970,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10298,7 +10304,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10379,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10504,7 +10510,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10585,7 +10591,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10916,7 +10922,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11122,7 +11128,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11406,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -11615,7 +11621,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11740,7 +11746,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11946,7 +11952,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12024,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12358,7 +12364,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12436,7 +12442,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -12564,7 +12570,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12645,7 +12651,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -12851,7 +12857,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -12976,7 +12982,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13182,7 +13188,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13388,7 +13394,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13675,7 +13681,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13800,7 +13806,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13878,7 +13884,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14006,7 +14012,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14084,10 +14090,10 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14418,7 +14424,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14624,7 +14630,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14830,7 +14836,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15036,7 +15042,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15242,7 +15248,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15448,7 +15454,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15654,7 +15660,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15732,7 +15738,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72">
         <v>1.63</v>
@@ -15860,7 +15866,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -16066,7 +16072,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16147,7 +16153,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16350,7 +16356,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16478,7 +16484,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16559,7 +16565,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16684,7 +16690,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17174,10 +17180,10 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17508,7 +17514,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17586,7 +17592,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
         <v>0.38</v>
@@ -17714,7 +17720,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18126,7 +18132,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18616,7 +18622,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ86">
         <v>1.25</v>
@@ -18744,7 +18750,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18825,7 +18831,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -18950,7 +18956,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19156,7 +19162,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19440,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19568,7 +19574,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19649,7 +19655,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -19725,6 +19731,624 @@
       </c>
       <c r="BP91">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7321486</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45444.1875</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>95</v>
+      </c>
+      <c r="P92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q92">
+        <v>2.3</v>
+      </c>
+      <c r="R92">
+        <v>2.25</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>1.8</v>
+      </c>
+      <c r="AA92">
+        <v>4.05</v>
+      </c>
+      <c r="AB92">
+        <v>3.96</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>9.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.28</v>
+      </c>
+      <c r="AF92">
+        <v>3.55</v>
+      </c>
+      <c r="AG92">
+        <v>1.94</v>
+      </c>
+      <c r="AH92">
+        <v>1.94</v>
+      </c>
+      <c r="AI92">
+        <v>1.83</v>
+      </c>
+      <c r="AJ92">
+        <v>1.83</v>
+      </c>
+      <c r="AK92">
+        <v>1.18</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>2.05</v>
+      </c>
+      <c r="AN92">
+        <v>2.43</v>
+      </c>
+      <c r="AO92">
+        <v>0.88</v>
+      </c>
+      <c r="AP92">
+        <v>2.5</v>
+      </c>
+      <c r="AQ92">
+        <v>0.78</v>
+      </c>
+      <c r="AR92">
+        <v>2.21</v>
+      </c>
+      <c r="AS92">
+        <v>1.38</v>
+      </c>
+      <c r="AT92">
+        <v>3.59</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>11</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>5</v>
+      </c>
+      <c r="BD92">
+        <v>1.64</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>2.77</v>
+      </c>
+      <c r="BG92">
+        <v>1.31</v>
+      </c>
+      <c r="BH92">
+        <v>3.04</v>
+      </c>
+      <c r="BI92">
+        <v>1.58</v>
+      </c>
+      <c r="BJ92">
+        <v>2.23</v>
+      </c>
+      <c r="BK92">
+        <v>2.02</v>
+      </c>
+      <c r="BL92">
+        <v>1.74</v>
+      </c>
+      <c r="BM92">
+        <v>2.65</v>
+      </c>
+      <c r="BN92">
+        <v>1.42</v>
+      </c>
+      <c r="BO92">
+        <v>3.56</v>
+      </c>
+      <c r="BP92">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7321487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45444.29166666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q93">
+        <v>3.2</v>
+      </c>
+      <c r="R93">
+        <v>2.2</v>
+      </c>
+      <c r="S93">
+        <v>3.25</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>2.89</v>
+      </c>
+      <c r="AA93">
+        <v>3.44</v>
+      </c>
+      <c r="AB93">
+        <v>2.39</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>9.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>3.45</v>
+      </c>
+      <c r="AG93">
+        <v>2</v>
+      </c>
+      <c r="AH93">
+        <v>1.89</v>
+      </c>
+      <c r="AI93">
+        <v>1.73</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.48</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.5</v>
+      </c>
+      <c r="AN93">
+        <v>1.63</v>
+      </c>
+      <c r="AO93">
+        <v>1.43</v>
+      </c>
+      <c r="AP93">
+        <v>1.78</v>
+      </c>
+      <c r="AQ93">
+        <v>1.25</v>
+      </c>
+      <c r="AR93">
+        <v>1.86</v>
+      </c>
+      <c r="AS93">
+        <v>1.66</v>
+      </c>
+      <c r="AT93">
+        <v>3.52</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>6</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>9</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>2.1</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>1.95</v>
+      </c>
+      <c r="BG93">
+        <v>1.45</v>
+      </c>
+      <c r="BH93">
+        <v>2.55</v>
+      </c>
+      <c r="BI93">
+        <v>1.82</v>
+      </c>
+      <c r="BJ93">
+        <v>1.98</v>
+      </c>
+      <c r="BK93">
+        <v>2.36</v>
+      </c>
+      <c r="BL93">
+        <v>1.52</v>
+      </c>
+      <c r="BM93">
+        <v>3.2</v>
+      </c>
+      <c r="BN93">
+        <v>1.28</v>
+      </c>
+      <c r="BO93">
+        <v>4.65</v>
+      </c>
+      <c r="BP93">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7321488</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45444.29166666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>146</v>
+      </c>
+      <c r="P94" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>3.35</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.85</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>7.2</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.66</v>
+      </c>
+      <c r="AA94">
+        <v>3.24</v>
+      </c>
+      <c r="AB94">
+        <v>2.7</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.3</v>
+      </c>
+      <c r="AF94">
+        <v>3.4</v>
+      </c>
+      <c r="AG94">
+        <v>1.97</v>
+      </c>
+      <c r="AH94">
+        <v>1.92</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.42</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.55</v>
+      </c>
+      <c r="AN94">
+        <v>2</v>
+      </c>
+      <c r="AO94">
+        <v>2.14</v>
+      </c>
+      <c r="AP94">
+        <v>2.13</v>
+      </c>
+      <c r="AQ94">
+        <v>1.88</v>
+      </c>
+      <c r="AR94">
+        <v>1.47</v>
+      </c>
+      <c r="AS94">
+        <v>1.49</v>
+      </c>
+      <c r="AT94">
+        <v>2.96</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>8</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>1.91</v>
+      </c>
+      <c r="BE94">
+        <v>7.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.2</v>
+      </c>
+      <c r="BG94">
+        <v>1.43</v>
+      </c>
+      <c r="BH94">
+        <v>2.62</v>
+      </c>
+      <c r="BI94">
+        <v>1.8</v>
+      </c>
+      <c r="BJ94">
+        <v>1.95</v>
+      </c>
+      <c r="BK94">
+        <v>2.32</v>
+      </c>
+      <c r="BL94">
+        <v>1.54</v>
+      </c>
+      <c r="BM94">
+        <v>3.14</v>
+      </c>
+      <c r="BN94">
+        <v>1.29</v>
+      </c>
+      <c r="BO94">
+        <v>4.5</v>
+      </c>
+      <c r="BP94">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['71', '90+8', '90+10']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -470,9 +479,6 @@
   </si>
   <si>
     <t>['54']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['17', '26', '29']</t>
@@ -592,9 +598,6 @@
     <t>['30', '90+5']</t>
   </si>
   <si>
-    <t>['85']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -620,6 +623,12 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['5', '43']</t>
+  </si>
+  <si>
+    <t>['23', '77']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1446,7 +1455,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1858,7 +1867,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2064,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2270,7 +2279,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2476,7 +2485,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2682,7 +2691,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2763,7 +2772,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2888,7 +2897,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3094,7 +3103,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3172,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.38</v>
@@ -3378,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3506,7 +3515,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3587,7 +3596,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3712,7 +3721,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3790,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4202,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4411,7 +4420,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4742,7 +4751,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4948,7 +4957,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5360,7 +5369,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5566,7 +5575,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5644,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.88</v>
@@ -5978,7 +5987,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6059,7 +6068,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6184,7 +6193,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6468,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6596,7 +6605,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6802,7 +6811,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6880,7 +6889,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ29">
         <v>1.63</v>
@@ -7086,7 +7095,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7295,7 +7304,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7626,7 +7635,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7832,7 +7841,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7913,7 +7922,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8038,7 +8047,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8119,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8450,7 +8459,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8528,7 +8537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>1.88</v>
@@ -8656,7 +8665,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8737,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8862,7 +8871,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8940,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
         <v>1.88</v>
@@ -9149,7 +9158,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9274,7 +9283,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9352,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.63</v>
@@ -9686,7 +9695,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9767,7 +9776,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10304,7 +10313,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10382,7 +10391,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10510,7 +10519,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10922,7 +10931,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11000,7 +11009,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11128,7 +11137,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11415,7 +11424,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11746,7 +11755,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11827,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -11952,7 +11961,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12236,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12364,7 +12373,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12570,7 +12579,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12982,7 +12991,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13060,10 +13069,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13188,7 +13197,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13394,7 +13403,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13472,7 +13481,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13806,7 +13815,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13887,7 +13896,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14012,7 +14021,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14296,10 +14305,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14424,7 +14433,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14630,7 +14639,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14836,7 +14845,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14917,7 +14926,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15042,7 +15051,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15248,7 +15257,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15454,7 +15463,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15660,7 +15669,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15866,7 +15875,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="Q73">
         <v>3.88</v>
@@ -16072,7 +16081,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16150,7 +16159,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16484,7 +16493,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16690,7 +16699,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16768,10 +16777,10 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17514,7 +17523,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17720,7 +17729,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18007,7 +18016,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18132,7 +18141,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18213,7 +18222,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -18416,7 +18425,7 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.57</v>
@@ -18750,7 +18759,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18956,7 +18965,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19162,7 +19171,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19240,7 +19249,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19449,7 +19458,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -19574,7 +19583,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20348,6 +20357,624 @@
         <v>4.5</v>
       </c>
       <c r="BP94">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7321489</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45445.1875</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>147</v>
+      </c>
+      <c r="P95" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q95">
+        <v>3.1</v>
+      </c>
+      <c r="R95">
+        <v>2.1</v>
+      </c>
+      <c r="S95">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.4</v>
+      </c>
+      <c r="AA95">
+        <v>3.1</v>
+      </c>
+      <c r="AB95">
+        <v>2.75</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>8.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.3</v>
+      </c>
+      <c r="AF95">
+        <v>3.35</v>
+      </c>
+      <c r="AG95">
+        <v>2.14</v>
+      </c>
+      <c r="AH95">
+        <v>1.75</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.55</v>
+      </c>
+      <c r="AN95">
+        <v>1.14</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1.38</v>
+      </c>
+      <c r="AQ95">
+        <v>0.89</v>
+      </c>
+      <c r="AR95">
+        <v>1.34</v>
+      </c>
+      <c r="AS95">
+        <v>1.56</v>
+      </c>
+      <c r="AT95">
+        <v>2.9</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>8</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>13</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>4</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>1.91</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.2</v>
+      </c>
+      <c r="BG95">
+        <v>1.52</v>
+      </c>
+      <c r="BH95">
+        <v>2.36</v>
+      </c>
+      <c r="BI95">
+        <v>1.93</v>
+      </c>
+      <c r="BJ95">
+        <v>1.81</v>
+      </c>
+      <c r="BK95">
+        <v>2.55</v>
+      </c>
+      <c r="BL95">
+        <v>1.45</v>
+      </c>
+      <c r="BM95">
+        <v>3.48</v>
+      </c>
+      <c r="BN95">
+        <v>1.24</v>
+      </c>
+      <c r="BO95">
+        <v>5.15</v>
+      </c>
+      <c r="BP95">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7321490</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45445.1875</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
+      </c>
+      <c r="P96" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q96">
+        <v>3.4</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>3.2</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.75</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>8</v>
+      </c>
+      <c r="Y96">
+        <v>1.08</v>
+      </c>
+      <c r="Z96">
+        <v>2.44</v>
+      </c>
+      <c r="AA96">
+        <v>3.09</v>
+      </c>
+      <c r="AB96">
+        <v>2.71</v>
+      </c>
+      <c r="AC96">
+        <v>1.06</v>
+      </c>
+      <c r="AD96">
+        <v>8.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.3</v>
+      </c>
+      <c r="AF96">
+        <v>3.35</v>
+      </c>
+      <c r="AG96">
+        <v>2.14</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.73</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>1.5</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.42</v>
+      </c>
+      <c r="AN96">
+        <v>1.71</v>
+      </c>
+      <c r="AO96">
+        <v>1.43</v>
+      </c>
+      <c r="AP96">
+        <v>1.5</v>
+      </c>
+      <c r="AQ96">
+        <v>1.63</v>
+      </c>
+      <c r="AR96">
+        <v>1.57</v>
+      </c>
+      <c r="AS96">
+        <v>1.28</v>
+      </c>
+      <c r="AT96">
+        <v>2.85</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>11</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>8</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>9</v>
+      </c>
+      <c r="BD96">
+        <v>2.2</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>1.91</v>
+      </c>
+      <c r="BG96">
+        <v>1.44</v>
+      </c>
+      <c r="BH96">
+        <v>2.58</v>
+      </c>
+      <c r="BI96">
+        <v>1.81</v>
+      </c>
+      <c r="BJ96">
+        <v>1.94</v>
+      </c>
+      <c r="BK96">
+        <v>2.34</v>
+      </c>
+      <c r="BL96">
+        <v>1.53</v>
+      </c>
+      <c r="BM96">
+        <v>3.18</v>
+      </c>
+      <c r="BN96">
+        <v>1.28</v>
+      </c>
+      <c r="BO96">
+        <v>4.55</v>
+      </c>
+      <c r="BP96">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7321491</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45445.29166666666</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>149</v>
+      </c>
+      <c r="P97" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q97">
+        <v>3.28</v>
+      </c>
+      <c r="R97">
+        <v>2.01</v>
+      </c>
+      <c r="S97">
+        <v>3.44</v>
+      </c>
+      <c r="T97">
+        <v>1.45</v>
+      </c>
+      <c r="U97">
+        <v>2.64</v>
+      </c>
+      <c r="V97">
+        <v>2.99</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>7.7</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.53</v>
+      </c>
+      <c r="AA97">
+        <v>3.08</v>
+      </c>
+      <c r="AB97">
+        <v>2.61</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>7.8</v>
+      </c>
+      <c r="AE97">
+        <v>1.33</v>
+      </c>
+      <c r="AF97">
+        <v>3.4</v>
+      </c>
+      <c r="AG97">
+        <v>2.12</v>
+      </c>
+      <c r="AH97">
+        <v>1.73</v>
+      </c>
+      <c r="AI97">
+        <v>1.79</v>
+      </c>
+      <c r="AJ97">
+        <v>1.96</v>
+      </c>
+      <c r="AK97">
+        <v>1.45</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.5</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0.67</v>
+      </c>
+      <c r="AP97">
+        <v>0.88</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.48</v>
+      </c>
+      <c r="AS97">
+        <v>1.38</v>
+      </c>
+      <c r="AT97">
+        <v>2.86</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>7</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>13</v>
+      </c>
+      <c r="AZ97">
+        <v>7</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>7</v>
+      </c>
+      <c r="BC97">
+        <v>15</v>
+      </c>
+      <c r="BD97">
+        <v>2.1</v>
+      </c>
+      <c r="BE97">
+        <v>7.5</v>
+      </c>
+      <c r="BF97">
+        <v>1.95</v>
+      </c>
+      <c r="BG97">
+        <v>1.43</v>
+      </c>
+      <c r="BH97">
+        <v>2.62</v>
+      </c>
+      <c r="BI97">
+        <v>1.9</v>
+      </c>
+      <c r="BJ97">
+        <v>1.9</v>
+      </c>
+      <c r="BK97">
+        <v>2.29</v>
+      </c>
+      <c r="BL97">
+        <v>1.55</v>
+      </c>
+      <c r="BM97">
+        <v>3.08</v>
+      </c>
+      <c r="BN97">
+        <v>1.3</v>
+      </c>
+      <c r="BO97">
+        <v>4.45</v>
+      </c>
+      <c r="BP97">
         <v>1.15</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,12 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['13', '56', '66']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -629,6 +635,9 @@
   </si>
   <si>
     <t>['23', '77']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,7 +1464,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1536,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1867,7 +1876,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1948,7 +1957,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2073,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2151,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2279,7 +2288,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2360,7 +2369,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2485,7 +2494,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2769,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.89</v>
@@ -2897,7 +2906,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3103,7 +3112,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3184,7 +3193,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3515,7 +3524,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3593,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.63</v>
@@ -3721,7 +3730,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4008,7 +4017,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4417,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4751,7 +4760,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4957,7 +4966,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5244,7 +5253,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5369,7 +5378,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5450,7 +5459,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5575,7 +5584,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5859,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5987,7 +5996,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6065,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.89</v>
@@ -6193,7 +6202,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6271,10 +6280,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6605,7 +6614,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6683,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -6811,7 +6820,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6892,7 +6901,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7301,7 +7310,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -7510,7 +7519,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7635,7 +7644,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7841,7 +7850,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8047,7 +8056,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8459,7 +8468,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8665,7 +8674,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8871,7 +8880,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9283,7 +9292,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9364,7 +9373,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9570,7 +9579,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9695,7 +9704,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10185,10 +10194,10 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10313,7 +10322,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10519,7 +10528,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10597,7 +10606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10806,7 +10815,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ48">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10931,7 +10940,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11137,7 +11146,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11215,10 +11224,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11627,7 +11636,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -11755,7 +11764,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11961,7 +11970,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12248,7 +12257,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12373,7 +12382,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12579,7 +12588,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12657,7 +12666,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.88</v>
@@ -12991,7 +13000,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13197,7 +13206,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13403,7 +13412,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13687,7 +13696,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>0.78</v>
@@ -13815,7 +13824,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14021,7 +14030,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14433,7 +14442,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14511,10 +14520,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14639,7 +14648,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14845,7 +14854,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15051,7 +15060,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15129,10 +15138,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15257,7 +15266,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15338,7 +15347,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15463,7 +15472,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15541,7 +15550,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15669,7 +15678,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15750,7 +15759,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ72">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -15953,7 +15962,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16081,7 +16090,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16493,7 +16502,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16571,7 +16580,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16699,7 +16708,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16983,7 +16992,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17398,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17523,7 +17532,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17604,7 +17613,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17729,7 +17738,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17807,7 +17816,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>1.25</v>
@@ -18141,7 +18150,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18428,7 +18437,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18759,7 +18768,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18837,7 +18846,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.88</v>
@@ -18965,7 +18974,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19171,7 +19180,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19583,7 +19592,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19661,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.78</v>
@@ -20613,7 +20622,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20819,7 +20828,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20976,6 +20985,624 @@
       </c>
       <c r="BP97">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7321492</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q98">
+        <v>2.15</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>4.8</v>
+      </c>
+      <c r="T98">
+        <v>1.38</v>
+      </c>
+      <c r="U98">
+        <v>2.8</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.77</v>
+      </c>
+      <c r="AA98">
+        <v>3.6</v>
+      </c>
+      <c r="AB98">
+        <v>4.13</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.4</v>
+      </c>
+      <c r="AG98">
+        <v>1.85</v>
+      </c>
+      <c r="AH98">
+        <v>1.85</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
+        <v>1.16</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.38</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.44</v>
+      </c>
+      <c r="AR98">
+        <v>1.61</v>
+      </c>
+      <c r="AS98">
+        <v>1.37</v>
+      </c>
+      <c r="AT98">
+        <v>2.98</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>13</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>17</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>7</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.59</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.91</v>
+      </c>
+      <c r="BG98">
+        <v>1.5</v>
+      </c>
+      <c r="BH98">
+        <v>2.45</v>
+      </c>
+      <c r="BI98">
+        <v>2.1</v>
+      </c>
+      <c r="BJ98">
+        <v>1.67</v>
+      </c>
+      <c r="BK98">
+        <v>2.4</v>
+      </c>
+      <c r="BL98">
+        <v>1.5</v>
+      </c>
+      <c r="BM98">
+        <v>3.25</v>
+      </c>
+      <c r="BN98">
+        <v>1.3</v>
+      </c>
+      <c r="BO98">
+        <v>4.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7321493</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>150</v>
+      </c>
+      <c r="P99" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q99">
+        <v>2.8</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.43</v>
+      </c>
+      <c r="U99">
+        <v>2.65</v>
+      </c>
+      <c r="V99">
+        <v>2.8</v>
+      </c>
+      <c r="W99">
+        <v>1.38</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>2.07</v>
+      </c>
+      <c r="AA99">
+        <v>3.45</v>
+      </c>
+      <c r="AB99">
+        <v>3.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3.1</v>
+      </c>
+      <c r="AG99">
+        <v>1.9</v>
+      </c>
+      <c r="AH99">
+        <v>1.8</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.95</v>
+      </c>
+      <c r="AK99">
+        <v>1.33</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.63</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>1.63</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>1.44</v>
+      </c>
+      <c r="AR99">
+        <v>1.82</v>
+      </c>
+      <c r="AS99">
+        <v>1.55</v>
+      </c>
+      <c r="AT99">
+        <v>3.37</v>
+      </c>
+      <c r="AU99">
+        <v>-1</v>
+      </c>
+      <c r="AV99">
+        <v>-1</v>
+      </c>
+      <c r="AW99">
+        <v>-1</v>
+      </c>
+      <c r="AX99">
+        <v>-1</v>
+      </c>
+      <c r="AY99">
+        <v>-1</v>
+      </c>
+      <c r="AZ99">
+        <v>-1</v>
+      </c>
+      <c r="BA99">
+        <v>-1</v>
+      </c>
+      <c r="BB99">
+        <v>-1</v>
+      </c>
+      <c r="BC99">
+        <v>-1</v>
+      </c>
+      <c r="BD99">
+        <v>1.75</v>
+      </c>
+      <c r="BE99">
+        <v>7.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.45</v>
+      </c>
+      <c r="BG99">
+        <v>1.42</v>
+      </c>
+      <c r="BH99">
+        <v>2.65</v>
+      </c>
+      <c r="BI99">
+        <v>1.67</v>
+      </c>
+      <c r="BJ99">
+        <v>2.1</v>
+      </c>
+      <c r="BK99">
+        <v>2.25</v>
+      </c>
+      <c r="BL99">
+        <v>1.6</v>
+      </c>
+      <c r="BM99">
+        <v>2.95</v>
+      </c>
+      <c r="BN99">
+        <v>1.36</v>
+      </c>
+      <c r="BO99">
+        <v>4.2</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7321494</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45458.33333333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>151</v>
+      </c>
+      <c r="P100" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2.15</v>
+      </c>
+      <c r="S100">
+        <v>3.4</v>
+      </c>
+      <c r="T100">
+        <v>1.35</v>
+      </c>
+      <c r="U100">
+        <v>2.95</v>
+      </c>
+      <c r="V100">
+        <v>2.6</v>
+      </c>
+      <c r="W100">
+        <v>1.45</v>
+      </c>
+      <c r="X100">
+        <v>6</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>2.22</v>
+      </c>
+      <c r="AA100">
+        <v>3.5</v>
+      </c>
+      <c r="AB100">
+        <v>2.87</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
+        <v>3.75</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>1.96</v>
+      </c>
+      <c r="AI100">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100">
+        <v>2.2</v>
+      </c>
+      <c r="AK100">
+        <v>1.36</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.88</v>
+      </c>
+      <c r="AO100">
+        <v>1.57</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1.38</v>
+      </c>
+      <c r="AR100">
+        <v>1.82</v>
+      </c>
+      <c r="AS100">
+        <v>1.53</v>
+      </c>
+      <c r="AT100">
+        <v>3.35</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>1.59</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.9</v>
+      </c>
+      <c r="BG100">
+        <v>1.48</v>
+      </c>
+      <c r="BH100">
+        <v>2.5</v>
+      </c>
+      <c r="BI100">
+        <v>1.88</v>
+      </c>
+      <c r="BJ100">
+        <v>1.92</v>
+      </c>
+      <c r="BK100">
+        <v>2.35</v>
+      </c>
+      <c r="BL100">
+        <v>1.53</v>
+      </c>
+      <c r="BM100">
+        <v>3.2</v>
+      </c>
+      <c r="BN100">
+        <v>1.32</v>
+      </c>
+      <c r="BO100">
+        <v>4.5</v>
+      </c>
+      <c r="BP100">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,15 @@
     <t>['13', '56', '66']</t>
   </si>
   <si>
+    <t>['2', '43']</t>
+  </si>
+  <si>
+    <t>['9', '71']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -628,9 +637,6 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['5', '43']</t>
   </si>
   <si>
@@ -638,6 +644,12 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['52', '77']</t>
+  </si>
+  <si>
+    <t>['77', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.88</v>
@@ -1464,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1751,7 +1763,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1876,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2082,7 +2094,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2163,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2288,7 +2300,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2366,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2494,7 +2506,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2906,7 +2918,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3112,7 +3124,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3399,7 +3411,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3524,7 +3536,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3730,7 +3742,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4014,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4223,7 +4235,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4760,7 +4772,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4838,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4966,7 +4978,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5378,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5584,7 +5596,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5871,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5996,7 +6008,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6202,7 +6214,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6614,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6695,7 +6707,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6820,7 +6832,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7516,7 +7528,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>1.38</v>
@@ -7644,7 +7656,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7725,7 +7737,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7850,7 +7862,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8056,7 +8068,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8340,10 +8352,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8468,7 +8480,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8674,7 +8686,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8880,7 +8892,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9164,7 +9176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9292,7 +9304,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9704,7 +9716,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9991,7 +10003,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10322,7 +10334,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10528,7 +10540,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10609,7 +10621,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10812,7 +10824,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>0.44</v>
@@ -10940,7 +10952,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11021,7 +11033,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11146,7 +11158,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11639,7 +11651,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11764,7 +11776,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11970,7 +11982,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12048,10 +12060,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12382,7 +12394,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12463,7 +12475,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12588,7 +12600,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13000,7 +13012,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13206,7 +13218,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13284,7 +13296,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13412,7 +13424,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13824,7 +13836,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14030,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14111,7 +14123,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14442,7 +14454,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14648,7 +14660,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14729,7 +14741,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14854,7 +14866,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14932,7 +14944,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15060,7 +15072,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15266,7 +15278,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15472,7 +15484,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15553,7 +15565,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15678,7 +15690,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15756,7 +15768,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -16090,7 +16102,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16171,7 +16183,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16377,7 +16389,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16502,7 +16514,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16708,7 +16720,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17532,7 +17544,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17610,7 +17622,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81">
         <v>0.44</v>
@@ -17738,7 +17750,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17819,7 +17831,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18150,7 +18162,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18228,7 +18240,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18643,7 +18655,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18768,7 +18780,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18974,7 +18986,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19180,7 +19192,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19261,7 +19273,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19592,7 +19604,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19876,7 +19888,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20085,7 +20097,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20622,7 +20634,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20828,7 +20840,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21034,7 +21046,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21333,31 +21345,31 @@
         <v>3.37</v>
       </c>
       <c r="AU99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW99">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY99">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ99">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD99">
         <v>1.75</v>
@@ -21446,7 +21458,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21602,6 +21614,624 @@
         <v>4.5</v>
       </c>
       <c r="BP100">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7321495</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>152</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>2.3</v>
+      </c>
+      <c r="R101">
+        <v>2.3</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.33</v>
+      </c>
+      <c r="U101">
+        <v>3.25</v>
+      </c>
+      <c r="V101">
+        <v>2.63</v>
+      </c>
+      <c r="W101">
+        <v>1.44</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.72</v>
+      </c>
+      <c r="AA101">
+        <v>3.7</v>
+      </c>
+      <c r="AB101">
+        <v>4.29</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>10.25</v>
+      </c>
+      <c r="AE101">
+        <v>1.22</v>
+      </c>
+      <c r="AF101">
+        <v>3.66</v>
+      </c>
+      <c r="AG101">
+        <v>1.75</v>
+      </c>
+      <c r="AH101">
+        <v>1.96</v>
+      </c>
+      <c r="AI101">
+        <v>1.73</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.21</v>
+      </c>
+      <c r="AL101">
+        <v>1.26</v>
+      </c>
+      <c r="AM101">
+        <v>2.09</v>
+      </c>
+      <c r="AN101">
+        <v>2.5</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>1.22</v>
+      </c>
+      <c r="AR101">
+        <v>2.17</v>
+      </c>
+      <c r="AS101">
+        <v>1.38</v>
+      </c>
+      <c r="AT101">
+        <v>3.55</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>9</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>15</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.51</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>3.17</v>
+      </c>
+      <c r="BG101">
+        <v>1.38</v>
+      </c>
+      <c r="BH101">
+        <v>2.85</v>
+      </c>
+      <c r="BI101">
+        <v>1.85</v>
+      </c>
+      <c r="BJ101">
+        <v>1.95</v>
+      </c>
+      <c r="BK101">
+        <v>2.1</v>
+      </c>
+      <c r="BL101">
+        <v>1.67</v>
+      </c>
+      <c r="BM101">
+        <v>2.75</v>
+      </c>
+      <c r="BN101">
+        <v>1.4</v>
+      </c>
+      <c r="BO101">
+        <v>3.8</v>
+      </c>
+      <c r="BP101">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7321496</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3.6</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>2.16</v>
+      </c>
+      <c r="AA102">
+        <v>3.3</v>
+      </c>
+      <c r="AB102">
+        <v>3.13</v>
+      </c>
+      <c r="AC102">
+        <v>1.06</v>
+      </c>
+      <c r="AD102">
+        <v>8.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.3</v>
+      </c>
+      <c r="AF102">
+        <v>3.3</v>
+      </c>
+      <c r="AG102">
+        <v>1.9</v>
+      </c>
+      <c r="AH102">
+        <v>1.8</v>
+      </c>
+      <c r="AI102">
+        <v>1.73</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.33</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.63</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>1.22</v>
+      </c>
+      <c r="AR102">
+        <v>1.41</v>
+      </c>
+      <c r="AS102">
+        <v>1.63</v>
+      </c>
+      <c r="AT102">
+        <v>3.04</v>
+      </c>
+      <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>-1</v>
+      </c>
+      <c r="BB102">
+        <v>-1</v>
+      </c>
+      <c r="BC102">
+        <v>-1</v>
+      </c>
+      <c r="BD102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>7.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.1</v>
+      </c>
+      <c r="BG102">
+        <v>1.42</v>
+      </c>
+      <c r="BH102">
+        <v>2.65</v>
+      </c>
+      <c r="BI102">
+        <v>1.9</v>
+      </c>
+      <c r="BJ102">
+        <v>1.9</v>
+      </c>
+      <c r="BK102">
+        <v>2.25</v>
+      </c>
+      <c r="BL102">
+        <v>1.6</v>
+      </c>
+      <c r="BM102">
+        <v>2.95</v>
+      </c>
+      <c r="BN102">
+        <v>1.36</v>
+      </c>
+      <c r="BO102">
+        <v>4.2</v>
+      </c>
+      <c r="BP102">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7321497</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>154</v>
+      </c>
+      <c r="P103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>3.75</v>
+      </c>
+      <c r="T103">
+        <v>1.44</v>
+      </c>
+      <c r="U103">
+        <v>2.63</v>
+      </c>
+      <c r="V103">
+        <v>3.25</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>1.07</v>
+      </c>
+      <c r="Z103">
+        <v>2.12</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>3.22</v>
+      </c>
+      <c r="AC103">
+        <v>1.07</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.1</v>
+      </c>
+      <c r="AG103">
+        <v>1.96</v>
+      </c>
+      <c r="AH103">
+        <v>1.75</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.91</v>
+      </c>
+      <c r="AK103">
+        <v>1.35</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.6</v>
+      </c>
+      <c r="AN103">
+        <v>0.86</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1.13</v>
+      </c>
+      <c r="AQ103">
+        <v>0.89</v>
+      </c>
+      <c r="AR103">
+        <v>1.41</v>
+      </c>
+      <c r="AS103">
+        <v>1.61</v>
+      </c>
+      <c r="AT103">
+        <v>3.02</v>
+      </c>
+      <c r="AU103">
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <v>-1</v>
+      </c>
+      <c r="AW103">
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <v>-1</v>
+      </c>
+      <c r="AY103">
+        <v>-1</v>
+      </c>
+      <c r="AZ103">
+        <v>-1</v>
+      </c>
+      <c r="BA103">
+        <v>-1</v>
+      </c>
+      <c r="BB103">
+        <v>-1</v>
+      </c>
+      <c r="BC103">
+        <v>-1</v>
+      </c>
+      <c r="BD103">
+        <v>1.85</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>2.33</v>
+      </c>
+      <c r="BG103">
+        <v>1.48</v>
+      </c>
+      <c r="BH103">
+        <v>2.5</v>
+      </c>
+      <c r="BI103">
+        <v>1.67</v>
+      </c>
+      <c r="BJ103">
+        <v>2.1</v>
+      </c>
+      <c r="BK103">
+        <v>2.35</v>
+      </c>
+      <c r="BL103">
+        <v>1.53</v>
+      </c>
+      <c r="BM103">
+        <v>3.2</v>
+      </c>
+      <c r="BN103">
+        <v>1.32</v>
+      </c>
+      <c r="BO103">
+        <v>4.5</v>
+      </c>
+      <c r="BP103">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -21551,31 +21551,31 @@
         <v>3.35</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD100">
         <v>1.59</v>
@@ -21757,31 +21757,31 @@
         <v>3.55</v>
       </c>
       <c r="AU101">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV101">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY101">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ101">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA101">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC101">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD101">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,21 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['13', '56', '66']</t>
+  </si>
+  <si>
+    <t>['2', '43']</t>
+  </si>
+  <si>
+    <t>['9', '71']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -622,13 +637,19 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['5', '43']</t>
   </si>
   <si>
     <t>['23', '77']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['52', '77']</t>
+  </si>
+  <si>
+    <t>['77', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.88</v>
@@ -1455,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1536,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1867,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1948,7 +1969,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2073,7 +2094,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2151,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2279,7 +2300,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2357,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2485,7 +2506,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2769,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.89</v>
@@ -2897,7 +2918,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3103,7 +3124,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3184,7 +3205,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3390,7 +3411,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3515,7 +3536,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3593,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.63</v>
@@ -3721,7 +3742,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4005,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4214,7 +4235,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4417,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4751,7 +4772,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4829,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4957,7 +4978,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5244,7 +5265,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5369,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5450,7 +5471,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5575,7 +5596,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5859,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5987,7 +6008,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6065,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.89</v>
@@ -6193,7 +6214,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6271,10 +6292,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6605,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6683,10 +6704,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6811,7 +6832,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6892,7 +6913,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7301,7 +7322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -7507,10 +7528,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7635,7 +7656,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7716,7 +7737,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7841,7 +7862,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8047,7 +8068,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8331,10 +8352,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8459,7 +8480,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8665,7 +8686,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8871,7 +8892,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9155,7 +9176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9283,7 +9304,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9364,7 +9385,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9570,7 +9591,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9695,7 +9716,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9982,7 +10003,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10185,10 +10206,10 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10313,7 +10334,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10519,7 +10540,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10597,10 +10618,10 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10803,10 +10824,10 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10931,7 +10952,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11012,7 +11033,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11137,7 +11158,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11215,10 +11236,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11627,10 +11648,10 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11755,7 +11776,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11961,7 +11982,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12039,10 +12060,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12248,7 +12269,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12373,7 +12394,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12454,7 +12475,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12579,7 +12600,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12657,7 +12678,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.88</v>
@@ -12991,7 +13012,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13197,7 +13218,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13275,7 +13296,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13403,7 +13424,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13687,7 +13708,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>0.78</v>
@@ -13815,7 +13836,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14021,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14102,7 +14123,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14433,7 +14454,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14511,10 +14532,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14639,7 +14660,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14720,7 +14741,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14845,7 +14866,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14923,7 +14944,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15051,7 +15072,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15129,10 +15150,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15257,7 +15278,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15338,7 +15359,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15463,7 +15484,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15541,10 +15562,10 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15669,7 +15690,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15747,10 +15768,10 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -15953,7 +15974,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16081,7 +16102,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16162,7 +16183,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16368,7 +16389,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16493,7 +16514,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16571,7 +16592,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16699,7 +16720,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16983,7 +17004,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17398,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17523,7 +17544,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17601,10 +17622,10 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17729,7 +17750,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17807,10 +17828,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18141,7 +18162,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18219,7 +18240,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18428,7 +18449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18634,7 +18655,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18759,7 +18780,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18837,7 +18858,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.88</v>
@@ -18965,7 +18986,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19171,7 +19192,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19252,7 +19273,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19583,7 +19604,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19661,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.78</v>
@@ -19867,7 +19888,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20076,7 +20097,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20613,7 +20634,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20819,7 +20840,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20976,6 +20997,1242 @@
       </c>
       <c r="BP97">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7321492</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q98">
+        <v>2.15</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>4.8</v>
+      </c>
+      <c r="T98">
+        <v>1.38</v>
+      </c>
+      <c r="U98">
+        <v>2.8</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.77</v>
+      </c>
+      <c r="AA98">
+        <v>3.6</v>
+      </c>
+      <c r="AB98">
+        <v>4.13</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.4</v>
+      </c>
+      <c r="AG98">
+        <v>1.85</v>
+      </c>
+      <c r="AH98">
+        <v>1.85</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
+        <v>1.16</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.38</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.44</v>
+      </c>
+      <c r="AR98">
+        <v>1.61</v>
+      </c>
+      <c r="AS98">
+        <v>1.37</v>
+      </c>
+      <c r="AT98">
+        <v>2.98</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>13</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>17</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>7</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.59</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.91</v>
+      </c>
+      <c r="BG98">
+        <v>1.5</v>
+      </c>
+      <c r="BH98">
+        <v>2.45</v>
+      </c>
+      <c r="BI98">
+        <v>2.1</v>
+      </c>
+      <c r="BJ98">
+        <v>1.67</v>
+      </c>
+      <c r="BK98">
+        <v>2.4</v>
+      </c>
+      <c r="BL98">
+        <v>1.5</v>
+      </c>
+      <c r="BM98">
+        <v>3.25</v>
+      </c>
+      <c r="BN98">
+        <v>1.3</v>
+      </c>
+      <c r="BO98">
+        <v>4.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7321493</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>150</v>
+      </c>
+      <c r="P99" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q99">
+        <v>2.8</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.43</v>
+      </c>
+      <c r="U99">
+        <v>2.65</v>
+      </c>
+      <c r="V99">
+        <v>2.8</v>
+      </c>
+      <c r="W99">
+        <v>1.38</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>2.07</v>
+      </c>
+      <c r="AA99">
+        <v>3.45</v>
+      </c>
+      <c r="AB99">
+        <v>3.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3.1</v>
+      </c>
+      <c r="AG99">
+        <v>1.9</v>
+      </c>
+      <c r="AH99">
+        <v>1.8</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.95</v>
+      </c>
+      <c r="AK99">
+        <v>1.33</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.63</v>
+      </c>
+      <c r="AN99">
+        <v>1.33</v>
+      </c>
+      <c r="AO99">
+        <v>1.63</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>1.44</v>
+      </c>
+      <c r="AR99">
+        <v>1.82</v>
+      </c>
+      <c r="AS99">
+        <v>1.55</v>
+      </c>
+      <c r="AT99">
+        <v>3.37</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>9</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
+        <v>7</v>
+      </c>
+      <c r="BD99">
+        <v>1.75</v>
+      </c>
+      <c r="BE99">
+        <v>7.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.45</v>
+      </c>
+      <c r="BG99">
+        <v>1.42</v>
+      </c>
+      <c r="BH99">
+        <v>2.65</v>
+      </c>
+      <c r="BI99">
+        <v>1.67</v>
+      </c>
+      <c r="BJ99">
+        <v>2.1</v>
+      </c>
+      <c r="BK99">
+        <v>2.25</v>
+      </c>
+      <c r="BL99">
+        <v>1.6</v>
+      </c>
+      <c r="BM99">
+        <v>2.95</v>
+      </c>
+      <c r="BN99">
+        <v>1.36</v>
+      </c>
+      <c r="BO99">
+        <v>4.2</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7321494</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45458.33333333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>151</v>
+      </c>
+      <c r="P100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2.15</v>
+      </c>
+      <c r="S100">
+        <v>3.4</v>
+      </c>
+      <c r="T100">
+        <v>1.35</v>
+      </c>
+      <c r="U100">
+        <v>2.95</v>
+      </c>
+      <c r="V100">
+        <v>2.6</v>
+      </c>
+      <c r="W100">
+        <v>1.45</v>
+      </c>
+      <c r="X100">
+        <v>6</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>2.22</v>
+      </c>
+      <c r="AA100">
+        <v>3.5</v>
+      </c>
+      <c r="AB100">
+        <v>2.87</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
+        <v>3.75</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>1.96</v>
+      </c>
+      <c r="AI100">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100">
+        <v>2.2</v>
+      </c>
+      <c r="AK100">
+        <v>1.36</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.88</v>
+      </c>
+      <c r="AO100">
+        <v>1.57</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1.38</v>
+      </c>
+      <c r="AR100">
+        <v>1.82</v>
+      </c>
+      <c r="AS100">
+        <v>1.53</v>
+      </c>
+      <c r="AT100">
+        <v>3.35</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>10</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>5</v>
+      </c>
+      <c r="BA100">
+        <v>9</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>1.59</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.9</v>
+      </c>
+      <c r="BG100">
+        <v>1.48</v>
+      </c>
+      <c r="BH100">
+        <v>2.5</v>
+      </c>
+      <c r="BI100">
+        <v>1.88</v>
+      </c>
+      <c r="BJ100">
+        <v>1.92</v>
+      </c>
+      <c r="BK100">
+        <v>2.35</v>
+      </c>
+      <c r="BL100">
+        <v>1.53</v>
+      </c>
+      <c r="BM100">
+        <v>3.2</v>
+      </c>
+      <c r="BN100">
+        <v>1.32</v>
+      </c>
+      <c r="BO100">
+        <v>4.5</v>
+      </c>
+      <c r="BP100">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7321495</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>152</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>2.3</v>
+      </c>
+      <c r="R101">
+        <v>2.3</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.33</v>
+      </c>
+      <c r="U101">
+        <v>3.25</v>
+      </c>
+      <c r="V101">
+        <v>2.63</v>
+      </c>
+      <c r="W101">
+        <v>1.44</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.72</v>
+      </c>
+      <c r="AA101">
+        <v>3.7</v>
+      </c>
+      <c r="AB101">
+        <v>4.29</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>10.25</v>
+      </c>
+      <c r="AE101">
+        <v>1.22</v>
+      </c>
+      <c r="AF101">
+        <v>3.66</v>
+      </c>
+      <c r="AG101">
+        <v>1.75</v>
+      </c>
+      <c r="AH101">
+        <v>1.96</v>
+      </c>
+      <c r="AI101">
+        <v>1.73</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.21</v>
+      </c>
+      <c r="AL101">
+        <v>1.26</v>
+      </c>
+      <c r="AM101">
+        <v>2.09</v>
+      </c>
+      <c r="AN101">
+        <v>2.5</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>1.22</v>
+      </c>
+      <c r="AR101">
+        <v>2.17</v>
+      </c>
+      <c r="AS101">
+        <v>1.38</v>
+      </c>
+      <c r="AT101">
+        <v>3.55</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>9</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>15</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.51</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>3.17</v>
+      </c>
+      <c r="BG101">
+        <v>1.38</v>
+      </c>
+      <c r="BH101">
+        <v>2.85</v>
+      </c>
+      <c r="BI101">
+        <v>1.85</v>
+      </c>
+      <c r="BJ101">
+        <v>1.95</v>
+      </c>
+      <c r="BK101">
+        <v>2.1</v>
+      </c>
+      <c r="BL101">
+        <v>1.67</v>
+      </c>
+      <c r="BM101">
+        <v>2.75</v>
+      </c>
+      <c r="BN101">
+        <v>1.4</v>
+      </c>
+      <c r="BO101">
+        <v>3.8</v>
+      </c>
+      <c r="BP101">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7321496</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3.6</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>2.16</v>
+      </c>
+      <c r="AA102">
+        <v>3.3</v>
+      </c>
+      <c r="AB102">
+        <v>3.13</v>
+      </c>
+      <c r="AC102">
+        <v>1.06</v>
+      </c>
+      <c r="AD102">
+        <v>8.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.3</v>
+      </c>
+      <c r="AF102">
+        <v>3.3</v>
+      </c>
+      <c r="AG102">
+        <v>1.9</v>
+      </c>
+      <c r="AH102">
+        <v>1.8</v>
+      </c>
+      <c r="AI102">
+        <v>1.73</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.33</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.63</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>1.22</v>
+      </c>
+      <c r="AR102">
+        <v>1.41</v>
+      </c>
+      <c r="AS102">
+        <v>1.63</v>
+      </c>
+      <c r="AT102">
+        <v>3.04</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>9</v>
+      </c>
+      <c r="AX102">
+        <v>9</v>
+      </c>
+      <c r="AY102">
+        <v>12</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>7.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.1</v>
+      </c>
+      <c r="BG102">
+        <v>1.42</v>
+      </c>
+      <c r="BH102">
+        <v>2.65</v>
+      </c>
+      <c r="BI102">
+        <v>1.9</v>
+      </c>
+      <c r="BJ102">
+        <v>1.9</v>
+      </c>
+      <c r="BK102">
+        <v>2.25</v>
+      </c>
+      <c r="BL102">
+        <v>1.6</v>
+      </c>
+      <c r="BM102">
+        <v>2.95</v>
+      </c>
+      <c r="BN102">
+        <v>1.36</v>
+      </c>
+      <c r="BO102">
+        <v>4.2</v>
+      </c>
+      <c r="BP102">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7321497</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>154</v>
+      </c>
+      <c r="P103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>3.75</v>
+      </c>
+      <c r="T103">
+        <v>1.44</v>
+      </c>
+      <c r="U103">
+        <v>2.63</v>
+      </c>
+      <c r="V103">
+        <v>3.25</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>1.07</v>
+      </c>
+      <c r="Z103">
+        <v>2.12</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>3.22</v>
+      </c>
+      <c r="AC103">
+        <v>1.07</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.1</v>
+      </c>
+      <c r="AG103">
+        <v>1.96</v>
+      </c>
+      <c r="AH103">
+        <v>1.75</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.91</v>
+      </c>
+      <c r="AK103">
+        <v>1.35</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.6</v>
+      </c>
+      <c r="AN103">
+        <v>0.86</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1.13</v>
+      </c>
+      <c r="AQ103">
+        <v>0.89</v>
+      </c>
+      <c r="AR103">
+        <v>1.41</v>
+      </c>
+      <c r="AS103">
+        <v>1.61</v>
+      </c>
+      <c r="AT103">
+        <v>3.02</v>
+      </c>
+      <c r="AU103">
+        <v>9</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>18</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>7</v>
+      </c>
+      <c r="BC103">
+        <v>11</v>
+      </c>
+      <c r="BD103">
+        <v>1.85</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>2.33</v>
+      </c>
+      <c r="BG103">
+        <v>1.48</v>
+      </c>
+      <c r="BH103">
+        <v>2.5</v>
+      </c>
+      <c r="BI103">
+        <v>1.67</v>
+      </c>
+      <c r="BJ103">
+        <v>2.1</v>
+      </c>
+      <c r="BK103">
+        <v>2.35</v>
+      </c>
+      <c r="BL103">
+        <v>1.53</v>
+      </c>
+      <c r="BM103">
+        <v>3.2</v>
+      </c>
+      <c r="BN103">
+        <v>1.32</v>
+      </c>
+      <c r="BO103">
+        <v>4.5</v>
+      </c>
+      <c r="BP103">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,15 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['40', '61', '81']</t>
+  </si>
+  <si>
+    <t>['69', '90+5']</t>
+  </si>
+  <si>
+    <t>['2', '36']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -650,6 +659,12 @@
   </si>
   <si>
     <t>['77', '90+1']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['24', '40', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1491,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1888,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2094,7 +2109,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2172,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -2300,7 +2315,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2378,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2506,7 +2521,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2587,7 +2602,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2918,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3124,7 +3139,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3536,7 +3551,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3742,7 +3757,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3820,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>1.63</v>
@@ -4026,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4441,7 +4456,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4647,7 +4662,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4772,7 +4787,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4978,7 +4993,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5390,7 +5405,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5471,7 +5486,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5596,7 +5611,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5880,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>1.22</v>
@@ -6008,7 +6023,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6214,7 +6229,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6498,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6626,7 +6641,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6832,7 +6847,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6913,7 +6928,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7119,7 +7134,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7322,7 +7337,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -7656,7 +7671,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7862,7 +7877,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7943,7 +7958,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8068,7 +8083,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8352,7 +8367,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8480,7 +8495,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8558,7 +8573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>1.88</v>
@@ -8686,7 +8701,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8767,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8892,7 +8907,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9304,7 +9319,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9385,7 +9400,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9716,7 +9731,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10209,7 +10224,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10334,7 +10349,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10415,7 +10430,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10540,7 +10555,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10618,7 +10633,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>1.22</v>
@@ -10824,7 +10839,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>0.44</v>
@@ -10952,7 +10967,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11030,7 +11045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.22</v>
@@ -11158,7 +11173,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11776,7 +11791,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11982,7 +11997,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12266,10 +12281,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12394,7 +12409,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12600,7 +12615,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12678,7 +12693,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1.88</v>
@@ -12887,7 +12902,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13012,7 +13027,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13093,7 +13108,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13218,7 +13233,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13296,7 +13311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13424,7 +13439,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13711,7 +13726,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13836,7 +13851,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14042,7 +14057,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14454,7 +14469,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14660,7 +14675,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14866,7 +14881,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14944,10 +14959,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15072,7 +15087,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15150,7 +15165,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15278,7 +15293,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15484,7 +15499,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15690,7 +15705,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15771,7 +15786,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16102,7 +16117,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16180,7 +16195,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16514,7 +16529,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16595,7 +16610,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16720,7 +16735,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17004,7 +17019,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17419,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17544,7 +17559,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17750,7 +17765,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18037,7 +18052,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18162,7 +18177,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18240,7 +18255,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18780,7 +18795,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18986,7 +19001,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19192,7 +19207,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19270,7 +19285,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19682,10 +19697,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -19891,7 +19906,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ92">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20506,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -20634,7 +20649,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20840,7 +20855,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20921,7 +20936,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21046,7 +21061,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21333,7 +21348,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -21458,7 +21473,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21536,7 +21551,7 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ100">
         <v>1.38</v>
@@ -21664,7 +21679,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21870,7 +21885,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22154,7 +22169,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>0.89</v>
@@ -22233,6 +22248,624 @@
       </c>
       <c r="BP103">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7321498</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45465.25</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>155</v>
+      </c>
+      <c r="P104" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q104">
+        <v>3.1</v>
+      </c>
+      <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>3.25</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.8</v>
+      </c>
+      <c r="W104">
+        <v>1.38</v>
+      </c>
+      <c r="X104">
+        <v>7.75</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>2.6</v>
+      </c>
+      <c r="AA104">
+        <v>3</v>
+      </c>
+      <c r="AB104">
+        <v>2.63</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.3</v>
+      </c>
+      <c r="AF104">
+        <v>3.3</v>
+      </c>
+      <c r="AG104">
+        <v>2.02</v>
+      </c>
+      <c r="AH104">
+        <v>1.86</v>
+      </c>
+      <c r="AI104">
+        <v>1.72</v>
+      </c>
+      <c r="AJ104">
+        <v>2.05</v>
+      </c>
+      <c r="AK104">
+        <v>1.45</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.47</v>
+      </c>
+      <c r="AN104">
+        <v>1.13</v>
+      </c>
+      <c r="AO104">
+        <v>0.78</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.7</v>
+      </c>
+      <c r="AR104">
+        <v>1.52</v>
+      </c>
+      <c r="AS104">
+        <v>1.37</v>
+      </c>
+      <c r="AT104">
+        <v>2.89</v>
+      </c>
+      <c r="AU104">
+        <v>9</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>3</v>
+      </c>
+      <c r="BA104">
+        <v>2</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>1.94</v>
+      </c>
+      <c r="BE104">
+        <v>6.25</v>
+      </c>
+      <c r="BF104">
+        <v>2.39</v>
+      </c>
+      <c r="BG104">
+        <v>1.4</v>
+      </c>
+      <c r="BH104">
+        <v>2.72</v>
+      </c>
+      <c r="BI104">
+        <v>1.73</v>
+      </c>
+      <c r="BJ104">
+        <v>2</v>
+      </c>
+      <c r="BK104">
+        <v>2.23</v>
+      </c>
+      <c r="BL104">
+        <v>1.58</v>
+      </c>
+      <c r="BM104">
+        <v>2.98</v>
+      </c>
+      <c r="BN104">
+        <v>1.32</v>
+      </c>
+      <c r="BO104">
+        <v>4.25</v>
+      </c>
+      <c r="BP104">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7321499</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>156</v>
+      </c>
+      <c r="P105" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q105">
+        <v>3.75</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>2.75</v>
+      </c>
+      <c r="T105">
+        <v>1.41</v>
+      </c>
+      <c r="U105">
+        <v>2.7</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.38</v>
+      </c>
+      <c r="X105">
+        <v>7.3</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>3.3</v>
+      </c>
+      <c r="AA105">
+        <v>3.2</v>
+      </c>
+      <c r="AB105">
+        <v>2.07</v>
+      </c>
+      <c r="AC105">
+        <v>1.06</v>
+      </c>
+      <c r="AD105">
+        <v>8.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.3</v>
+      </c>
+      <c r="AG105">
+        <v>2.05</v>
+      </c>
+      <c r="AH105">
+        <v>1.84</v>
+      </c>
+      <c r="AI105">
+        <v>1.75</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>1.68</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.3</v>
+      </c>
+      <c r="AN105">
+        <v>1.38</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>1.56</v>
+      </c>
+      <c r="AQ105">
+        <v>0.88</v>
+      </c>
+      <c r="AR105">
+        <v>1.33</v>
+      </c>
+      <c r="AS105">
+        <v>1.33</v>
+      </c>
+      <c r="AT105">
+        <v>2.66</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>2</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>7</v>
+      </c>
+      <c r="BD105">
+        <v>2.34</v>
+      </c>
+      <c r="BE105">
+        <v>6.2</v>
+      </c>
+      <c r="BF105">
+        <v>1.98</v>
+      </c>
+      <c r="BG105">
+        <v>1.48</v>
+      </c>
+      <c r="BH105">
+        <v>2.47</v>
+      </c>
+      <c r="BI105">
+        <v>1.98</v>
+      </c>
+      <c r="BJ105">
+        <v>1.82</v>
+      </c>
+      <c r="BK105">
+        <v>2.44</v>
+      </c>
+      <c r="BL105">
+        <v>1.49</v>
+      </c>
+      <c r="BM105">
+        <v>3.34</v>
+      </c>
+      <c r="BN105">
+        <v>1.26</v>
+      </c>
+      <c r="BO105">
+        <v>4.85</v>
+      </c>
+      <c r="BP105">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7321500</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106" t="s">
+        <v>157</v>
+      </c>
+      <c r="P106" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q106">
+        <v>2.95</v>
+      </c>
+      <c r="R106">
+        <v>2.05</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.41</v>
+      </c>
+      <c r="U106">
+        <v>2.7</v>
+      </c>
+      <c r="V106">
+        <v>2.9</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>7.6</v>
+      </c>
+      <c r="Y106">
+        <v>1.07</v>
+      </c>
+      <c r="Z106">
+        <v>2.33</v>
+      </c>
+      <c r="AA106">
+        <v>3.15</v>
+      </c>
+      <c r="AB106">
+        <v>2.8</v>
+      </c>
+      <c r="AC106">
+        <v>1.06</v>
+      </c>
+      <c r="AD106">
+        <v>8.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.33</v>
+      </c>
+      <c r="AF106">
+        <v>3.1</v>
+      </c>
+      <c r="AG106">
+        <v>2.07</v>
+      </c>
+      <c r="AH106">
+        <v>1.82</v>
+      </c>
+      <c r="AI106">
+        <v>1.78</v>
+      </c>
+      <c r="AJ106">
+        <v>1.95</v>
+      </c>
+      <c r="AK106">
+        <v>1.38</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.57</v>
+      </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
+      <c r="AO106">
+        <v>1.44</v>
+      </c>
+      <c r="AP106">
+        <v>1.8</v>
+      </c>
+      <c r="AQ106">
+        <v>1.6</v>
+      </c>
+      <c r="AR106">
+        <v>1.8</v>
+      </c>
+      <c r="AS106">
+        <v>1.49</v>
+      </c>
+      <c r="AT106">
+        <v>3.29</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>10</v>
+      </c>
+      <c r="AY106">
+        <v>8</v>
+      </c>
+      <c r="AZ106">
+        <v>15</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>1.93</v>
+      </c>
+      <c r="BE106">
+        <v>6.15</v>
+      </c>
+      <c r="BF106">
+        <v>2.42</v>
+      </c>
+      <c r="BG106">
+        <v>1.45</v>
+      </c>
+      <c r="BH106">
+        <v>2.55</v>
+      </c>
+      <c r="BI106">
+        <v>1.8</v>
+      </c>
+      <c r="BJ106">
+        <v>2</v>
+      </c>
+      <c r="BK106">
+        <v>2.36</v>
+      </c>
+      <c r="BL106">
+        <v>1.52</v>
+      </c>
+      <c r="BM106">
+        <v>3.2</v>
+      </c>
+      <c r="BN106">
+        <v>1.28</v>
+      </c>
+      <c r="BO106">
+        <v>4.65</v>
+      </c>
+      <c r="BP106">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['2', '36']</t>
   </si>
   <si>
+    <t>['22', '87', '90+6']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['23', '78']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -665,6 +674,12 @@
   </si>
   <si>
     <t>['24', '40', '45+4']</t>
+  </si>
+  <si>
+    <t>['27', '51', '72']</t>
+  </si>
+  <si>
+    <t>['45+4', '64', '84']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1381,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1491,7 +1506,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1903,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1981,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2109,7 +2124,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2315,7 +2330,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2521,7 +2536,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2933,7 +2948,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3014,7 +3029,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3139,7 +3154,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3217,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0.44</v>
@@ -3423,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>1.22</v>
@@ -3551,7 +3566,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3757,7 +3772,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4044,7 +4059,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4247,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
         <v>0.89</v>
@@ -4787,7 +4802,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4993,7 +5008,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5074,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5277,7 +5292,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.44</v>
@@ -5405,7 +5420,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5611,7 +5626,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5689,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6023,7 +6038,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6229,7 +6244,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6310,7 +6325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6516,7 +6531,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6641,7 +6656,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6847,7 +6862,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6925,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7131,7 +7146,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.7</v>
@@ -7546,7 +7561,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7671,7 +7686,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7749,7 +7764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.89</v>
@@ -7877,7 +7892,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8083,7 +8098,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8495,7 +8510,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8576,7 +8591,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8701,7 +8716,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8907,7 +8922,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8985,10 +9000,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9319,7 +9334,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9397,7 +9412,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -9731,7 +9746,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9809,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10349,7 +10364,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10427,7 +10442,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
         <v>0.7</v>
@@ -10555,7 +10570,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10967,7 +10982,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11173,7 +11188,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11254,7 +11269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11791,7 +11806,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11997,7 +12012,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12409,7 +12424,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12615,7 +12630,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12696,7 +12711,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -12899,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13027,7 +13042,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13105,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13233,7 +13248,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13314,7 +13329,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13439,7 +13454,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13517,10 +13532,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13851,7 +13866,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14057,7 +14072,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14341,7 +14356,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14469,7 +14484,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14675,7 +14690,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14753,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.22</v>
@@ -14881,7 +14896,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15087,7 +15102,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15293,7 +15308,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15374,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15499,7 +15514,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15705,7 +15720,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15992,7 +16007,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16117,7 +16132,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16529,7 +16544,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16735,7 +16750,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16813,7 +16828,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>0.89</v>
@@ -17022,7 +17037,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17228,7 +17243,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17559,7 +17574,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17765,7 +17780,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18049,7 +18064,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18177,7 +18192,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18461,10 +18476,10 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18795,7 +18810,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18876,7 +18891,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19001,7 +19016,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19079,10 +19094,10 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19207,7 +19222,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -20318,7 +20333,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ94">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20649,7 +20664,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20727,7 +20742,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -20855,7 +20870,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20933,7 +20948,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
         <v>0.88</v>
@@ -21061,7 +21076,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21473,7 +21488,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21554,7 +21569,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21679,7 +21694,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21885,7 +21900,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22503,7 +22518,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22709,7 +22724,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22866,6 +22881,624 @@
       </c>
       <c r="BP106">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7321501</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45465.33333333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>158</v>
+      </c>
+      <c r="P107" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q107">
+        <v>2.6</v>
+      </c>
+      <c r="R107">
+        <v>2.15</v>
+      </c>
+      <c r="S107">
+        <v>3.6</v>
+      </c>
+      <c r="T107">
+        <v>1.36</v>
+      </c>
+      <c r="U107">
+        <v>2.99</v>
+      </c>
+      <c r="V107">
+        <v>2.67</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>6.65</v>
+      </c>
+      <c r="Y107">
+        <v>1.09</v>
+      </c>
+      <c r="Z107">
+        <v>2.02</v>
+      </c>
+      <c r="AA107">
+        <v>3.25</v>
+      </c>
+      <c r="AB107">
+        <v>3.35</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE107">
+        <v>1.24</v>
+      </c>
+      <c r="AF107">
+        <v>3.5</v>
+      </c>
+      <c r="AG107">
+        <v>1.89</v>
+      </c>
+      <c r="AH107">
+        <v>2</v>
+      </c>
+      <c r="AI107">
+        <v>1.67</v>
+      </c>
+      <c r="AJ107">
+        <v>2.1</v>
+      </c>
+      <c r="AK107">
+        <v>1.3</v>
+      </c>
+      <c r="AL107">
+        <v>1.22</v>
+      </c>
+      <c r="AM107">
+        <v>1.72</v>
+      </c>
+      <c r="AN107">
+        <v>0.88</v>
+      </c>
+      <c r="AO107">
+        <v>1.38</v>
+      </c>
+      <c r="AP107">
+        <v>1.11</v>
+      </c>
+      <c r="AQ107">
+        <v>1.22</v>
+      </c>
+      <c r="AR107">
+        <v>1.56</v>
+      </c>
+      <c r="AS107">
+        <v>1.48</v>
+      </c>
+      <c r="AT107">
+        <v>3.04</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>11</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>11</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.53</v>
+      </c>
+      <c r="BE107">
+        <v>6.85</v>
+      </c>
+      <c r="BF107">
+        <v>3.4</v>
+      </c>
+      <c r="BG107">
+        <v>1.34</v>
+      </c>
+      <c r="BH107">
+        <v>2.88</v>
+      </c>
+      <c r="BI107">
+        <v>1.73</v>
+      </c>
+      <c r="BJ107">
+        <v>2</v>
+      </c>
+      <c r="BK107">
+        <v>2.11</v>
+      </c>
+      <c r="BL107">
+        <v>1.68</v>
+      </c>
+      <c r="BM107">
+        <v>2.8</v>
+      </c>
+      <c r="BN107">
+        <v>1.38</v>
+      </c>
+      <c r="BO107">
+        <v>3.88</v>
+      </c>
+      <c r="BP107">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7321502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45466.25</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>159</v>
+      </c>
+      <c r="P108" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q108">
+        <v>3.25</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>3.4</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.63</v>
+      </c>
+      <c r="V108">
+        <v>3.25</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>9</v>
+      </c>
+      <c r="Y108">
+        <v>1.07</v>
+      </c>
+      <c r="Z108">
+        <v>2.5</v>
+      </c>
+      <c r="AA108">
+        <v>3.1</v>
+      </c>
+      <c r="AB108">
+        <v>2.7</v>
+      </c>
+      <c r="AC108">
+        <v>1.03</v>
+      </c>
+      <c r="AD108">
+        <v>8.1</v>
+      </c>
+      <c r="AE108">
+        <v>1.36</v>
+      </c>
+      <c r="AF108">
+        <v>3.22</v>
+      </c>
+      <c r="AG108">
+        <v>2.05</v>
+      </c>
+      <c r="AH108">
+        <v>1.7</v>
+      </c>
+      <c r="AI108">
+        <v>1.83</v>
+      </c>
+      <c r="AJ108">
+        <v>1.83</v>
+      </c>
+      <c r="AK108">
+        <v>1.44</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.47</v>
+      </c>
+      <c r="AN108">
+        <v>1.13</v>
+      </c>
+      <c r="AO108">
+        <v>1.88</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>2</v>
+      </c>
+      <c r="AR108">
+        <v>1.61</v>
+      </c>
+      <c r="AS108">
+        <v>1.45</v>
+      </c>
+      <c r="AT108">
+        <v>3.06</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>10</v>
+      </c>
+      <c r="AW108">
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>4</v>
+      </c>
+      <c r="AZ108">
+        <v>15</v>
+      </c>
+      <c r="BA108">
+        <v>2</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>2.07</v>
+      </c>
+      <c r="BE108">
+        <v>6.1</v>
+      </c>
+      <c r="BF108">
+        <v>2.24</v>
+      </c>
+      <c r="BG108">
+        <v>1.53</v>
+      </c>
+      <c r="BH108">
+        <v>2.34</v>
+      </c>
+      <c r="BI108">
+        <v>1.88</v>
+      </c>
+      <c r="BJ108">
+        <v>1.92</v>
+      </c>
+      <c r="BK108">
+        <v>2.58</v>
+      </c>
+      <c r="BL108">
+        <v>1.44</v>
+      </c>
+      <c r="BM108">
+        <v>3.56</v>
+      </c>
+      <c r="BN108">
+        <v>1.23</v>
+      </c>
+      <c r="BO108">
+        <v>5.2</v>
+      </c>
+      <c r="BP108">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7321503</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45466.25</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>160</v>
+      </c>
+      <c r="P109" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q109">
+        <v>4.33</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>2.5</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>3.5</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
+        <v>1.91</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.22</v>
+      </c>
+      <c r="AF109">
+        <v>3.66</v>
+      </c>
+      <c r="AG109">
+        <v>1.73</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>1.67</v>
+      </c>
+      <c r="AJ109">
+        <v>2.1</v>
+      </c>
+      <c r="AK109">
+        <v>1.9</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>1.2</v>
+      </c>
+      <c r="AN109">
+        <v>1.5</v>
+      </c>
+      <c r="AO109">
+        <v>1.38</v>
+      </c>
+      <c r="AP109">
+        <v>1.33</v>
+      </c>
+      <c r="AQ109">
+        <v>1.56</v>
+      </c>
+      <c r="AR109">
+        <v>1.6</v>
+      </c>
+      <c r="AS109">
+        <v>1.44</v>
+      </c>
+      <c r="AT109">
+        <v>3.04</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>7</v>
+      </c>
+      <c r="AW109">
+        <v>8</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>14</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>3</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>2.47</v>
+      </c>
+      <c r="BE109">
+        <v>6.25</v>
+      </c>
+      <c r="BF109">
+        <v>1.89</v>
+      </c>
+      <c r="BG109">
+        <v>1.41</v>
+      </c>
+      <c r="BH109">
+        <v>2.69</v>
+      </c>
+      <c r="BI109">
+        <v>1.88</v>
+      </c>
+      <c r="BJ109">
+        <v>1.92</v>
+      </c>
+      <c r="BK109">
+        <v>2.27</v>
+      </c>
+      <c r="BL109">
+        <v>1.56</v>
+      </c>
+      <c r="BM109">
+        <v>3.04</v>
+      </c>
+      <c r="BN109">
+        <v>1.31</v>
+      </c>
+      <c r="BO109">
+        <v>4.4</v>
+      </c>
+      <c r="BP109">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -23229,10 +23229,10 @@
         <v>3.06</v>
       </c>
       <c r="AU108">
+        <v>2</v>
+      </c>
+      <c r="AV108">
         <v>4</v>
-      </c>
-      <c r="AV108">
-        <v>10</v>
       </c>
       <c r="AW108">
         <v>0</v>
@@ -23241,10 +23241,10 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ108">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA108">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>['23', '78']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['77', '90+4']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1041,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1512,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1587,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1918,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2124,7 +2130,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2330,7 +2336,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2536,7 +2542,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2614,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ8">
         <v>0.7</v>
@@ -2948,7 +2954,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3026,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10">
         <v>1.56</v>
@@ -3154,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3235,7 +3241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3566,7 +3572,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3772,7 +3778,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4471,7 +4477,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4674,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ18">
         <v>0.7</v>
@@ -4802,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5008,7 +5014,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5295,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5420,7 +5426,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5498,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -5626,7 +5632,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6038,7 +6044,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6244,7 +6250,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6656,7 +6662,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6862,7 +6868,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7686,7 +7692,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7892,7 +7898,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7970,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8098,7 +8104,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8510,7 +8516,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8716,7 +8722,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8797,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8922,7 +8928,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9334,7 +9340,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9618,10 +9624,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9746,7 +9752,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10030,7 +10036,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ44">
         <v>0.89</v>
@@ -10364,7 +10370,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10570,7 +10576,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10857,7 +10863,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10982,7 +10988,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11188,7 +11194,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11472,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
         <v>1.63</v>
@@ -11806,7 +11812,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12012,7 +12018,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12424,7 +12430,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12502,7 +12508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ56">
         <v>1.22</v>
@@ -12630,7 +12636,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13042,7 +13048,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13123,7 +13129,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13248,7 +13254,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13454,7 +13460,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13866,7 +13872,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13944,7 +13950,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ63">
         <v>1.63</v>
@@ -14072,7 +14078,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14150,7 +14156,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14484,7 +14490,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14565,7 +14571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14690,7 +14696,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14896,7 +14902,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14977,7 +14983,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15102,7 +15108,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15183,7 +15189,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15308,7 +15314,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15514,7 +15520,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15720,7 +15726,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16132,7 +16138,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16416,7 +16422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ75">
         <v>0.89</v>
@@ -16544,7 +16550,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16750,7 +16756,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17240,7 +17246,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17574,7 +17580,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17655,7 +17661,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17780,7 +17786,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18067,7 +18073,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18192,7 +18198,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18682,7 +18688,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ86">
         <v>1.22</v>
@@ -18810,7 +18816,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19016,7 +19022,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19222,7 +19228,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19506,7 +19512,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ90">
         <v>0.89</v>
@@ -20124,7 +20130,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ93">
         <v>1.22</v>
@@ -20330,7 +20336,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ94">
         <v>2</v>
@@ -20664,7 +20670,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20870,7 +20876,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20951,7 +20957,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21076,7 +21082,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21157,7 +21163,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ98">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21488,7 +21494,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21694,7 +21700,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21900,7 +21906,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22518,7 +22524,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22599,7 +22605,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22724,7 +22730,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23136,7 +23142,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23342,7 +23348,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23498,6 +23504,418 @@
         <v>4.4</v>
       </c>
       <c r="BP109">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7321504</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45468.3125</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>161</v>
+      </c>
+      <c r="P110" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q110">
+        <v>3.54</v>
+      </c>
+      <c r="R110">
+        <v>2.17</v>
+      </c>
+      <c r="S110">
+        <v>2.88</v>
+      </c>
+      <c r="T110">
+        <v>1.37</v>
+      </c>
+      <c r="U110">
+        <v>2.95</v>
+      </c>
+      <c r="V110">
+        <v>2.71</v>
+      </c>
+      <c r="W110">
+        <v>1.43</v>
+      </c>
+      <c r="X110">
+        <v>6.75</v>
+      </c>
+      <c r="Y110">
+        <v>1.09</v>
+      </c>
+      <c r="Z110">
+        <v>2.84</v>
+      </c>
+      <c r="AA110">
+        <v>3.35</v>
+      </c>
+      <c r="AB110">
+        <v>2.26</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>9.6</v>
+      </c>
+      <c r="AE110">
+        <v>1.25</v>
+      </c>
+      <c r="AF110">
+        <v>3.42</v>
+      </c>
+      <c r="AG110">
+        <v>1.79</v>
+      </c>
+      <c r="AH110">
+        <v>1.84</v>
+      </c>
+      <c r="AI110">
+        <v>1.69</v>
+      </c>
+      <c r="AJ110">
+        <v>2.09</v>
+      </c>
+      <c r="AK110">
+        <v>1.61</v>
+      </c>
+      <c r="AL110">
+        <v>1.31</v>
+      </c>
+      <c r="AM110">
+        <v>1.41</v>
+      </c>
+      <c r="AN110">
+        <v>1.78</v>
+      </c>
+      <c r="AO110">
+        <v>0.88</v>
+      </c>
+      <c r="AP110">
+        <v>1.9</v>
+      </c>
+      <c r="AQ110">
+        <v>0.78</v>
+      </c>
+      <c r="AR110">
+        <v>1.82</v>
+      </c>
+      <c r="AS110">
+        <v>1.31</v>
+      </c>
+      <c r="AT110">
+        <v>3.13</v>
+      </c>
+      <c r="AU110">
+        <v>-1</v>
+      </c>
+      <c r="AV110">
+        <v>-1</v>
+      </c>
+      <c r="AW110">
+        <v>-1</v>
+      </c>
+      <c r="AX110">
+        <v>-1</v>
+      </c>
+      <c r="AY110">
+        <v>-1</v>
+      </c>
+      <c r="AZ110">
+        <v>-1</v>
+      </c>
+      <c r="BA110">
+        <v>-1</v>
+      </c>
+      <c r="BB110">
+        <v>-1</v>
+      </c>
+      <c r="BC110">
+        <v>-1</v>
+      </c>
+      <c r="BD110">
+        <v>2.16</v>
+      </c>
+      <c r="BE110">
+        <v>6.3</v>
+      </c>
+      <c r="BF110">
+        <v>2.12</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.8</v>
+      </c>
+      <c r="BI110">
+        <v>1.74</v>
+      </c>
+      <c r="BJ110">
+        <v>2.06</v>
+      </c>
+      <c r="BK110">
+        <v>2.19</v>
+      </c>
+      <c r="BL110">
+        <v>1.65</v>
+      </c>
+      <c r="BM110">
+        <v>2.88</v>
+      </c>
+      <c r="BN110">
+        <v>1.34</v>
+      </c>
+      <c r="BO110">
+        <v>4.1</v>
+      </c>
+      <c r="BP110">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7321505</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45468.3125</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>162</v>
+      </c>
+      <c r="P111" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q111">
+        <v>2.57</v>
+      </c>
+      <c r="R111">
+        <v>2.3</v>
+      </c>
+      <c r="S111">
+        <v>4.5</v>
+      </c>
+      <c r="T111">
+        <v>1.38</v>
+      </c>
+      <c r="U111">
+        <v>3.1</v>
+      </c>
+      <c r="V111">
+        <v>2.88</v>
+      </c>
+      <c r="W111">
+        <v>1.43</v>
+      </c>
+      <c r="X111">
+        <v>7.25</v>
+      </c>
+      <c r="Y111">
+        <v>1.09</v>
+      </c>
+      <c r="Z111">
+        <v>1.89</v>
+      </c>
+      <c r="AA111">
+        <v>3.35</v>
+      </c>
+      <c r="AB111">
+        <v>3.75</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>11.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.27</v>
+      </c>
+      <c r="AF111">
+        <v>3.4</v>
+      </c>
+      <c r="AG111">
+        <v>1.82</v>
+      </c>
+      <c r="AH111">
+        <v>1.82</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.24</v>
+      </c>
+      <c r="AL111">
+        <v>1.27</v>
+      </c>
+      <c r="AM111">
+        <v>1.82</v>
+      </c>
+      <c r="AN111">
+        <v>2.13</v>
+      </c>
+      <c r="AO111">
+        <v>0.44</v>
+      </c>
+      <c r="AP111">
+        <v>2.22</v>
+      </c>
+      <c r="AQ111">
+        <v>0.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.51</v>
+      </c>
+      <c r="AS111">
+        <v>1.32</v>
+      </c>
+      <c r="AT111">
+        <v>2.83</v>
+      </c>
+      <c r="AU111">
+        <v>-1</v>
+      </c>
+      <c r="AV111">
+        <v>-1</v>
+      </c>
+      <c r="AW111">
+        <v>-1</v>
+      </c>
+      <c r="AX111">
+        <v>-1</v>
+      </c>
+      <c r="AY111">
+        <v>-1</v>
+      </c>
+      <c r="AZ111">
+        <v>-1</v>
+      </c>
+      <c r="BA111">
+        <v>-1</v>
+      </c>
+      <c r="BB111">
+        <v>-1</v>
+      </c>
+      <c r="BC111">
+        <v>-1</v>
+      </c>
+      <c r="BD111">
+        <v>1.44</v>
+      </c>
+      <c r="BE111">
+        <v>7.1</v>
+      </c>
+      <c r="BF111">
+        <v>3.88</v>
+      </c>
+      <c r="BG111">
+        <v>1.44</v>
+      </c>
+      <c r="BH111">
+        <v>2.64</v>
+      </c>
+      <c r="BI111">
+        <v>1.79</v>
+      </c>
+      <c r="BJ111">
+        <v>2.01</v>
+      </c>
+      <c r="BK111">
+        <v>2.26</v>
+      </c>
+      <c r="BL111">
+        <v>1.6</v>
+      </c>
+      <c r="BM111">
+        <v>3.04</v>
+      </c>
+      <c r="BN111">
+        <v>1.31</v>
+      </c>
+      <c r="BO111">
+        <v>4.4</v>
+      </c>
+      <c r="BP111">
         <v>1.16</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -23647,31 +23647,31 @@
         <v>3.13</v>
       </c>
       <c r="AU110">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW110">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY110">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ110">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB110">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC110">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD110">
         <v>2.16</v>
@@ -23853,31 +23853,31 @@
         <v>2.83</v>
       </c>
       <c r="AU111">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW111">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX111">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY111">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ111">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA111">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC111">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD111">
         <v>1.44</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,18 @@
     <t>['77', '90+4']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['56', '73']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -686,6 +698,9 @@
   </si>
   <si>
     <t>['45+4', '64', '84']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1512,7 +1527,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1924,7 +1939,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2130,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2336,7 +2351,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2542,7 +2557,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2829,7 +2844,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2954,7 +2969,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3160,7 +3175,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3238,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.4</v>
@@ -3444,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3572,7 +3587,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3653,7 +3668,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3778,7 +3793,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3859,7 +3874,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4268,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
         <v>0.89</v>
@@ -4808,7 +4823,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4886,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5014,7 +5029,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5426,7 +5441,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5632,7 +5647,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5710,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6044,7 +6059,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6125,7 +6140,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6250,7 +6265,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6662,7 +6677,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6743,7 +6758,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6868,7 +6883,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6946,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7152,7 +7167,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.7</v>
@@ -7361,7 +7376,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7564,7 +7579,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ32">
         <v>1.22</v>
@@ -7692,7 +7707,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7898,7 +7913,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8104,7 +8119,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8185,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8516,7 +8531,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8597,7 +8612,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8722,7 +8737,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8928,7 +8943,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9006,10 +9021,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9212,10 +9227,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9340,7 +9355,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9418,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -9752,7 +9767,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9833,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10370,7 +10385,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10448,7 +10463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
         <v>0.7</v>
@@ -10576,7 +10591,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10657,7 +10672,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10988,7 +11003,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11194,7 +11209,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11481,7 +11496,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11687,7 +11702,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11812,7 +11827,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11893,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12018,7 +12033,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12096,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ54">
         <v>0.89</v>
@@ -12430,7 +12445,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12636,7 +12651,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12717,7 +12732,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -13048,7 +13063,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13126,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -13254,7 +13269,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13460,7 +13475,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13538,7 +13553,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
         <v>1.56</v>
@@ -13872,7 +13887,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13953,7 +13968,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14078,7 +14093,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14159,7 +14174,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14362,10 +14377,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14490,7 +14505,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14696,7 +14711,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14902,7 +14917,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15108,7 +15123,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15314,7 +15329,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15520,7 +15535,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15726,7 +15741,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15804,7 +15819,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ72">
         <v>1.6</v>
@@ -16138,7 +16153,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16219,7 +16234,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16550,7 +16565,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16756,7 +16771,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16834,10 +16849,10 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17249,7 +17264,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17580,7 +17595,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17658,7 +17673,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ81">
         <v>0.4</v>
@@ -17786,7 +17801,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18198,7 +18213,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18279,7 +18294,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -18482,7 +18497,7 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18816,7 +18831,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18897,7 +18912,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19022,7 +19037,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19228,7 +19243,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19515,7 +19530,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -19924,7 +19939,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ92">
         <v>0.7</v>
@@ -20133,7 +20148,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20339,7 +20354,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20545,7 +20560,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.34</v>
@@ -20670,7 +20685,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20748,10 +20763,10 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -20876,7 +20891,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -20954,7 +20969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
         <v>0.78</v>
@@ -21082,7 +21097,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21494,7 +21509,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21700,7 +21715,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21778,7 +21793,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ101">
         <v>1.22</v>
@@ -21906,7 +21921,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -21987,7 +22002,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22524,7 +22539,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22730,7 +22745,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23014,7 +23029,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
         <v>1.22</v>
@@ -23142,7 +23157,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23223,7 +23238,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23348,7 +23363,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23426,7 +23441,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
         <v>1.56</v>
@@ -23917,6 +23932,830 @@
       </c>
       <c r="BP111">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7321509</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>163</v>
+      </c>
+      <c r="P112" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q112">
+        <v>3.2</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>3.3</v>
+      </c>
+      <c r="T112">
+        <v>1.45</v>
+      </c>
+      <c r="U112">
+        <v>2.55</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>7.8</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>2.5</v>
+      </c>
+      <c r="AA112">
+        <v>3.1</v>
+      </c>
+      <c r="AB112">
+        <v>2.7</v>
+      </c>
+      <c r="AC112">
+        <v>1.07</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.38</v>
+      </c>
+      <c r="AF112">
+        <v>3</v>
+      </c>
+      <c r="AG112">
+        <v>2</v>
+      </c>
+      <c r="AH112">
+        <v>1.73</v>
+      </c>
+      <c r="AI112">
+        <v>1.77</v>
+      </c>
+      <c r="AJ112">
+        <v>1.91</v>
+      </c>
+      <c r="AK112">
+        <v>1.44</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.48</v>
+      </c>
+      <c r="AN112">
+        <v>1.33</v>
+      </c>
+      <c r="AO112">
+        <v>1.22</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>1.1</v>
+      </c>
+      <c r="AR112">
+        <v>1.61</v>
+      </c>
+      <c r="AS112">
+        <v>1.64</v>
+      </c>
+      <c r="AT112">
+        <v>3.25</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>8</v>
+      </c>
+      <c r="AZ112">
+        <v>5</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>8</v>
+      </c>
+      <c r="BD112">
+        <v>2.05</v>
+      </c>
+      <c r="BE112">
+        <v>7.5</v>
+      </c>
+      <c r="BF112">
+        <v>2.05</v>
+      </c>
+      <c r="BG112">
+        <v>1.47</v>
+      </c>
+      <c r="BH112">
+        <v>2.49</v>
+      </c>
+      <c r="BI112">
+        <v>1.85</v>
+      </c>
+      <c r="BJ112">
+        <v>1.85</v>
+      </c>
+      <c r="BK112">
+        <v>2.41</v>
+      </c>
+      <c r="BL112">
+        <v>1.5</v>
+      </c>
+      <c r="BM112">
+        <v>3.28</v>
+      </c>
+      <c r="BN112">
+        <v>1.27</v>
+      </c>
+      <c r="BO112">
+        <v>4.75</v>
+      </c>
+      <c r="BP112">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7321508</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>164</v>
+      </c>
+      <c r="P113" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q113">
+        <v>2.72</v>
+      </c>
+      <c r="R113">
+        <v>2.08</v>
+      </c>
+      <c r="S113">
+        <v>4.1</v>
+      </c>
+      <c r="T113">
+        <v>1.43</v>
+      </c>
+      <c r="U113">
+        <v>2.71</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>7.8</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>2.1</v>
+      </c>
+      <c r="AA113">
+        <v>3.2</v>
+      </c>
+      <c r="AB113">
+        <v>3.3</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE113">
+        <v>1.32</v>
+      </c>
+      <c r="AF113">
+        <v>2.98</v>
+      </c>
+      <c r="AG113">
+        <v>1.95</v>
+      </c>
+      <c r="AH113">
+        <v>1.75</v>
+      </c>
+      <c r="AI113">
+        <v>1.85</v>
+      </c>
+      <c r="AJ113">
+        <v>1.89</v>
+      </c>
+      <c r="AK113">
+        <v>1.31</v>
+      </c>
+      <c r="AL113">
+        <v>1.32</v>
+      </c>
+      <c r="AM113">
+        <v>1.72</v>
+      </c>
+      <c r="AN113">
+        <v>1.11</v>
+      </c>
+      <c r="AO113">
+        <v>1.63</v>
+      </c>
+      <c r="AP113">
+        <v>1.3</v>
+      </c>
+      <c r="AQ113">
+        <v>1.44</v>
+      </c>
+      <c r="AR113">
+        <v>1.53</v>
+      </c>
+      <c r="AS113">
+        <v>1.33</v>
+      </c>
+      <c r="AT113">
+        <v>2.86</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>11</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
+        <v>5</v>
+      </c>
+      <c r="BD113">
+        <v>1.91</v>
+      </c>
+      <c r="BE113">
+        <v>7.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.25</v>
+      </c>
+      <c r="BG113">
+        <v>1.45</v>
+      </c>
+      <c r="BH113">
+        <v>2.55</v>
+      </c>
+      <c r="BI113">
+        <v>1.95</v>
+      </c>
+      <c r="BJ113">
+        <v>1.77</v>
+      </c>
+      <c r="BK113">
+        <v>2.36</v>
+      </c>
+      <c r="BL113">
+        <v>1.52</v>
+      </c>
+      <c r="BM113">
+        <v>3.2</v>
+      </c>
+      <c r="BN113">
+        <v>1.28</v>
+      </c>
+      <c r="BO113">
+        <v>4.65</v>
+      </c>
+      <c r="BP113">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7321506</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>165</v>
+      </c>
+      <c r="P114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q114">
+        <v>2.15</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3</v>
+      </c>
+      <c r="V114">
+        <v>2.5</v>
+      </c>
+      <c r="W114">
+        <v>1.48</v>
+      </c>
+      <c r="X114">
+        <v>5.8</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>1.6</v>
+      </c>
+      <c r="AA114">
+        <v>3.8</v>
+      </c>
+      <c r="AB114">
+        <v>4.7</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>9.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.25</v>
+      </c>
+      <c r="AF114">
+        <v>3.85</v>
+      </c>
+      <c r="AG114">
+        <v>1.72</v>
+      </c>
+      <c r="AH114">
+        <v>2.06</v>
+      </c>
+      <c r="AI114">
+        <v>1.73</v>
+      </c>
+      <c r="AJ114">
+        <v>1.95</v>
+      </c>
+      <c r="AK114">
+        <v>1.17</v>
+      </c>
+      <c r="AL114">
+        <v>1.2</v>
+      </c>
+      <c r="AM114">
+        <v>2.2</v>
+      </c>
+      <c r="AN114">
+        <v>2.33</v>
+      </c>
+      <c r="AO114">
+        <v>0.89</v>
+      </c>
+      <c r="AP114">
+        <v>2.4</v>
+      </c>
+      <c r="AQ114">
+        <v>0.8</v>
+      </c>
+      <c r="AR114">
+        <v>2.14</v>
+      </c>
+      <c r="AS114">
+        <v>1.57</v>
+      </c>
+      <c r="AT114">
+        <v>3.71</v>
+      </c>
+      <c r="AU114">
+        <v>2</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>10</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>12</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>7</v>
+      </c>
+      <c r="BD114">
+        <v>1.45</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>3.46</v>
+      </c>
+      <c r="BG114">
+        <v>1.41</v>
+      </c>
+      <c r="BH114">
+        <v>2.69</v>
+      </c>
+      <c r="BI114">
+        <v>1.91</v>
+      </c>
+      <c r="BJ114">
+        <v>1.8</v>
+      </c>
+      <c r="BK114">
+        <v>2.25</v>
+      </c>
+      <c r="BL114">
+        <v>1.57</v>
+      </c>
+      <c r="BM114">
+        <v>3.04</v>
+      </c>
+      <c r="BN114">
+        <v>1.31</v>
+      </c>
+      <c r="BO114">
+        <v>4.35</v>
+      </c>
+      <c r="BP114">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7321507</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>166</v>
+      </c>
+      <c r="P115" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q115">
+        <v>3.1</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>3.1</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>2.85</v>
+      </c>
+      <c r="V115">
+        <v>2.65</v>
+      </c>
+      <c r="W115">
+        <v>1.42</v>
+      </c>
+      <c r="X115">
+        <v>6.6</v>
+      </c>
+      <c r="Y115">
+        <v>1.09</v>
+      </c>
+      <c r="Z115">
+        <v>2.7</v>
+      </c>
+      <c r="AA115">
+        <v>3.3</v>
+      </c>
+      <c r="AB115">
+        <v>2.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.05</v>
+      </c>
+      <c r="AD115">
+        <v>9</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
+        <v>3.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.75</v>
+      </c>
+      <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
+        <v>1.62</v>
+      </c>
+      <c r="AJ115">
+        <v>2.1</v>
+      </c>
+      <c r="AK115">
+        <v>1.45</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.5</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
+        <v>2</v>
+      </c>
+      <c r="AP115">
+        <v>1</v>
+      </c>
+      <c r="AQ115">
+        <v>1.9</v>
+      </c>
+      <c r="AR115">
+        <v>1.43</v>
+      </c>
+      <c r="AS115">
+        <v>1.45</v>
+      </c>
+      <c r="AT115">
+        <v>2.88</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>8</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>6</v>
+      </c>
+      <c r="BD115">
+        <v>2.1</v>
+      </c>
+      <c r="BE115">
+        <v>7.5</v>
+      </c>
+      <c r="BF115">
+        <v>1.95</v>
+      </c>
+      <c r="BG115">
+        <v>1.43</v>
+      </c>
+      <c r="BH115">
+        <v>2.62</v>
+      </c>
+      <c r="BI115">
+        <v>1.85</v>
+      </c>
+      <c r="BJ115">
+        <v>1.85</v>
+      </c>
+      <c r="BK115">
+        <v>2.29</v>
+      </c>
+      <c r="BL115">
+        <v>1.55</v>
+      </c>
+      <c r="BM115">
+        <v>3.08</v>
+      </c>
+      <c r="BN115">
+        <v>1.3</v>
+      </c>
+      <c r="BO115">
+        <v>4.45</v>
+      </c>
+      <c r="BP115">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['78', '81']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['2', '19']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -701,6 +710,12 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['24', '45+2', '61', '89', '90+8']</t>
+  </si>
+  <si>
+    <t>['16', '82']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,7 +1542,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1605,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ3">
         <v>0.4</v>
@@ -1814,7 +1829,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1939,7 +1954,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2020,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2145,7 +2160,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2351,7 +2366,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2557,7 +2572,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2841,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2969,7 +2984,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3047,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3175,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3587,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3793,7 +3808,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3871,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -4080,7 +4095,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4489,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>0.78</v>
@@ -4695,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18">
         <v>0.7</v>
@@ -4823,7 +4838,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5029,7 +5044,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5107,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ20">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5441,7 +5456,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5647,7 +5662,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5934,7 +5949,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6059,7 +6074,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6140,7 +6155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6265,7 +6280,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6343,10 +6358,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6549,10 +6564,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6677,7 +6692,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6883,7 +6898,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7376,7 +7391,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7582,7 +7597,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ32">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7707,7 +7722,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7913,7 +7928,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7991,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8119,7 +8134,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8197,7 +8212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ35">
         <v>1.44</v>
@@ -8406,7 +8421,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8531,7 +8546,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8609,7 +8624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.9</v>
@@ -8737,7 +8752,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8815,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
         <v>0.78</v>
@@ -8943,7 +8958,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9355,7 +9370,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9767,7 +9782,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9848,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10257,7 +10272,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10385,7 +10400,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10591,7 +10606,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11003,7 +11018,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11081,10 +11096,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11209,7 +11224,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11290,7 +11305,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11493,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ51">
         <v>1.44</v>
@@ -11699,7 +11714,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
         <v>1.1</v>
@@ -11827,7 +11842,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11905,10 +11920,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12033,7 +12048,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12317,7 +12332,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12445,7 +12460,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12526,7 +12541,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12651,7 +12666,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13063,7 +13078,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13269,7 +13284,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13350,7 +13365,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13475,7 +13490,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13556,7 +13571,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13759,7 +13774,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
         <v>0.7</v>
@@ -13887,7 +13902,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14093,7 +14108,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14171,7 +14186,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ64">
         <v>1.1</v>
@@ -14380,7 +14395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14505,7 +14520,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14711,7 +14726,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14792,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14917,7 +14932,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15123,7 +15138,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15329,7 +15344,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15407,10 +15422,10 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15535,7 +15550,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15613,7 +15628,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
         <v>0.89</v>
@@ -15741,7 +15756,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16028,7 +16043,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16153,7 +16168,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16231,7 +16246,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74">
         <v>1.1</v>
@@ -16437,7 +16452,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ75">
         <v>0.89</v>
@@ -16565,7 +16580,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16771,7 +16786,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16852,7 +16867,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17058,7 +17073,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17467,7 +17482,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80">
         <v>1.6</v>
@@ -17595,7 +17610,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17801,7 +17816,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17879,10 +17894,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18213,7 +18228,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18500,7 +18515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18703,10 +18718,10 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18831,7 +18846,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19037,7 +19052,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19118,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19243,7 +19258,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19321,7 +19336,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19530,7 +19545,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -20351,7 +20366,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ94">
         <v>1.9</v>
@@ -20557,10 +20572,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR95">
         <v>1.34</v>
@@ -20685,7 +20700,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20891,7 +20906,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21097,7 +21112,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21175,7 +21190,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
         <v>0.4</v>
@@ -21509,7 +21524,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21590,7 +21605,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21715,7 +21730,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21796,7 +21811,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -21921,7 +21936,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -21999,7 +22014,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ102">
         <v>1.1</v>
@@ -22539,7 +22554,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22617,7 +22632,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
         <v>0.78</v>
@@ -22745,7 +22760,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23032,7 +23047,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23157,7 +23172,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23363,7 +23378,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23444,7 +23459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -23853,7 +23868,7 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ111">
         <v>0.4</v>
@@ -24474,7 +24489,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -24599,7 +24614,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24677,7 +24692,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ115">
         <v>1.9</v>
@@ -24756,6 +24771,830 @@
       </c>
       <c r="BP115">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7321510</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45472.25</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>167</v>
+      </c>
+      <c r="P116" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.4</v>
+      </c>
+      <c r="U116">
+        <v>2.75</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>8</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>2.05</v>
+      </c>
+      <c r="AA116">
+        <v>3.4</v>
+      </c>
+      <c r="AB116">
+        <v>3.5</v>
+      </c>
+      <c r="AC116">
+        <v>1.02</v>
+      </c>
+      <c r="AD116">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE116">
+        <v>1.28</v>
+      </c>
+      <c r="AF116">
+        <v>3.22</v>
+      </c>
+      <c r="AG116">
+        <v>2</v>
+      </c>
+      <c r="AH116">
+        <v>1.85</v>
+      </c>
+      <c r="AI116">
+        <v>1.8</v>
+      </c>
+      <c r="AJ116">
+        <v>1.91</v>
+      </c>
+      <c r="AK116">
+        <v>1.3</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.7</v>
+      </c>
+      <c r="AN116">
+        <v>2.22</v>
+      </c>
+      <c r="AO116">
+        <v>0.8</v>
+      </c>
+      <c r="AP116">
+        <v>2.3</v>
+      </c>
+      <c r="AQ116">
+        <v>0.73</v>
+      </c>
+      <c r="AR116">
+        <v>1.52</v>
+      </c>
+      <c r="AS116">
+        <v>1.54</v>
+      </c>
+      <c r="AT116">
+        <v>3.06</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>13</v>
+      </c>
+      <c r="AX116">
+        <v>9</v>
+      </c>
+      <c r="AY116">
+        <v>19</v>
+      </c>
+      <c r="AZ116">
+        <v>13</v>
+      </c>
+      <c r="BA116">
+        <v>8</v>
+      </c>
+      <c r="BB116">
+        <v>8</v>
+      </c>
+      <c r="BC116">
+        <v>16</v>
+      </c>
+      <c r="BD116">
+        <v>1.69</v>
+      </c>
+      <c r="BE116">
+        <v>7.5</v>
+      </c>
+      <c r="BF116">
+        <v>2.55</v>
+      </c>
+      <c r="BG116">
+        <v>1.42</v>
+      </c>
+      <c r="BH116">
+        <v>2.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.8</v>
+      </c>
+      <c r="BJ116">
+        <v>1.91</v>
+      </c>
+      <c r="BK116">
+        <v>2.29</v>
+      </c>
+      <c r="BL116">
+        <v>1.55</v>
+      </c>
+      <c r="BM116">
+        <v>3.08</v>
+      </c>
+      <c r="BN116">
+        <v>1.3</v>
+      </c>
+      <c r="BO116">
+        <v>4.45</v>
+      </c>
+      <c r="BP116">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7321511</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q117">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>3.5</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.75</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>2.3</v>
+      </c>
+      <c r="AA117">
+        <v>3.4</v>
+      </c>
+      <c r="AB117">
+        <v>3</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>13</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.7</v>
+      </c>
+      <c r="AG117">
+        <v>1.85</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>1.67</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.42</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.53</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
+        <v>1.22</v>
+      </c>
+      <c r="AP117">
+        <v>0.9</v>
+      </c>
+      <c r="AQ117">
+        <v>1.4</v>
+      </c>
+      <c r="AR117">
+        <v>1.45</v>
+      </c>
+      <c r="AS117">
+        <v>1.45</v>
+      </c>
+      <c r="AT117">
+        <v>2.9</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>7</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>9</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>2.05</v>
+      </c>
+      <c r="BE117">
+        <v>7.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.05</v>
+      </c>
+      <c r="BG117">
+        <v>1.34</v>
+      </c>
+      <c r="BH117">
+        <v>2.88</v>
+      </c>
+      <c r="BI117">
+        <v>1.8</v>
+      </c>
+      <c r="BJ117">
+        <v>1.91</v>
+      </c>
+      <c r="BK117">
+        <v>2.12</v>
+      </c>
+      <c r="BL117">
+        <v>1.67</v>
+      </c>
+      <c r="BM117">
+        <v>2.8</v>
+      </c>
+      <c r="BN117">
+        <v>1.38</v>
+      </c>
+      <c r="BO117">
+        <v>3.9</v>
+      </c>
+      <c r="BP117">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7321512</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45472.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>85</v>
+      </c>
+      <c r="P118" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q118">
+        <v>3.2</v>
+      </c>
+      <c r="R118">
+        <v>2.1</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>1.36</v>
+      </c>
+      <c r="U118">
+        <v>2.85</v>
+      </c>
+      <c r="V118">
+        <v>2.65</v>
+      </c>
+      <c r="W118">
+        <v>1.42</v>
+      </c>
+      <c r="X118">
+        <v>6.6</v>
+      </c>
+      <c r="Y118">
+        <v>1.09</v>
+      </c>
+      <c r="Z118">
+        <v>2.9</v>
+      </c>
+      <c r="AA118">
+        <v>3.3</v>
+      </c>
+      <c r="AB118">
+        <v>2.4</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE118">
+        <v>1.26</v>
+      </c>
+      <c r="AF118">
+        <v>3.93</v>
+      </c>
+      <c r="AG118">
+        <v>1.88</v>
+      </c>
+      <c r="AH118">
+        <v>1.98</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.1</v>
+      </c>
+      <c r="AK118">
+        <v>1.53</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.44</v>
+      </c>
+      <c r="AN118">
+        <v>1.56</v>
+      </c>
+      <c r="AO118">
+        <v>1.22</v>
+      </c>
+      <c r="AP118">
+        <v>1.4</v>
+      </c>
+      <c r="AQ118">
+        <v>1.4</v>
+      </c>
+      <c r="AR118">
+        <v>1.36</v>
+      </c>
+      <c r="AS118">
+        <v>1.46</v>
+      </c>
+      <c r="AT118">
+        <v>2.82</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>6</v>
+      </c>
+      <c r="AZ118">
+        <v>12</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>9</v>
+      </c>
+      <c r="BD118">
+        <v>1.95</v>
+      </c>
+      <c r="BE118">
+        <v>7.5</v>
+      </c>
+      <c r="BF118">
+        <v>2.1</v>
+      </c>
+      <c r="BG118">
+        <v>1.41</v>
+      </c>
+      <c r="BH118">
+        <v>2.69</v>
+      </c>
+      <c r="BI118">
+        <v>1.85</v>
+      </c>
+      <c r="BJ118">
+        <v>1.95</v>
+      </c>
+      <c r="BK118">
+        <v>2.25</v>
+      </c>
+      <c r="BL118">
+        <v>1.57</v>
+      </c>
+      <c r="BM118">
+        <v>3.04</v>
+      </c>
+      <c r="BN118">
+        <v>1.31</v>
+      </c>
+      <c r="BO118">
+        <v>4.33</v>
+      </c>
+      <c r="BP118">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7321513</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45473.25</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>169</v>
+      </c>
+      <c r="P119" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q119">
+        <v>3.25</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>2.7</v>
+      </c>
+      <c r="AA119">
+        <v>3.25</v>
+      </c>
+      <c r="AB119">
+        <v>2.35</v>
+      </c>
+      <c r="AC119">
+        <v>1.03</v>
+      </c>
+      <c r="AD119">
+        <v>14</v>
+      </c>
+      <c r="AE119">
+        <v>1.2</v>
+      </c>
+      <c r="AF119">
+        <v>4</v>
+      </c>
+      <c r="AG119">
+        <v>1.75</v>
+      </c>
+      <c r="AH119">
+        <v>2.02</v>
+      </c>
+      <c r="AI119">
+        <v>1.57</v>
+      </c>
+      <c r="AJ119">
+        <v>2.25</v>
+      </c>
+      <c r="AK119">
+        <v>1.53</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.42</v>
+      </c>
+      <c r="AN119">
+        <v>1.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.56</v>
+      </c>
+      <c r="AP119">
+        <v>1.8</v>
+      </c>
+      <c r="AQ119">
+        <v>1.4</v>
+      </c>
+      <c r="AR119">
+        <v>1.65</v>
+      </c>
+      <c r="AS119">
+        <v>1.45</v>
+      </c>
+      <c r="AT119">
+        <v>3.1</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>14</v>
+      </c>
+      <c r="BA119">
+        <v>7</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>2.09</v>
+      </c>
+      <c r="BE119">
+        <v>6.15</v>
+      </c>
+      <c r="BF119">
+        <v>2.21</v>
+      </c>
+      <c r="BG119">
+        <v>1.46</v>
+      </c>
+      <c r="BH119">
+        <v>2.52</v>
+      </c>
+      <c r="BI119">
+        <v>1.85</v>
+      </c>
+      <c r="BJ119">
+        <v>1.89</v>
+      </c>
+      <c r="BK119">
+        <v>2.41</v>
+      </c>
+      <c r="BL119">
+        <v>1.5</v>
+      </c>
+      <c r="BM119">
+        <v>3.28</v>
+      </c>
+      <c r="BN119">
+        <v>1.27</v>
+      </c>
+      <c r="BO119">
+        <v>4.75</v>
+      </c>
+      <c r="BP119">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['2', '19']</t>
   </si>
   <si>
+    <t>['8', '90']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -716,6 +719,12 @@
   </si>
   <si>
     <t>['16', '82']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,7 +1551,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1826,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1954,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2032,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -2160,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2241,7 +2250,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,7 +2375,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2572,7 +2581,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2984,7 +2993,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3190,7 +3199,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3602,7 +3611,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3680,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3808,7 +3817,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3889,7 +3898,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4301,7 +4310,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4838,7 +4847,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5044,7 +5053,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5328,7 +5337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21">
         <v>0.4</v>
@@ -5456,7 +5465,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5662,7 +5671,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6074,7 +6083,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6152,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
         <v>0.73</v>
@@ -6280,7 +6289,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6692,7 +6701,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6770,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>1.1</v>
@@ -6898,7 +6907,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7722,7 +7731,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7800,10 +7809,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ33">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7928,7 +7937,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8134,7 +8143,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8215,7 +8224,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8546,7 +8555,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8752,7 +8761,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8958,7 +8967,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9245,7 +9254,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9370,7 +9379,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9782,7 +9791,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9860,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ43">
         <v>0.73</v>
@@ -10069,7 +10078,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ44">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10400,7 +10409,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10606,7 +10615,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11018,7 +11027,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11224,7 +11233,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11302,7 +11311,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -11511,7 +11520,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ51">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11842,7 +11851,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12048,7 +12057,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12129,7 +12138,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ54">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12460,7 +12469,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12666,7 +12675,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12950,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13078,7 +13087,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13284,7 +13293,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13490,7 +13499,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13902,7 +13911,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -13983,7 +13992,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14108,7 +14117,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14520,7 +14529,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14598,7 +14607,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>0.4</v>
@@ -14726,7 +14735,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14804,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -14932,7 +14941,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15138,7 +15147,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15344,7 +15353,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15550,7 +15559,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15631,7 +15640,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15756,7 +15765,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16040,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16168,7 +16177,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16455,7 +16464,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16580,7 +16589,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16658,7 +16667,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76">
         <v>0.7</v>
@@ -16786,7 +16795,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17610,7 +17619,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17816,7 +17825,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18100,7 +18109,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ83">
         <v>0.78</v>
@@ -18228,7 +18237,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18309,7 +18318,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -18846,7 +18855,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18924,7 +18933,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ87">
         <v>1.9</v>
@@ -19052,7 +19061,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19130,7 +19139,7 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ88">
         <v>1.4</v>
@@ -19258,7 +19267,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19339,7 +19348,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -20700,7 +20709,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20781,7 +20790,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -20906,7 +20915,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21112,7 +21121,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21396,7 +21405,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ99">
         <v>1.6</v>
@@ -21524,7 +21533,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21730,7 +21739,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21936,7 +21945,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22223,7 +22232,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22554,7 +22563,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22760,7 +22769,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23172,7 +23181,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23250,7 +23259,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
         <v>1.9</v>
@@ -23378,7 +23387,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24283,7 +24292,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24614,7 +24623,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25026,7 +25035,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25232,7 +25241,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25595,6 +25604,418 @@
       </c>
       <c r="BP119">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7321514</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>170</v>
+      </c>
+      <c r="P120" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q120">
+        <v>2.4</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>7</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>1.8</v>
+      </c>
+      <c r="AA120">
+        <v>3.6</v>
+      </c>
+      <c r="AB120">
+        <v>3.8</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>9</v>
+      </c>
+      <c r="AE120">
+        <v>1.28</v>
+      </c>
+      <c r="AF120">
+        <v>3.55</v>
+      </c>
+      <c r="AG120">
+        <v>1.9</v>
+      </c>
+      <c r="AH120">
+        <v>1.86</v>
+      </c>
+      <c r="AI120">
+        <v>1.73</v>
+      </c>
+      <c r="AJ120">
+        <v>2</v>
+      </c>
+      <c r="AK120">
+        <v>1.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.29</v>
+      </c>
+      <c r="AM120">
+        <v>1.95</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>0.89</v>
+      </c>
+      <c r="AP120">
+        <v>1.64</v>
+      </c>
+      <c r="AQ120">
+        <v>0.8</v>
+      </c>
+      <c r="AR120">
+        <v>1.8</v>
+      </c>
+      <c r="AS120">
+        <v>1.57</v>
+      </c>
+      <c r="AT120">
+        <v>3.37</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>9</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>13</v>
+      </c>
+      <c r="BD120">
+        <v>1.53</v>
+      </c>
+      <c r="BE120">
+        <v>6.8</v>
+      </c>
+      <c r="BF120">
+        <v>3.4</v>
+      </c>
+      <c r="BG120">
+        <v>1.38</v>
+      </c>
+      <c r="BH120">
+        <v>2.8</v>
+      </c>
+      <c r="BI120">
+        <v>1.8</v>
+      </c>
+      <c r="BJ120">
+        <v>2</v>
+      </c>
+      <c r="BK120">
+        <v>2.17</v>
+      </c>
+      <c r="BL120">
+        <v>1.61</v>
+      </c>
+      <c r="BM120">
+        <v>2.91</v>
+      </c>
+      <c r="BN120">
+        <v>1.33</v>
+      </c>
+      <c r="BO120">
+        <v>4.15</v>
+      </c>
+      <c r="BP120">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7321515</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>85</v>
+      </c>
+      <c r="P121" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q121">
+        <v>2.88</v>
+      </c>
+      <c r="R121">
+        <v>2.1</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>1.44</v>
+      </c>
+      <c r="U121">
+        <v>2.63</v>
+      </c>
+      <c r="V121">
+        <v>3.25</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <v>1.07</v>
+      </c>
+      <c r="Z121">
+        <v>2.16</v>
+      </c>
+      <c r="AA121">
+        <v>3.3</v>
+      </c>
+      <c r="AB121">
+        <v>3</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>8.4</v>
+      </c>
+      <c r="AE121">
+        <v>1.31</v>
+      </c>
+      <c r="AF121">
+        <v>3.04</v>
+      </c>
+      <c r="AG121">
+        <v>2.05</v>
+      </c>
+      <c r="AH121">
+        <v>1.73</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.33</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.62</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1.44</v>
+      </c>
+      <c r="AP121">
+        <v>0.9</v>
+      </c>
+      <c r="AQ121">
+        <v>1.6</v>
+      </c>
+      <c r="AR121">
+        <v>1.5</v>
+      </c>
+      <c r="AS121">
+        <v>1.32</v>
+      </c>
+      <c r="AT121">
+        <v>2.82</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>10</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>17</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>11</v>
+      </c>
+      <c r="BC121">
+        <v>14</v>
+      </c>
+      <c r="BD121">
+        <v>1.64</v>
+      </c>
+      <c r="BE121">
+        <v>6.45</v>
+      </c>
+      <c r="BF121">
+        <v>3.04</v>
+      </c>
+      <c r="BG121">
+        <v>1.52</v>
+      </c>
+      <c r="BH121">
+        <v>2.36</v>
+      </c>
+      <c r="BI121">
+        <v>1.93</v>
+      </c>
+      <c r="BJ121">
+        <v>1.81</v>
+      </c>
+      <c r="BK121">
+        <v>2.57</v>
+      </c>
+      <c r="BL121">
+        <v>1.44</v>
+      </c>
+      <c r="BM121">
+        <v>3.48</v>
+      </c>
+      <c r="BN121">
+        <v>1.24</v>
+      </c>
+      <c r="BO121">
+        <v>5.2</v>
+      </c>
+      <c r="BP121">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,6 +726,12 @@
   <si>
     <t>['71']</t>
   </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2041,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -2456,7 +2462,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8">
         <v>0.7</v>
@@ -3074,7 +3080,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5134,7 +5140,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5337,7 +5343,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
         <v>0.4</v>
@@ -5543,10 +5549,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -6576,7 +6582,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6988,7 +6994,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7809,7 +7815,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -9460,7 +9466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9663,7 +9669,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ42">
         <v>0.4</v>
@@ -9869,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
         <v>0.73</v>
@@ -10075,7 +10081,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10284,7 +10290,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -12344,7 +12350,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12547,7 +12553,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -12959,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13374,7 +13380,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13580,7 +13586,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13989,7 +13995,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14813,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -15846,7 +15852,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16052,7 +16058,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -17082,7 +17088,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17285,7 +17291,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ79">
         <v>1.9</v>
@@ -17494,7 +17500,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -18109,7 +18115,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
         <v>0.78</v>
@@ -19139,10 +19145,10 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19551,7 +19557,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
         <v>0.73</v>
@@ -20169,7 +20175,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ93">
         <v>1.1</v>
@@ -21408,7 +21414,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ99">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -22850,7 +22856,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -23259,7 +23265,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
         <v>1.9</v>
@@ -23468,7 +23474,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -23671,7 +23677,7 @@
         <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
         <v>0.78</v>
@@ -25528,7 +25534,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ119">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25937,7 +25943,7 @@
         <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
         <v>1.6</v>
@@ -26016,6 +26022,418 @@
       </c>
       <c r="BP121">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7321516</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45478.3125</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>118</v>
+      </c>
+      <c r="P122" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q122">
+        <v>3.2</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>3.25</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.6</v>
+      </c>
+      <c r="V122">
+        <v>2.95</v>
+      </c>
+      <c r="W122">
+        <v>1.35</v>
+      </c>
+      <c r="X122">
+        <v>7.8</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>2.49</v>
+      </c>
+      <c r="AA122">
+        <v>3.13</v>
+      </c>
+      <c r="AB122">
+        <v>2.77</v>
+      </c>
+      <c r="AC122">
+        <v>1.07</v>
+      </c>
+      <c r="AD122">
+        <v>8</v>
+      </c>
+      <c r="AE122">
+        <v>1.38</v>
+      </c>
+      <c r="AF122">
+        <v>3</v>
+      </c>
+      <c r="AG122">
+        <v>2</v>
+      </c>
+      <c r="AH122">
+        <v>1.73</v>
+      </c>
+      <c r="AI122">
+        <v>1.77</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>1.44</v>
+      </c>
+      <c r="AL122">
+        <v>1.3</v>
+      </c>
+      <c r="AM122">
+        <v>1.48</v>
+      </c>
+      <c r="AN122">
+        <v>0.9</v>
+      </c>
+      <c r="AO122">
+        <v>1.6</v>
+      </c>
+      <c r="AP122">
+        <v>0.91</v>
+      </c>
+      <c r="AQ122">
+        <v>1.55</v>
+      </c>
+      <c r="AR122">
+        <v>1.49</v>
+      </c>
+      <c r="AS122">
+        <v>1.51</v>
+      </c>
+      <c r="AT122">
+        <v>3</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>3</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>5</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>1.91</v>
+      </c>
+      <c r="BE122">
+        <v>7.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.2</v>
+      </c>
+      <c r="BG122">
+        <v>1.45</v>
+      </c>
+      <c r="BH122">
+        <v>2.6</v>
+      </c>
+      <c r="BI122">
+        <v>1.77</v>
+      </c>
+      <c r="BJ122">
+        <v>1.95</v>
+      </c>
+      <c r="BK122">
+        <v>2.22</v>
+      </c>
+      <c r="BL122">
+        <v>1.62</v>
+      </c>
+      <c r="BM122">
+        <v>3.1</v>
+      </c>
+      <c r="BN122">
+        <v>1.32</v>
+      </c>
+      <c r="BO122">
+        <v>4.4</v>
+      </c>
+      <c r="BP122">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7321517</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45478.3125</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P123" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q123">
+        <v>3.4</v>
+      </c>
+      <c r="R123">
+        <v>2.25</v>
+      </c>
+      <c r="S123">
+        <v>2.6</v>
+      </c>
+      <c r="T123">
+        <v>1.3</v>
+      </c>
+      <c r="U123">
+        <v>3.2</v>
+      </c>
+      <c r="V123">
+        <v>2.36</v>
+      </c>
+      <c r="W123">
+        <v>1.54</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.13</v>
+      </c>
+      <c r="Z123">
+        <v>3.38</v>
+      </c>
+      <c r="AA123">
+        <v>3.59</v>
+      </c>
+      <c r="AB123">
+        <v>1.96</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>10</v>
+      </c>
+      <c r="AE123">
+        <v>1.18</v>
+      </c>
+      <c r="AF123">
+        <v>4.5</v>
+      </c>
+      <c r="AG123">
+        <v>1.57</v>
+      </c>
+      <c r="AH123">
+        <v>2.15</v>
+      </c>
+      <c r="AI123">
+        <v>1.52</v>
+      </c>
+      <c r="AJ123">
+        <v>2.45</v>
+      </c>
+      <c r="AK123">
+        <v>1.68</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>1.35</v>
+      </c>
+      <c r="AN123">
+        <v>1.9</v>
+      </c>
+      <c r="AO123">
+        <v>1.4</v>
+      </c>
+      <c r="AP123">
+        <v>1.82</v>
+      </c>
+      <c r="AQ123">
+        <v>1.36</v>
+      </c>
+      <c r="AR123">
+        <v>1.74</v>
+      </c>
+      <c r="AS123">
+        <v>1.48</v>
+      </c>
+      <c r="AT123">
+        <v>3.22</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>7</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>6</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>2.65</v>
+      </c>
+      <c r="BE123">
+        <v>8</v>
+      </c>
+      <c r="BF123">
+        <v>1.69</v>
+      </c>
+      <c r="BG123">
+        <v>1.29</v>
+      </c>
+      <c r="BH123">
+        <v>3.3</v>
+      </c>
+      <c r="BI123">
+        <v>1.7</v>
+      </c>
+      <c r="BJ123">
+        <v>2.05</v>
+      </c>
+      <c r="BK123">
+        <v>2.07</v>
+      </c>
+      <c r="BL123">
+        <v>1.72</v>
+      </c>
+      <c r="BM123">
+        <v>2.65</v>
+      </c>
+      <c r="BN123">
+        <v>1.42</v>
+      </c>
+      <c r="BO123">
+        <v>3.74</v>
+      </c>
+      <c r="BP123">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,18 @@
     <t>['8', '90']</t>
   </si>
   <si>
+    <t>['7', '24', '89']</t>
+  </si>
+  <si>
+    <t>['29', '62', '87']</t>
+  </si>
+  <si>
+    <t>['68', '90+1']</t>
+  </si>
+  <si>
+    <t>['34', '82']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -731,6 +743,15 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['53', '72']</t>
+  </si>
+  <si>
+    <t>['45+6', '55', '68']</t>
+  </si>
+  <si>
+    <t>['21', '54']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1453,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1557,7 +1578,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1844,7 +1865,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1969,7 +1990,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2175,7 +2196,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2253,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2381,7 +2402,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2459,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>1.55</v>
@@ -2587,7 +2608,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2668,7 +2689,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2999,7 +3020,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3205,7 +3226,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3283,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11">
         <v>0.4</v>
@@ -3617,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3823,7 +3844,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3901,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4107,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4522,7 +4543,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4728,7 +4749,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ18">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4853,7 +4874,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5059,7 +5080,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5471,7 +5492,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5677,7 +5698,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5755,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5961,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6089,7 +6110,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6295,7 +6316,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6579,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6707,7 +6728,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6913,7 +6934,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7197,10 +7218,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7403,7 +7424,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ31">
         <v>0.73</v>
@@ -7737,7 +7758,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7943,7 +7964,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8024,7 +8045,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ34">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8149,7 +8170,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8433,10 +8454,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8561,7 +8582,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8639,10 +8660,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8767,7 +8788,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8848,7 +8869,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -8973,7 +8994,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9054,7 +9075,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9385,7 +9406,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9463,7 +9484,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41">
         <v>1.55</v>
@@ -9797,7 +9818,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10415,7 +10436,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10496,7 +10517,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10621,7 +10642,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10699,7 +10720,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
         <v>1.1</v>
@@ -10905,7 +10926,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -11033,7 +11054,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11111,10 +11132,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11239,7 +11260,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11857,7 +11878,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12063,7 +12084,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12347,7 +12368,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55">
         <v>1.55</v>
@@ -12475,7 +12496,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12556,7 +12577,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12681,7 +12702,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12759,10 +12780,10 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -12968,7 +12989,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13093,7 +13114,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13171,10 +13192,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13299,7 +13320,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13377,7 +13398,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13505,7 +13526,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13792,7 +13813,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13917,7 +13938,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14123,7 +14144,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14407,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
         <v>0.73</v>
@@ -14535,7 +14556,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14741,7 +14762,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14822,7 +14843,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14947,7 +14968,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15025,10 +15046,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15153,7 +15174,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15231,7 +15252,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
         <v>0.4</v>
@@ -15359,7 +15380,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15565,7 +15586,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15771,7 +15792,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16183,7 +16204,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16261,7 +16282,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
         <v>1.1</v>
@@ -16595,7 +16616,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16676,7 +16697,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16801,7 +16822,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17085,7 +17106,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
         <v>1.36</v>
@@ -17294,7 +17315,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ79">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17625,7 +17646,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17831,7 +17852,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17912,7 +17933,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18118,7 +18139,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18243,7 +18264,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18321,7 +18342,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84">
         <v>1.6</v>
@@ -18527,7 +18548,7 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ85">
         <v>1.4</v>
@@ -18736,7 +18757,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18861,7 +18882,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18942,7 +18963,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ87">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19067,7 +19088,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19273,7 +19294,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19351,7 +19372,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19763,10 +19784,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ91">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -19972,7 +19993,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ92">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20384,7 +20405,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ94">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20587,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>0.73</v>
@@ -20715,7 +20736,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20793,7 +20814,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ96">
         <v>1.6</v>
@@ -20921,7 +20942,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21002,7 +21023,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21127,7 +21148,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21539,7 +21560,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21617,7 +21638,7 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
         <v>1.4</v>
@@ -21745,7 +21766,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21826,7 +21847,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -21951,7 +21972,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22235,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
         <v>0.8</v>
@@ -22441,10 +22462,10 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ104">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22569,7 +22590,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22647,10 +22668,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22775,7 +22796,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22853,7 +22874,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
         <v>1.55</v>
@@ -23187,7 +23208,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23268,7 +23289,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ108">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23393,7 +23414,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23471,7 +23492,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
         <v>1.36</v>
@@ -23680,7 +23701,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24089,7 +24110,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
         <v>1.1</v>
@@ -24629,7 +24650,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24710,7 +24731,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ115">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25041,7 +25062,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25122,7 +25143,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25247,7 +25268,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25325,7 +25346,7 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118">
         <v>1.4</v>
@@ -25659,7 +25680,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25865,7 +25886,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26071,7 +26092,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26277,7 +26298,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26434,6 +26455,830 @@
       </c>
       <c r="BP123">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7321518</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q124">
+        <v>3.4</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>3.1</v>
+      </c>
+      <c r="T124">
+        <v>1.42</v>
+      </c>
+      <c r="U124">
+        <v>2.65</v>
+      </c>
+      <c r="V124">
+        <v>2.88</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>7.3</v>
+      </c>
+      <c r="Y124">
+        <v>1.07</v>
+      </c>
+      <c r="Z124">
+        <v>2.88</v>
+      </c>
+      <c r="AA124">
+        <v>3.2</v>
+      </c>
+      <c r="AB124">
+        <v>2.4</v>
+      </c>
+      <c r="AC124">
+        <v>1.06</v>
+      </c>
+      <c r="AD124">
+        <v>8.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.33</v>
+      </c>
+      <c r="AF124">
+        <v>3.2</v>
+      </c>
+      <c r="AG124">
+        <v>1.9</v>
+      </c>
+      <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
+        <v>1.73</v>
+      </c>
+      <c r="AJ124">
+        <v>1.95</v>
+      </c>
+      <c r="AK124">
+        <v>1.5</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.42</v>
+      </c>
+      <c r="AN124">
+        <v>1.5</v>
+      </c>
+      <c r="AO124">
+        <v>1.4</v>
+      </c>
+      <c r="AP124">
+        <v>1.64</v>
+      </c>
+      <c r="AQ124">
+        <v>1.27</v>
+      </c>
+      <c r="AR124">
+        <v>1.59</v>
+      </c>
+      <c r="AS124">
+        <v>1.47</v>
+      </c>
+      <c r="AT124">
+        <v>3.06</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>8</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>14</v>
+      </c>
+      <c r="BA124">
+        <v>10</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>15</v>
+      </c>
+      <c r="BD124">
+        <v>1.91</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.2</v>
+      </c>
+      <c r="BG124">
+        <v>1.4</v>
+      </c>
+      <c r="BH124">
+        <v>2.72</v>
+      </c>
+      <c r="BI124">
+        <v>1.85</v>
+      </c>
+      <c r="BJ124">
+        <v>1.95</v>
+      </c>
+      <c r="BK124">
+        <v>2.21</v>
+      </c>
+      <c r="BL124">
+        <v>1.59</v>
+      </c>
+      <c r="BM124">
+        <v>2.98</v>
+      </c>
+      <c r="BN124">
+        <v>1.32</v>
+      </c>
+      <c r="BO124">
+        <v>4.25</v>
+      </c>
+      <c r="BP124">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7321519</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45479.3125</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>6</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q125">
+        <v>3.5</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>1.45</v>
+      </c>
+      <c r="U125">
+        <v>2.6</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>7.7</v>
+      </c>
+      <c r="Y125">
+        <v>1.06</v>
+      </c>
+      <c r="Z125">
+        <v>2.9</v>
+      </c>
+      <c r="AA125">
+        <v>3.1</v>
+      </c>
+      <c r="AB125">
+        <v>2.45</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.33</v>
+      </c>
+      <c r="AF125">
+        <v>3.1</v>
+      </c>
+      <c r="AG125">
+        <v>2</v>
+      </c>
+      <c r="AH125">
+        <v>1.7</v>
+      </c>
+      <c r="AI125">
+        <v>1.8</v>
+      </c>
+      <c r="AJ125">
+        <v>1.95</v>
+      </c>
+      <c r="AK125">
+        <v>1.53</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.38</v>
+      </c>
+      <c r="AN125">
+        <v>1.33</v>
+      </c>
+      <c r="AO125">
+        <v>1.9</v>
+      </c>
+      <c r="AP125">
+        <v>1.3</v>
+      </c>
+      <c r="AQ125">
+        <v>1.82</v>
+      </c>
+      <c r="AR125">
+        <v>1.57</v>
+      </c>
+      <c r="AS125">
+        <v>1.46</v>
+      </c>
+      <c r="AT125">
+        <v>3.03</v>
+      </c>
+      <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>16</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>2.1</v>
+      </c>
+      <c r="BE125">
+        <v>7.5</v>
+      </c>
+      <c r="BF125">
+        <v>1.95</v>
+      </c>
+      <c r="BG125">
+        <v>1.47</v>
+      </c>
+      <c r="BH125">
+        <v>2.49</v>
+      </c>
+      <c r="BI125">
+        <v>1.85</v>
+      </c>
+      <c r="BJ125">
+        <v>1.95</v>
+      </c>
+      <c r="BK125">
+        <v>2.41</v>
+      </c>
+      <c r="BL125">
+        <v>1.5</v>
+      </c>
+      <c r="BM125">
+        <v>3.28</v>
+      </c>
+      <c r="BN125">
+        <v>1.27</v>
+      </c>
+      <c r="BO125">
+        <v>4.8</v>
+      </c>
+      <c r="BP125">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7321520</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>173</v>
+      </c>
+      <c r="P126" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q126">
+        <v>3.4</v>
+      </c>
+      <c r="R126">
+        <v>2.2</v>
+      </c>
+      <c r="S126">
+        <v>3.1</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2.8</v>
+      </c>
+      <c r="AA126">
+        <v>3.4</v>
+      </c>
+      <c r="AB126">
+        <v>2.35</v>
+      </c>
+      <c r="AC126">
+        <v>1.05</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.28</v>
+      </c>
+      <c r="AF126">
+        <v>3.5</v>
+      </c>
+      <c r="AG126">
+        <v>1.87</v>
+      </c>
+      <c r="AH126">
+        <v>1.88</v>
+      </c>
+      <c r="AI126">
+        <v>1.67</v>
+      </c>
+      <c r="AJ126">
+        <v>2.1</v>
+      </c>
+      <c r="AK126">
+        <v>1.57</v>
+      </c>
+      <c r="AL126">
+        <v>1.25</v>
+      </c>
+      <c r="AM126">
+        <v>1.42</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>0.7</v>
+      </c>
+      <c r="AP126">
+        <v>1.36</v>
+      </c>
+      <c r="AQ126">
+        <v>0.73</v>
+      </c>
+      <c r="AR126">
+        <v>1.36</v>
+      </c>
+      <c r="AS126">
+        <v>1.33</v>
+      </c>
+      <c r="AT126">
+        <v>2.69</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>5</v>
+      </c>
+      <c r="AZ126">
+        <v>6</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>11</v>
+      </c>
+      <c r="BD126">
+        <v>2</v>
+      </c>
+      <c r="BE126">
+        <v>7.5</v>
+      </c>
+      <c r="BF126">
+        <v>2.1</v>
+      </c>
+      <c r="BG126">
+        <v>1.42</v>
+      </c>
+      <c r="BH126">
+        <v>2.65</v>
+      </c>
+      <c r="BI126">
+        <v>1.82</v>
+      </c>
+      <c r="BJ126">
+        <v>1.98</v>
+      </c>
+      <c r="BK126">
+        <v>2.29</v>
+      </c>
+      <c r="BL126">
+        <v>1.55</v>
+      </c>
+      <c r="BM126">
+        <v>3.08</v>
+      </c>
+      <c r="BN126">
+        <v>1.3</v>
+      </c>
+      <c r="BO126">
+        <v>4.45</v>
+      </c>
+      <c r="BP126">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7321521</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>74</v>
+      </c>
+      <c r="H127" t="s">
+        <v>72</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>174</v>
+      </c>
+      <c r="P127" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q127">
+        <v>3.4</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>3.25</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
+        <v>3</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.7</v>
+      </c>
+      <c r="AA127">
+        <v>3.3</v>
+      </c>
+      <c r="AB127">
+        <v>2.5</v>
+      </c>
+      <c r="AC127">
+        <v>1.07</v>
+      </c>
+      <c r="AD127">
+        <v>8</v>
+      </c>
+      <c r="AE127">
+        <v>1.33</v>
+      </c>
+      <c r="AF127">
+        <v>3.1</v>
+      </c>
+      <c r="AG127">
+        <v>1.98</v>
+      </c>
+      <c r="AH127">
+        <v>1.77</v>
+      </c>
+      <c r="AI127">
+        <v>1.8</v>
+      </c>
+      <c r="AJ127">
+        <v>1.91</v>
+      </c>
+      <c r="AK127">
+        <v>1.5</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.44</v>
+      </c>
+      <c r="AN127">
+        <v>1.8</v>
+      </c>
+      <c r="AO127">
+        <v>0.78</v>
+      </c>
+      <c r="AP127">
+        <v>1.91</v>
+      </c>
+      <c r="AQ127">
+        <v>0.7</v>
+      </c>
+      <c r="AR127">
+        <v>1.74</v>
+      </c>
+      <c r="AS127">
+        <v>1.29</v>
+      </c>
+      <c r="AT127">
+        <v>3.03</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>13</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>6</v>
+      </c>
+      <c r="BD127">
+        <v>2.05</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.05</v>
+      </c>
+      <c r="BG127">
+        <v>1.48</v>
+      </c>
+      <c r="BH127">
+        <v>2.45</v>
+      </c>
+      <c r="BI127">
+        <v>2</v>
+      </c>
+      <c r="BJ127">
+        <v>1.8</v>
+      </c>
+      <c r="BK127">
+        <v>2.4</v>
+      </c>
+      <c r="BL127">
+        <v>1.53</v>
+      </c>
+      <c r="BM127">
+        <v>3.25</v>
+      </c>
+      <c r="BN127">
+        <v>1.32</v>
+      </c>
+      <c r="BO127">
+        <v>4.6</v>
+      </c>
+      <c r="BP127">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['34', '82']</t>
   </si>
   <si>
+    <t>['54', '75']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
   </si>
   <si>
     <t>['21', '54']</t>
+  </si>
+  <si>
+    <t>['10', '45', '78']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1584,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1990,7 +1996,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2071,7 +2077,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2196,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2402,7 +2408,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
         <v>1.55</v>
@@ -2608,7 +2614,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3020,7 +3026,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3098,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -3226,7 +3232,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3513,7 +3519,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3638,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3844,7 +3850,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4128,10 +4134,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4746,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ18">
         <v>0.73</v>
@@ -4874,7 +4880,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4955,7 +4961,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5080,7 +5086,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5492,7 +5498,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5698,7 +5704,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6110,7 +6116,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6316,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6397,7 +6403,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6728,7 +6734,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6809,7 +6815,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6934,7 +6940,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7633,7 +7639,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7758,7 +7764,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7964,7 +7970,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8042,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ34">
         <v>0.7</v>
@@ -8170,7 +8176,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8454,7 +8460,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36">
         <v>1.27</v>
@@ -8582,7 +8588,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8788,7 +8794,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8994,7 +9000,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9406,7 +9412,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9818,7 +9824,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10436,7 +10442,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10642,7 +10648,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10723,7 +10729,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ47">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10926,7 +10932,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -11054,7 +11060,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11260,7 +11266,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11341,7 +11347,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11544,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11753,7 +11759,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11878,7 +11884,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12084,7 +12090,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12496,7 +12502,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12702,7 +12708,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13114,7 +13120,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13320,7 +13326,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13398,7 +13404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13526,7 +13532,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13938,7 +13944,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14144,7 +14150,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14222,10 +14228,10 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14556,7 +14562,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14762,7 +14768,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14968,7 +14974,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15046,7 +15052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
         <v>0.7</v>
@@ -15174,7 +15180,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15380,7 +15386,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15461,7 +15467,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15586,7 +15592,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15792,7 +15798,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16204,7 +16210,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16285,7 +16291,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16488,7 +16494,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -16616,7 +16622,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16822,7 +16828,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17646,7 +17652,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17852,7 +17858,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18264,7 +18270,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18342,7 +18348,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>1.6</v>
@@ -18551,7 +18557,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18754,7 +18760,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
         <v>1.27</v>
@@ -18882,7 +18888,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19088,7 +19094,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19294,7 +19300,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -20199,7 +20205,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20402,7 +20408,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ94">
         <v>1.82</v>
@@ -20736,7 +20742,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20942,7 +20948,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21148,7 +21154,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21560,7 +21566,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21641,7 +21647,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ100">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21766,7 +21772,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21972,7 +21978,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22053,7 +22059,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ102">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22256,7 +22262,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
         <v>0.8</v>
@@ -22462,7 +22468,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -22590,7 +22596,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22796,7 +22802,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23083,7 +23089,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23208,7 +23214,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23414,7 +23420,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23904,7 +23910,7 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ111">
         <v>0.4</v>
@@ -24113,7 +24119,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24650,7 +24656,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24934,7 +24940,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
         <v>0.73</v>
@@ -25062,7 +25068,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25268,7 +25274,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25349,7 +25355,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ118">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25680,7 +25686,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25886,7 +25892,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26092,7 +26098,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26298,7 +26304,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26504,7 +26510,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26710,7 +26716,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26788,7 +26794,7 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125">
         <v>1.82</v>
@@ -26916,7 +26922,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27279,6 +27285,418 @@
       </c>
       <c r="BP127">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7321522</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45482.3125</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>85</v>
+      </c>
+      <c r="P128" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q128">
+        <v>3</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>3.55</v>
+      </c>
+      <c r="T128">
+        <v>1.46</v>
+      </c>
+      <c r="U128">
+        <v>2.55</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>8.1</v>
+      </c>
+      <c r="Y128">
+        <v>1.06</v>
+      </c>
+      <c r="Z128">
+        <v>2.25</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
+        <v>2.87</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>8</v>
+      </c>
+      <c r="AE128">
+        <v>1.36</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AG128">
+        <v>2.05</v>
+      </c>
+      <c r="AH128">
+        <v>1.65</v>
+      </c>
+      <c r="AI128">
+        <v>1.83</v>
+      </c>
+      <c r="AJ128">
+        <v>1.9</v>
+      </c>
+      <c r="AK128">
+        <v>1.38</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.55</v>
+      </c>
+      <c r="AN128">
+        <v>1.3</v>
+      </c>
+      <c r="AO128">
+        <v>1.1</v>
+      </c>
+      <c r="AP128">
+        <v>1.27</v>
+      </c>
+      <c r="AQ128">
+        <v>1.09</v>
+      </c>
+      <c r="AR128">
+        <v>1.62</v>
+      </c>
+      <c r="AS128">
+        <v>1.55</v>
+      </c>
+      <c r="AT128">
+        <v>3.17</v>
+      </c>
+      <c r="AU128">
+        <v>-1</v>
+      </c>
+      <c r="AV128">
+        <v>-1</v>
+      </c>
+      <c r="AW128">
+        <v>-1</v>
+      </c>
+      <c r="AX128">
+        <v>-1</v>
+      </c>
+      <c r="AY128">
+        <v>-1</v>
+      </c>
+      <c r="AZ128">
+        <v>-1</v>
+      </c>
+      <c r="BA128">
+        <v>-1</v>
+      </c>
+      <c r="BB128">
+        <v>-1</v>
+      </c>
+      <c r="BC128">
+        <v>-1</v>
+      </c>
+      <c r="BD128">
+        <v>1.82</v>
+      </c>
+      <c r="BE128">
+        <v>6.35</v>
+      </c>
+      <c r="BF128">
+        <v>2.59</v>
+      </c>
+      <c r="BG128">
+        <v>1.41</v>
+      </c>
+      <c r="BH128">
+        <v>2.69</v>
+      </c>
+      <c r="BI128">
+        <v>1.77</v>
+      </c>
+      <c r="BJ128">
+        <v>1.95</v>
+      </c>
+      <c r="BK128">
+        <v>2.23</v>
+      </c>
+      <c r="BL128">
+        <v>1.58</v>
+      </c>
+      <c r="BM128">
+        <v>2.98</v>
+      </c>
+      <c r="BN128">
+        <v>1.32</v>
+      </c>
+      <c r="BO128">
+        <v>4.3</v>
+      </c>
+      <c r="BP128">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7321523</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45482.3125</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>175</v>
+      </c>
+      <c r="P129" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q129">
+        <v>2.62</v>
+      </c>
+      <c r="R129">
+        <v>2.15</v>
+      </c>
+      <c r="S129">
+        <v>3.7</v>
+      </c>
+      <c r="T129">
+        <v>1.35</v>
+      </c>
+      <c r="U129">
+        <v>2.95</v>
+      </c>
+      <c r="V129">
+        <v>2.55</v>
+      </c>
+      <c r="W129">
+        <v>1.45</v>
+      </c>
+      <c r="X129">
+        <v>6.35</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>2</v>
+      </c>
+      <c r="AA129">
+        <v>3.3</v>
+      </c>
+      <c r="AB129">
+        <v>3.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.24</v>
+      </c>
+      <c r="AF129">
+        <v>4.03</v>
+      </c>
+      <c r="AG129">
+        <v>1.7</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.6</v>
+      </c>
+      <c r="AJ129">
+        <v>2.15</v>
+      </c>
+      <c r="AK129">
+        <v>1.3</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.7</v>
+      </c>
+      <c r="AN129">
+        <v>2.3</v>
+      </c>
+      <c r="AO129">
+        <v>1.4</v>
+      </c>
+      <c r="AP129">
+        <v>2.09</v>
+      </c>
+      <c r="AQ129">
+        <v>1.55</v>
+      </c>
+      <c r="AR129">
+        <v>1.59</v>
+      </c>
+      <c r="AS129">
+        <v>1.49</v>
+      </c>
+      <c r="AT129">
+        <v>3.08</v>
+      </c>
+      <c r="AU129">
+        <v>-1</v>
+      </c>
+      <c r="AV129">
+        <v>-1</v>
+      </c>
+      <c r="AW129">
+        <v>-1</v>
+      </c>
+      <c r="AX129">
+        <v>-1</v>
+      </c>
+      <c r="AY129">
+        <v>-1</v>
+      </c>
+      <c r="AZ129">
+        <v>-1</v>
+      </c>
+      <c r="BA129">
+        <v>-1</v>
+      </c>
+      <c r="BB129">
+        <v>-1</v>
+      </c>
+      <c r="BC129">
+        <v>-1</v>
+      </c>
+      <c r="BD129">
+        <v>1.6</v>
+      </c>
+      <c r="BE129">
+        <v>8.6</v>
+      </c>
+      <c r="BF129">
+        <v>2.84</v>
+      </c>
+      <c r="BG129">
+        <v>1.31</v>
+      </c>
+      <c r="BH129">
+        <v>3.04</v>
+      </c>
+      <c r="BI129">
+        <v>1.62</v>
+      </c>
+      <c r="BJ129">
+        <v>2.24</v>
+      </c>
+      <c r="BK129">
+        <v>1.95</v>
+      </c>
+      <c r="BL129">
+        <v>1.77</v>
+      </c>
+      <c r="BM129">
+        <v>2.65</v>
+      </c>
+      <c r="BN129">
+        <v>1.42</v>
+      </c>
+      <c r="BO129">
+        <v>3.64</v>
+      </c>
+      <c r="BP129">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>['54', '75']</t>
+  </si>
+  <si>
+    <t>['50', '76']</t>
+  </si>
+  <si>
+    <t>['2', '70']</t>
+  </si>
+  <si>
+    <t>['61', '66']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1119,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2">
         <v>1.82</v>
@@ -1584,7 +1593,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1662,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1996,7 +2005,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2202,7 +2211,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2283,7 +2292,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2614,7 +2623,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2898,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
         <v>0.73</v>
@@ -3026,7 +3035,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3232,7 +3241,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3313,7 +3322,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3516,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
         <v>1.09</v>
@@ -3644,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3725,7 +3734,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3850,7 +3859,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3931,7 +3940,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4340,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4546,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4880,7 +4889,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4958,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ19">
         <v>1.09</v>
@@ -5086,7 +5095,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5164,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
         <v>1.36</v>
@@ -5373,7 +5382,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5498,7 +5507,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5704,7 +5713,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6116,7 +6125,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6322,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6400,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26">
         <v>1.55</v>
@@ -6734,7 +6743,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6940,7 +6949,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7018,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
         <v>1.55</v>
@@ -7636,7 +7645,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
         <v>1.55</v>
@@ -7764,7 +7773,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7845,7 +7854,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7970,7 +7979,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8051,7 +8060,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ34">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8176,7 +8185,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8254,10 +8263,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8588,7 +8597,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8794,7 +8803,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8872,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -9000,7 +9009,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9078,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
         <v>1.82</v>
@@ -9284,10 +9293,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9412,7 +9421,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9699,7 +9708,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ42">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9824,7 +9833,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10111,7 +10120,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10314,7 +10323,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
         <v>1.55</v>
@@ -10442,7 +10451,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10520,7 +10529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -10648,7 +10657,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10935,7 +10944,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11060,7 +11069,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11266,7 +11275,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11553,7 +11562,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11756,7 +11765,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
         <v>1.09</v>
@@ -11884,7 +11893,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11962,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ53">
         <v>0.73</v>
@@ -12090,7 +12099,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12168,10 +12177,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12502,7 +12511,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12708,7 +12717,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13120,7 +13129,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13201,7 +13210,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13326,7 +13335,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13532,7 +13541,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13610,7 +13619,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
         <v>1.36</v>
@@ -13816,7 +13825,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ62">
         <v>0.73</v>
@@ -13944,7 +13953,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14025,7 +14034,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14150,7 +14159,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14562,7 +14571,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14643,7 +14652,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ66">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14768,7 +14777,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14974,7 +14983,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15055,7 +15064,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15180,7 +15189,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15261,7 +15270,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15386,7 +15395,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15464,7 +15473,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
         <v>1.55</v>
@@ -15592,7 +15601,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15670,10 +15679,10 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15798,7 +15807,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15876,7 +15885,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72">
         <v>1.55</v>
@@ -16210,7 +16219,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16497,7 +16506,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16622,7 +16631,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16828,7 +16837,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16906,7 +16915,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
         <v>0.73</v>
@@ -17524,7 +17533,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
         <v>1.55</v>
@@ -17652,7 +17661,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17730,10 +17739,10 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17858,7 +17867,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17936,7 +17945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
         <v>1.27</v>
@@ -18145,7 +18154,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18270,7 +18279,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18351,7 +18360,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -18888,7 +18897,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19094,7 +19103,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19300,7 +19309,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19381,7 +19390,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19996,7 +20005,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92">
         <v>0.73</v>
@@ -20742,7 +20751,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20823,7 +20832,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -20948,7 +20957,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21026,10 +21035,10 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21154,7 +21163,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21232,10 +21241,10 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21566,7 +21575,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21772,7 +21781,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21850,7 +21859,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ101">
         <v>1.27</v>
@@ -21978,7 +21987,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22056,7 +22065,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
         <v>1.09</v>
@@ -22265,7 +22274,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22596,7 +22605,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22677,7 +22686,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22802,7 +22811,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23086,7 +23095,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
         <v>1.55</v>
@@ -23214,7 +23223,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23420,7 +23429,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23707,7 +23716,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -23913,7 +23922,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ111">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24322,10 +24331,10 @@
         <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24528,7 +24537,7 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AQ114">
         <v>0.73</v>
@@ -24656,7 +24665,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24734,7 +24743,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115">
         <v>1.82</v>
@@ -25068,7 +25077,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25146,7 +25155,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
         <v>1.27</v>
@@ -25274,7 +25283,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25558,7 +25567,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ119">
         <v>1.36</v>
@@ -25686,7 +25695,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25767,7 +25776,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -25892,7 +25901,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -25973,7 +25982,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26098,7 +26107,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26304,7 +26313,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26510,7 +26519,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26716,7 +26725,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26922,7 +26931,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27209,7 +27218,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27427,31 +27436,31 @@
         <v>3.17</v>
       </c>
       <c r="AU128">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV128">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW128">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX128">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY128">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ128">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA128">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB128">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC128">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD128">
         <v>1.82</v>
@@ -27540,7 +27549,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27633,31 +27642,31 @@
         <v>3.08</v>
       </c>
       <c r="AU129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW129">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY129">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ129">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA129">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC129">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD129">
         <v>1.6</v>
@@ -27697,6 +27706,830 @@
       </c>
       <c r="BP129">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7321524</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45483.3125</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>85</v>
+      </c>
+      <c r="P130" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q130">
+        <v>2.55</v>
+      </c>
+      <c r="R130">
+        <v>2.36</v>
+      </c>
+      <c r="S130">
+        <v>4.16</v>
+      </c>
+      <c r="T130">
+        <v>1.33</v>
+      </c>
+      <c r="U130">
+        <v>2.88</v>
+      </c>
+      <c r="V130">
+        <v>2.62</v>
+      </c>
+      <c r="W130">
+        <v>1.42</v>
+      </c>
+      <c r="X130">
+        <v>6.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>1.91</v>
+      </c>
+      <c r="AA130">
+        <v>3.5</v>
+      </c>
+      <c r="AB130">
+        <v>3.75</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>10.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.25</v>
+      </c>
+      <c r="AF130">
+        <v>3.6</v>
+      </c>
+      <c r="AG130">
+        <v>1.72</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.67</v>
+      </c>
+      <c r="AJ130">
+        <v>2.13</v>
+      </c>
+      <c r="AK130">
+        <v>1.28</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.78</v>
+      </c>
+      <c r="AN130">
+        <v>2.4</v>
+      </c>
+      <c r="AO130">
+        <v>0.7</v>
+      </c>
+      <c r="AP130">
+        <v>2.18</v>
+      </c>
+      <c r="AQ130">
+        <v>0.91</v>
+      </c>
+      <c r="AR130">
+        <v>2.02</v>
+      </c>
+      <c r="AS130">
+        <v>1.32</v>
+      </c>
+      <c r="AT130">
+        <v>3.34</v>
+      </c>
+      <c r="AU130">
+        <v>-1</v>
+      </c>
+      <c r="AV130">
+        <v>-1</v>
+      </c>
+      <c r="AW130">
+        <v>-1</v>
+      </c>
+      <c r="AX130">
+        <v>-1</v>
+      </c>
+      <c r="AY130">
+        <v>-1</v>
+      </c>
+      <c r="AZ130">
+        <v>-1</v>
+      </c>
+      <c r="BA130">
+        <v>-1</v>
+      </c>
+      <c r="BB130">
+        <v>-1</v>
+      </c>
+      <c r="BC130">
+        <v>-1</v>
+      </c>
+      <c r="BD130">
+        <v>1.75</v>
+      </c>
+      <c r="BE130">
+        <v>7.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.45</v>
+      </c>
+      <c r="BG130">
+        <v>1.46</v>
+      </c>
+      <c r="BH130">
+        <v>2.52</v>
+      </c>
+      <c r="BI130">
+        <v>1.85</v>
+      </c>
+      <c r="BJ130">
+        <v>1.85</v>
+      </c>
+      <c r="BK130">
+        <v>2.39</v>
+      </c>
+      <c r="BL130">
+        <v>1.51</v>
+      </c>
+      <c r="BM130">
+        <v>3.28</v>
+      </c>
+      <c r="BN130">
+        <v>1.27</v>
+      </c>
+      <c r="BO130">
+        <v>4.75</v>
+      </c>
+      <c r="BP130">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7321525</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45483.3125</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>176</v>
+      </c>
+      <c r="P131" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q131">
+        <v>2.51</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>4.48</v>
+      </c>
+      <c r="T131">
+        <v>1.38</v>
+      </c>
+      <c r="U131">
+        <v>2.91</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>6.75</v>
+      </c>
+      <c r="Y131">
+        <v>1.09</v>
+      </c>
+      <c r="Z131">
+        <v>1.9</v>
+      </c>
+      <c r="AA131">
+        <v>3.5</v>
+      </c>
+      <c r="AB131">
+        <v>3.95</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>9.4</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.4</v>
+      </c>
+      <c r="AG131">
+        <v>1.92</v>
+      </c>
+      <c r="AH131">
+        <v>1.92</v>
+      </c>
+      <c r="AI131">
+        <v>1.73</v>
+      </c>
+      <c r="AJ131">
+        <v>1.95</v>
+      </c>
+      <c r="AK131">
+        <v>1.26</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>1.88</v>
+      </c>
+      <c r="AN131">
+        <v>1.8</v>
+      </c>
+      <c r="AO131">
+        <v>1.6</v>
+      </c>
+      <c r="AP131">
+        <v>1.91</v>
+      </c>
+      <c r="AQ131">
+        <v>1.45</v>
+      </c>
+      <c r="AR131">
+        <v>1.64</v>
+      </c>
+      <c r="AS131">
+        <v>1.41</v>
+      </c>
+      <c r="AT131">
+        <v>3.05</v>
+      </c>
+      <c r="AU131">
+        <v>-1</v>
+      </c>
+      <c r="AV131">
+        <v>-1</v>
+      </c>
+      <c r="AW131">
+        <v>-1</v>
+      </c>
+      <c r="AX131">
+        <v>-1</v>
+      </c>
+      <c r="AY131">
+        <v>-1</v>
+      </c>
+      <c r="AZ131">
+        <v>-1</v>
+      </c>
+      <c r="BA131">
+        <v>-1</v>
+      </c>
+      <c r="BB131">
+        <v>-1</v>
+      </c>
+      <c r="BC131">
+        <v>-1</v>
+      </c>
+      <c r="BD131">
+        <v>1.75</v>
+      </c>
+      <c r="BE131">
+        <v>7.5</v>
+      </c>
+      <c r="BF131">
+        <v>2.53</v>
+      </c>
+      <c r="BG131">
+        <v>1.7</v>
+      </c>
+      <c r="BH131">
+        <v>2.05</v>
+      </c>
+      <c r="BI131">
+        <v>1.91</v>
+      </c>
+      <c r="BJ131">
+        <v>1.8</v>
+      </c>
+      <c r="BK131">
+        <v>2.62</v>
+      </c>
+      <c r="BL131">
+        <v>1.43</v>
+      </c>
+      <c r="BM131">
+        <v>3.64</v>
+      </c>
+      <c r="BN131">
+        <v>1.22</v>
+      </c>
+      <c r="BO131">
+        <v>5.3</v>
+      </c>
+      <c r="BP131">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7321526</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45483.3125</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>177</v>
+      </c>
+      <c r="P132" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q132">
+        <v>2.7</v>
+      </c>
+      <c r="R132">
+        <v>2.33</v>
+      </c>
+      <c r="S132">
+        <v>3.91</v>
+      </c>
+      <c r="T132">
+        <v>1.34</v>
+      </c>
+      <c r="U132">
+        <v>3.27</v>
+      </c>
+      <c r="V132">
+        <v>2.68</v>
+      </c>
+      <c r="W132">
+        <v>1.47</v>
+      </c>
+      <c r="X132">
+        <v>5.75</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>2.2</v>
+      </c>
+      <c r="AA132">
+        <v>3.45</v>
+      </c>
+      <c r="AB132">
+        <v>3.1</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10.25</v>
+      </c>
+      <c r="AE132">
+        <v>1.25</v>
+      </c>
+      <c r="AF132">
+        <v>3.6</v>
+      </c>
+      <c r="AG132">
+        <v>1.7</v>
+      </c>
+      <c r="AH132">
+        <v>2.03</v>
+      </c>
+      <c r="AI132">
+        <v>1.68</v>
+      </c>
+      <c r="AJ132">
+        <v>2.19</v>
+      </c>
+      <c r="AK132">
+        <v>1.25</v>
+      </c>
+      <c r="AL132">
+        <v>1.44</v>
+      </c>
+      <c r="AM132">
+        <v>1.42</v>
+      </c>
+      <c r="AN132">
+        <v>0.9</v>
+      </c>
+      <c r="AO132">
+        <v>0.8</v>
+      </c>
+      <c r="AP132">
+        <v>1.09</v>
+      </c>
+      <c r="AQ132">
+        <v>0.73</v>
+      </c>
+      <c r="AR132">
+        <v>1.43</v>
+      </c>
+      <c r="AS132">
+        <v>1.53</v>
+      </c>
+      <c r="AT132">
+        <v>2.96</v>
+      </c>
+      <c r="AU132">
+        <v>-1</v>
+      </c>
+      <c r="AV132">
+        <v>-1</v>
+      </c>
+      <c r="AW132">
+        <v>-1</v>
+      </c>
+      <c r="AX132">
+        <v>-1</v>
+      </c>
+      <c r="AY132">
+        <v>-1</v>
+      </c>
+      <c r="AZ132">
+        <v>-1</v>
+      </c>
+      <c r="BA132">
+        <v>-1</v>
+      </c>
+      <c r="BB132">
+        <v>-1</v>
+      </c>
+      <c r="BC132">
+        <v>-1</v>
+      </c>
+      <c r="BD132">
+        <v>2.05</v>
+      </c>
+      <c r="BE132">
+        <v>7.5</v>
+      </c>
+      <c r="BF132">
+        <v>2</v>
+      </c>
+      <c r="BG132">
+        <v>1.33</v>
+      </c>
+      <c r="BH132">
+        <v>2.93</v>
+      </c>
+      <c r="BI132">
+        <v>1.77</v>
+      </c>
+      <c r="BJ132">
+        <v>1.95</v>
+      </c>
+      <c r="BK132">
+        <v>2.05</v>
+      </c>
+      <c r="BL132">
+        <v>1.7</v>
+      </c>
+      <c r="BM132">
+        <v>2.72</v>
+      </c>
+      <c r="BN132">
+        <v>1.4</v>
+      </c>
+      <c r="BO132">
+        <v>3.74</v>
+      </c>
+      <c r="BP132">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7321527</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45483.3125</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>178</v>
+      </c>
+      <c r="P133" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q133">
+        <v>2.34</v>
+      </c>
+      <c r="R133">
+        <v>2.34</v>
+      </c>
+      <c r="S133">
+        <v>4.96</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3.15</v>
+      </c>
+      <c r="V133">
+        <v>2.8</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6.75</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>1.77</v>
+      </c>
+      <c r="AA133">
+        <v>3.6</v>
+      </c>
+      <c r="AB133">
+        <v>4.5</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>9.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.42</v>
+      </c>
+      <c r="AG133">
+        <v>1.95</v>
+      </c>
+      <c r="AH133">
+        <v>1.89</v>
+      </c>
+      <c r="AI133">
+        <v>1.81</v>
+      </c>
+      <c r="AJ133">
+        <v>2.01</v>
+      </c>
+      <c r="AK133">
+        <v>1.22</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>2.05</v>
+      </c>
+      <c r="AN133">
+        <v>1.3</v>
+      </c>
+      <c r="AO133">
+        <v>0.4</v>
+      </c>
+      <c r="AP133">
+        <v>1.45</v>
+      </c>
+      <c r="AQ133">
+        <v>0.36</v>
+      </c>
+      <c r="AR133">
+        <v>1.53</v>
+      </c>
+      <c r="AS133">
+        <v>1.29</v>
+      </c>
+      <c r="AT133">
+        <v>2.82</v>
+      </c>
+      <c r="AU133">
+        <v>-1</v>
+      </c>
+      <c r="AV133">
+        <v>-1</v>
+      </c>
+      <c r="AW133">
+        <v>-1</v>
+      </c>
+      <c r="AX133">
+        <v>-1</v>
+      </c>
+      <c r="AY133">
+        <v>-1</v>
+      </c>
+      <c r="AZ133">
+        <v>-1</v>
+      </c>
+      <c r="BA133">
+        <v>-1</v>
+      </c>
+      <c r="BB133">
+        <v>-1</v>
+      </c>
+      <c r="BC133">
+        <v>-1</v>
+      </c>
+      <c r="BD133">
+        <v>1.59</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>2.9</v>
+      </c>
+      <c r="BG133">
+        <v>1.41</v>
+      </c>
+      <c r="BH133">
+        <v>2.69</v>
+      </c>
+      <c r="BI133">
+        <v>1.85</v>
+      </c>
+      <c r="BJ133">
+        <v>1.85</v>
+      </c>
+      <c r="BK133">
+        <v>2.23</v>
+      </c>
+      <c r="BL133">
+        <v>1.58</v>
+      </c>
+      <c r="BM133">
+        <v>2.98</v>
+      </c>
+      <c r="BN133">
+        <v>1.32</v>
+      </c>
+      <c r="BO133">
+        <v>4.3</v>
+      </c>
+      <c r="BP133">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -1465,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ2">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,25 +2695,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2907,19 +2907,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
         <v>0.73</v>
       </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3107,25 +3107,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3313,25 +3313,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>1.07</v>
+        <v>2.74</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3525,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3728,22 +3728,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT13">
-        <v>1.56</v>
+        <v>3.52</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3931,25 +3931,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS14">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AT14">
-        <v>1.86</v>
+        <v>3.29</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>2.51</v>
+        <v>3.54</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4343,25 +4343,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR16">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT16">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4549,25 +4549,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4755,25 +4755,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR18">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AT18">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4964,22 +4964,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS19">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5167,25 +5167,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR20">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AT20">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5373,25 +5373,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5579,25 +5579,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
+        <v>1.68</v>
+      </c>
+      <c r="AQ22">
         <v>1.82</v>
       </c>
-      <c r="AQ22">
-        <v>1.55</v>
-      </c>
       <c r="AR22">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AT22">
-        <v>4.07</v>
+        <v>3.34</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5785,25 +5785,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS23">
-        <v>0.73</v>
+        <v>1.17</v>
       </c>
       <c r="AT23">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5991,25 +5991,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT24">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6197,25 +6197,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AT25">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6403,25 +6403,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR26">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="AT26">
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6609,25 +6609,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6815,25 +6815,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="AT28">
-        <v>3.81</v>
+        <v>3.45</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7021,25 +7021,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AP29">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ29">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR29">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7227,25 +7227,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP30">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR30">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS30">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AT30">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7433,25 +7433,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ31">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7639,25 +7639,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO32">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP32">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR32">
+        <v>1.69</v>
+      </c>
+      <c r="AS32">
         <v>1.94</v>
       </c>
-      <c r="AS32">
-        <v>1.59</v>
-      </c>
       <c r="AT32">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7845,25 +7845,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AS33">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8051,25 +8051,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP34">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ34">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>2.06</v>
+        <v>3.13</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8257,25 +8257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ35">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR35">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS35">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT35">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8463,25 +8463,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AS36">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT36">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8669,25 +8669,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR37">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AS37">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>2.56</v>
+        <v>3.01</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8875,25 +8875,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS38">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="AT38">
-        <v>2.32</v>
+        <v>3.17</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9081,25 +9081,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ39">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9287,25 +9287,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ40">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR40">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AS40">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT40">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9493,25 +9493,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ41">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR41">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS41">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT41">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9699,25 +9699,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ42">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="AS42">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT42">
-        <v>3.95</v>
+        <v>3.08</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9905,25 +9905,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AS43">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT43">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10111,25 +10111,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO44">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP44">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ44">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR44">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT44">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10317,25 +10317,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR45">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AS45">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10523,25 +10523,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO46">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AP46">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS46">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AT46">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10729,25 +10729,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR47">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AT47">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10935,25 +10935,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO48">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11141,25 +11141,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP49">
+        <v>0.86</v>
+      </c>
+      <c r="AQ49">
         <v>1.36</v>
       </c>
-      <c r="AQ49">
-        <v>1.27</v>
-      </c>
       <c r="AR49">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AS49">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>2.23</v>
+        <v>2.68</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11347,25 +11347,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
+        <v>0.86</v>
+      </c>
+      <c r="AO50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.25</v>
-      </c>
       <c r="AP50">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR50">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="AS50">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11556,22 +11556,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ51">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11759,25 +11759,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO52">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11965,25 +11965,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP53">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ53">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12171,25 +12171,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR54">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12377,25 +12377,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR55">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AS55">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.39</v>
+        <v>2.62</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12583,25 +12583,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ56">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR56">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="AS56">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AT56">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12789,25 +12789,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ57">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -12995,25 +12995,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
         <v>0.91</v>
       </c>
-      <c r="AQ58">
-        <v>0.73</v>
-      </c>
       <c r="AR58">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13201,25 +13201,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
+        <v>1.11</v>
+      </c>
+      <c r="AO59">
+        <v>0.75</v>
+      </c>
+      <c r="AP59">
+        <v>1.18</v>
+      </c>
+      <c r="AQ59">
+        <v>1.27</v>
+      </c>
+      <c r="AR59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>1.64</v>
-      </c>
-      <c r="AQ59">
-        <v>0.91</v>
-      </c>
-      <c r="AR59">
-        <v>1.43</v>
-      </c>
       <c r="AS59">
-        <v>0.9399999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="AT59">
-        <v>2.37</v>
+        <v>3.01</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13407,25 +13407,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS60">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="AT60">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13613,25 +13613,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR61">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AT61">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13819,25 +13819,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR62">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14025,25 +14025,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO63">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ63">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14231,25 +14231,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14437,25 +14437,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR65">
+        <v>1.53</v>
+      </c>
+      <c r="AS65">
         <v>1.5</v>
       </c>
-      <c r="AS65">
-        <v>1.51</v>
-      </c>
       <c r="AT65">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14643,25 +14643,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AS66">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT66">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14849,25 +14849,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP67">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT67">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15055,25 +15055,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="AO68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
         <v>1.27</v>
       </c>
-      <c r="AQ68">
-        <v>0.91</v>
-      </c>
       <c r="AR68">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="AT68">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15261,25 +15261,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AO69">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ69">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
-        <v>2.07</v>
+        <v>1.64</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT69">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15467,25 +15467,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ70">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR70">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>2.89</v>
+        <v>3.21</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15673,25 +15673,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AO71">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP71">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15879,25 +15879,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO72">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AP72">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR72">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16085,25 +16085,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AP73">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AT73">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16291,25 +16291,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>1.6</v>
+        <v>0.92</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS74">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AT74">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16497,25 +16497,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO75">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR75">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16703,25 +16703,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO76">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR76">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16909,25 +16909,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AO77">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ77">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS77">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17115,25 +17115,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR78">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AT78">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17321,25 +17321,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO79">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AP79">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR79">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17530,22 +17530,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ80">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17733,25 +17733,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AO81">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="AP81">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ81">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="AS81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17939,25 +17939,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
+        <v>1.92</v>
+      </c>
+      <c r="AO82">
+        <v>1.15</v>
+      </c>
+      <c r="AP82">
         <v>1.86</v>
       </c>
-      <c r="AO82">
-        <v>1.33</v>
-      </c>
-      <c r="AP82">
-        <v>1.91</v>
-      </c>
       <c r="AQ82">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT82">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18145,25 +18145,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO83">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="AP83">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
+        <v>1.63</v>
+      </c>
+      <c r="AS83">
         <v>1.59</v>
       </c>
-      <c r="AS83">
-        <v>1.26</v>
-      </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>3.22</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18351,25 +18351,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO84">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR84">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="AT84">
-        <v>2.74</v>
+        <v>3.09</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18557,25 +18557,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO85">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP85">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ85">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR85">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS85">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AT85">
-        <v>3.09</v>
+        <v>3.29</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18763,25 +18763,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AO86">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR86">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AT86">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18969,25 +18969,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR87">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AS87">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19175,25 +19175,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AO88">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR88">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AS88">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="AT88">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19381,25 +19381,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="AO89">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR89">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS89">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT89">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19587,25 +19587,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AO90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS90">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT90">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19793,25 +19793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ91">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR91">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AS91">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -19999,25 +19999,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="AO92">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AP92">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ92">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR92">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20205,25 +20205,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
+        <v>1.6</v>
+      </c>
+      <c r="AO93">
+        <v>1.27</v>
+      </c>
+      <c r="AP93">
+        <v>1.68</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.71</v>
+      </c>
+      <c r="AS93">
         <v>1.63</v>
       </c>
-      <c r="AO93">
-        <v>1.43</v>
-      </c>
-      <c r="AP93">
-        <v>1.82</v>
-      </c>
-      <c r="AQ93">
-        <v>1.09</v>
-      </c>
-      <c r="AR93">
-        <v>1.86</v>
-      </c>
-      <c r="AS93">
-        <v>1.66</v>
-      </c>
       <c r="AT93">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20411,25 +20411,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AP94">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20617,25 +20617,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP95">
+        <v>0.86</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
         <v>1.36</v>
       </c>
-      <c r="AQ95">
-        <v>0.73</v>
-      </c>
-      <c r="AR95">
-        <v>1.34</v>
-      </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT95">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20823,25 +20823,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR96">
+        <v>1.59</v>
+      </c>
+      <c r="AS96">
         <v>1.57</v>
       </c>
-      <c r="AS96">
-        <v>1.28</v>
-      </c>
       <c r="AT96">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21029,25 +21029,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO97">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ97">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR97">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21235,25 +21235,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AO98">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ98">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS98">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT98">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21441,25 +21441,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO99">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP99">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR99">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT99">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21647,25 +21647,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO100">
+        <v>1.69</v>
+      </c>
+      <c r="AP100">
+        <v>1.68</v>
+      </c>
+      <c r="AQ100">
+        <v>1.68</v>
+      </c>
+      <c r="AR100">
         <v>1.57</v>
       </c>
-      <c r="AP100">
-        <v>1.91</v>
-      </c>
-      <c r="AQ100">
-        <v>1.55</v>
-      </c>
-      <c r="AR100">
-        <v>1.82</v>
-      </c>
       <c r="AS100">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="AT100">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21853,25 +21853,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="AO101">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AP101">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR101">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT101">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22059,25 +22059,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AP102">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22265,25 +22265,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR103">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22471,25 +22471,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR104">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS104">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT104">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22677,25 +22677,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22883,25 +22883,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AO106">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AP106">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR106">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AS106">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23089,25 +23089,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO107">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT107">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23295,25 +23295,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO108">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR108">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AT108">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23501,25 +23501,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR109">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AS109">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="AT109">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23707,25 +23707,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="AP110">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ110">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23913,25 +23913,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="AO111">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT111">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24119,25 +24119,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO112">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR112">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24325,25 +24325,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AO113">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ113">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR113">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24531,25 +24531,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="AO114">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ114">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24737,25 +24737,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP115">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ115">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24943,25 +24943,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO116">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS116">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT116">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25149,25 +25149,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO117">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ117">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AS117">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AT117">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25355,25 +25355,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
       <c r="AO118">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ118">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR118">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25561,25 +25561,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AO119">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR119">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25767,25 +25767,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AO120">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT120">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25973,25 +25973,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO121">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR121">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS121">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AT121">
-        <v>2.82</v>
+        <v>3.07</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26179,25 +26179,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
+        <v>1.82</v>
+      </c>
+      <c r="AR122">
+        <v>1.52</v>
+      </c>
+      <c r="AS122">
         <v>1.55</v>
       </c>
-      <c r="AR122">
-        <v>1.49</v>
-      </c>
-      <c r="AS122">
-        <v>1.51</v>
-      </c>
       <c r="AT122">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26385,25 +26385,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
+        <v>1.65</v>
+      </c>
+      <c r="AO123">
         <v>1.9</v>
       </c>
-      <c r="AO123">
-        <v>1.4</v>
-      </c>
       <c r="AP123">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AR123">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AS123">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26591,22 +26591,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
+        <v>1.15</v>
+      </c>
+      <c r="AO124">
+        <v>1.35</v>
+      </c>
+      <c r="AP124">
+        <v>1.18</v>
+      </c>
+      <c r="AQ124">
+        <v>1.36</v>
+      </c>
+      <c r="AR124">
+        <v>1.56</v>
+      </c>
+      <c r="AS124">
         <v>1.5</v>
-      </c>
-      <c r="AO124">
-        <v>1.4</v>
-      </c>
-      <c r="AP124">
-        <v>1.64</v>
-      </c>
-      <c r="AQ124">
-        <v>1.27</v>
-      </c>
-      <c r="AR124">
-        <v>1.59</v>
-      </c>
-      <c r="AS124">
-        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26797,25 +26797,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AP125">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27003,25 +27003,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AO126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AQ126">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AT126">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27209,25 +27209,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AO127">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ127">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR127">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27415,25 +27415,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO128">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR128">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS128">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT128">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27621,25 +27621,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AO129">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AP129">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR129">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AS129">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27827,52 +27827,52 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="AP130">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR130">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AS130">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU130">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX130">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AY130">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ130">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC130">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD130">
         <v>1.75</v>
@@ -28033,52 +28033,52 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AO131">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AP131">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AQ131">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS131">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT131">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV131">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY131">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ131">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB131">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC131">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD131">
         <v>1.75</v>
@@ -28239,52 +28239,52 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO132">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="AP132">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ132">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AR132">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS132">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT132">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU132">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX132">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY132">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ132">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC132">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD132">
         <v>2.05</v>
@@ -28445,52 +28445,52 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AO133">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AP133">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW133">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX133">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY133">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ133">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA133">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC133">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD133">
         <v>1.59</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -1465,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
+        <v>1.64</v>
+      </c>
+      <c r="AQ4">
         <v>1.27</v>
-      </c>
-      <c r="AQ4">
-        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ5">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,25 +2695,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2907,19 +2907,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR9">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3107,25 +3107,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ10">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3313,25 +3313,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR11">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>2.74</v>
+        <v>1.07</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3525,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3728,22 +3728,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.52</v>
+        <v>1.56</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3931,25 +3931,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ14">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AT14">
-        <v>3.29</v>
+        <v>1.86</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AS15">
-        <v>1.85</v>
+        <v>0.8</v>
       </c>
       <c r="AT15">
-        <v>3.54</v>
+        <v>2.51</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4343,25 +4343,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS16">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4549,25 +4549,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4755,25 +4755,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ18">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR18">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AT18">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4964,22 +4964,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR19">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AT19">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5167,25 +5167,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="AS20">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5373,25 +5373,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR21">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5579,25 +5579,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ22">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AS22">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>3.34</v>
+        <v>4.07</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5785,25 +5785,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR23">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5991,25 +5991,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AS24">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AT24">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6197,25 +6197,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR25">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6403,25 +6403,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR26">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS26">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>3.45</v>
+        <v>3.09</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6609,25 +6609,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6815,25 +6815,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR28">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="AS28">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.45</v>
+        <v>3.81</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7021,25 +7021,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR29">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7227,25 +7227,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS30">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AT30">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7433,25 +7433,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AS31">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7639,25 +7639,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AS32">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="AT32">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7845,25 +7845,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AT33">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8051,25 +8051,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR34">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
-        <v>3.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8257,25 +8257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ35">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR35">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS35">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT35">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8463,25 +8463,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR36">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AS36">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AT36">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8669,25 +8669,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR37">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AT37">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8875,25 +8875,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
+        <v>1.09</v>
+      </c>
+      <c r="AQ38">
         <v>0.91</v>
       </c>
-      <c r="AQ38">
-        <v>1.27</v>
-      </c>
       <c r="AR38">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS38">
-        <v>1.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9081,25 +9081,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS39">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9287,25 +9287,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR40">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AS40">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AT40">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9493,25 +9493,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR41">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS41">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9699,25 +9699,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR42">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="AS42">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT42">
-        <v>3.08</v>
+        <v>3.95</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9905,25 +9905,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR43">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT43">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10111,25 +10111,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ44">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AS44">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT44">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10317,25 +10317,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT45">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10523,25 +10523,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS46">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT46">
-        <v>2.84</v>
+        <v>3.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10729,25 +10729,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS47">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10935,25 +10935,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11141,25 +11141,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT49">
-        <v>2.68</v>
+        <v>2.23</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11347,25 +11347,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="AT50">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11556,22 +11556,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ51">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR51">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11759,25 +11759,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR52">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11965,25 +11965,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO53">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12171,25 +12171,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ54">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12377,25 +12377,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AT55">
-        <v>2.62</v>
+        <v>2.39</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12583,25 +12583,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR56">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="AS56">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12789,25 +12789,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -12995,25 +12995,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13201,25 +13201,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS59">
-        <v>1.51</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13407,25 +13407,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13613,25 +13613,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO61">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
+        <v>1.45</v>
+      </c>
+      <c r="AQ61">
         <v>1.36</v>
       </c>
-      <c r="AQ61">
-        <v>1.77</v>
-      </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AS61">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT61">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13819,25 +13819,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ62">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14025,25 +14025,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO63">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR63">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14231,25 +14231,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO64">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR64">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14437,25 +14437,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT65">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14643,25 +14643,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AS66">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT66">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14849,25 +14849,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
+        <v>1.4</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>0.91</v>
+      </c>
+      <c r="AQ67">
         <v>1.27</v>
       </c>
-      <c r="AO67">
-        <v>1.09</v>
-      </c>
-      <c r="AP67">
-        <v>1</v>
-      </c>
-      <c r="AQ67">
-        <v>1.36</v>
-      </c>
       <c r="AR67">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS67">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15055,25 +15055,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="AO68">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS68">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="AT68">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15261,25 +15261,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO69">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR69">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AS69">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15467,25 +15467,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR70">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15673,25 +15673,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15879,25 +15879,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AO72">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AS72">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16085,25 +16085,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO73">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AS73">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16291,25 +16291,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>0.92</v>
+        <v>1.6</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS74">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AT74">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16497,25 +16497,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ75">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS75">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT75">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16703,25 +16703,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR76">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS76">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16909,25 +16909,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AO77">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR77">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS77">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT77">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17115,25 +17115,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="AS78">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17321,25 +17321,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO79">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR79">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AS79">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17530,22 +17530,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT80">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17733,25 +17733,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR81">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT81">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17939,25 +17939,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AO82">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR82">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18145,25 +18145,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR83">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AS83">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>3.22</v>
+        <v>2.85</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18351,25 +18351,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO84">
+        <v>1.17</v>
+      </c>
+      <c r="AP84">
+        <v>1.27</v>
+      </c>
+      <c r="AQ84">
+        <v>1.45</v>
+      </c>
+      <c r="AR84">
         <v>1.46</v>
       </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>1.68</v>
-      </c>
-      <c r="AR84">
-        <v>1.5</v>
-      </c>
       <c r="AS84">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="AT84">
-        <v>3.09</v>
+        <v>2.74</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18557,25 +18557,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ85">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS85">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT85">
-        <v>3.29</v>
+        <v>3.09</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18763,25 +18763,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18969,25 +18969,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ87">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR87">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AT87">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19175,25 +19175,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS88">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="AT88">
-        <v>3.46</v>
+        <v>3.06</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19381,25 +19381,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>0.79</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS89">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT89">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19587,25 +19587,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS90">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT90">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19793,25 +19793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ91">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR91">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT91">
-        <v>3.01</v>
+        <v>3.34</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -19999,25 +19999,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="AO92">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR92">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AS92">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20205,25 +20205,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AO93">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR93">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AS93">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT93">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20411,25 +20411,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AP94">
+        <v>2.09</v>
+      </c>
+      <c r="AQ94">
         <v>1.82</v>
       </c>
-      <c r="AQ94">
-        <v>1.86</v>
-      </c>
       <c r="AR94">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT94">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20617,25 +20617,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
+        <v>1.14</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1.36</v>
+      </c>
+      <c r="AQ95">
         <v>0.73</v>
       </c>
-      <c r="AO95">
-        <v>0.93</v>
-      </c>
-      <c r="AP95">
-        <v>0.86</v>
-      </c>
-      <c r="AQ95">
-        <v>1</v>
-      </c>
       <c r="AR95">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS95">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20823,25 +20823,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ96">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR96">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21029,25 +21029,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO97">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AT97">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21235,25 +21235,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR98">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT98">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21441,25 +21441,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ99">
+        <v>1.55</v>
+      </c>
+      <c r="AR99">
         <v>1.82</v>
       </c>
-      <c r="AR99">
-        <v>1.6</v>
-      </c>
       <c r="AS99">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21647,25 +21647,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO100">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR100">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AS100">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21853,25 +21853,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ101">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR101">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AS101">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22059,25 +22059,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO102">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS102">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT102">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22265,25 +22265,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AO103">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22471,25 +22471,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR104">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT104">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22677,25 +22677,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22883,25 +22883,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT106">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23089,25 +23089,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO107">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS107">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT107">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23295,25 +23295,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO108">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR108">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AT108">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23501,25 +23501,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR109">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AS109">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AT109">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23707,25 +23707,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AO110">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR110">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AT110">
-        <v>3.22</v>
+        <v>3.13</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23913,25 +23913,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24119,25 +24119,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AO112">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR112">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24325,25 +24325,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AO113">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR113">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AS113">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24531,25 +24531,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR114">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24737,25 +24737,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR115">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24943,25 +24943,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AO116">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR116">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS116">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AT116">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25149,25 +25149,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO117">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR117">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AS117">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25355,25 +25355,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR118">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS118">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT118">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25561,25 +25561,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ119">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25767,25 +25767,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25973,25 +25973,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26179,25 +26179,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO122">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26385,25 +26385,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AO123">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AQ123">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AT123">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26591,22 +26591,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ124">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR124">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26797,25 +26797,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT125">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27003,25 +27003,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AQ126">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27209,25 +27209,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AO127">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR127">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27415,25 +27415,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO128">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR128">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS128">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT128">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27621,25 +27621,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AO129">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AQ129">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR129">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AT129">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27827,25 +27827,25 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="AO130">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR130">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AT130">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28033,25 +28033,25 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AO131">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AR131">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28239,25 +28239,25 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AO132">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28445,25 +28445,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AO133">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AU133">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,15 @@
     <t>['61', '66']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['63', '90+12']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -767,6 +776,9 @@
   </si>
   <si>
     <t>['10', '45', '78']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1593,7 +1605,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1671,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1877,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2005,7 +2017,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2083,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2211,7 +2223,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2289,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2429,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2495,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2623,7 +2635,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2695,25 +2707,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2907,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
         <v>0.73</v>
       </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3035,7 +3047,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3107,25 +3119,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3241,7 +3253,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3313,25 +3325,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ11">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>1.07</v>
+        <v>2.74</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3525,19 +3537,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3653,7 +3665,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3728,22 +3740,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT13">
-        <v>1.56</v>
+        <v>3.52</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3859,7 +3871,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3931,25 +3943,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ14">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS14">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AT14">
-        <v>1.86</v>
+        <v>3.29</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4140,22 +4152,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>2.51</v>
+        <v>3.54</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4343,25 +4355,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR16">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT16">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4549,25 +4561,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4755,25 +4767,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR18">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AT18">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4889,7 +4901,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4964,22 +4976,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS19">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5095,7 +5107,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5167,25 +5179,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR20">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AT20">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5373,25 +5385,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR21">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5507,7 +5519,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5579,25 +5591,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
+        <v>1.68</v>
+      </c>
+      <c r="AQ22">
         <v>1.82</v>
       </c>
-      <c r="AQ22">
-        <v>1.55</v>
-      </c>
       <c r="AR22">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AT22">
-        <v>4.07</v>
+        <v>3.34</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5713,7 +5725,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5785,25 +5797,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ23">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS23">
-        <v>0.73</v>
+        <v>1.17</v>
       </c>
       <c r="AT23">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5991,25 +6003,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT24">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6125,7 +6137,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6197,25 +6209,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AT25">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6331,7 +6343,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6403,25 +6415,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR26">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="AT26">
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6609,25 +6621,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6743,7 +6755,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6815,25 +6827,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="AT28">
-        <v>3.81</v>
+        <v>3.45</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6949,7 +6961,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7021,25 +7033,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AP29">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR29">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7227,25 +7239,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP30">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR30">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS30">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AT30">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7433,25 +7445,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ31">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7639,25 +7651,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO32">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP32">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR32">
+        <v>1.69</v>
+      </c>
+      <c r="AS32">
         <v>1.94</v>
       </c>
-      <c r="AS32">
-        <v>1.59</v>
-      </c>
       <c r="AT32">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7773,7 +7785,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7845,25 +7857,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR33">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AS33">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7979,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8051,25 +8063,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP34">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ34">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>2.06</v>
+        <v>3.13</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8185,7 +8197,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8257,25 +8269,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ35">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR35">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS35">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT35">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8463,25 +8475,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AS36">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT36">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8597,7 +8609,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8669,25 +8681,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR37">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AS37">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>2.56</v>
+        <v>3.01</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8803,7 +8815,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8875,25 +8887,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS38">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="AT38">
-        <v>2.32</v>
+        <v>3.17</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9009,7 +9021,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9081,25 +9093,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR39">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9287,25 +9299,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR40">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AS40">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT40">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9421,7 +9433,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9493,25 +9505,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ41">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR41">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS41">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT41">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9699,25 +9711,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ42">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR42">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="AS42">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT42">
-        <v>3.95</v>
+        <v>3.08</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9833,7 +9845,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9905,25 +9917,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AS43">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT43">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10111,25 +10123,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO44">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP44">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ44">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR44">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT44">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10317,25 +10329,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR45">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AS45">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10451,7 +10463,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10523,25 +10535,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO46">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AP46">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS46">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AT46">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10657,7 +10669,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10729,25 +10741,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR47">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AT47">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10935,25 +10947,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO48">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11069,7 +11081,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11141,25 +11153,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP49">
+        <v>0.87</v>
+      </c>
+      <c r="AQ49">
+        <v>1.3</v>
+      </c>
+      <c r="AR49">
+        <v>1.32</v>
+      </c>
+      <c r="AS49">
         <v>1.36</v>
       </c>
-      <c r="AQ49">
-        <v>1.27</v>
-      </c>
-      <c r="AR49">
-        <v>1.07</v>
-      </c>
-      <c r="AS49">
-        <v>1.16</v>
-      </c>
       <c r="AT49">
-        <v>2.23</v>
+        <v>2.68</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11275,7 +11287,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11347,25 +11359,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
+        <v>0.86</v>
+      </c>
+      <c r="AO50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.25</v>
-      </c>
       <c r="AP50">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR50">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="AS50">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11556,22 +11568,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ51">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11759,25 +11771,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO52">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11893,7 +11905,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11965,25 +11977,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP53">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ53">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12099,7 +12111,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12171,25 +12183,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR54">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12377,25 +12389,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR55">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AS55">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.39</v>
+        <v>2.62</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12511,7 +12523,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12583,25 +12595,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ56">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR56">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="AS56">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AT56">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12717,7 +12729,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12789,25 +12801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ57">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR57">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -12995,25 +13007,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
         <v>0.91</v>
       </c>
-      <c r="AQ58">
-        <v>0.73</v>
-      </c>
       <c r="AR58">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13129,7 +13141,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13201,25 +13213,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
+        <v>1.11</v>
+      </c>
+      <c r="AO59">
+        <v>0.75</v>
+      </c>
+      <c r="AP59">
+        <v>1.26</v>
+      </c>
+      <c r="AQ59">
+        <v>1.27</v>
+      </c>
+      <c r="AR59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>1.64</v>
-      </c>
-      <c r="AQ59">
-        <v>0.91</v>
-      </c>
-      <c r="AR59">
-        <v>1.43</v>
-      </c>
       <c r="AS59">
-        <v>0.9399999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="AT59">
-        <v>2.37</v>
+        <v>3.01</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13335,7 +13347,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13407,25 +13419,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS60">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="AT60">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13541,7 +13553,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13613,25 +13625,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AT61">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13819,25 +13831,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR62">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -13953,7 +13965,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14025,25 +14037,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO63">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ63">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14159,7 +14171,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14231,25 +14243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14437,25 +14449,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR65">
+        <v>1.53</v>
+      </c>
+      <c r="AS65">
         <v>1.5</v>
       </c>
-      <c r="AS65">
-        <v>1.51</v>
-      </c>
       <c r="AT65">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14571,7 +14583,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14643,25 +14655,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR66">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AS66">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT66">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14777,7 +14789,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14849,25 +14861,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP67">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT67">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14983,7 +14995,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15055,25 +15067,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="AO68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
         <v>1.27</v>
       </c>
-      <c r="AQ68">
-        <v>0.91</v>
-      </c>
       <c r="AR68">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="AT68">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15189,7 +15201,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15261,25 +15273,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AO69">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ69">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR69">
-        <v>2.07</v>
+        <v>1.64</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT69">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15395,7 +15407,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15467,25 +15479,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ70">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR70">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>2.89</v>
+        <v>3.21</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15601,7 +15613,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15673,25 +15685,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AO71">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP71">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR71">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15807,7 +15819,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15879,25 +15891,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO72">
+        <v>1.91</v>
+      </c>
+      <c r="AP72">
         <v>1.83</v>
       </c>
-      <c r="AP72">
-        <v>2.18</v>
-      </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR72">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16085,25 +16097,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AP73">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AT73">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16219,7 +16231,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16291,25 +16303,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>1.6</v>
+        <v>0.92</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS74">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AT74">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16497,25 +16509,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO75">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16631,7 +16643,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16703,25 +16715,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO76">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR76">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16837,7 +16849,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16909,25 +16921,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AO77">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS77">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17115,25 +17127,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AT78">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17321,25 +17333,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO79">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AP79">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR79">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17530,22 +17542,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ80">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17661,7 +17673,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17733,25 +17745,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AO81">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="AP81">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="AS81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17867,7 +17879,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17939,25 +17951,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AP82">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT82">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18145,25 +18157,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO83">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="AP83">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
+        <v>1.63</v>
+      </c>
+      <c r="AS83">
         <v>1.59</v>
       </c>
-      <c r="AS83">
-        <v>1.26</v>
-      </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>3.22</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18279,7 +18291,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18351,25 +18363,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO84">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR84">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="AT84">
-        <v>2.74</v>
+        <v>3.09</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18557,25 +18569,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO85">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP85">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ85">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR85">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS85">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AT85">
-        <v>3.09</v>
+        <v>3.29</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18763,25 +18775,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AO86">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AT86">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18897,7 +18909,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18969,25 +18981,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR87">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AS87">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19103,7 +19115,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19175,25 +19187,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AO88">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR88">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AS88">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="AT88">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19309,7 +19321,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19381,25 +19393,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="AO89">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR89">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS89">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT89">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19587,25 +19599,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AO90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS90">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT90">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19793,25 +19805,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ91">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR91">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AS91">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -19999,25 +20011,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="AO92">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AP92">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR92">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20205,25 +20217,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
+        <v>1.6</v>
+      </c>
+      <c r="AO93">
+        <v>1.27</v>
+      </c>
+      <c r="AP93">
+        <v>1.68</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.71</v>
+      </c>
+      <c r="AS93">
         <v>1.63</v>
       </c>
-      <c r="AO93">
-        <v>1.43</v>
-      </c>
-      <c r="AP93">
-        <v>1.82</v>
-      </c>
-      <c r="AQ93">
-        <v>1.09</v>
-      </c>
-      <c r="AR93">
-        <v>1.86</v>
-      </c>
-      <c r="AS93">
-        <v>1.66</v>
-      </c>
       <c r="AT93">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20411,25 +20423,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AP94">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20617,25 +20629,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP95">
+        <v>0.87</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
         <v>1.36</v>
       </c>
-      <c r="AQ95">
-        <v>0.73</v>
-      </c>
-      <c r="AR95">
-        <v>1.34</v>
-      </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT95">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20751,7 +20763,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20823,25 +20835,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ96">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR96">
+        <v>1.59</v>
+      </c>
+      <c r="AS96">
         <v>1.57</v>
       </c>
-      <c r="AS96">
-        <v>1.28</v>
-      </c>
       <c r="AT96">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -20957,7 +20969,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21029,25 +21041,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO97">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR97">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21163,7 +21175,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21235,25 +21247,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AO98">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ98">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS98">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT98">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21441,25 +21453,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO99">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP99">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR99">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT99">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21575,7 +21587,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21647,25 +21659,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO100">
+        <v>1.69</v>
+      </c>
+      <c r="AP100">
+        <v>1.65</v>
+      </c>
+      <c r="AQ100">
+        <v>1.68</v>
+      </c>
+      <c r="AR100">
         <v>1.57</v>
       </c>
-      <c r="AP100">
-        <v>1.91</v>
-      </c>
-      <c r="AQ100">
-        <v>1.55</v>
-      </c>
-      <c r="AR100">
-        <v>1.82</v>
-      </c>
       <c r="AS100">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="AT100">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21781,7 +21793,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21853,25 +21865,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="AO101">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AP101">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT101">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -21987,7 +21999,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22059,25 +22071,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AP102">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22265,25 +22277,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR103">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22471,25 +22483,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR104">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS104">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT104">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22605,7 +22617,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22677,25 +22689,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22811,7 +22823,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22883,25 +22895,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AO106">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AP106">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AR106">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AS106">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23089,25 +23101,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO107">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT107">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23223,7 +23235,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23295,25 +23307,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO108">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR108">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AT108">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23429,7 +23441,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23501,25 +23513,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR109">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AS109">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="AT109">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23707,25 +23719,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="AP110">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ110">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23913,25 +23925,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="AO111">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT111">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24119,25 +24131,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO112">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR112">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24325,25 +24337,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AO113">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ113">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR113">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24531,25 +24543,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="AO114">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24665,7 +24677,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24737,25 +24749,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP115">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ115">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24943,25 +24955,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO116">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS116">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT116">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25077,7 +25089,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25149,25 +25161,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO117">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ117">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AS117">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AT117">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25283,7 +25295,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25355,25 +25367,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
       <c r="AO118">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ118">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR118">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25561,25 +25573,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AO119">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25695,7 +25707,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25767,25 +25779,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AO120">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR120">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT120">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25901,7 +25913,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -25973,25 +25985,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO121">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR121">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS121">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AT121">
-        <v>2.82</v>
+        <v>3.07</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26107,7 +26119,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26179,25 +26191,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
+        <v>1.82</v>
+      </c>
+      <c r="AR122">
+        <v>1.52</v>
+      </c>
+      <c r="AS122">
         <v>1.55</v>
       </c>
-      <c r="AR122">
-        <v>1.49</v>
-      </c>
-      <c r="AS122">
-        <v>1.51</v>
-      </c>
       <c r="AT122">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26313,7 +26325,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26385,25 +26397,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
+        <v>1.65</v>
+      </c>
+      <c r="AO123">
         <v>1.9</v>
       </c>
-      <c r="AO123">
-        <v>1.4</v>
-      </c>
       <c r="AP123">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR123">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AS123">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26519,7 +26531,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26591,22 +26603,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
+        <v>1.15</v>
+      </c>
+      <c r="AO124">
+        <v>1.35</v>
+      </c>
+      <c r="AP124">
+        <v>1.26</v>
+      </c>
+      <c r="AQ124">
+        <v>1.3</v>
+      </c>
+      <c r="AR124">
+        <v>1.56</v>
+      </c>
+      <c r="AS124">
         <v>1.5</v>
-      </c>
-      <c r="AO124">
-        <v>1.4</v>
-      </c>
-      <c r="AP124">
-        <v>1.64</v>
-      </c>
-      <c r="AQ124">
-        <v>1.27</v>
-      </c>
-      <c r="AR124">
-        <v>1.59</v>
-      </c>
-      <c r="AS124">
-        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26725,7 +26737,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26797,25 +26809,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AP125">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -26931,7 +26943,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27003,25 +27015,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AO126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="AQ126">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AT126">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27209,25 +27221,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AO127">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ127">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR127">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27415,25 +27427,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO128">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR128">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS128">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT128">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27549,7 +27561,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27621,25 +27633,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AO129">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AP129">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR129">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AS129">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27827,25 +27839,25 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="AP130">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AR130">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AS130">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28033,25 +28045,25 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AO131">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AP131">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ131">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS131">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT131">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28239,25 +28251,25 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO132">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="AP132">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ132">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR132">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS132">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT132">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28373,7 +28385,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28445,25 +28457,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>0.9</v>
+      </c>
+      <c r="AP133">
         <v>1.3</v>
       </c>
-      <c r="AO133">
-        <v>0.4</v>
-      </c>
-      <c r="AP133">
-        <v>1.45</v>
-      </c>
       <c r="AQ133">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -28530,6 +28542,624 @@
       </c>
       <c r="BP133">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7321528</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45486.29166666666</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>179</v>
+      </c>
+      <c r="P134" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q134">
+        <v>2.75</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>3.75</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2</v>
+      </c>
+      <c r="AA134">
+        <v>3.5</v>
+      </c>
+      <c r="AB134">
+        <v>3.3</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>12</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>3.65</v>
+      </c>
+      <c r="AG134">
+        <v>1.76</v>
+      </c>
+      <c r="AH134">
+        <v>2.06</v>
+      </c>
+      <c r="AI134">
+        <v>1.62</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.3</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>1.72</v>
+      </c>
+      <c r="AN134">
+        <v>1.77</v>
+      </c>
+      <c r="AO134">
+        <v>1.36</v>
+      </c>
+      <c r="AP134">
+        <v>1.83</v>
+      </c>
+      <c r="AQ134">
+        <v>1.3</v>
+      </c>
+      <c r="AR134">
+        <v>1.73</v>
+      </c>
+      <c r="AS134">
+        <v>1.55</v>
+      </c>
+      <c r="AT134">
+        <v>3.28</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>7</v>
+      </c>
+      <c r="AZ134">
+        <v>7</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>1.65</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.5</v>
+      </c>
+      <c r="BG134">
+        <v>1.39</v>
+      </c>
+      <c r="BH134">
+        <v>2.76</v>
+      </c>
+      <c r="BI134">
+        <v>1.7</v>
+      </c>
+      <c r="BJ134">
+        <v>2.05</v>
+      </c>
+      <c r="BK134">
+        <v>2.21</v>
+      </c>
+      <c r="BL134">
+        <v>1.59</v>
+      </c>
+      <c r="BM134">
+        <v>2.93</v>
+      </c>
+      <c r="BN134">
+        <v>1.33</v>
+      </c>
+      <c r="BO134">
+        <v>4.2</v>
+      </c>
+      <c r="BP134">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7321530</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45486.3125</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
+      </c>
+      <c r="H135" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+      <c r="P135" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q135">
+        <v>3.5</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>2.88</v>
+      </c>
+      <c r="AA135">
+        <v>3.25</v>
+      </c>
+      <c r="AB135">
+        <v>2.3</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>10</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.35</v>
+      </c>
+      <c r="AG135">
+        <v>1.9</v>
+      </c>
+      <c r="AH135">
+        <v>1.9</v>
+      </c>
+      <c r="AI135">
+        <v>1.73</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>1.57</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.38</v>
+      </c>
+      <c r="AN135">
+        <v>1.18</v>
+      </c>
+      <c r="AO135">
+        <v>1.86</v>
+      </c>
+      <c r="AP135">
+        <v>1.26</v>
+      </c>
+      <c r="AQ135">
+        <v>1.78</v>
+      </c>
+      <c r="AR135">
+        <v>1.56</v>
+      </c>
+      <c r="AS135">
+        <v>1.52</v>
+      </c>
+      <c r="AT135">
+        <v>3.08</v>
+      </c>
+      <c r="AU135">
+        <v>-1</v>
+      </c>
+      <c r="AV135">
+        <v>-1</v>
+      </c>
+      <c r="AW135">
+        <v>-1</v>
+      </c>
+      <c r="AX135">
+        <v>-1</v>
+      </c>
+      <c r="AY135">
+        <v>-1</v>
+      </c>
+      <c r="AZ135">
+        <v>-1</v>
+      </c>
+      <c r="BA135">
+        <v>-1</v>
+      </c>
+      <c r="BB135">
+        <v>-1</v>
+      </c>
+      <c r="BC135">
+        <v>-1</v>
+      </c>
+      <c r="BD135">
+        <v>1.95</v>
+      </c>
+      <c r="BE135">
+        <v>8</v>
+      </c>
+      <c r="BF135">
+        <v>2.05</v>
+      </c>
+      <c r="BG135">
+        <v>1.43</v>
+      </c>
+      <c r="BH135">
+        <v>2.62</v>
+      </c>
+      <c r="BI135">
+        <v>1.77</v>
+      </c>
+      <c r="BJ135">
+        <v>1.95</v>
+      </c>
+      <c r="BK135">
+        <v>2.29</v>
+      </c>
+      <c r="BL135">
+        <v>1.55</v>
+      </c>
+      <c r="BM135">
+        <v>3.08</v>
+      </c>
+      <c r="BN135">
+        <v>1.3</v>
+      </c>
+      <c r="BO135">
+        <v>4.45</v>
+      </c>
+      <c r="BP135">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7321529</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45486.3125</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>181</v>
+      </c>
+      <c r="P136" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q136">
+        <v>3.5</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>3.1</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>2.75</v>
+      </c>
+      <c r="AA136">
+        <v>3.25</v>
+      </c>
+      <c r="AB136">
+        <v>2.4</v>
+      </c>
+      <c r="AC136">
+        <v>1.07</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.36</v>
+      </c>
+      <c r="AF136">
+        <v>2.96</v>
+      </c>
+      <c r="AG136">
+        <v>2.02</v>
+      </c>
+      <c r="AH136">
+        <v>1.8</v>
+      </c>
+      <c r="AI136">
+        <v>1.73</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.49</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.36</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.68</v>
+      </c>
+      <c r="AP136">
+        <v>0.87</v>
+      </c>
+      <c r="AQ136">
+        <v>1.65</v>
+      </c>
+      <c r="AR136">
+        <v>1.29</v>
+      </c>
+      <c r="AS136">
+        <v>1.55</v>
+      </c>
+      <c r="AT136">
+        <v>2.84</v>
+      </c>
+      <c r="AU136">
+        <v>-1</v>
+      </c>
+      <c r="AV136">
+        <v>-1</v>
+      </c>
+      <c r="AW136">
+        <v>-1</v>
+      </c>
+      <c r="AX136">
+        <v>-1</v>
+      </c>
+      <c r="AY136">
+        <v>-1</v>
+      </c>
+      <c r="AZ136">
+        <v>-1</v>
+      </c>
+      <c r="BA136">
+        <v>-1</v>
+      </c>
+      <c r="BB136">
+        <v>-1</v>
+      </c>
+      <c r="BC136">
+        <v>-1</v>
+      </c>
+      <c r="BD136">
+        <v>2</v>
+      </c>
+      <c r="BE136">
+        <v>8</v>
+      </c>
+      <c r="BF136">
+        <v>2</v>
+      </c>
+      <c r="BG136">
+        <v>1.7</v>
+      </c>
+      <c r="BH136">
+        <v>2.05</v>
+      </c>
+      <c r="BI136">
+        <v>1.85</v>
+      </c>
+      <c r="BJ136">
+        <v>1.85</v>
+      </c>
+      <c r="BK136">
+        <v>2.52</v>
+      </c>
+      <c r="BL136">
+        <v>1.46</v>
+      </c>
+      <c r="BM136">
+        <v>3.48</v>
+      </c>
+      <c r="BN136">
+        <v>1.24</v>
+      </c>
+      <c r="BO136">
+        <v>5.05</v>
+      </c>
+      <c r="BP136">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,13 +553,19 @@
     <t>['61', '66']</t>
   </si>
   <si>
-    <t>['90+3']</t>
+    <t>['28']</t>
   </si>
   <si>
     <t>['63', '90+12']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['43', '90']</t>
+  </si>
+  <si>
+    <t>['31', '69', '90+3', '90+6']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -779,6 +785,12 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['44', '83']</t>
+  </si>
+  <si>
+    <t>['54', '66']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1605,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1683,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1889,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2017,7 +2029,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2095,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ5">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2223,7 +2235,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2301,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2429,7 +2441,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2507,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2635,7 +2647,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2707,25 +2719,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2919,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3047,7 +3059,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3119,25 +3131,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3253,7 +3265,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3325,25 +3337,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR11">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>2.74</v>
+        <v>1.07</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3537,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3665,7 +3677,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3740,22 +3752,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.52</v>
+        <v>1.56</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3871,7 +3883,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3943,25 +3955,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AT14">
-        <v>3.29</v>
+        <v>1.86</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4152,22 +4164,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AS15">
-        <v>1.85</v>
+        <v>0.8</v>
       </c>
       <c r="AT15">
-        <v>3.54</v>
+        <v>2.51</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4355,25 +4367,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS16">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4561,25 +4573,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4767,25 +4779,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AT18">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4901,7 +4913,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4976,22 +4988,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AT19">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5107,7 +5119,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5179,25 +5191,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="AS20">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5385,25 +5397,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR21">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5519,7 +5531,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5591,25 +5603,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AS22">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>3.34</v>
+        <v>4.07</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5725,7 +5737,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5797,25 +5809,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6003,25 +6015,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ24">
+        <v>1.17</v>
+      </c>
+      <c r="AR24">
+        <v>1.96</v>
+      </c>
+      <c r="AS24">
         <v>1.3</v>
       </c>
-      <c r="AR24">
-        <v>1.8</v>
-      </c>
-      <c r="AS24">
-        <v>1.18</v>
-      </c>
       <c r="AT24">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6137,7 +6149,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6209,25 +6221,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6343,7 +6355,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6415,25 +6427,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR26">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS26">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>3.45</v>
+        <v>3.09</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6621,25 +6633,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6755,7 +6767,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6827,25 +6839,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
         <v>1.5</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>1.25</v>
       </c>
-      <c r="AP28">
-        <v>1.27</v>
-      </c>
-      <c r="AQ28">
-        <v>1</v>
-      </c>
       <c r="AR28">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="AS28">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.45</v>
+        <v>3.81</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6961,7 +6973,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7033,25 +7045,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR29">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7239,25 +7251,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS30">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AT30">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7445,25 +7457,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1.5</v>
+      </c>
+      <c r="AP31">
+        <v>1.91</v>
+      </c>
+      <c r="AQ31">
         <v>0.75</v>
       </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>1.65</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
       <c r="AR31">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AS31">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7651,25 +7663,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AS32">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="AT32">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7785,7 +7797,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7857,25 +7869,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AT33">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7991,7 +8003,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8063,25 +8075,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR34">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
-        <v>3.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8197,7 +8209,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8269,25 +8281,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ35">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR35">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS35">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT35">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8475,25 +8487,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AS36">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AT36">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8609,7 +8621,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8681,25 +8693,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AT37">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8815,7 +8827,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8887,25 +8899,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
+        <v>1.09</v>
+      </c>
+      <c r="AQ38">
         <v>0.91</v>
       </c>
-      <c r="AQ38">
-        <v>1.27</v>
-      </c>
       <c r="AR38">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS38">
-        <v>1.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9021,7 +9033,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9093,25 +9105,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS39">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9299,25 +9311,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AS40">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AT40">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9433,7 +9445,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9505,25 +9517,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR41">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS41">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9711,25 +9723,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR42">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="AS42">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT42">
-        <v>3.08</v>
+        <v>3.95</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9845,7 +9857,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9917,25 +9929,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT43">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10123,25 +10135,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AS44">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT44">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10329,25 +10341,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT45">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10463,7 +10475,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10535,25 +10547,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS46">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT46">
-        <v>2.84</v>
+        <v>3.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10669,7 +10681,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10741,25 +10753,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS47">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10947,25 +10959,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11081,7 +11093,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11153,25 +11165,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT49">
-        <v>2.68</v>
+        <v>2.23</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11287,7 +11299,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11359,25 +11371,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
+        <v>1.25</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AP50">
-        <v>1.27</v>
-      </c>
       <c r="AQ50">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="AT50">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11568,22 +11580,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR51">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11771,25 +11783,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11905,7 +11917,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11977,25 +11989,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO53">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12111,7 +12123,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12183,25 +12195,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12389,25 +12401,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AT55">
-        <v>2.62</v>
+        <v>2.39</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12523,7 +12535,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12595,25 +12607,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="AS56">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12729,7 +12741,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12801,25 +12813,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13007,25 +13019,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13141,7 +13153,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13213,25 +13225,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS59">
-        <v>1.51</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13347,7 +13359,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13419,25 +13431,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13553,7 +13565,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13625,25 +13637,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO61">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AS61">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT61">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13831,25 +13843,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ62">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -13965,7 +13977,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14037,25 +14049,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO63">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR63">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14171,7 +14183,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14243,25 +14255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO64">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14449,25 +14461,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT65">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14583,7 +14595,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14655,25 +14667,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AS66">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT66">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14789,7 +14801,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14861,25 +14873,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ67">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS67">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -14995,7 +15007,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15067,25 +15079,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="AO68">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS68">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="AT68">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15201,7 +15213,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15273,25 +15285,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO69">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR69">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AS69">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15407,7 +15419,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15479,25 +15491,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR70">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15613,7 +15625,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15685,25 +15697,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15819,7 +15831,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15891,25 +15903,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AO72">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AS72">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16097,25 +16109,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO73">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AS73">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16231,7 +16243,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16303,25 +16315,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>0.92</v>
+        <v>1.6</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS74">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AT74">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16509,25 +16521,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS75">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT75">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16643,7 +16655,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16715,25 +16727,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS76">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16849,7 +16861,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16921,25 +16933,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AO77">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS77">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT77">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17127,25 +17139,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="AS78">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17333,25 +17345,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO79">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AS79">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17542,22 +17554,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT80">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17673,7 +17685,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17745,25 +17757,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR81">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT81">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17879,7 +17891,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17951,25 +17963,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AO82">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18157,25 +18169,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR83">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AS83">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>3.22</v>
+        <v>2.85</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18291,7 +18303,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18363,25 +18375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO84">
+        <v>1.17</v>
+      </c>
+      <c r="AP84">
+        <v>1.27</v>
+      </c>
+      <c r="AQ84">
+        <v>1.42</v>
+      </c>
+      <c r="AR84">
         <v>1.46</v>
       </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>1.65</v>
-      </c>
-      <c r="AR84">
-        <v>1.5</v>
-      </c>
       <c r="AS84">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="AT84">
-        <v>3.09</v>
+        <v>2.74</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18569,25 +18581,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS85">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT85">
-        <v>3.29</v>
+        <v>3.09</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18775,25 +18787,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18909,7 +18921,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -18981,25 +18993,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AT87">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19115,7 +19127,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19187,25 +19199,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS88">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="AT88">
-        <v>3.46</v>
+        <v>3.06</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19321,7 +19333,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19393,25 +19405,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>0.79</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS89">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT89">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19599,25 +19611,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS90">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT90">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19805,25 +19817,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ91">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT91">
-        <v>3.01</v>
+        <v>3.34</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20011,25 +20023,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="AO92">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AS92">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20217,25 +20229,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AO93">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AS93">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT93">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20423,25 +20435,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT94">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20629,25 +20641,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AO95">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS95">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20763,7 +20775,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20835,25 +20847,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -20969,7 +20981,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21041,25 +21053,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO97">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AT97">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21175,7 +21187,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21247,25 +21259,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR98">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT98">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21453,25 +21465,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
+        <v>1.55</v>
+      </c>
+      <c r="AR99">
         <v>1.82</v>
       </c>
-      <c r="AR99">
-        <v>1.6</v>
-      </c>
       <c r="AS99">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21587,7 +21599,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21659,25 +21671,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO100">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR100">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AS100">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21793,7 +21805,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21865,25 +21877,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AS101">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -21999,7 +22011,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22071,25 +22083,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO102">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS102">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT102">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22277,25 +22289,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AO103">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22483,25 +22495,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT104">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22617,7 +22629,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22689,25 +22701,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22823,7 +22835,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22895,25 +22907,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT106">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23101,25 +23113,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO107">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS107">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT107">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23235,7 +23247,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23307,25 +23319,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO108">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AT108">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23441,7 +23453,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23513,25 +23525,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR109">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AS109">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AT109">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23719,25 +23731,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AO110">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR110">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AT110">
-        <v>3.22</v>
+        <v>3.13</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23925,25 +23937,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ111">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24131,25 +24143,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AO112">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24337,25 +24349,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AO113">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AS113">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24543,25 +24555,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24677,7 +24689,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24749,25 +24761,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24955,25 +24967,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AO116">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS116">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AT116">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25089,7 +25101,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25161,25 +25173,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO117">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AS117">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25295,7 +25307,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25367,25 +25379,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR118">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS118">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT118">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25573,25 +25585,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25707,7 +25719,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25779,25 +25791,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25913,7 +25925,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -25985,25 +25997,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26119,7 +26131,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26191,25 +26203,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO122">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26325,7 +26337,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26397,25 +26409,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AO123">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AT123">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26531,7 +26543,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26603,22 +26615,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR124">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26737,7 +26749,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26809,25 +26821,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT125">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -26943,7 +26955,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27015,25 +27027,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27221,25 +27233,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AO127">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR127">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27427,25 +27439,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO128">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS128">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT128">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27561,7 +27573,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27633,25 +27645,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AO129">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AR129">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AT129">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27839,25 +27851,25 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="AO130">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AR130">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AT130">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28045,25 +28057,25 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AO131">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR131">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28251,25 +28263,25 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AO132">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ132">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28385,7 +28397,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28457,25 +28469,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AO133">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -28549,7 +28561,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7321528</v>
+        <v>7321529</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28558,196 +28570,196 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45486.29166666666</v>
+        <v>45485.875</v>
       </c>
       <c r="F134">
         <v>23</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H134" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="Q134">
+        <v>3.5</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>3.1</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
         <v>2.75</v>
       </c>
-      <c r="R134">
-        <v>2.25</v>
-      </c>
-      <c r="S134">
-        <v>3.75</v>
-      </c>
-      <c r="T134">
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>2.75</v>
+      </c>
+      <c r="AA134">
+        <v>3.25</v>
+      </c>
+      <c r="AB134">
+        <v>2.4</v>
+      </c>
+      <c r="AC134">
+        <v>1.07</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.36</v>
+      </c>
+      <c r="AF134">
+        <v>2.96</v>
+      </c>
+      <c r="AG134">
+        <v>2.02</v>
+      </c>
+      <c r="AH134">
+        <v>1.8</v>
+      </c>
+      <c r="AI134">
+        <v>1.73</v>
+      </c>
+      <c r="AJ134">
+        <v>2</v>
+      </c>
+      <c r="AK134">
+        <v>1.49</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.36</v>
+      </c>
+      <c r="AN134">
+        <v>1.36</v>
+      </c>
+      <c r="AO134">
+        <v>1.45</v>
+      </c>
+      <c r="AP134">
         <v>1.33</v>
       </c>
-      <c r="U134">
-        <v>3.25</v>
-      </c>
-      <c r="V134">
-        <v>2.63</v>
-      </c>
-      <c r="W134">
-        <v>1.44</v>
-      </c>
-      <c r="X134">
-        <v>6.5</v>
-      </c>
-      <c r="Y134">
-        <v>1.11</v>
-      </c>
-      <c r="Z134">
-        <v>2</v>
-      </c>
-      <c r="AA134">
-        <v>3.5</v>
-      </c>
-      <c r="AB134">
-        <v>3.3</v>
-      </c>
-      <c r="AC134">
-        <v>1.05</v>
-      </c>
-      <c r="AD134">
-        <v>12</v>
-      </c>
-      <c r="AE134">
-        <v>1.22</v>
-      </c>
-      <c r="AF134">
-        <v>3.65</v>
-      </c>
-      <c r="AG134">
-        <v>1.76</v>
-      </c>
-      <c r="AH134">
-        <v>2.06</v>
-      </c>
-      <c r="AI134">
-        <v>1.62</v>
-      </c>
-      <c r="AJ134">
-        <v>2.2</v>
-      </c>
-      <c r="AK134">
-        <v>1.3</v>
-      </c>
-      <c r="AL134">
-        <v>1.22</v>
-      </c>
-      <c r="AM134">
-        <v>1.72</v>
-      </c>
-      <c r="AN134">
-        <v>1.77</v>
-      </c>
-      <c r="AO134">
-        <v>1.36</v>
-      </c>
-      <c r="AP134">
-        <v>1.83</v>
-      </c>
       <c r="AQ134">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AR134">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT134">
-        <v>3.28</v>
+        <v>2.74</v>
       </c>
       <c r="AU134">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX134">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC134">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD134">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="BE134">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF134">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BG134">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="BH134">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="BI134">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BJ134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="BK134">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="BL134">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="BM134">
-        <v>2.93</v>
+        <v>3.48</v>
       </c>
       <c r="BN134">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BO134">
-        <v>4.2</v>
+        <v>5.05</v>
       </c>
       <c r="BP134">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28764,7 +28776,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45486.3125</v>
+        <v>45485.875</v>
       </c>
       <c r="F135">
         <v>23</v>
@@ -28797,7 +28809,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28869,22 +28881,22 @@
         <v>1.38</v>
       </c>
       <c r="AN135">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AO135">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR135">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS135">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
         <v>3.08</v>
@@ -28961,7 +28973,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7321529</v>
+        <v>7321528</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28970,130 +28982,130 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45486.3125</v>
+        <v>45485.875</v>
       </c>
       <c r="F136">
         <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H136" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O136" t="s">
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="Q136">
+        <v>2.75</v>
+      </c>
+      <c r="R136">
+        <v>2.25</v>
+      </c>
+      <c r="S136">
+        <v>3.75</v>
+      </c>
+      <c r="T136">
+        <v>1.33</v>
+      </c>
+      <c r="U136">
+        <v>3.25</v>
+      </c>
+      <c r="V136">
+        <v>2.63</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>6.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.11</v>
+      </c>
+      <c r="Z136">
+        <v>2</v>
+      </c>
+      <c r="AA136">
         <v>3.5</v>
       </c>
-      <c r="R136">
-        <v>2.1</v>
-      </c>
-      <c r="S136">
-        <v>3.1</v>
-      </c>
-      <c r="T136">
-        <v>1.4</v>
-      </c>
-      <c r="U136">
-        <v>2.75</v>
-      </c>
-      <c r="V136">
-        <v>3</v>
-      </c>
-      <c r="W136">
-        <v>1.36</v>
-      </c>
-      <c r="X136">
-        <v>8</v>
-      </c>
-      <c r="Y136">
-        <v>1.08</v>
-      </c>
-      <c r="Z136">
-        <v>2.75</v>
-      </c>
-      <c r="AA136">
-        <v>3.25</v>
-      </c>
       <c r="AB136">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC136">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE136">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF136">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="AG136">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AH136">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AI136">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ136">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK136">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AL136">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM136">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AN136">
-        <v>0.86</v>
+        <v>2.18</v>
       </c>
       <c r="AO136">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="AP136">
-        <v>0.87</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AR136">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="AS136">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT136">
-        <v>2.84</v>
+        <v>3.51</v>
       </c>
       <c r="AU136">
         <v>-1</v>
@@ -29123,43 +29135,661 @@
         <v>-1</v>
       </c>
       <c r="BD136">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="BE136">
+        <v>8.5</v>
+      </c>
+      <c r="BF136">
+        <v>2.5</v>
+      </c>
+      <c r="BG136">
+        <v>1.39</v>
+      </c>
+      <c r="BH136">
+        <v>2.76</v>
+      </c>
+      <c r="BI136">
+        <v>1.7</v>
+      </c>
+      <c r="BJ136">
+        <v>2.05</v>
+      </c>
+      <c r="BK136">
+        <v>2.21</v>
+      </c>
+      <c r="BL136">
+        <v>1.59</v>
+      </c>
+      <c r="BM136">
+        <v>2.93</v>
+      </c>
+      <c r="BN136">
+        <v>1.33</v>
+      </c>
+      <c r="BO136">
+        <v>4.2</v>
+      </c>
+      <c r="BP136">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7321531</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" t="s">
+        <v>73</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>85</v>
+      </c>
+      <c r="P137" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q137">
+        <v>2.63</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>4.33</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>9</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>1.91</v>
+      </c>
+      <c r="AA137">
+        <v>3.2</v>
+      </c>
+      <c r="AB137">
+        <v>3.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.06</v>
+      </c>
+      <c r="AD137">
+        <v>8.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.33</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>1.95</v>
+      </c>
+      <c r="AH137">
+        <v>1.75</v>
+      </c>
+      <c r="AI137">
+        <v>1.83</v>
+      </c>
+      <c r="AJ137">
+        <v>1.83</v>
+      </c>
+      <c r="AK137">
+        <v>1.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.33</v>
+      </c>
+      <c r="AM137">
+        <v>1.8</v>
+      </c>
+      <c r="AN137">
+        <v>1.64</v>
+      </c>
+      <c r="AO137">
+        <v>1.09</v>
+      </c>
+      <c r="AP137">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137">
+        <v>1.25</v>
+      </c>
+      <c r="AR137">
+        <v>1.8</v>
+      </c>
+      <c r="AS137">
+        <v>1.5</v>
+      </c>
+      <c r="AT137">
+        <v>3.3</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
         <v>8</v>
       </c>
-      <c r="BF136">
-        <v>2</v>
-      </c>
-      <c r="BG136">
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>10</v>
+      </c>
+      <c r="BD137">
+        <v>1.55</v>
+      </c>
+      <c r="BE137">
+        <v>8.5</v>
+      </c>
+      <c r="BF137">
+        <v>2.75</v>
+      </c>
+      <c r="BG137">
+        <v>1.43</v>
+      </c>
+      <c r="BH137">
+        <v>2.62</v>
+      </c>
+      <c r="BI137">
         <v>1.7</v>
       </c>
-      <c r="BH136">
+      <c r="BJ137">
         <v>2.05</v>
       </c>
-      <c r="BI136">
-        <v>1.85</v>
-      </c>
-      <c r="BJ136">
-        <v>1.85</v>
-      </c>
-      <c r="BK136">
-        <v>2.52</v>
-      </c>
-      <c r="BL136">
-        <v>1.46</v>
-      </c>
-      <c r="BM136">
-        <v>3.48</v>
-      </c>
-      <c r="BN136">
+      <c r="BK137">
+        <v>2.29</v>
+      </c>
+      <c r="BL137">
+        <v>1.55</v>
+      </c>
+      <c r="BM137">
+        <v>3.08</v>
+      </c>
+      <c r="BN137">
+        <v>1.3</v>
+      </c>
+      <c r="BO137">
+        <v>4.45</v>
+      </c>
+      <c r="BP137">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7321532</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>3.5</v>
+      </c>
+      <c r="T138">
+        <v>1.36</v>
+      </c>
+      <c r="U138">
+        <v>3</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>2.25</v>
+      </c>
+      <c r="AA138">
+        <v>3.2</v>
+      </c>
+      <c r="AB138">
+        <v>2.8</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE138">
         <v>1.24</v>
       </c>
-      <c r="BO136">
-        <v>5.05</v>
-      </c>
-      <c r="BP136">
-        <v>1.12</v>
+      <c r="AF138">
+        <v>3.5</v>
+      </c>
+      <c r="AG138">
+        <v>1.8</v>
+      </c>
+      <c r="AH138">
+        <v>1.9</v>
+      </c>
+      <c r="AI138">
+        <v>1.73</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>1.4</v>
+      </c>
+      <c r="AL138">
+        <v>1.32</v>
+      </c>
+      <c r="AM138">
+        <v>1.47</v>
+      </c>
+      <c r="AN138">
+        <v>1.82</v>
+      </c>
+      <c r="AO138">
+        <v>0.73</v>
+      </c>
+      <c r="AP138">
+        <v>1.75</v>
+      </c>
+      <c r="AQ138">
+        <v>0.75</v>
+      </c>
+      <c r="AR138">
+        <v>1.69</v>
+      </c>
+      <c r="AS138">
+        <v>1.56</v>
+      </c>
+      <c r="AT138">
+        <v>3.25</v>
+      </c>
+      <c r="AU138">
+        <v>9</v>
+      </c>
+      <c r="AV138">
+        <v>8</v>
+      </c>
+      <c r="AW138">
+        <v>11</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>20</v>
+      </c>
+      <c r="AZ138">
+        <v>15</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.7</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>2.45</v>
+      </c>
+      <c r="BG138">
+        <v>1.35</v>
+      </c>
+      <c r="BH138">
+        <v>2.84</v>
+      </c>
+      <c r="BI138">
+        <v>1.7</v>
+      </c>
+      <c r="BJ138">
+        <v>2.05</v>
+      </c>
+      <c r="BK138">
+        <v>2.05</v>
+      </c>
+      <c r="BL138">
+        <v>1.7</v>
+      </c>
+      <c r="BM138">
+        <v>2.84</v>
+      </c>
+      <c r="BN138">
+        <v>1.37</v>
+      </c>
+      <c r="BO138">
+        <v>3.96</v>
+      </c>
+      <c r="BP138">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7321533</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q139">
+        <v>2.5</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.95</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>3.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>10.25</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>3.66</v>
+      </c>
+      <c r="AG139">
+        <v>1.75</v>
+      </c>
+      <c r="AH139">
+        <v>1.95</v>
+      </c>
+      <c r="AI139">
+        <v>1.67</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.2</v>
+      </c>
+      <c r="AL139">
+        <v>1.27</v>
+      </c>
+      <c r="AM139">
+        <v>1.83</v>
+      </c>
+      <c r="AN139">
+        <v>2.09</v>
+      </c>
+      <c r="AO139">
+        <v>0.73</v>
+      </c>
+      <c r="AP139">
+        <v>2.17</v>
+      </c>
+      <c r="AQ139">
+        <v>0.67</v>
+      </c>
+      <c r="AR139">
+        <v>1.63</v>
+      </c>
+      <c r="AS139">
+        <v>1.3</v>
+      </c>
+      <c r="AT139">
+        <v>2.93</v>
+      </c>
+      <c r="AU139">
+        <v>13</v>
+      </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>13</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>26</v>
+      </c>
+      <c r="AZ139">
+        <v>5</v>
+      </c>
+      <c r="BA139">
+        <v>7</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>1.55</v>
+      </c>
+      <c r="BE139">
+        <v>8.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.75</v>
+      </c>
+      <c r="BG139">
+        <v>1.33</v>
+      </c>
+      <c r="BH139">
+        <v>2.91</v>
+      </c>
+      <c r="BI139">
+        <v>1.7</v>
+      </c>
+      <c r="BJ139">
+        <v>2.05</v>
+      </c>
+      <c r="BK139">
+        <v>2.09</v>
+      </c>
+      <c r="BL139">
+        <v>1.69</v>
+      </c>
+      <c r="BM139">
+        <v>2.76</v>
+      </c>
+      <c r="BN139">
+        <v>1.39</v>
+      </c>
+      <c r="BO139">
+        <v>3.84</v>
+      </c>
+      <c r="BP139">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -553,13 +553,13 @@
     <t>['61', '66']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['63', '90+12']</t>
   </si>
   <si>
-    <t>['90+3']</t>
+    <t>['28']</t>
   </si>
   <si>
     <t>['43', '90']</t>
@@ -28561,7 +28561,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7321529</v>
+        <v>7321528</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28570,196 +28570,196 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45485.875</v>
+        <v>45486.29166666666</v>
       </c>
       <c r="F134">
         <v>23</v>
       </c>
       <c r="G134" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H134" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" t="s">
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="Q134">
+        <v>2.75</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>3.75</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2</v>
+      </c>
+      <c r="AA134">
         <v>3.5</v>
       </c>
-      <c r="R134">
-        <v>2.1</v>
-      </c>
-      <c r="S134">
-        <v>3.1</v>
-      </c>
-      <c r="T134">
-        <v>1.4</v>
-      </c>
-      <c r="U134">
-        <v>2.75</v>
-      </c>
-      <c r="V134">
-        <v>3</v>
-      </c>
-      <c r="W134">
-        <v>1.36</v>
-      </c>
-      <c r="X134">
-        <v>8</v>
-      </c>
-      <c r="Y134">
-        <v>1.08</v>
-      </c>
-      <c r="Z134">
-        <v>2.75</v>
-      </c>
-      <c r="AA134">
-        <v>3.25</v>
-      </c>
       <c r="AB134">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC134">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE134">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF134">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="AG134">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AH134">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AI134">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ134">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK134">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM134">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AN134">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="AO134">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AP134">
+        <v>2.25</v>
+      </c>
+      <c r="AQ134">
+        <v>1.17</v>
+      </c>
+      <c r="AR134">
+        <v>1.98</v>
+      </c>
+      <c r="AS134">
+        <v>1.53</v>
+      </c>
+      <c r="AT134">
+        <v>3.51</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>7</v>
+      </c>
+      <c r="AZ134">
+        <v>7</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>1.65</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.5</v>
+      </c>
+      <c r="BG134">
+        <v>1.39</v>
+      </c>
+      <c r="BH134">
+        <v>2.76</v>
+      </c>
+      <c r="BI134">
+        <v>1.7</v>
+      </c>
+      <c r="BJ134">
+        <v>2.05</v>
+      </c>
+      <c r="BK134">
+        <v>2.21</v>
+      </c>
+      <c r="BL134">
+        <v>1.59</v>
+      </c>
+      <c r="BM134">
+        <v>2.93</v>
+      </c>
+      <c r="BN134">
         <v>1.33</v>
       </c>
-      <c r="AQ134">
-        <v>1.42</v>
-      </c>
-      <c r="AR134">
-        <v>1.33</v>
-      </c>
-      <c r="AS134">
-        <v>1.41</v>
-      </c>
-      <c r="AT134">
-        <v>2.74</v>
-      </c>
-      <c r="AU134">
-        <v>-1</v>
-      </c>
-      <c r="AV134">
-        <v>-1</v>
-      </c>
-      <c r="AW134">
-        <v>-1</v>
-      </c>
-      <c r="AX134">
-        <v>-1</v>
-      </c>
-      <c r="AY134">
-        <v>-1</v>
-      </c>
-      <c r="AZ134">
-        <v>-1</v>
-      </c>
-      <c r="BA134">
-        <v>-1</v>
-      </c>
-      <c r="BB134">
-        <v>-1</v>
-      </c>
-      <c r="BC134">
-        <v>-1</v>
-      </c>
-      <c r="BD134">
-        <v>2</v>
-      </c>
-      <c r="BE134">
-        <v>8</v>
-      </c>
-      <c r="BF134">
-        <v>2</v>
-      </c>
-      <c r="BG134">
-        <v>1.7</v>
-      </c>
-      <c r="BH134">
-        <v>2.05</v>
-      </c>
-      <c r="BI134">
-        <v>1.85</v>
-      </c>
-      <c r="BJ134">
-        <v>1.85</v>
-      </c>
-      <c r="BK134">
-        <v>2.52</v>
-      </c>
-      <c r="BL134">
-        <v>1.46</v>
-      </c>
-      <c r="BM134">
-        <v>3.48</v>
-      </c>
-      <c r="BN134">
-        <v>1.24</v>
-      </c>
       <c r="BO134">
-        <v>5.05</v>
+        <v>4.2</v>
       </c>
       <c r="BP134">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28776,7 +28776,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45485.875</v>
+        <v>45486.3125</v>
       </c>
       <c r="F135">
         <v>23</v>
@@ -28902,31 +28902,31 @@
         <v>3.08</v>
       </c>
       <c r="AU135">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV135">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW135">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX135">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY135">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ135">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA135">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB135">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC135">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD135">
         <v>1.95</v>
@@ -28973,7 +28973,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7321528</v>
+        <v>7321529</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28982,196 +28982,196 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45485.875</v>
+        <v>45486.3125</v>
       </c>
       <c r="F136">
         <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O136" t="s">
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="Q136">
+        <v>3.5</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>3.1</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
         <v>2.75</v>
       </c>
-      <c r="R136">
-        <v>2.25</v>
-      </c>
-      <c r="S136">
-        <v>3.75</v>
-      </c>
-      <c r="T136">
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>2.75</v>
+      </c>
+      <c r="AA136">
+        <v>3.25</v>
+      </c>
+      <c r="AB136">
+        <v>2.4</v>
+      </c>
+      <c r="AC136">
+        <v>1.07</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.36</v>
+      </c>
+      <c r="AF136">
+        <v>2.96</v>
+      </c>
+      <c r="AG136">
+        <v>2.02</v>
+      </c>
+      <c r="AH136">
+        <v>1.8</v>
+      </c>
+      <c r="AI136">
+        <v>1.73</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.49</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.36</v>
+      </c>
+      <c r="AN136">
+        <v>1.36</v>
+      </c>
+      <c r="AO136">
+        <v>1.45</v>
+      </c>
+      <c r="AP136">
         <v>1.33</v>
       </c>
-      <c r="U136">
-        <v>3.25</v>
-      </c>
-      <c r="V136">
-        <v>2.63</v>
-      </c>
-      <c r="W136">
-        <v>1.44</v>
-      </c>
-      <c r="X136">
-        <v>6.5</v>
-      </c>
-      <c r="Y136">
-        <v>1.11</v>
-      </c>
-      <c r="Z136">
-        <v>2</v>
-      </c>
-      <c r="AA136">
-        <v>3.5</v>
-      </c>
-      <c r="AB136">
-        <v>3.3</v>
-      </c>
-      <c r="AC136">
-        <v>1.05</v>
-      </c>
-      <c r="AD136">
-        <v>12</v>
-      </c>
-      <c r="AE136">
-        <v>1.22</v>
-      </c>
-      <c r="AF136">
-        <v>3.65</v>
-      </c>
-      <c r="AG136">
-        <v>1.76</v>
-      </c>
-      <c r="AH136">
-        <v>2.06</v>
-      </c>
-      <c r="AI136">
-        <v>1.62</v>
-      </c>
-      <c r="AJ136">
-        <v>2.2</v>
-      </c>
-      <c r="AK136">
-        <v>1.3</v>
-      </c>
-      <c r="AL136">
-        <v>1.22</v>
-      </c>
-      <c r="AM136">
-        <v>1.72</v>
-      </c>
-      <c r="AN136">
-        <v>2.18</v>
-      </c>
-      <c r="AO136">
-        <v>1.27</v>
-      </c>
-      <c r="AP136">
-        <v>2.25</v>
-      </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AR136">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT136">
-        <v>3.51</v>
+        <v>2.74</v>
       </c>
       <c r="AU136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX136">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ136">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB136">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC136">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD136">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="BE136">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BG136">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="BH136">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="BI136">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BJ136">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="BK136">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="BL136">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="BM136">
-        <v>2.93</v>
+        <v>3.48</v>
       </c>
       <c r="BN136">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BO136">
-        <v>4.2</v>
+        <v>5.05</v>
       </c>
       <c r="BP136">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29314,22 +29314,22 @@
         <v>3.3</v>
       </c>
       <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>4</v>
+      </c>
+      <c r="AZ137">
         <v>6</v>
-      </c>
-      <c r="AV137">
-        <v>5</v>
-      </c>
-      <c r="AW137">
-        <v>2</v>
-      </c>
-      <c r="AX137">
-        <v>3</v>
-      </c>
-      <c r="AY137">
-        <v>8</v>
-      </c>
-      <c r="AZ137">
-        <v>8</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29520,10 +29520,10 @@
         <v>3.25</v>
       </c>
       <c r="AU138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV138">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW138">
         <v>11</v>
@@ -29532,10 +29532,10 @@
         <v>7</v>
       </c>
       <c r="AY138">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ138">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA138">
         <v>4</v>
@@ -29726,7 +29726,7 @@
         <v>2.93</v>
       </c>
       <c r="AU139">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV139">
         <v>0</v>
@@ -29738,7 +29738,7 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AZ139">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ3">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ5">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2719,25 +2719,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3131,25 +3131,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3337,25 +3337,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ11">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>1.07</v>
+        <v>2.74</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3549,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3752,22 +3752,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT13">
-        <v>1.56</v>
+        <v>3.52</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3955,25 +3955,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ14">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS14">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AT14">
-        <v>1.86</v>
+        <v>3.29</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4164,22 +4164,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR15">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>2.51</v>
+        <v>3.54</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4367,25 +4367,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR16">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT16">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4573,25 +4573,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4779,25 +4779,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR18">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AT18">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4988,22 +4988,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS19">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5191,25 +5191,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR20">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AT20">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5397,25 +5397,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ21">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR21">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5603,25 +5603,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR22">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AT22">
-        <v>4.07</v>
+        <v>3.34</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5809,25 +5809,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR23">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS23">
-        <v>0.73</v>
+        <v>1.17</v>
       </c>
       <c r="AT23">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6015,25 +6015,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT24">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6221,25 +6221,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AT25">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6427,25 +6427,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR26">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="AT26">
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6633,25 +6633,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6839,25 +6839,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR28">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="AT28">
-        <v>3.81</v>
+        <v>3.45</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7045,25 +7045,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AP29">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR29">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7251,25 +7251,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR30">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS30">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AT30">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7457,25 +7457,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7663,25 +7663,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO32">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR32">
+        <v>1.69</v>
+      </c>
+      <c r="AS32">
         <v>1.94</v>
       </c>
-      <c r="AS32">
-        <v>1.59</v>
-      </c>
       <c r="AT32">
-        <v>3.53</v>
+        <v>3.63</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7869,25 +7869,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR33">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AS33">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8075,25 +8075,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ34">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR34">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>2.06</v>
+        <v>3.13</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8281,25 +8281,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ35">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR35">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS35">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT35">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8487,25 +8487,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AS36">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT36">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8693,25 +8693,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR37">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AS37">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>2.56</v>
+        <v>3.01</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8899,25 +8899,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ38">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS38">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="AT38">
-        <v>2.32</v>
+        <v>3.17</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9105,25 +9105,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR39">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9311,25 +9311,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR40">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AS40">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT40">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9517,25 +9517,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ41">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR41">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AS41">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT41">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9723,25 +9723,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ42">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR42">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="AS42">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT42">
-        <v>3.95</v>
+        <v>3.08</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9929,25 +9929,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AS43">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT43">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10135,25 +10135,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO44">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ44">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR44">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT44">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10341,25 +10341,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR45">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AS45">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10547,25 +10547,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO46">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AP46">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR46">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS46">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AT46">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10753,25 +10753,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO47">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AT47">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10959,25 +10959,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO48">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR48">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11165,25 +11165,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AS49">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>2.23</v>
+        <v>2.68</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11371,25 +11371,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
+        <v>0.86</v>
+      </c>
+      <c r="AO50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.25</v>
-      </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR50">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="AS50">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AT50">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11580,22 +11580,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ51">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11783,25 +11783,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO52">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11989,25 +11989,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP53">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12195,25 +12195,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR54">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12401,25 +12401,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR55">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AS55">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.39</v>
+        <v>2.62</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12607,25 +12607,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR56">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="AS56">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AT56">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12813,25 +12813,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR57">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13019,25 +13019,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR58">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13225,25 +13225,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
+        <v>1.11</v>
+      </c>
+      <c r="AO59">
+        <v>0.75</v>
+      </c>
+      <c r="AP59">
+        <v>1.26</v>
+      </c>
+      <c r="AQ59">
+        <v>1.22</v>
+      </c>
+      <c r="AR59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>1.75</v>
-      </c>
-      <c r="AQ59">
-        <v>0.91</v>
-      </c>
-      <c r="AR59">
-        <v>1.43</v>
-      </c>
       <c r="AS59">
-        <v>0.9399999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="AT59">
-        <v>2.37</v>
+        <v>3.01</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13431,25 +13431,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO60">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS60">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="AT60">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13637,25 +13637,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AT61">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13843,25 +13843,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR62">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14049,25 +14049,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO63">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ63">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14255,25 +14255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AT64">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14461,25 +14461,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR65">
+        <v>1.53</v>
+      </c>
+      <c r="AS65">
         <v>1.5</v>
       </c>
-      <c r="AS65">
-        <v>1.51</v>
-      </c>
       <c r="AT65">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14667,25 +14667,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR66">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AS66">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT66">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14873,25 +14873,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP67">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT67">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15079,25 +15079,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="AO68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="AT68">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15285,25 +15285,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AO69">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ69">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR69">
-        <v>2.07</v>
+        <v>1.64</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT69">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15491,25 +15491,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ70">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR70">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>2.89</v>
+        <v>3.21</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15697,25 +15697,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AO71">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP71">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR71">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15903,25 +15903,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO72">
+        <v>1.91</v>
+      </c>
+      <c r="AP72">
         <v>1.83</v>
       </c>
-      <c r="AP72">
-        <v>2.25</v>
-      </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR72">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16109,25 +16109,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AT73">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16315,25 +16315,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>1.6</v>
+        <v>0.92</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS74">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AT74">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16521,25 +16521,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO75">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16727,25 +16727,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO76">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR76">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16933,25 +16933,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AO77">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS77">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17139,25 +17139,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AT78">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17345,25 +17345,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO79">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR79">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17554,22 +17554,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ80">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17757,25 +17757,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AO81">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="AS81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17963,25 +17963,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AP82">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS82">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT82">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18169,25 +18169,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO83">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="AP83">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
+        <v>1.63</v>
+      </c>
+      <c r="AS83">
         <v>1.59</v>
       </c>
-      <c r="AS83">
-        <v>1.26</v>
-      </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>3.22</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18375,25 +18375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO84">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR84">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="AT84">
-        <v>2.74</v>
+        <v>3.09</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18581,25 +18581,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO85">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ85">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR85">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS85">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AT85">
-        <v>3.09</v>
+        <v>3.29</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18787,25 +18787,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AO86">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AT86">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18993,25 +18993,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR87">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AS87">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19199,25 +19199,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AO88">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR88">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AS88">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="AT88">
-        <v>3.06</v>
+        <v>3.46</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19405,25 +19405,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="AO89">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR89">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS89">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT89">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19611,25 +19611,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AO90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS90">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT90">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19817,25 +19817,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR91">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AS91">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20023,25 +20023,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="AO92">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR92">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20229,25 +20229,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
+        <v>1.6</v>
+      </c>
+      <c r="AO93">
+        <v>1.27</v>
+      </c>
+      <c r="AP93">
+        <v>1.65</v>
+      </c>
+      <c r="AQ93">
+        <v>1.09</v>
+      </c>
+      <c r="AR93">
+        <v>1.71</v>
+      </c>
+      <c r="AS93">
         <v>1.63</v>
       </c>
-      <c r="AO93">
-        <v>1.43</v>
-      </c>
-      <c r="AP93">
-        <v>1.75</v>
-      </c>
-      <c r="AQ93">
-        <v>1.25</v>
-      </c>
-      <c r="AR93">
-        <v>1.86</v>
-      </c>
-      <c r="AS93">
-        <v>1.66</v>
-      </c>
       <c r="AT93">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20435,25 +20435,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR94">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20641,25 +20641,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT95">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20847,25 +20847,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR96">
+        <v>1.59</v>
+      </c>
+      <c r="AS96">
         <v>1.57</v>
       </c>
-      <c r="AS96">
-        <v>1.28</v>
-      </c>
       <c r="AT96">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21053,25 +21053,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO97">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21259,25 +21259,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AO98">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ98">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS98">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT98">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21465,25 +21465,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AO99">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ99">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR99">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT99">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21671,25 +21671,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO100">
+        <v>1.69</v>
+      </c>
+      <c r="AP100">
+        <v>1.65</v>
+      </c>
+      <c r="AQ100">
+        <v>1.65</v>
+      </c>
+      <c r="AR100">
         <v>1.57</v>
       </c>
-      <c r="AP100">
-        <v>1.91</v>
-      </c>
-      <c r="AQ100">
-        <v>1.55</v>
-      </c>
-      <c r="AR100">
-        <v>1.82</v>
-      </c>
       <c r="AS100">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="AT100">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21877,25 +21877,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="AO101">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT101">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22083,25 +22083,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AP102">
+        <v>0.87</v>
+      </c>
+      <c r="AQ102">
         <v>1.09</v>
       </c>
-      <c r="AQ102">
-        <v>1.25</v>
-      </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22289,25 +22289,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR103">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22495,25 +22495,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR104">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS104">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT104">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22701,25 +22701,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AT105">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22907,25 +22907,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AO106">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AP106">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AR106">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AS106">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23113,25 +23113,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO107">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR107">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT107">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23319,25 +23319,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO108">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR108">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AT108">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23525,25 +23525,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR109">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AS109">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="AT109">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23731,25 +23731,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ110">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23937,25 +23937,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="AO111">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ111">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT111">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24143,25 +24143,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AO112">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR112">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS112">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24349,25 +24349,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AO113">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ113">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR113">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24555,25 +24555,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="AO114">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24761,25 +24761,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP115">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AS115">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24967,25 +24967,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO116">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS116">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT116">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25173,25 +25173,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO117">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AS117">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AT117">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25379,25 +25379,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
       <c r="AO118">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ118">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR118">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS118">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25585,25 +25585,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AO119">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25791,25 +25791,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AO120">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR120">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AS120">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT120">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25997,25 +25997,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO121">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ121">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR121">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS121">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AT121">
-        <v>2.82</v>
+        <v>3.07</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26203,25 +26203,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ122">
+        <v>1.87</v>
+      </c>
+      <c r="AR122">
+        <v>1.52</v>
+      </c>
+      <c r="AS122">
         <v>1.55</v>
       </c>
-      <c r="AR122">
-        <v>1.49</v>
-      </c>
-      <c r="AS122">
-        <v>1.51</v>
-      </c>
       <c r="AT122">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26409,25 +26409,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
+        <v>1.65</v>
+      </c>
+      <c r="AO123">
         <v>1.9</v>
       </c>
-      <c r="AO123">
-        <v>1.4</v>
-      </c>
       <c r="AP123">
+        <v>1.65</v>
+      </c>
+      <c r="AQ123">
+        <v>1.83</v>
+      </c>
+      <c r="AR123">
+        <v>1.62</v>
+      </c>
+      <c r="AS123">
         <v>1.75</v>
       </c>
-      <c r="AQ123">
-        <v>1.36</v>
-      </c>
-      <c r="AR123">
-        <v>1.74</v>
-      </c>
-      <c r="AS123">
-        <v>1.48</v>
-      </c>
       <c r="AT123">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26615,22 +26615,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
+        <v>1.15</v>
+      </c>
+      <c r="AO124">
+        <v>1.35</v>
+      </c>
+      <c r="AP124">
+        <v>1.26</v>
+      </c>
+      <c r="AQ124">
+        <v>1.3</v>
+      </c>
+      <c r="AR124">
+        <v>1.56</v>
+      </c>
+      <c r="AS124">
         <v>1.5</v>
-      </c>
-      <c r="AO124">
-        <v>1.4</v>
-      </c>
-      <c r="AP124">
-        <v>1.75</v>
-      </c>
-      <c r="AQ124">
-        <v>1.17</v>
-      </c>
-      <c r="AR124">
-        <v>1.59</v>
-      </c>
-      <c r="AS124">
-        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26821,25 +26821,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AP125">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>3.03</v>
+        <v>3.12</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27027,25 +27027,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AO126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AT126">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27233,25 +27233,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AO127">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="AQ127">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR127">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27439,25 +27439,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO128">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR128">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS128">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT128">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27645,25 +27645,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AO129">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ129">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AR129">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AS129">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27851,25 +27851,25 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="AP130">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AR130">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AS130">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28057,25 +28057,25 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AO131">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AP131">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AQ131">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS131">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT131">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28263,25 +28263,25 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO132">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="AP132">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="AR132">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS132">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT132">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28469,25 +28469,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
+        <v>1.29</v>
+      </c>
+      <c r="AO133">
+        <v>0.9</v>
+      </c>
+      <c r="AP133">
         <v>1.3</v>
       </c>
-      <c r="AO133">
-        <v>0.4</v>
-      </c>
-      <c r="AP133">
-        <v>1.45</v>
-      </c>
       <c r="AQ133">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -28675,25 +28675,25 @@
         <v>1.72</v>
       </c>
       <c r="AN134">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AO134">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AP134">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AR134">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AS134">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT134">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -28881,22 +28881,22 @@
         <v>1.38</v>
       </c>
       <c r="AN135">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AO135">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR135">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS135">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AT135">
         <v>3.08</v>
@@ -29087,25 +29087,25 @@
         <v>1.36</v>
       </c>
       <c r="AN136">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AO136">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>0.87</v>
       </c>
       <c r="AQ136">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AR136">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AS136">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT136">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29293,25 +29293,25 @@
         <v>1.8</v>
       </c>
       <c r="AN137">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>1.22</v>
+      </c>
+      <c r="AQ137">
         <v>1.09</v>
       </c>
-      <c r="AP137">
-        <v>1.5</v>
-      </c>
-      <c r="AQ137">
-        <v>1.25</v>
-      </c>
       <c r="AR137">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT137">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29499,25 +29499,25 @@
         <v>1.47</v>
       </c>
       <c r="AN138">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AO138">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ138">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR138">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AT138">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29705,25 +29705,25 @@
         <v>1.83</v>
       </c>
       <c r="AN139">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AO139">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AP139">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="AR139">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AS139">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="AU139">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ5">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2719,25 +2719,25 @@
         <v>1.28</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3131,25 +3131,25 @@
         <v>1.33</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3337,25 +3337,25 @@
         <v>1.72</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR11">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>2.74</v>
+        <v>1.07</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3549,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3752,22 +3752,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
       </c>
       <c r="AS13">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.52</v>
+        <v>1.56</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3955,25 +3955,25 @@
         <v>1.57</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AT14">
-        <v>3.29</v>
+        <v>1.86</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4164,22 +4164,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AS15">
-        <v>1.85</v>
+        <v>0.8</v>
       </c>
       <c r="AT15">
-        <v>3.54</v>
+        <v>2.51</v>
       </c>
       <c r="AU15">
         <v>10</v>
@@ -4367,25 +4367,25 @@
         <v>1.7</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS16">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4573,25 +4573,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="AS17">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4779,25 +4779,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AT18">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4988,22 +4988,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AT19">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="AU19">
         <v>11</v>
@@ -5191,25 +5191,25 @@
         <v>1.56</v>
       </c>
       <c r="AN20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="AS20">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5397,25 +5397,25 @@
         <v>1.66</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR21">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5603,25 +5603,25 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AS22">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>3.34</v>
+        <v>4.07</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5809,25 +5809,25 @@
         <v>1.45</v>
       </c>
       <c r="AN23">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6015,25 +6015,25 @@
         <v>1.4</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ24">
+        <v>1.17</v>
+      </c>
+      <c r="AR24">
+        <v>1.96</v>
+      </c>
+      <c r="AS24">
         <v>1.3</v>
       </c>
-      <c r="AR24">
-        <v>1.8</v>
-      </c>
-      <c r="AS24">
-        <v>1.18</v>
-      </c>
       <c r="AT24">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6221,25 +6221,25 @@
         <v>1.53</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6427,25 +6427,25 @@
         <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR26">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS26">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>3.45</v>
+        <v>3.09</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6633,25 +6633,25 @@
         <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -6839,25 +6839,25 @@
         <v>1.62</v>
       </c>
       <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
         <v>1.5</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>1.25</v>
       </c>
-      <c r="AP28">
-        <v>1.22</v>
-      </c>
-      <c r="AQ28">
-        <v>1.09</v>
-      </c>
       <c r="AR28">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="AS28">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.45</v>
+        <v>3.81</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7045,25 +7045,25 @@
         <v>1.65</v>
       </c>
       <c r="AN29">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR29">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7251,25 +7251,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS30">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AT30">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7457,25 +7457,25 @@
         <v>1.39</v>
       </c>
       <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1.5</v>
+      </c>
+      <c r="AP31">
+        <v>1.91</v>
+      </c>
+      <c r="AQ31">
         <v>0.75</v>
       </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>1.65</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
       <c r="AR31">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AS31">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7663,25 +7663,25 @@
         <v>2.35</v>
       </c>
       <c r="AN32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AS32">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="AT32">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7869,25 +7869,25 @@
         <v>1.62</v>
       </c>
       <c r="AN33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AT33">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8075,25 +8075,25 @@
         <v>1.57</v>
       </c>
       <c r="AN34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR34">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
-        <v>3.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8281,25 +8281,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ35">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR35">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AS35">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT35">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8487,25 +8487,25 @@
         <v>1.5</v>
       </c>
       <c r="AN36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AS36">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AT36">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8693,25 +8693,25 @@
         <v>1.36</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AT37">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -8899,25 +8899,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR38">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS38">
-        <v>1.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9105,25 +9105,25 @@
         <v>1.55</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS39">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9311,25 +9311,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AS40">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AT40">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AU40">
         <v>12</v>
@@ -9517,25 +9517,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO41">
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR41">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AS41">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9723,25 +9723,25 @@
         <v>1.48</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR42">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="AS42">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT42">
-        <v>3.08</v>
+        <v>3.95</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9929,25 +9929,25 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT43">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10135,25 +10135,25 @@
         <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AS44">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT44">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10341,25 +10341,25 @@
         <v>1.8</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT45">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10547,25 +10547,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS46">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT46">
-        <v>2.84</v>
+        <v>3.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10753,25 +10753,25 @@
         <v>1.42</v>
       </c>
       <c r="AN47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO47">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS47">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
       <c r="AU47">
         <v>8</v>
@@ -10959,25 +10959,25 @@
         <v>1.68</v>
       </c>
       <c r="AN48">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR48">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -11165,25 +11165,25 @@
         <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT49">
-        <v>2.68</v>
+        <v>2.23</v>
       </c>
       <c r="AU49">
         <v>6</v>
@@ -11371,25 +11371,25 @@
         <v>1.57</v>
       </c>
       <c r="AN50">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
+        <v>1.25</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AP50">
-        <v>1.22</v>
-      </c>
       <c r="AQ50">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="AS50">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="AT50">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11580,22 +11580,22 @@
         <v>2</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR51">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11783,25 +11783,25 @@
         <v>1.72</v>
       </c>
       <c r="AN52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11989,25 +11989,25 @@
         <v>1.97</v>
       </c>
       <c r="AN53">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO53">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12195,25 +12195,25 @@
         <v>2.15</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS54">
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="AU54">
         <v>12</v>
@@ -12401,25 +12401,25 @@
         <v>1.3</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AT55">
-        <v>2.62</v>
+        <v>2.39</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12607,25 +12607,25 @@
         <v>1.36</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.66</v>
+        <v>2.01</v>
       </c>
       <c r="AS56">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT56">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12813,25 +12813,25 @@
         <v>1.4</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="AU57">
         <v>9</v>
@@ -13019,25 +13019,25 @@
         <v>1.36</v>
       </c>
       <c r="AN58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13225,25 +13225,25 @@
         <v>1.47</v>
       </c>
       <c r="AN59">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS59">
-        <v>1.51</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT59">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13431,25 +13431,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13637,25 +13637,25 @@
         <v>1.38</v>
       </c>
       <c r="AN61">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO61">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AS61">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT61">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13843,25 +13843,25 @@
         <v>1.48</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ62">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14049,25 +14049,25 @@
         <v>1.47</v>
       </c>
       <c r="AN63">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO63">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR63">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14255,25 +14255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO64">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS64">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14461,25 +14461,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT65">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14667,25 +14667,25 @@
         <v>1.72</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR66">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AS66">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT66">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14873,25 +14873,25 @@
         <v>1.57</v>
       </c>
       <c r="AN67">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ67">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AS67">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15079,25 +15079,25 @@
         <v>1.4</v>
       </c>
       <c r="AN68">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="AO68">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS68">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="AT68">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15285,25 +15285,25 @@
         <v>1.7</v>
       </c>
       <c r="AN69">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AO69">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR69">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AS69">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15491,25 +15491,25 @@
         <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR70">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15697,25 +15697,25 @@
         <v>2</v>
       </c>
       <c r="AN71">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS71">
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15903,25 +15903,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AO72">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AS72">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16109,25 +16109,25 @@
         <v>1.39</v>
       </c>
       <c r="AN73">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO73">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR73">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AS73">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16315,25 +16315,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>0.92</v>
+        <v>1.6</v>
       </c>
       <c r="AO74">
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS74">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AT74">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16521,25 +16521,25 @@
         <v>1.74</v>
       </c>
       <c r="AN75">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO75">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS75">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT75">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16727,25 +16727,25 @@
         <v>1.46</v>
       </c>
       <c r="AN76">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS76">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16933,25 +16933,25 @@
         <v>1.72</v>
       </c>
       <c r="AN77">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AO77">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS77">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT77">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17139,25 +17139,25 @@
         <v>1.25</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="AS78">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17345,25 +17345,25 @@
         <v>1.34</v>
       </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO79">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AS79">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17554,22 +17554,22 @@
         <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT80">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -17757,25 +17757,25 @@
         <v>2.05</v>
       </c>
       <c r="AN81">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR81">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT81">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17963,25 +17963,25 @@
         <v>1.73</v>
       </c>
       <c r="AN82">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AO82">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18169,25 +18169,25 @@
         <v>1.48</v>
       </c>
       <c r="AN83">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR83">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AS83">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>3.22</v>
+        <v>2.85</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18375,25 +18375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO84">
+        <v>1.17</v>
+      </c>
+      <c r="AP84">
+        <v>1.27</v>
+      </c>
+      <c r="AQ84">
+        <v>1.42</v>
+      </c>
+      <c r="AR84">
         <v>1.46</v>
       </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>1.65</v>
-      </c>
-      <c r="AR84">
-        <v>1.5</v>
-      </c>
       <c r="AS84">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="AT84">
-        <v>3.09</v>
+        <v>2.74</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18581,25 +18581,25 @@
         <v>1.47</v>
       </c>
       <c r="AN85">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS85">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT85">
-        <v>3.29</v>
+        <v>3.09</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18787,25 +18787,25 @@
         <v>1.48</v>
       </c>
       <c r="AN86">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18993,25 +18993,25 @@
         <v>1.48</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AT87">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19199,25 +19199,25 @@
         <v>1.32</v>
       </c>
       <c r="AN88">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS88">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="AT88">
-        <v>3.46</v>
+        <v>3.06</v>
       </c>
       <c r="AU88">
         <v>6</v>
@@ -19405,25 +19405,25 @@
         <v>1.58</v>
       </c>
       <c r="AN89">
-        <v>0.79</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS89">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT89">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19611,25 +19611,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS90">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT90">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19817,25 +19817,25 @@
         <v>1.5</v>
       </c>
       <c r="AN91">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ91">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT91">
-        <v>3.01</v>
+        <v>3.34</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20023,25 +20023,25 @@
         <v>2.05</v>
       </c>
       <c r="AN92">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="AO92">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="AS92">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>3.2</v>
+        <v>3.59</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20229,25 +20229,25 @@
         <v>1.5</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AO93">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AS93">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT93">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20435,25 +20435,25 @@
         <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT94">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20641,25 +20641,25 @@
         <v>1.55</v>
       </c>
       <c r="AN95">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AO95">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS95">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20847,25 +20847,25 @@
         <v>1.42</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21053,25 +21053,25 @@
         <v>1.5</v>
       </c>
       <c r="AN97">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO97">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AT97">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21259,25 +21259,25 @@
         <v>2</v>
       </c>
       <c r="AN98">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR98">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT98">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21465,25 +21465,25 @@
         <v>1.63</v>
       </c>
       <c r="AN99">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR99">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AS99">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21671,25 +21671,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO100">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR100">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AS100">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21877,25 +21877,25 @@
         <v>2.09</v>
       </c>
       <c r="AN101">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AS101">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22083,25 +22083,25 @@
         <v>1.63</v>
       </c>
       <c r="AN102">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO102">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS102">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT102">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22289,25 +22289,25 @@
         <v>1.6</v>
       </c>
       <c r="AN103">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AO103">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS103">
         <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="AU103">
         <v>9</v>
@@ -22495,25 +22495,25 @@
         <v>1.47</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AT104">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22701,25 +22701,25 @@
         <v>1.3</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO105">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -22907,25 +22907,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT106">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23113,25 +23113,25 @@
         <v>1.72</v>
       </c>
       <c r="AN107">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO107">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS107">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT107">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23319,25 +23319,25 @@
         <v>1.47</v>
       </c>
       <c r="AN108">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO108">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AT108">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU108">
         <v>2</v>
@@ -23525,25 +23525,25 @@
         <v>1.2</v>
       </c>
       <c r="AN109">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO109">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR109">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AS109">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AT109">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23731,25 +23731,25 @@
         <v>1.41</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AO110">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR110">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AT110">
-        <v>3.22</v>
+        <v>3.13</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23937,25 +23937,25 @@
         <v>1.82</v>
       </c>
       <c r="AN111">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ111">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
       </c>
       <c r="AS111">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24143,25 +24143,25 @@
         <v>1.48</v>
       </c>
       <c r="AN112">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AO112">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24349,25 +24349,25 @@
         <v>1.72</v>
       </c>
       <c r="AN113">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AO113">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AS113">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24555,25 +24555,25 @@
         <v>2.2</v>
       </c>
       <c r="AN114">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AS114">
         <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AU114">
         <v>2</v>
@@ -24761,25 +24761,25 @@
         <v>1.5</v>
       </c>
       <c r="AN115">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24967,25 +24967,25 @@
         <v>1.7</v>
       </c>
       <c r="AN116">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AO116">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS116">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AT116">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25173,25 +25173,25 @@
         <v>1.53</v>
       </c>
       <c r="AN117">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO117">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AS117">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25379,25 +25379,25 @@
         <v>1.44</v>
       </c>
       <c r="AN118">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
       <c r="AO118">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR118">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS118">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT118">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25585,25 +25585,25 @@
         <v>1.42</v>
       </c>
       <c r="AN119">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25791,25 +25791,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25997,25 +25997,25 @@
         <v>1.62</v>
       </c>
       <c r="AN121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AT121">
-        <v>3.07</v>
+        <v>2.82</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26203,25 +26203,25 @@
         <v>1.48</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO122">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26409,25 +26409,25 @@
         <v>1.35</v>
       </c>
       <c r="AN123">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AO123">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AS123">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AT123">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26615,22 +26615,22 @@
         <v>1.42</v>
       </c>
       <c r="AN124">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR124">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>3.06</v>
@@ -26821,25 +26821,25 @@
         <v>1.38</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT125">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27027,25 +27027,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27233,25 +27233,25 @@
         <v>1.44</v>
       </c>
       <c r="AN127">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AO127">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR127">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27439,25 +27439,25 @@
         <v>1.55</v>
       </c>
       <c r="AN128">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO128">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS128">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT128">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -27645,25 +27645,25 @@
         <v>1.7</v>
       </c>
       <c r="AN129">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AO129">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AR129">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AT129">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -27851,25 +27851,25 @@
         <v>1.78</v>
       </c>
       <c r="AN130">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="AO130">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AR130">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="AS130">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AT130">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -28057,25 +28057,25 @@
         <v>1.88</v>
       </c>
       <c r="AN131">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AO131">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR131">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28263,25 +28263,25 @@
         <v>1.42</v>
       </c>
       <c r="AN132">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AO132">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AQ132">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28469,25 +28469,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AO133">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
       </c>
       <c r="AS133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -28675,25 +28675,25 @@
         <v>1.72</v>
       </c>
       <c r="AN134">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AO134">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AQ134">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AR134">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AS134">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT134">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -28881,22 +28881,22 @@
         <v>1.38</v>
       </c>
       <c r="AN135">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AO135">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR135">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS135">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
         <v>3.08</v>
@@ -29087,25 +29087,25 @@
         <v>1.36</v>
       </c>
       <c r="AN136">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AO136">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AR136">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT136">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29293,25 +29293,25 @@
         <v>1.8</v>
       </c>
       <c r="AN137">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AO137">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="AS137">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AT137">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29499,25 +29499,25 @@
         <v>1.47</v>
       </c>
       <c r="AN138">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AO138">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP138">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR138">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS138">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT138">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29705,25 +29705,25 @@
         <v>1.83</v>
       </c>
       <c r="AN139">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AO139">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AP139">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="AQ139">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AR139">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AS139">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AT139">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AU139">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>['31', '69', '90+3', '90+6']</t>
+  </si>
+  <si>
+    <t>['79', '90+8']</t>
+  </si>
+  <si>
+    <t>['14', '24', '28', '66']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,7 +1623,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.36</v>
@@ -2029,7 +2035,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2235,7 +2241,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2313,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2441,7 +2447,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2647,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3059,7 +3065,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3140,7 +3146,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3265,7 +3271,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3677,7 +3683,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3883,7 +3889,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4376,7 +4382,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4913,7 +4919,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5119,7 +5125,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5197,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5531,7 +5537,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5737,7 +5743,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6021,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6149,7 +6155,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6355,7 +6361,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6642,7 +6648,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6767,7 +6773,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6973,7 +6979,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7463,7 +7469,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7797,7 +7803,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7878,7 +7884,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -8003,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8209,7 +8215,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8287,7 +8293,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.42</v>
@@ -8621,7 +8627,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8827,7 +8833,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8905,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>0.91</v>
@@ -9033,7 +9039,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9445,7 +9451,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9857,7 +9863,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10144,7 +10150,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10475,7 +10481,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10681,7 +10687,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10759,7 +10765,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -11093,7 +11099,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11299,7 +11305,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11917,7 +11923,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -11995,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>0.75</v>
@@ -12123,7 +12129,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12204,7 +12210,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12535,7 +12541,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12741,7 +12747,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12819,7 +12825,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13153,7 +13159,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13359,7 +13365,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13440,7 +13446,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13565,7 +13571,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13646,7 +13652,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13977,7 +13983,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14183,7 +14189,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14595,7 +14601,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14801,7 +14807,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15007,7 +15013,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15213,7 +15219,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15291,7 +15297,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.36</v>
@@ -15419,7 +15425,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15497,7 +15503,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
         <v>1.55</v>
@@ -15625,7 +15631,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15706,7 +15712,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15831,7 +15837,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16118,7 +16124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16243,7 +16249,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16530,7 +16536,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16655,7 +16661,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16861,7 +16867,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17145,10 +17151,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17557,7 +17563,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
         <v>1.55</v>
@@ -17685,7 +17691,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17891,7 +17897,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18303,7 +18309,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18921,7 +18927,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19127,7 +19133,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19208,7 +19214,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19333,7 +19339,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19414,7 +19420,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19823,7 +19829,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -20775,7 +20781,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20981,7 +20987,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21187,7 +21193,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21599,7 +21605,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21677,7 +21683,7 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.55</v>
@@ -21805,7 +21811,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22011,7 +22017,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22089,7 +22095,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22298,7 +22304,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22629,7 +22635,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22835,7 +22841,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22913,7 +22919,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>1.55</v>
@@ -23247,7 +23253,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23453,7 +23459,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23534,7 +23540,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24689,7 +24695,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24767,7 +24773,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ115">
         <v>1.67</v>
@@ -25101,7 +25107,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25179,7 +25185,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
         <v>1.17</v>
@@ -25307,7 +25313,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25594,7 +25600,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25719,7 +25725,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25800,7 +25806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -25925,7 +25931,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26131,7 +26137,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26337,7 +26343,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26418,7 +26424,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR123">
         <v>1.74</v>
@@ -26543,7 +26549,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26749,7 +26755,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26955,7 +26961,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27239,7 +27245,7 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>0.91</v>
@@ -27573,7 +27579,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28269,10 +28275,10 @@
         <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28397,7 +28403,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28809,7 +28815,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29015,7 +29021,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29221,7 +29227,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29427,7 +29433,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29790,6 +29796,418 @@
       </c>
       <c r="BP139">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7321534</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q140">
+        <v>3.64</v>
+      </c>
+      <c r="R140">
+        <v>2.28</v>
+      </c>
+      <c r="S140">
+        <v>2.64</v>
+      </c>
+      <c r="T140">
+        <v>1.31</v>
+      </c>
+      <c r="U140">
+        <v>3.28</v>
+      </c>
+      <c r="V140">
+        <v>2.44</v>
+      </c>
+      <c r="W140">
+        <v>1.52</v>
+      </c>
+      <c r="X140">
+        <v>5.75</v>
+      </c>
+      <c r="Y140">
+        <v>1.12</v>
+      </c>
+      <c r="Z140">
+        <v>3.1</v>
+      </c>
+      <c r="AA140">
+        <v>3.7</v>
+      </c>
+      <c r="AB140">
+        <v>2.1</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.18</v>
+      </c>
+      <c r="AF140">
+        <v>4.1</v>
+      </c>
+      <c r="AG140">
+        <v>1.64</v>
+      </c>
+      <c r="AH140">
+        <v>2.18</v>
+      </c>
+      <c r="AI140">
+        <v>1.57</v>
+      </c>
+      <c r="AJ140">
+        <v>2.31</v>
+      </c>
+      <c r="AK140">
+        <v>1.72</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.36</v>
+      </c>
+      <c r="AN140">
+        <v>1.09</v>
+      </c>
+      <c r="AO140">
+        <v>1.36</v>
+      </c>
+      <c r="AP140">
+        <v>1.25</v>
+      </c>
+      <c r="AQ140">
+        <v>1.25</v>
+      </c>
+      <c r="AR140">
+        <v>1.43</v>
+      </c>
+      <c r="AS140">
+        <v>1.47</v>
+      </c>
+      <c r="AT140">
+        <v>2.9</v>
+      </c>
+      <c r="AU140">
+        <v>6</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>9</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>5</v>
+      </c>
+      <c r="BD140">
+        <v>2.66</v>
+      </c>
+      <c r="BE140">
+        <v>7.5</v>
+      </c>
+      <c r="BF140">
+        <v>1.69</v>
+      </c>
+      <c r="BG140">
+        <v>1.35</v>
+      </c>
+      <c r="BH140">
+        <v>2.84</v>
+      </c>
+      <c r="BI140">
+        <v>1.88</v>
+      </c>
+      <c r="BJ140">
+        <v>1.92</v>
+      </c>
+      <c r="BK140">
+        <v>2.13</v>
+      </c>
+      <c r="BL140">
+        <v>1.67</v>
+      </c>
+      <c r="BM140">
+        <v>2.84</v>
+      </c>
+      <c r="BN140">
+        <v>1.37</v>
+      </c>
+      <c r="BO140">
+        <v>3.92</v>
+      </c>
+      <c r="BP140">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7321535</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45493.3125</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>185</v>
+      </c>
+      <c r="P141" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q141">
+        <v>2.75</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>3.6</v>
+      </c>
+      <c r="T141">
+        <v>1.38</v>
+      </c>
+      <c r="U141">
+        <v>2.8</v>
+      </c>
+      <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>6.85</v>
+      </c>
+      <c r="Y141">
+        <v>1.08</v>
+      </c>
+      <c r="Z141">
+        <v>2.1</v>
+      </c>
+      <c r="AA141">
+        <v>3.5</v>
+      </c>
+      <c r="AB141">
+        <v>3.2</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>9</v>
+      </c>
+      <c r="AE141">
+        <v>1.28</v>
+      </c>
+      <c r="AF141">
+        <v>3.5</v>
+      </c>
+      <c r="AG141">
+        <v>1.88</v>
+      </c>
+      <c r="AH141">
+        <v>1.92</v>
+      </c>
+      <c r="AI141">
+        <v>1.72</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.33</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.66</v>
+      </c>
+      <c r="AN141">
+        <v>1.91</v>
+      </c>
+      <c r="AO141">
+        <v>0.73</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>0.67</v>
+      </c>
+      <c r="AR141">
+        <v>1.68</v>
+      </c>
+      <c r="AS141">
+        <v>1.52</v>
+      </c>
+      <c r="AT141">
+        <v>3.2</v>
+      </c>
+      <c r="AU141">
+        <v>-1</v>
+      </c>
+      <c r="AV141">
+        <v>-1</v>
+      </c>
+      <c r="AW141">
+        <v>-1</v>
+      </c>
+      <c r="AX141">
+        <v>-1</v>
+      </c>
+      <c r="AY141">
+        <v>-1</v>
+      </c>
+      <c r="AZ141">
+        <v>-1</v>
+      </c>
+      <c r="BA141">
+        <v>-1</v>
+      </c>
+      <c r="BB141">
+        <v>-1</v>
+      </c>
+      <c r="BC141">
+        <v>-1</v>
+      </c>
+      <c r="BD141">
+        <v>2.29</v>
+      </c>
+      <c r="BE141">
+        <v>7.5</v>
+      </c>
+      <c r="BF141">
+        <v>1.85</v>
+      </c>
+      <c r="BG141">
+        <v>1.39</v>
+      </c>
+      <c r="BH141">
+        <v>2.76</v>
+      </c>
+      <c r="BI141">
+        <v>1.77</v>
+      </c>
+      <c r="BJ141">
+        <v>1.95</v>
+      </c>
+      <c r="BK141">
+        <v>2.19</v>
+      </c>
+      <c r="BL141">
+        <v>1.6</v>
+      </c>
+      <c r="BM141">
+        <v>2.93</v>
+      </c>
+      <c r="BN141">
+        <v>1.33</v>
+      </c>
+      <c r="BO141">
+        <v>4.2</v>
+      </c>
+      <c r="BP141">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['14', '24', '28', '66']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
   </si>
   <si>
     <t>['33', '50', '90+7']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -704,9 +710,6 @@
   </si>
   <si>
     <t>['30', '90+5']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['28', '31', '47']</t>
@@ -797,6 +800,15 @@
   </si>
   <si>
     <t>['54', '66']</t>
+  </si>
+  <si>
+    <t>['16', '28', '79', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['47', '49']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1510,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1623,7 +1635,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2035,7 +2047,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2113,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2241,7 +2253,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2447,7 +2459,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2525,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2653,7 +2665,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3065,7 +3077,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3271,7 +3283,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3555,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3683,7 +3695,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3889,7 +3901,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ14">
         <v>1.42</v>
@@ -4173,10 +4185,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4379,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4588,7 +4600,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4919,7 +4931,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5125,7 +5137,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5409,7 +5421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
         <v>0.36</v>
@@ -5537,7 +5549,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5618,7 +5630,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5743,7 +5755,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5824,7 +5836,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6155,7 +6167,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6361,7 +6373,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6442,7 +6454,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6645,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6773,7 +6785,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6979,7 +6991,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7057,10 +7069,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7678,7 +7690,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7803,7 +7815,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7881,7 +7893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8009,7 +8021,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8090,7 +8102,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8215,7 +8227,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8499,7 +8511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -8627,7 +8639,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8705,10 +8717,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8833,7 +8845,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8914,7 +8926,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -9039,7 +9051,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9117,10 +9129,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9451,7 +9463,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9532,7 +9544,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9863,7 +9875,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9941,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10356,7 +10368,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10481,7 +10493,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10559,7 +10571,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10687,7 +10699,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10971,7 +10983,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>0.36</v>
@@ -11099,7 +11111,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11177,7 +11189,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11305,7 +11317,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11386,7 +11398,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11923,7 +11935,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12129,7 +12141,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12413,10 +12425,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12541,7 +12553,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12747,7 +12759,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12828,7 +12840,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -13031,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13159,7 +13171,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13240,7 +13252,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13365,7 +13377,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13443,7 +13455,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13571,7 +13583,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13649,7 +13661,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13983,7 +13995,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14189,7 +14201,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14601,7 +14613,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14807,7 +14819,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14885,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -15013,7 +15025,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15091,10 +15103,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15219,7 +15231,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15425,7 +15437,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15506,7 +15518,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15631,7 +15643,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15837,7 +15849,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15918,7 +15930,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16249,7 +16261,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3.5</v>
@@ -16327,7 +16339,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16661,7 +16673,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16867,7 +16879,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16945,7 +16957,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ77">
         <v>0.75</v>
@@ -17360,7 +17372,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17566,7 +17578,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17691,7 +17703,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17897,7 +17909,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18181,10 +18193,10 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ83">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18309,7 +18321,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18387,7 +18399,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>1.42</v>
@@ -18596,7 +18608,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18927,7 +18939,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19008,7 +19020,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19133,7 +19145,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19211,7 +19223,7 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ88">
         <v>1.25</v>
@@ -19339,7 +19351,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19417,7 +19429,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ89">
         <v>0.67</v>
@@ -20450,7 +20462,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20653,7 +20665,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ95">
         <v>0.75</v>
@@ -20781,7 +20793,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20987,7 +20999,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21065,10 +21077,10 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21193,7 +21205,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21480,7 +21492,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -21605,7 +21617,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21686,7 +21698,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21811,7 +21823,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22017,7 +22029,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22301,7 +22313,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22507,7 +22519,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>0.67</v>
@@ -22635,7 +22647,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22713,10 +22725,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22841,7 +22853,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22922,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -23125,10 +23137,10 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23253,7 +23265,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23331,10 +23343,10 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23459,7 +23471,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23746,7 +23758,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24361,7 +24373,7 @@
         <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>1.42</v>
@@ -24695,7 +24707,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24776,7 +24788,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25107,7 +25119,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25313,7 +25325,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25391,10 +25403,10 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ118">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25725,7 +25737,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25931,7 +25943,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26009,7 +26021,7 @@
         <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ121">
         <v>1.42</v>
@@ -26137,7 +26149,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26215,10 +26227,10 @@
         <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ122">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26343,7 +26355,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26549,7 +26561,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26755,7 +26767,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26833,10 +26845,10 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
@@ -26961,7 +26973,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27039,7 +27051,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ126">
         <v>0.67</v>
@@ -27248,7 +27260,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27451,7 +27463,7 @@
         <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -27579,7 +27591,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27660,7 +27672,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -27866,7 +27878,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ130">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28403,7 +28415,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28481,7 +28493,7 @@
         <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133">
         <v>0.36</v>
@@ -28815,7 +28827,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28896,7 +28908,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR135">
         <v>1.61</v>
@@ -29021,7 +29033,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29099,7 +29111,7 @@
         <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ136">
         <v>1.42</v>
@@ -29227,7 +29239,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29433,7 +29445,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30144,31 +30156,31 @@
         <v>3.2</v>
       </c>
       <c r="AU141">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV141">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW141">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX141">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY141">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ141">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC141">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD141">
         <v>2.29</v>
@@ -30208,6 +30220,830 @@
       </c>
       <c r="BP141">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7321536</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>73</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>186</v>
+      </c>
+      <c r="P142" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q142">
+        <v>3.1</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>3.4</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>2.75</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
+      <c r="Y142">
+        <v>1.08</v>
+      </c>
+      <c r="Z142">
+        <v>2.62</v>
+      </c>
+      <c r="AA142">
+        <v>3.44</v>
+      </c>
+      <c r="AB142">
+        <v>2.61</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>8.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.3</v>
+      </c>
+      <c r="AF142">
+        <v>3.3</v>
+      </c>
+      <c r="AG142">
+        <v>1.92</v>
+      </c>
+      <c r="AH142">
+        <v>1.89</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1.42</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.55</v>
+      </c>
+      <c r="AN142">
+        <v>0.91</v>
+      </c>
+      <c r="AO142">
+        <v>1.55</v>
+      </c>
+      <c r="AP142">
+        <v>0.83</v>
+      </c>
+      <c r="AQ142">
+        <v>1.67</v>
+      </c>
+      <c r="AR142">
+        <v>1.43</v>
+      </c>
+      <c r="AS142">
+        <v>1.5</v>
+      </c>
+      <c r="AT142">
+        <v>2.93</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>3</v>
+      </c>
+      <c r="AX142">
+        <v>7</v>
+      </c>
+      <c r="AY142">
+        <v>5</v>
+      </c>
+      <c r="AZ142">
+        <v>12</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.75</v>
+      </c>
+      <c r="BE142">
+        <v>7.5</v>
+      </c>
+      <c r="BF142">
+        <v>2.45</v>
+      </c>
+      <c r="BG142">
+        <v>1.33</v>
+      </c>
+      <c r="BH142">
+        <v>2.93</v>
+      </c>
+      <c r="BI142">
+        <v>1.7</v>
+      </c>
+      <c r="BJ142">
+        <v>2.05</v>
+      </c>
+      <c r="BK142">
+        <v>2.09</v>
+      </c>
+      <c r="BL142">
+        <v>1.69</v>
+      </c>
+      <c r="BM142">
+        <v>2.76</v>
+      </c>
+      <c r="BN142">
+        <v>1.39</v>
+      </c>
+      <c r="BO142">
+        <v>3.84</v>
+      </c>
+      <c r="BP142">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7321537</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F143">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>85</v>
+      </c>
+      <c r="P143" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q143">
+        <v>3.5</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>3.1</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>2.77</v>
+      </c>
+      <c r="AA143">
+        <v>3.52</v>
+      </c>
+      <c r="AB143">
+        <v>2.44</v>
+      </c>
+      <c r="AC143">
+        <v>1.06</v>
+      </c>
+      <c r="AD143">
+        <v>8.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.3</v>
+      </c>
+      <c r="AF143">
+        <v>3.3</v>
+      </c>
+      <c r="AG143">
+        <v>1.98</v>
+      </c>
+      <c r="AH143">
+        <v>1.83</v>
+      </c>
+      <c r="AI143">
+        <v>1.73</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.53</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.4</v>
+      </c>
+      <c r="AN143">
+        <v>1.27</v>
+      </c>
+      <c r="AO143">
+        <v>0.91</v>
+      </c>
+      <c r="AP143">
+        <v>1.17</v>
+      </c>
+      <c r="AQ143">
+        <v>1.08</v>
+      </c>
+      <c r="AR143">
+        <v>1.61</v>
+      </c>
+      <c r="AS143">
+        <v>1.37</v>
+      </c>
+      <c r="AT143">
+        <v>2.98</v>
+      </c>
+      <c r="AU143">
+        <v>3</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>8</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>7</v>
+      </c>
+      <c r="BC143">
+        <v>12</v>
+      </c>
+      <c r="BD143">
+        <v>2.2</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>1.91</v>
+      </c>
+      <c r="BG143">
+        <v>1.41</v>
+      </c>
+      <c r="BH143">
+        <v>2.69</v>
+      </c>
+      <c r="BI143">
+        <v>1.88</v>
+      </c>
+      <c r="BJ143">
+        <v>1.92</v>
+      </c>
+      <c r="BK143">
+        <v>2.25</v>
+      </c>
+      <c r="BL143">
+        <v>1.57</v>
+      </c>
+      <c r="BM143">
+        <v>3.04</v>
+      </c>
+      <c r="BN143">
+        <v>1.31</v>
+      </c>
+      <c r="BO143">
+        <v>4.35</v>
+      </c>
+      <c r="BP143">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7321538</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>187</v>
+      </c>
+      <c r="P144" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q144">
+        <v>2.88</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>3.75</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>2.39</v>
+      </c>
+      <c r="AA144">
+        <v>3.44</v>
+      </c>
+      <c r="AB144">
+        <v>2.9</v>
+      </c>
+      <c r="AC144">
+        <v>1.06</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.33</v>
+      </c>
+      <c r="AF144">
+        <v>3.1</v>
+      </c>
+      <c r="AG144">
+        <v>1.88</v>
+      </c>
+      <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.36</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.62</v>
+      </c>
+      <c r="AN144">
+        <v>1.45</v>
+      </c>
+      <c r="AO144">
+        <v>1.55</v>
+      </c>
+      <c r="AP144">
+        <v>1.58</v>
+      </c>
+      <c r="AQ144">
+        <v>1.42</v>
+      </c>
+      <c r="AR144">
+        <v>1.58</v>
+      </c>
+      <c r="AS144">
+        <v>1.49</v>
+      </c>
+      <c r="AT144">
+        <v>3.07</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>7</v>
+      </c>
+      <c r="AX144">
+        <v>7</v>
+      </c>
+      <c r="AY144">
+        <v>12</v>
+      </c>
+      <c r="AZ144">
+        <v>9</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.95</v>
+      </c>
+      <c r="BE144">
+        <v>7.5</v>
+      </c>
+      <c r="BF144">
+        <v>2.1</v>
+      </c>
+      <c r="BG144">
+        <v>1.33</v>
+      </c>
+      <c r="BH144">
+        <v>2.91</v>
+      </c>
+      <c r="BI144">
+        <v>1.7</v>
+      </c>
+      <c r="BJ144">
+        <v>2.05</v>
+      </c>
+      <c r="BK144">
+        <v>2.09</v>
+      </c>
+      <c r="BL144">
+        <v>1.69</v>
+      </c>
+      <c r="BM144">
+        <v>2.76</v>
+      </c>
+      <c r="BN144">
+        <v>1.39</v>
+      </c>
+      <c r="BO144">
+        <v>3.84</v>
+      </c>
+      <c r="BP144">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7321539</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F145">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>188</v>
+      </c>
+      <c r="P145" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>2.63</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>3.6</v>
+      </c>
+      <c r="AA145">
+        <v>3.6</v>
+      </c>
+      <c r="AB145">
+        <v>2.01</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.3</v>
+      </c>
+      <c r="AG145">
+        <v>1.92</v>
+      </c>
+      <c r="AH145">
+        <v>1.89</v>
+      </c>
+      <c r="AI145">
+        <v>1.73</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.72</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.28</v>
+      </c>
+      <c r="AN145">
+        <v>1.33</v>
+      </c>
+      <c r="AO145">
+        <v>1.67</v>
+      </c>
+      <c r="AP145">
+        <v>1.23</v>
+      </c>
+      <c r="AQ145">
+        <v>1.77</v>
+      </c>
+      <c r="AR145">
+        <v>1.26</v>
+      </c>
+      <c r="AS145">
+        <v>1.44</v>
+      </c>
+      <c r="AT145">
+        <v>2.7</v>
+      </c>
+      <c r="AU145">
+        <v>2</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>6</v>
+      </c>
+      <c r="AX145">
+        <v>2</v>
+      </c>
+      <c r="AY145">
+        <v>8</v>
+      </c>
+      <c r="AZ145">
+        <v>5</v>
+      </c>
+      <c r="BA145">
+        <v>1</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>4</v>
+      </c>
+      <c r="BD145">
+        <v>2.53</v>
+      </c>
+      <c r="BE145">
+        <v>7.5</v>
+      </c>
+      <c r="BF145">
+        <v>1.75</v>
+      </c>
+      <c r="BG145">
+        <v>1.47</v>
+      </c>
+      <c r="BH145">
+        <v>2.49</v>
+      </c>
+      <c r="BI145">
+        <v>1.85</v>
+      </c>
+      <c r="BJ145">
+        <v>1.85</v>
+      </c>
+      <c r="BK145">
+        <v>2.41</v>
+      </c>
+      <c r="BL145">
+        <v>1.5</v>
+      </c>
+      <c r="BM145">
+        <v>3.28</v>
+      </c>
+      <c r="BN145">
+        <v>1.27</v>
+      </c>
+      <c r="BO145">
+        <v>4.75</v>
+      </c>
+      <c r="BP145">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -30795,10 +30795,10 @@
         <v>2</v>
       </c>
       <c r="BB144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD144">
         <v>1.95</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['33', '55', '63', '86']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -682,9 +691,6 @@
     <t>['44', '82']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['82', '90+1']</t>
   </si>
   <si>
@@ -722,9 +728,6 @@
   </si>
   <si>
     <t>['53', '90+2']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -809,6 +812,9 @@
   </si>
   <si>
     <t>['47', '49']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,7 +1641,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1716,7 +1722,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1919,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2047,7 +2053,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2125,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2253,7 +2259,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2459,7 +2465,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2537,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ7">
         <v>1.42</v>
@@ -2665,7 +2671,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2746,7 +2752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3158,7 +3164,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3283,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3361,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ11">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3695,7 +3701,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ13">
         <v>1.42</v>
@@ -3901,7 +3907,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4185,10 +4191,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4806,7 +4812,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4931,7 +4937,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5137,7 +5143,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5218,7 +5224,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5421,10 +5427,10 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ21">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5549,7 +5555,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5755,7 +5761,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5833,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ23">
         <v>1.77</v>
@@ -6039,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6167,7 +6173,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6245,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6373,7 +6379,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6454,7 +6460,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6660,7 +6666,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6785,7 +6791,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6863,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -7275,10 +7281,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7481,7 +7487,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7690,7 +7696,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7815,7 +7821,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7893,7 +7899,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8021,7 +8027,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8227,7 +8233,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8511,10 +8517,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8639,7 +8645,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8845,7 +8851,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9051,7 +9057,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9463,7 +9469,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9541,7 +9547,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ41">
         <v>1.42</v>
@@ -9750,7 +9756,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9875,7 +9881,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9953,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10493,7 +10499,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10574,7 +10580,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10699,7 +10705,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10777,7 +10783,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10983,10 +10989,10 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ48">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11111,7 +11117,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11192,7 +11198,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11317,7 +11323,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11395,10 +11401,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11935,7 +11941,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12141,7 +12147,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12553,7 +12559,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12634,7 +12640,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12759,7 +12765,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12837,7 +12843,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ57">
         <v>1.77</v>
@@ -13043,10 +13049,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13171,7 +13177,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13249,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13377,7 +13383,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13455,10 +13461,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13583,7 +13589,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13664,7 +13670,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13870,7 +13876,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -13995,7 +14001,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14201,7 +14207,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14485,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14613,7 +14619,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14691,10 +14697,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ66">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14819,7 +14825,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14897,10 +14903,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15025,7 +15031,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15103,7 +15109,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ68">
         <v>1.08</v>
@@ -15231,7 +15237,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15309,10 +15315,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ69">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15437,7 +15443,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15518,7 +15524,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15643,7 +15649,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15849,7 +15855,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16133,10 +16139,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16673,7 +16679,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16751,10 +16757,10 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16879,7 +16885,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17163,10 +17169,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17703,7 +17709,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17784,7 +17790,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17909,7 +17915,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -17990,7 +17996,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18193,7 +18199,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ83">
         <v>1.08</v>
@@ -18321,7 +18327,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18399,7 +18405,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ84">
         <v>1.42</v>
@@ -18605,10 +18611,10 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18814,7 +18820,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18939,7 +18945,7 @@
         <v>85</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>3.09</v>
@@ -19017,7 +19023,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ87">
         <v>1.77</v>
@@ -19145,7 +19151,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19223,10 +19229,10 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ88">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19351,7 +19357,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19841,10 +19847,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -20050,7 +20056,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20793,7 +20799,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20871,7 +20877,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ96">
         <v>1.42</v>
@@ -20999,7 +21005,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21205,7 +21211,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21286,7 +21292,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21489,7 +21495,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ99">
         <v>1.42</v>
@@ -21617,7 +21623,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21695,10 +21701,10 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21823,7 +21829,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21904,7 +21910,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22029,7 +22035,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22313,7 +22319,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22519,10 +22525,10 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22647,7 +22653,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22853,7 +22859,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22931,7 +22937,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ106">
         <v>1.42</v>
@@ -23140,7 +23146,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23265,7 +23271,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23343,7 +23349,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ108">
         <v>1.77</v>
@@ -23471,7 +23477,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23549,10 +23555,10 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -23964,7 +23970,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ111">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24167,7 +24173,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24707,7 +24713,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25119,7 +25125,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25200,7 +25206,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25325,7 +25331,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25406,7 +25412,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25612,7 +25618,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25737,7 +25743,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25815,7 +25821,7 @@
         <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -25943,7 +25949,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26021,7 +26027,7 @@
         <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ121">
         <v>1.42</v>
@@ -26149,7 +26155,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26227,7 +26233,7 @@
         <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ122">
         <v>1.42</v>
@@ -26355,7 +26361,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26436,7 +26442,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR123">
         <v>1.74</v>
@@ -26561,7 +26567,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26639,10 +26645,10 @@
         <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ124">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26767,7 +26773,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26845,7 +26851,7 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ125">
         <v>1.77</v>
@@ -26973,7 +26979,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27054,7 +27060,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27257,7 +27263,7 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ127">
         <v>1.08</v>
@@ -27463,7 +27469,7 @@
         <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -27591,7 +27597,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27672,7 +27678,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -28415,7 +28421,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28496,7 +28502,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ133">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28702,7 +28708,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ134">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR134">
         <v>1.98</v>
@@ -28827,7 +28833,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28905,7 +28911,7 @@
         <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ135">
         <v>1.77</v>
@@ -29033,7 +29039,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29239,7 +29245,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29317,7 +29323,7 @@
         <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -29445,7 +29451,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29732,7 +29738,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -29938,7 +29944,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ140">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR140">
         <v>1.43</v>
@@ -30141,7 +30147,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ141">
         <v>0.67</v>
@@ -30269,7 +30275,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30347,10 +30353,10 @@
         <v>1.55</v>
       </c>
       <c r="AP142">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR142">
         <v>1.43</v>
@@ -30475,7 +30481,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30553,7 +30559,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ143">
         <v>1.08</v>
@@ -30887,7 +30893,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31044,6 +31050,1036 @@
       </c>
       <c r="BP145">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7321540</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45499.3125</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>79</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>189</v>
+      </c>
+      <c r="P146" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q146">
+        <v>3.7</v>
+      </c>
+      <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>2.64</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.16</v>
+      </c>
+      <c r="V146">
+        <v>2.52</v>
+      </c>
+      <c r="W146">
+        <v>1.49</v>
+      </c>
+      <c r="X146">
+        <v>6.1</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>3.3</v>
+      </c>
+      <c r="AA146">
+        <v>3.3</v>
+      </c>
+      <c r="AB146">
+        <v>2.05</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>3.85</v>
+      </c>
+      <c r="AG146">
+        <v>1.67</v>
+      </c>
+      <c r="AH146">
+        <v>2.1</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.22</v>
+      </c>
+      <c r="AK146">
+        <v>1.72</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.35</v>
+      </c>
+      <c r="AN146">
+        <v>1.75</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.85</v>
+      </c>
+      <c r="AQ146">
+        <v>1.15</v>
+      </c>
+      <c r="AR146">
+        <v>1.62</v>
+      </c>
+      <c r="AS146">
+        <v>1.45</v>
+      </c>
+      <c r="AT146">
+        <v>3.07</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
+        <v>6</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>10</v>
+      </c>
+      <c r="BC146">
+        <v>15</v>
+      </c>
+      <c r="BD146">
+        <v>2.33</v>
+      </c>
+      <c r="BE146">
+        <v>7.5</v>
+      </c>
+      <c r="BF146">
+        <v>1.85</v>
+      </c>
+      <c r="BG146">
+        <v>1.4</v>
+      </c>
+      <c r="BH146">
+        <v>2.72</v>
+      </c>
+      <c r="BI146">
+        <v>1.8</v>
+      </c>
+      <c r="BJ146">
+        <v>1.91</v>
+      </c>
+      <c r="BK146">
+        <v>2.17</v>
+      </c>
+      <c r="BL146">
+        <v>1.67</v>
+      </c>
+      <c r="BM146">
+        <v>2.93</v>
+      </c>
+      <c r="BN146">
+        <v>1.33</v>
+      </c>
+      <c r="BO146">
+        <v>4.25</v>
+      </c>
+      <c r="BP146">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7321541</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45499.3125</v>
+      </c>
+      <c r="F147">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P147" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q147">
+        <v>2.55</v>
+      </c>
+      <c r="R147">
+        <v>2.24</v>
+      </c>
+      <c r="S147">
+        <v>3.92</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.14</v>
+      </c>
+      <c r="V147">
+        <v>2.55</v>
+      </c>
+      <c r="W147">
+        <v>1.48</v>
+      </c>
+      <c r="X147">
+        <v>6.15</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>2</v>
+      </c>
+      <c r="AA147">
+        <v>3.6</v>
+      </c>
+      <c r="AB147">
+        <v>3.2</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>10.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.21</v>
+      </c>
+      <c r="AF147">
+        <v>3.75</v>
+      </c>
+      <c r="AG147">
+        <v>1.7</v>
+      </c>
+      <c r="AH147">
+        <v>2.05</v>
+      </c>
+      <c r="AI147">
+        <v>1.64</v>
+      </c>
+      <c r="AJ147">
+        <v>2.17</v>
+      </c>
+      <c r="AK147">
+        <v>1.31</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.79</v>
+      </c>
+      <c r="AN147">
+        <v>2</v>
+      </c>
+      <c r="AO147">
+        <v>0.67</v>
+      </c>
+      <c r="AP147">
+        <v>2.08</v>
+      </c>
+      <c r="AQ147">
+        <v>0.62</v>
+      </c>
+      <c r="AR147">
+        <v>1.73</v>
+      </c>
+      <c r="AS147">
+        <v>1.24</v>
+      </c>
+      <c r="AT147">
+        <v>2.97</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
+        <v>3</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>18</v>
+      </c>
+      <c r="AZ147">
+        <v>6</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>1.55</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>3.02</v>
+      </c>
+      <c r="BG147">
+        <v>1.46</v>
+      </c>
+      <c r="BH147">
+        <v>2.58</v>
+      </c>
+      <c r="BI147">
+        <v>1.77</v>
+      </c>
+      <c r="BJ147">
+        <v>1.95</v>
+      </c>
+      <c r="BK147">
+        <v>2.3</v>
+      </c>
+      <c r="BL147">
+        <v>1.58</v>
+      </c>
+      <c r="BM147">
+        <v>3.14</v>
+      </c>
+      <c r="BN147">
+        <v>1.29</v>
+      </c>
+      <c r="BO147">
+        <v>4.55</v>
+      </c>
+      <c r="BP147">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7321544</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45499.875</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>85</v>
+      </c>
+      <c r="P148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q148">
+        <v>3.6</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>2.9</v>
+      </c>
+      <c r="T148">
+        <v>1.42</v>
+      </c>
+      <c r="U148">
+        <v>2.65</v>
+      </c>
+      <c r="V148">
+        <v>2.85</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>7.6</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>3</v>
+      </c>
+      <c r="AA148">
+        <v>3.26</v>
+      </c>
+      <c r="AB148">
+        <v>2.38</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>8.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.33</v>
+      </c>
+      <c r="AF148">
+        <v>3.2</v>
+      </c>
+      <c r="AG148">
+        <v>1.95</v>
+      </c>
+      <c r="AH148">
+        <v>1.7</v>
+      </c>
+      <c r="AI148">
+        <v>1.73</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.57</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.35</v>
+      </c>
+      <c r="AN148">
+        <v>0.83</v>
+      </c>
+      <c r="AO148">
+        <v>1.17</v>
+      </c>
+      <c r="AP148">
+        <v>0.77</v>
+      </c>
+      <c r="AQ148">
+        <v>1.31</v>
+      </c>
+      <c r="AR148">
+        <v>1.38</v>
+      </c>
+      <c r="AS148">
+        <v>1.47</v>
+      </c>
+      <c r="AT148">
+        <v>2.85</v>
+      </c>
+      <c r="AU148">
+        <v>-1</v>
+      </c>
+      <c r="AV148">
+        <v>-1</v>
+      </c>
+      <c r="AW148">
+        <v>-1</v>
+      </c>
+      <c r="AX148">
+        <v>-1</v>
+      </c>
+      <c r="AY148">
+        <v>-1</v>
+      </c>
+      <c r="AZ148">
+        <v>-1</v>
+      </c>
+      <c r="BA148">
+        <v>-1</v>
+      </c>
+      <c r="BB148">
+        <v>-1</v>
+      </c>
+      <c r="BC148">
+        <v>-1</v>
+      </c>
+      <c r="BD148">
+        <v>2.1</v>
+      </c>
+      <c r="BE148">
+        <v>7.5</v>
+      </c>
+      <c r="BF148">
+        <v>1.95</v>
+      </c>
+      <c r="BG148">
+        <v>1.4</v>
+      </c>
+      <c r="BH148">
+        <v>2.72</v>
+      </c>
+      <c r="BI148">
+        <v>1.77</v>
+      </c>
+      <c r="BJ148">
+        <v>1.95</v>
+      </c>
+      <c r="BK148">
+        <v>2.21</v>
+      </c>
+      <c r="BL148">
+        <v>1.59</v>
+      </c>
+      <c r="BM148">
+        <v>2.98</v>
+      </c>
+      <c r="BN148">
+        <v>1.32</v>
+      </c>
+      <c r="BO148">
+        <v>4.25</v>
+      </c>
+      <c r="BP148">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7321542</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45500.29166666666</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>191</v>
+      </c>
+      <c r="P149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q149">
+        <v>2.6</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>3.85</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>2.85</v>
+      </c>
+      <c r="V149">
+        <v>2.65</v>
+      </c>
+      <c r="W149">
+        <v>1.42</v>
+      </c>
+      <c r="X149">
+        <v>6.65</v>
+      </c>
+      <c r="Y149">
+        <v>1.09</v>
+      </c>
+      <c r="Z149">
+        <v>2.03</v>
+      </c>
+      <c r="AA149">
+        <v>3.54</v>
+      </c>
+      <c r="AB149">
+        <v>3.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>9.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.28</v>
+      </c>
+      <c r="AF149">
+        <v>3.6</v>
+      </c>
+      <c r="AG149">
+        <v>1.83</v>
+      </c>
+      <c r="AH149">
+        <v>1.97</v>
+      </c>
+      <c r="AI149">
+        <v>1.65</v>
+      </c>
+      <c r="AJ149">
+        <v>2.05</v>
+      </c>
+      <c r="AK149">
+        <v>1.3</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.7</v>
+      </c>
+      <c r="AN149">
+        <v>1.5</v>
+      </c>
+      <c r="AO149">
+        <v>1.67</v>
+      </c>
+      <c r="AP149">
+        <v>1.62</v>
+      </c>
+      <c r="AQ149">
+        <v>1.54</v>
+      </c>
+      <c r="AR149">
+        <v>1.76</v>
+      </c>
+      <c r="AS149">
+        <v>1.49</v>
+      </c>
+      <c r="AT149">
+        <v>3.25</v>
+      </c>
+      <c r="AU149">
+        <v>2</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>5</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>1.45</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.33</v>
+      </c>
+      <c r="BG149">
+        <v>1.32</v>
+      </c>
+      <c r="BH149">
+        <v>2.98</v>
+      </c>
+      <c r="BI149">
+        <v>1.7</v>
+      </c>
+      <c r="BJ149">
+        <v>2.05</v>
+      </c>
+      <c r="BK149">
+        <v>2.05</v>
+      </c>
+      <c r="BL149">
+        <v>1.7</v>
+      </c>
+      <c r="BM149">
+        <v>2.72</v>
+      </c>
+      <c r="BN149">
+        <v>1.4</v>
+      </c>
+      <c r="BO149">
+        <v>3.74</v>
+      </c>
+      <c r="BP149">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7321543</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45500.3125</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>166</v>
+      </c>
+      <c r="P150" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q150">
+        <v>2.6</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.7</v>
+      </c>
+      <c r="V150">
+        <v>2.8</v>
+      </c>
+      <c r="W150">
+        <v>1.38</v>
+      </c>
+      <c r="X150">
+        <v>7.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>2.03</v>
+      </c>
+      <c r="AA150">
+        <v>3.38</v>
+      </c>
+      <c r="AB150">
+        <v>3.63</v>
+      </c>
+      <c r="AC150">
+        <v>1.06</v>
+      </c>
+      <c r="AD150">
+        <v>8.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.33</v>
+      </c>
+      <c r="AF150">
+        <v>3.25</v>
+      </c>
+      <c r="AG150">
+        <v>2.01</v>
+      </c>
+      <c r="AH150">
+        <v>1.8</v>
+      </c>
+      <c r="AI150">
+        <v>1.73</v>
+      </c>
+      <c r="AJ150">
+        <v>1.95</v>
+      </c>
+      <c r="AK150">
+        <v>1.28</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.7</v>
+      </c>
+      <c r="AN150">
+        <v>1.17</v>
+      </c>
+      <c r="AO150">
+        <v>0.36</v>
+      </c>
+      <c r="AP150">
+        <v>1.15</v>
+      </c>
+      <c r="AQ150">
+        <v>0.42</v>
+      </c>
+      <c r="AR150">
+        <v>1.59</v>
+      </c>
+      <c r="AS150">
+        <v>1.26</v>
+      </c>
+      <c r="AT150">
+        <v>2.85</v>
+      </c>
+      <c r="AU150">
+        <v>-1</v>
+      </c>
+      <c r="AV150">
+        <v>-1</v>
+      </c>
+      <c r="AW150">
+        <v>-1</v>
+      </c>
+      <c r="AX150">
+        <v>-1</v>
+      </c>
+      <c r="AY150">
+        <v>-1</v>
+      </c>
+      <c r="AZ150">
+        <v>-1</v>
+      </c>
+      <c r="BA150">
+        <v>-1</v>
+      </c>
+      <c r="BB150">
+        <v>-1</v>
+      </c>
+      <c r="BC150">
+        <v>-1</v>
+      </c>
+      <c r="BD150">
+        <v>1.64</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>2.77</v>
+      </c>
+      <c r="BG150">
+        <v>1.4</v>
+      </c>
+      <c r="BH150">
+        <v>2.72</v>
+      </c>
+      <c r="BI150">
+        <v>1.8</v>
+      </c>
+      <c r="BJ150">
+        <v>1.91</v>
+      </c>
+      <c r="BK150">
+        <v>2.21</v>
+      </c>
+      <c r="BL150">
+        <v>1.59</v>
+      </c>
+      <c r="BM150">
+        <v>2.98</v>
+      </c>
+      <c r="BN150">
+        <v>1.32</v>
+      </c>
+      <c r="BO150">
+        <v>4.25</v>
+      </c>
+      <c r="BP150">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -583,10 +583,10 @@
     <t>['2']</t>
   </si>
   <si>
-    <t>['90+2']</t>
+    <t>['33', '55', '63', '86']</t>
   </si>
   <si>
-    <t>['33', '55', '63', '86']</t>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['6']</t>
@@ -13589,7 +13589,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -31057,7 +31057,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7321540</v>
+        <v>7321541</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31072,190 +31072,190 @@
         <v>25</v>
       </c>
       <c r="G146" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O146" t="s">
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="Q146">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="R146">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="S146">
-        <v>2.64</v>
+        <v>3.92</v>
       </c>
       <c r="T146">
         <v>1.33</v>
       </c>
       <c r="U146">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="V146">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W146">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X146">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="Y146">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z146">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AA146">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB146">
+        <v>3.2</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>10.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.21</v>
+      </c>
+      <c r="AF146">
+        <v>3.75</v>
+      </c>
+      <c r="AG146">
+        <v>1.7</v>
+      </c>
+      <c r="AH146">
         <v>2.05</v>
       </c>
-      <c r="AC146">
-        <v>1.02</v>
-      </c>
-      <c r="AD146">
-        <v>10</v>
-      </c>
-      <c r="AE146">
-        <v>1.2</v>
-      </c>
-      <c r="AF146">
-        <v>3.85</v>
-      </c>
-      <c r="AG146">
-        <v>1.67</v>
-      </c>
-      <c r="AH146">
-        <v>2.1</v>
-      </c>
       <c r="AI146">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AJ146">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="AK146">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="AL146">
         <v>1.28</v>
       </c>
       <c r="AM146">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="AN146">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO146">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AP146">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AQ146">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="AR146">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AS146">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AT146">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="AU146">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW146">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY146">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ146">
         <v>6</v>
       </c>
       <c r="BA146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB146">
+        <v>4</v>
+      </c>
+      <c r="BC146">
         <v>10</v>
       </c>
-      <c r="BC146">
-        <v>15</v>
-      </c>
       <c r="BD146">
-        <v>2.33</v>
+        <v>1.55</v>
       </c>
       <c r="BE146">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF146">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="BG146">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="BH146">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="BI146">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BJ146">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BK146">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BL146">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="BM146">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="BN146">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BO146">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="BP146">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31263,7 +31263,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7321541</v>
+        <v>7321540</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31278,190 +31278,190 @@
         <v>25</v>
       </c>
       <c r="G147" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O147" t="s">
         <v>190</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="Q147">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="R147">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="S147">
-        <v>3.92</v>
+        <v>2.64</v>
       </c>
       <c r="T147">
         <v>1.33</v>
       </c>
       <c r="U147">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="V147">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W147">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X147">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="Y147">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z147">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="AA147">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB147">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC147">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD147">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE147">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AF147">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AG147">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH147">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI147">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AJ147">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="AK147">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="AL147">
         <v>1.28</v>
       </c>
       <c r="AM147">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="AN147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO147">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AP147">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AQ147">
-        <v>0.62</v>
+        <v>1.15</v>
       </c>
       <c r="AR147">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AS147">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="AT147">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
       <c r="AU147">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW147">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY147">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ147">
         <v>6</v>
       </c>
       <c r="BA147">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB147">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC147">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD147">
-        <v>1.55</v>
+        <v>2.33</v>
       </c>
       <c r="BE147">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF147">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="BG147">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="BH147">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="BI147">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BJ147">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BK147">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BL147">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="BM147">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="BN147">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BO147">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="BP147">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31469,7 +31469,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7321544</v>
+        <v>7321542</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31478,196 +31478,196 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45499.875</v>
+        <v>45500.29166666666</v>
       </c>
       <c r="F148">
         <v>25</v>
       </c>
       <c r="G148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H148" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <v>1</v>
       </c>
       <c r="O148" t="s">
+        <v>191</v>
+      </c>
+      <c r="P148" t="s">
         <v>85</v>
       </c>
-      <c r="P148" t="s">
-        <v>87</v>
-      </c>
       <c r="Q148">
+        <v>2.6</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>3.85</v>
+      </c>
+      <c r="T148">
+        <v>1.36</v>
+      </c>
+      <c r="U148">
+        <v>2.85</v>
+      </c>
+      <c r="V148">
+        <v>2.65</v>
+      </c>
+      <c r="W148">
+        <v>1.42</v>
+      </c>
+      <c r="X148">
+        <v>6.65</v>
+      </c>
+      <c r="Y148">
+        <v>1.09</v>
+      </c>
+      <c r="Z148">
+        <v>2.03</v>
+      </c>
+      <c r="AA148">
+        <v>3.54</v>
+      </c>
+      <c r="AB148">
+        <v>3.5</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>9.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.28</v>
+      </c>
+      <c r="AF148">
         <v>3.6</v>
       </c>
-      <c r="R148">
-        <v>2</v>
-      </c>
-      <c r="S148">
-        <v>2.9</v>
-      </c>
-      <c r="T148">
-        <v>1.42</v>
-      </c>
-      <c r="U148">
-        <v>2.65</v>
-      </c>
-      <c r="V148">
-        <v>2.85</v>
-      </c>
-      <c r="W148">
-        <v>1.36</v>
-      </c>
-      <c r="X148">
-        <v>7.6</v>
-      </c>
-      <c r="Y148">
-        <v>1.07</v>
-      </c>
-      <c r="Z148">
-        <v>3</v>
-      </c>
-      <c r="AA148">
-        <v>3.26</v>
-      </c>
-      <c r="AB148">
-        <v>2.38</v>
-      </c>
-      <c r="AC148">
-        <v>1.06</v>
-      </c>
-      <c r="AD148">
+      <c r="AG148">
+        <v>1.83</v>
+      </c>
+      <c r="AH148">
+        <v>1.97</v>
+      </c>
+      <c r="AI148">
+        <v>1.65</v>
+      </c>
+      <c r="AJ148">
+        <v>2.05</v>
+      </c>
+      <c r="AK148">
+        <v>1.3</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.7</v>
+      </c>
+      <c r="AN148">
+        <v>1.5</v>
+      </c>
+      <c r="AO148">
+        <v>1.67</v>
+      </c>
+      <c r="AP148">
+        <v>1.62</v>
+      </c>
+      <c r="AQ148">
+        <v>1.54</v>
+      </c>
+      <c r="AR148">
+        <v>1.76</v>
+      </c>
+      <c r="AS148">
+        <v>1.49</v>
+      </c>
+      <c r="AT148">
+        <v>3.25</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>3</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>5</v>
+      </c>
+      <c r="AZ148">
+        <v>9</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>6</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>1.45</v>
+      </c>
+      <c r="BE148">
         <v>8.5</v>
       </c>
-      <c r="AE148">
-        <v>1.33</v>
-      </c>
-      <c r="AF148">
-        <v>3.2</v>
-      </c>
-      <c r="AG148">
-        <v>1.95</v>
-      </c>
-      <c r="AH148">
+      <c r="BF148">
+        <v>3.33</v>
+      </c>
+      <c r="BG148">
+        <v>1.32</v>
+      </c>
+      <c r="BH148">
+        <v>2.98</v>
+      </c>
+      <c r="BI148">
         <v>1.7</v>
       </c>
-      <c r="AI148">
-        <v>1.73</v>
-      </c>
-      <c r="AJ148">
-        <v>1.95</v>
-      </c>
-      <c r="AK148">
-        <v>1.57</v>
-      </c>
-      <c r="AL148">
-        <v>1.28</v>
-      </c>
-      <c r="AM148">
-        <v>1.35</v>
-      </c>
-      <c r="AN148">
-        <v>0.83</v>
-      </c>
-      <c r="AO148">
-        <v>1.17</v>
-      </c>
-      <c r="AP148">
-        <v>0.77</v>
-      </c>
-      <c r="AQ148">
-        <v>1.31</v>
-      </c>
-      <c r="AR148">
-        <v>1.38</v>
-      </c>
-      <c r="AS148">
-        <v>1.47</v>
-      </c>
-      <c r="AT148">
-        <v>2.85</v>
-      </c>
-      <c r="AU148">
-        <v>-1</v>
-      </c>
-      <c r="AV148">
-        <v>-1</v>
-      </c>
-      <c r="AW148">
-        <v>-1</v>
-      </c>
-      <c r="AX148">
-        <v>-1</v>
-      </c>
-      <c r="AY148">
-        <v>-1</v>
-      </c>
-      <c r="AZ148">
-        <v>-1</v>
-      </c>
-      <c r="BA148">
-        <v>-1</v>
-      </c>
-      <c r="BB148">
-        <v>-1</v>
-      </c>
-      <c r="BC148">
-        <v>-1</v>
-      </c>
-      <c r="BD148">
-        <v>2.1</v>
-      </c>
-      <c r="BE148">
-        <v>7.5</v>
-      </c>
-      <c r="BF148">
-        <v>1.95</v>
-      </c>
-      <c r="BG148">
+      <c r="BJ148">
+        <v>2.05</v>
+      </c>
+      <c r="BK148">
+        <v>2.05</v>
+      </c>
+      <c r="BL148">
+        <v>1.7</v>
+      </c>
+      <c r="BM148">
+        <v>2.72</v>
+      </c>
+      <c r="BN148">
         <v>1.4</v>
       </c>
-      <c r="BH148">
-        <v>2.72</v>
-      </c>
-      <c r="BI148">
-        <v>1.77</v>
-      </c>
-      <c r="BJ148">
-        <v>1.95</v>
-      </c>
-      <c r="BK148">
-        <v>2.21</v>
-      </c>
-      <c r="BL148">
-        <v>1.59</v>
-      </c>
-      <c r="BM148">
-        <v>2.98</v>
-      </c>
-      <c r="BN148">
-        <v>1.32</v>
-      </c>
       <c r="BO148">
-        <v>4.25</v>
+        <v>3.74</v>
       </c>
       <c r="BP148">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31675,7 +31675,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7321542</v>
+        <v>7321544</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31684,196 +31684,196 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45500.29166666666</v>
+        <v>45500.3125</v>
       </c>
       <c r="F149">
         <v>25</v>
       </c>
       <c r="G149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149">
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q149">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>2.9</v>
+      </c>
+      <c r="T149">
+        <v>1.42</v>
+      </c>
+      <c r="U149">
+        <v>2.65</v>
+      </c>
+      <c r="V149">
+        <v>2.85</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>7.6</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>3</v>
+      </c>
+      <c r="AA149">
+        <v>3.26</v>
+      </c>
+      <c r="AB149">
+        <v>2.38</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.33</v>
+      </c>
+      <c r="AF149">
+        <v>3.2</v>
+      </c>
+      <c r="AG149">
+        <v>1.95</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.73</v>
+      </c>
+      <c r="AJ149">
+        <v>1.95</v>
+      </c>
+      <c r="AK149">
+        <v>1.57</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.35</v>
+      </c>
+      <c r="AN149">
+        <v>0.83</v>
+      </c>
+      <c r="AO149">
+        <v>1.17</v>
+      </c>
+      <c r="AP149">
+        <v>0.77</v>
+      </c>
+      <c r="AQ149">
+        <v>1.31</v>
+      </c>
+      <c r="AR149">
+        <v>1.38</v>
+      </c>
+      <c r="AS149">
+        <v>1.47</v>
+      </c>
+      <c r="AT149">
+        <v>2.85</v>
+      </c>
+      <c r="AU149">
+        <v>2</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>11</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>1</v>
+      </c>
+      <c r="BC149">
+        <v>6</v>
+      </c>
+      <c r="BD149">
         <v>2.1</v>
       </c>
-      <c r="S149">
-        <v>3.85</v>
-      </c>
-      <c r="T149">
-        <v>1.36</v>
-      </c>
-      <c r="U149">
-        <v>2.85</v>
-      </c>
-      <c r="V149">
-        <v>2.65</v>
-      </c>
-      <c r="W149">
-        <v>1.42</v>
-      </c>
-      <c r="X149">
-        <v>6.65</v>
-      </c>
-      <c r="Y149">
-        <v>1.09</v>
-      </c>
-      <c r="Z149">
-        <v>2.03</v>
-      </c>
-      <c r="AA149">
-        <v>3.54</v>
-      </c>
-      <c r="AB149">
-        <v>3.5</v>
-      </c>
-      <c r="AC149">
-        <v>1.05</v>
-      </c>
-      <c r="AD149">
-        <v>9.5</v>
-      </c>
-      <c r="AE149">
-        <v>1.28</v>
-      </c>
-      <c r="AF149">
-        <v>3.6</v>
-      </c>
-      <c r="AG149">
-        <v>1.83</v>
-      </c>
-      <c r="AH149">
-        <v>1.97</v>
-      </c>
-      <c r="AI149">
-        <v>1.65</v>
-      </c>
-      <c r="AJ149">
-        <v>2.05</v>
-      </c>
-      <c r="AK149">
-        <v>1.3</v>
-      </c>
-      <c r="AL149">
-        <v>1.25</v>
-      </c>
-      <c r="AM149">
-        <v>1.7</v>
-      </c>
-      <c r="AN149">
-        <v>1.5</v>
-      </c>
-      <c r="AO149">
-        <v>1.67</v>
-      </c>
-      <c r="AP149">
-        <v>1.62</v>
-      </c>
-      <c r="AQ149">
-        <v>1.54</v>
-      </c>
-      <c r="AR149">
-        <v>1.76</v>
-      </c>
-      <c r="AS149">
-        <v>1.49</v>
-      </c>
-      <c r="AT149">
-        <v>3.25</v>
-      </c>
-      <c r="AU149">
-        <v>2</v>
-      </c>
-      <c r="AV149">
-        <v>3</v>
-      </c>
-      <c r="AW149">
-        <v>3</v>
-      </c>
-      <c r="AX149">
-        <v>6</v>
-      </c>
-      <c r="AY149">
-        <v>5</v>
-      </c>
-      <c r="AZ149">
-        <v>9</v>
-      </c>
-      <c r="BA149">
-        <v>6</v>
-      </c>
-      <c r="BB149">
-        <v>6</v>
-      </c>
-      <c r="BC149">
-        <v>12</v>
-      </c>
-      <c r="BD149">
-        <v>1.45</v>
-      </c>
       <c r="BE149">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF149">
-        <v>3.33</v>
+        <v>1.95</v>
       </c>
       <c r="BG149">
+        <v>1.4</v>
+      </c>
+      <c r="BH149">
+        <v>2.72</v>
+      </c>
+      <c r="BI149">
+        <v>1.77</v>
+      </c>
+      <c r="BJ149">
+        <v>1.95</v>
+      </c>
+      <c r="BK149">
+        <v>2.21</v>
+      </c>
+      <c r="BL149">
+        <v>1.59</v>
+      </c>
+      <c r="BM149">
+        <v>2.98</v>
+      </c>
+      <c r="BN149">
         <v>1.32</v>
       </c>
-      <c r="BH149">
-        <v>2.98</v>
-      </c>
-      <c r="BI149">
-        <v>1.7</v>
-      </c>
-      <c r="BJ149">
-        <v>2.05</v>
-      </c>
-      <c r="BK149">
-        <v>2.05</v>
-      </c>
-      <c r="BL149">
-        <v>1.7</v>
-      </c>
-      <c r="BM149">
-        <v>2.72</v>
-      </c>
-      <c r="BN149">
-        <v>1.4</v>
-      </c>
       <c r="BO149">
-        <v>3.74</v>
+        <v>4.25</v>
       </c>
       <c r="BP149">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -32016,31 +32016,31 @@
         <v>2.85</v>
       </c>
       <c r="AU150">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW150">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY150">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ150">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA150">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC150">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD150">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t>['62', '71']</t>
   </si>
+  <si>
+    <t>['22', '55']</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2546,7 +2549,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ7">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2955,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -4603,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1.08</v>
@@ -5636,7 +5639,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -6457,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.54</v>
@@ -7078,7 +7081,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ29">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -9550,7 +9553,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ41">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -10371,10 +10374,10 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -11813,7 +11816,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -12434,7 +12437,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ55">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -13873,7 +13876,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>0.62</v>
@@ -15727,7 +15730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>0.67</v>
@@ -15936,7 +15939,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -17584,7 +17587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17993,7 +17996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>1.31</v>
@@ -21289,7 +21292,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
         <v>0.42</v>
@@ -21498,7 +21501,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ99">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -22940,7 +22943,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ106">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -25615,7 +25618,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119">
         <v>1.15</v>
@@ -26236,7 +26239,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ122">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -28087,7 +28090,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>1.42</v>
@@ -30768,7 +30771,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ144">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -32080,6 +32083,212 @@
       </c>
       <c r="BP150">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7321545</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45501.29166666666</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>83</v>
+      </c>
+      <c r="P151" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q151">
+        <v>2.88</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>3.6</v>
+      </c>
+      <c r="T151">
+        <v>1.4</v>
+      </c>
+      <c r="U151">
+        <v>2.75</v>
+      </c>
+      <c r="V151">
+        <v>2.75</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>8</v>
+      </c>
+      <c r="Y151">
+        <v>1.08</v>
+      </c>
+      <c r="Z151">
+        <v>2.16</v>
+      </c>
+      <c r="AA151">
+        <v>3.2</v>
+      </c>
+      <c r="AB151">
+        <v>3.1</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>8.9</v>
+      </c>
+      <c r="AE151">
+        <v>1.28</v>
+      </c>
+      <c r="AF151">
+        <v>3.22</v>
+      </c>
+      <c r="AG151">
+        <v>1.94</v>
+      </c>
+      <c r="AH151">
+        <v>1.82</v>
+      </c>
+      <c r="AI151">
+        <v>1.73</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>1.36</v>
+      </c>
+      <c r="AL151">
+        <v>1.25</v>
+      </c>
+      <c r="AM151">
+        <v>1.6</v>
+      </c>
+      <c r="AN151">
+        <v>1.91</v>
+      </c>
+      <c r="AO151">
+        <v>1.42</v>
+      </c>
+      <c r="AP151">
+        <v>1.75</v>
+      </c>
+      <c r="AQ151">
+        <v>1.54</v>
+      </c>
+      <c r="AR151">
+        <v>1.58</v>
+      </c>
+      <c r="AS151">
+        <v>1.46</v>
+      </c>
+      <c r="AT151">
+        <v>3.04</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>6</v>
+      </c>
+      <c r="AW151">
+        <v>3</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>9</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.91</v>
+      </c>
+      <c r="BE151">
+        <v>7.5</v>
+      </c>
+      <c r="BF151">
+        <v>2.2</v>
+      </c>
+      <c r="BG151">
+        <v>1.42</v>
+      </c>
+      <c r="BH151">
+        <v>2.65</v>
+      </c>
+      <c r="BI151">
+        <v>1.85</v>
+      </c>
+      <c r="BJ151">
+        <v>1.85</v>
+      </c>
+      <c r="BK151">
+        <v>2.29</v>
+      </c>
+      <c r="BL151">
+        <v>1.55</v>
+      </c>
+      <c r="BM151">
+        <v>3.08</v>
+      </c>
+      <c r="BN151">
+        <v>1.3</v>
+      </c>
+      <c r="BO151">
+        <v>4.45</v>
+      </c>
+      <c r="BP151">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1179,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ2">
         <v>1.77</v>
@@ -1644,7 +1650,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ3">
         <v>0.42</v>
@@ -2056,7 +2062,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2262,7 +2268,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2468,7 +2474,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2674,7 +2680,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2961,7 +2967,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3164,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.15</v>
@@ -3292,7 +3298,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3704,7 +3710,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3785,7 +3791,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ13">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3910,7 +3916,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3991,7 +3997,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ14">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4609,7 +4615,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4812,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.62</v>
@@ -4940,7 +4946,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5018,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ19">
         <v>1.25</v>
@@ -5146,7 +5152,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5224,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -5558,7 +5564,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5764,7 +5770,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6176,7 +6182,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6257,7 +6263,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6382,7 +6388,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6794,7 +6800,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7493,7 +7499,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7696,7 +7702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ32">
         <v>1.54</v>
@@ -7824,7 +7830,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8030,7 +8036,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8108,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8236,7 +8242,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8314,10 +8320,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ35">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8648,7 +8654,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8854,7 +8860,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8932,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -9060,7 +9066,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9344,10 +9350,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9472,7 +9478,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9884,7 +9890,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9965,7 +9971,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10502,7 +10508,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10708,7 +10714,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11120,7 +11126,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11326,7 +11332,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11610,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11944,7 +11950,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12022,10 +12028,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12150,7 +12156,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12228,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12562,7 +12568,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12768,7 +12774,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13180,7 +13186,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13261,7 +13267,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13386,7 +13392,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -14004,7 +14010,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14085,7 +14091,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14210,7 +14216,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14288,7 +14294,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14497,7 +14503,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14622,7 +14628,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14828,7 +14834,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15034,7 +15040,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15115,7 +15121,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ68">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15240,7 +15246,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15446,7 +15452,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15524,7 +15530,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ70">
         <v>1.54</v>
@@ -15652,7 +15658,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15858,7 +15864,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15936,7 +15942,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ72">
         <v>1.54</v>
@@ -16554,7 +16560,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -16682,7 +16688,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16888,7 +16894,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16969,7 +16975,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17584,7 +17590,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ80">
         <v>1.54</v>
@@ -17712,7 +17718,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17790,7 +17796,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ81">
         <v>0.42</v>
@@ -17918,7 +17924,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18205,7 +18211,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ83">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18330,7 +18336,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18411,7 +18417,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ84">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -18820,7 +18826,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>1.31</v>
@@ -19154,7 +19160,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19360,7 +19366,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19647,7 +19653,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -20056,7 +20062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ92">
         <v>0.62</v>
@@ -20468,7 +20474,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.77</v>
@@ -20677,7 +20683,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95">
         <v>1.34</v>
@@ -20802,7 +20808,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20883,7 +20889,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21008,7 +21014,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21089,7 +21095,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21214,7 +21220,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21626,7 +21632,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21832,7 +21838,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21910,7 +21916,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ101">
         <v>1.31</v>
@@ -22038,7 +22044,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22116,7 +22122,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22656,7 +22662,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22737,7 +22743,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ105">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22862,7 +22868,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23274,7 +23280,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23480,7 +23486,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23767,7 +23773,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -23970,7 +23976,7 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.42</v>
@@ -24385,7 +24391,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ113">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24588,10 +24594,10 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -24716,7 +24722,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24794,7 +24800,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ115">
         <v>1.77</v>
@@ -25000,10 +25006,10 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.52</v>
@@ -25128,7 +25134,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25206,7 +25212,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ117">
         <v>1.31</v>
@@ -25334,7 +25340,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25746,7 +25752,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25952,7 +25958,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26033,7 +26039,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ121">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26158,7 +26164,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26364,7 +26370,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26570,7 +26576,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26776,7 +26782,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26982,7 +26988,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27269,7 +27275,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ127">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27600,7 +27606,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27678,7 +27684,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1.54</v>
@@ -27884,10 +27890,10 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ130">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28093,7 +28099,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28296,7 +28302,7 @@
         <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ132">
         <v>0.67</v>
@@ -28424,7 +28430,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28708,7 +28714,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ134">
         <v>1.31</v>
@@ -28836,7 +28842,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29042,7 +29048,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29123,7 +29129,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ136">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29248,7 +29254,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29454,7 +29460,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29535,7 +29541,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR138">
         <v>1.69</v>
@@ -29738,7 +29744,7 @@
         <v>0.73</v>
       </c>
       <c r="AP139">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>0.62</v>
@@ -29944,7 +29950,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ140">
         <v>1.15</v>
@@ -30278,7 +30284,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30484,7 +30490,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30565,7 +30571,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ143">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR143">
         <v>1.61</v>
@@ -30896,7 +30902,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31102,7 +31108,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -32132,7 +32138,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32289,6 +32295,624 @@
       </c>
       <c r="BP151">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7321546</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45513.3125</v>
+      </c>
+      <c r="F152">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>85</v>
+      </c>
+      <c r="P152" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q152">
+        <v>3.4</v>
+      </c>
+      <c r="R152">
+        <v>2.15</v>
+      </c>
+      <c r="S152">
+        <v>2.9</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>2.85</v>
+      </c>
+      <c r="V152">
+        <v>2.65</v>
+      </c>
+      <c r="W152">
+        <v>1.42</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.09</v>
+      </c>
+      <c r="Z152">
+        <v>2.67</v>
+      </c>
+      <c r="AA152">
+        <v>3.35</v>
+      </c>
+      <c r="AB152">
+        <v>2.37</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.25</v>
+      </c>
+      <c r="AF152">
+        <v>3.6</v>
+      </c>
+      <c r="AG152">
+        <v>1.8</v>
+      </c>
+      <c r="AH152">
+        <v>1.84</v>
+      </c>
+      <c r="AI152">
+        <v>1.62</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>1.55</v>
+      </c>
+      <c r="AL152">
+        <v>1.27</v>
+      </c>
+      <c r="AM152">
+        <v>1.4</v>
+      </c>
+      <c r="AN152">
+        <v>1.25</v>
+      </c>
+      <c r="AO152">
+        <v>1.08</v>
+      </c>
+      <c r="AP152">
+        <v>1.15</v>
+      </c>
+      <c r="AQ152">
+        <v>1.23</v>
+      </c>
+      <c r="AR152">
+        <v>1.44</v>
+      </c>
+      <c r="AS152">
+        <v>1.37</v>
+      </c>
+      <c r="AT152">
+        <v>2.81</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>10</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>14</v>
+      </c>
+      <c r="AZ152">
+        <v>5</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>2.05</v>
+      </c>
+      <c r="BE152">
+        <v>8</v>
+      </c>
+      <c r="BF152">
+        <v>1.95</v>
+      </c>
+      <c r="BG152">
+        <v>1.35</v>
+      </c>
+      <c r="BH152">
+        <v>2.95</v>
+      </c>
+      <c r="BI152">
+        <v>1.98</v>
+      </c>
+      <c r="BJ152">
+        <v>1.82</v>
+      </c>
+      <c r="BK152">
+        <v>2.18</v>
+      </c>
+      <c r="BL152">
+        <v>1.65</v>
+      </c>
+      <c r="BM152">
+        <v>2.85</v>
+      </c>
+      <c r="BN152">
+        <v>1.4</v>
+      </c>
+      <c r="BO152">
+        <v>3.9</v>
+      </c>
+      <c r="BP152">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7321547</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45513.3125</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>74</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>192</v>
+      </c>
+      <c r="P153" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q153">
+        <v>2.7</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>3.6</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.8</v>
+      </c>
+      <c r="W153">
+        <v>1.38</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>2.02</v>
+      </c>
+      <c r="AA153">
+        <v>3.35</v>
+      </c>
+      <c r="AB153">
+        <v>3.3</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>7.8</v>
+      </c>
+      <c r="AE153">
+        <v>1.25</v>
+      </c>
+      <c r="AF153">
+        <v>3.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.85</v>
+      </c>
+      <c r="AH153">
+        <v>1.79</v>
+      </c>
+      <c r="AI153">
+        <v>1.75</v>
+      </c>
+      <c r="AJ153">
+        <v>2</v>
+      </c>
+      <c r="AK153">
+        <v>1.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.7</v>
+      </c>
+      <c r="AN153">
+        <v>2.17</v>
+      </c>
+      <c r="AO153">
+        <v>1.42</v>
+      </c>
+      <c r="AP153">
+        <v>2</v>
+      </c>
+      <c r="AQ153">
+        <v>1.54</v>
+      </c>
+      <c r="AR153">
+        <v>1.69</v>
+      </c>
+      <c r="AS153">
+        <v>1.38</v>
+      </c>
+      <c r="AT153">
+        <v>3.07</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>8</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>12</v>
+      </c>
+      <c r="AZ153">
+        <v>6</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.53</v>
+      </c>
+      <c r="BE153">
+        <v>6.7</v>
+      </c>
+      <c r="BF153">
+        <v>3.44</v>
+      </c>
+      <c r="BG153">
+        <v>1.48</v>
+      </c>
+      <c r="BH153">
+        <v>2.55</v>
+      </c>
+      <c r="BI153">
+        <v>1.9</v>
+      </c>
+      <c r="BJ153">
+        <v>1.9</v>
+      </c>
+      <c r="BK153">
+        <v>2.33</v>
+      </c>
+      <c r="BL153">
+        <v>1.56</v>
+      </c>
+      <c r="BM153">
+        <v>3.2</v>
+      </c>
+      <c r="BN153">
+        <v>1.28</v>
+      </c>
+      <c r="BO153">
+        <v>4.6</v>
+      </c>
+      <c r="BP153">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7321548</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45514.29166666666</v>
+      </c>
+      <c r="F154">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>70</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>193</v>
+      </c>
+      <c r="P154" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q154">
+        <v>2.22</v>
+      </c>
+      <c r="R154">
+        <v>2.13</v>
+      </c>
+      <c r="S154">
+        <v>4.75</v>
+      </c>
+      <c r="T154">
+        <v>1.35</v>
+      </c>
+      <c r="U154">
+        <v>2.95</v>
+      </c>
+      <c r="V154">
+        <v>2.6</v>
+      </c>
+      <c r="W154">
+        <v>1.45</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.11</v>
+      </c>
+      <c r="Z154">
+        <v>1.43</v>
+      </c>
+      <c r="AA154">
+        <v>4.7</v>
+      </c>
+      <c r="AB154">
+        <v>5.06</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>8.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.22</v>
+      </c>
+      <c r="AF154">
+        <v>3.7</v>
+      </c>
+      <c r="AG154">
+        <v>1.75</v>
+      </c>
+      <c r="AH154">
+        <v>1.95</v>
+      </c>
+      <c r="AI154">
+        <v>1.72</v>
+      </c>
+      <c r="AJ154">
+        <v>2.05</v>
+      </c>
+      <c r="AK154">
+        <v>1.16</v>
+      </c>
+      <c r="AL154">
+        <v>1.2</v>
+      </c>
+      <c r="AM154">
+        <v>2.05</v>
+      </c>
+      <c r="AN154">
+        <v>2.25</v>
+      </c>
+      <c r="AO154">
+        <v>0.75</v>
+      </c>
+      <c r="AP154">
+        <v>2.31</v>
+      </c>
+      <c r="AQ154">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR154">
+        <v>1.9</v>
+      </c>
+      <c r="AS154">
+        <v>1.54</v>
+      </c>
+      <c r="AT154">
+        <v>3.44</v>
+      </c>
+      <c r="AU154">
+        <v>-1</v>
+      </c>
+      <c r="AV154">
+        <v>-1</v>
+      </c>
+      <c r="AW154">
+        <v>-1</v>
+      </c>
+      <c r="AX154">
+        <v>-1</v>
+      </c>
+      <c r="AY154">
+        <v>-1</v>
+      </c>
+      <c r="AZ154">
+        <v>-1</v>
+      </c>
+      <c r="BA154">
+        <v>-1</v>
+      </c>
+      <c r="BB154">
+        <v>-1</v>
+      </c>
+      <c r="BC154">
+        <v>-1</v>
+      </c>
+      <c r="BD154">
+        <v>1.51</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>3.26</v>
+      </c>
+      <c r="BG154">
+        <v>1.35</v>
+      </c>
+      <c r="BH154">
+        <v>2.84</v>
+      </c>
+      <c r="BI154">
+        <v>1.88</v>
+      </c>
+      <c r="BJ154">
+        <v>1.92</v>
+      </c>
+      <c r="BK154">
+        <v>2.1</v>
+      </c>
+      <c r="BL154">
+        <v>1.69</v>
+      </c>
+      <c r="BM154">
+        <v>2.84</v>
+      </c>
+      <c r="BN154">
+        <v>1.37</v>
+      </c>
+      <c r="BO154">
+        <v>3.98</v>
+      </c>
+      <c r="BP154">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,13 +598,13 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
     <t>['90+10']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['12', '51']</t>
+  </si>
+  <si>
+    <t>['4', '62']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1731,7 +1737,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ3">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1937,7 +1943,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2062,7 +2068,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2268,7 +2274,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2758,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
         <v>0.62</v>
@@ -2964,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ9">
         <v>0.6899999999999999</v>
@@ -3376,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3585,7 +3591,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4612,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ17">
         <v>1.23</v>
@@ -5027,7 +5033,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5439,7 +5445,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ21">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5642,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ22">
         <v>1.54</v>
@@ -5848,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
         <v>1.77</v>
@@ -6057,7 +6063,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6466,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ26">
         <v>1.54</v>
@@ -6881,7 +6887,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -7290,7 +7296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>0.62</v>
@@ -8529,7 +8535,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ36">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -9556,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1.54</v>
@@ -9762,10 +9768,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -10174,7 +10180,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10380,7 +10386,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
         <v>1.54</v>
@@ -10795,7 +10801,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11001,7 +11007,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ48">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11207,7 +11213,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11822,10 +11828,10 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -12646,10 +12652,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -13264,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13882,7 +13888,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ62">
         <v>0.62</v>
@@ -14088,7 +14094,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
         <v>1.54</v>
@@ -14297,7 +14303,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14500,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
         <v>0.6899999999999999</v>
@@ -14709,7 +14715,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ66">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14915,7 +14921,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ67">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15327,7 +15333,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ69">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15736,7 +15742,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71">
         <v>0.67</v>
@@ -16357,7 +16363,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -17384,7 +17390,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ79">
         <v>1.77</v>
@@ -17799,7 +17805,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ81">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -18002,10 +18008,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ82">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18620,7 +18626,7 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.54</v>
@@ -18829,7 +18835,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19650,7 +19656,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ90">
         <v>0.6899999999999999</v>
@@ -20268,10 +20274,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20886,7 +20892,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96">
         <v>1.54</v>
@@ -21298,10 +21304,10 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ98">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21919,7 +21925,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ101">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22125,7 +22131,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -23564,7 +23570,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109">
         <v>1.15</v>
@@ -23770,7 +23776,7 @@
         <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110">
         <v>1.23</v>
@@ -23979,7 +23985,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24182,10 +24188,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -25215,7 +25221,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ117">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25624,7 +25630,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ119">
         <v>1.15</v>
@@ -26448,7 +26454,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
         <v>1.15</v>
@@ -26654,10 +26660,10 @@
         <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -27481,7 +27487,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -28096,7 +28102,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ131">
         <v>1.54</v>
@@ -28511,7 +28517,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ133">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28717,7 +28723,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ134">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR134">
         <v>1.98</v>
@@ -28920,7 +28926,7 @@
         <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ135">
         <v>1.77</v>
@@ -29335,7 +29341,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29538,7 +29544,7 @@
         <v>0.73</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ138">
         <v>0.6899999999999999</v>
@@ -31392,7 +31398,7 @@
         <v>1.25</v>
       </c>
       <c r="AP147">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ147">
         <v>1.15</v>
@@ -31807,7 +31813,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ149">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32013,7 +32019,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ150">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR150">
         <v>1.59</v>
@@ -32216,7 +32222,7 @@
         <v>1.42</v>
       </c>
       <c r="AP151">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ151">
         <v>1.54</v>
@@ -32849,31 +32855,31 @@
         <v>3.44</v>
       </c>
       <c r="AU154">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV154">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW154">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX154">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY154">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ154">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA154">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB154">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC154">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD154">
         <v>1.51</v>
@@ -32913,6 +32919,624 @@
       </c>
       <c r="BP154">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7321549</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45514.3125</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>85</v>
+      </c>
+      <c r="P155" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q155">
+        <v>2.85</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>3.75</v>
+      </c>
+      <c r="T155">
+        <v>1.42</v>
+      </c>
+      <c r="U155">
+        <v>2.88</v>
+      </c>
+      <c r="V155">
+        <v>3.08</v>
+      </c>
+      <c r="W155">
+        <v>1.37</v>
+      </c>
+      <c r="X155">
+        <v>7.6</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>2.13</v>
+      </c>
+      <c r="AA155">
+        <v>3.67</v>
+      </c>
+      <c r="AB155">
+        <v>2.74</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.35</v>
+      </c>
+      <c r="AF155">
+        <v>3.1</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.7</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.33</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.65</v>
+      </c>
+      <c r="AN155">
+        <v>1.85</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.71</v>
+      </c>
+      <c r="AQ155">
+        <v>1.38</v>
+      </c>
+      <c r="AR155">
+        <v>1.6</v>
+      </c>
+      <c r="AS155">
+        <v>1.45</v>
+      </c>
+      <c r="AT155">
+        <v>3.05</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>2</v>
+      </c>
+      <c r="AX155">
+        <v>7</v>
+      </c>
+      <c r="AY155">
+        <v>6</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.69</v>
+      </c>
+      <c r="BE155">
+        <v>7.5</v>
+      </c>
+      <c r="BF155">
+        <v>2.55</v>
+      </c>
+      <c r="BG155">
+        <v>1.39</v>
+      </c>
+      <c r="BH155">
+        <v>2.76</v>
+      </c>
+      <c r="BI155">
+        <v>1.85</v>
+      </c>
+      <c r="BJ155">
+        <v>1.95</v>
+      </c>
+      <c r="BK155">
+        <v>2.14</v>
+      </c>
+      <c r="BL155">
+        <v>1.68</v>
+      </c>
+      <c r="BM155">
+        <v>2.93</v>
+      </c>
+      <c r="BN155">
+        <v>1.33</v>
+      </c>
+      <c r="BO155">
+        <v>4.15</v>
+      </c>
+      <c r="BP155">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7321550</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45514.3125</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q156">
+        <v>2.43</v>
+      </c>
+      <c r="R156">
+        <v>2.02</v>
+      </c>
+      <c r="S156">
+        <v>4.45</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.38</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>1.61</v>
+      </c>
+      <c r="AA156">
+        <v>2.59</v>
+      </c>
+      <c r="AB156">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE156">
+        <v>1.27</v>
+      </c>
+      <c r="AF156">
+        <v>3.28</v>
+      </c>
+      <c r="AG156">
+        <v>1.91</v>
+      </c>
+      <c r="AH156">
+        <v>1.8</v>
+      </c>
+      <c r="AI156">
+        <v>1.75</v>
+      </c>
+      <c r="AJ156">
+        <v>1.93</v>
+      </c>
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.85</v>
+      </c>
+      <c r="AN156">
+        <v>1.75</v>
+      </c>
+      <c r="AO156">
+        <v>0.42</v>
+      </c>
+      <c r="AP156">
+        <v>1.62</v>
+      </c>
+      <c r="AQ156">
+        <v>0.62</v>
+      </c>
+      <c r="AR156">
+        <v>1.71</v>
+      </c>
+      <c r="AS156">
+        <v>1.26</v>
+      </c>
+      <c r="AT156">
+        <v>2.97</v>
+      </c>
+      <c r="AU156">
+        <v>8</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>8</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>1.64</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>2.67</v>
+      </c>
+      <c r="BG156">
+        <v>1.33</v>
+      </c>
+      <c r="BH156">
+        <v>2.93</v>
+      </c>
+      <c r="BI156">
+        <v>1.82</v>
+      </c>
+      <c r="BJ156">
+        <v>1.98</v>
+      </c>
+      <c r="BK156">
+        <v>2.07</v>
+      </c>
+      <c r="BL156">
+        <v>1.74</v>
+      </c>
+      <c r="BM156">
+        <v>2.76</v>
+      </c>
+      <c r="BN156">
+        <v>1.39</v>
+      </c>
+      <c r="BO156">
+        <v>3.84</v>
+      </c>
+      <c r="BP156">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7321551</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F157">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H157" t="s">
+        <v>80</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>82</v>
+      </c>
+      <c r="P157" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q157">
+        <v>2.88</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>3.4</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.25</v>
+      </c>
+      <c r="V157">
+        <v>2.63</v>
+      </c>
+      <c r="W157">
+        <v>1.44</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>2.34</v>
+      </c>
+      <c r="AA157">
+        <v>3.35</v>
+      </c>
+      <c r="AB157">
+        <v>3.05</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>9.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.25</v>
+      </c>
+      <c r="AF157">
+        <v>3.75</v>
+      </c>
+      <c r="AG157">
+        <v>1.92</v>
+      </c>
+      <c r="AH157">
+        <v>1.89</v>
+      </c>
+      <c r="AI157">
+        <v>1.62</v>
+      </c>
+      <c r="AJ157">
+        <v>2.2</v>
+      </c>
+      <c r="AK157">
+        <v>1.38</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.6</v>
+      </c>
+      <c r="AN157">
+        <v>1.75</v>
+      </c>
+      <c r="AO157">
+        <v>1.31</v>
+      </c>
+      <c r="AP157">
+        <v>1.62</v>
+      </c>
+      <c r="AQ157">
+        <v>1.43</v>
+      </c>
+      <c r="AR157">
+        <v>1.58</v>
+      </c>
+      <c r="AS157">
+        <v>1.42</v>
+      </c>
+      <c r="AT157">
+        <v>3</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>8</v>
+      </c>
+      <c r="AX157">
+        <v>1</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>6</v>
+      </c>
+      <c r="BA157">
+        <v>8</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.82</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.42</v>
+      </c>
+      <c r="BG157">
+        <v>1.48</v>
+      </c>
+      <c r="BH157">
+        <v>2.51</v>
+      </c>
+      <c r="BI157">
+        <v>1.85</v>
+      </c>
+      <c r="BJ157">
+        <v>1.94</v>
+      </c>
+      <c r="BK157">
+        <v>2.34</v>
+      </c>
+      <c r="BL157">
+        <v>1.55</v>
+      </c>
+      <c r="BM157">
+        <v>3.2</v>
+      </c>
+      <c r="BN157">
+        <v>1.28</v>
+      </c>
+      <c r="BO157">
+        <v>4.65</v>
+      </c>
+      <c r="BP157">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['58', '61', '85']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -776,9 +782,6 @@
   </si>
   <si>
     <t>['16', '82']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1191,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1659,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2068,7 +2071,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2355,7 +2358,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2480,7 +2483,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2558,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3098,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3304,7 +3307,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3588,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -3716,7 +3719,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3922,7 +3925,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4206,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
         <v>1.54</v>
@@ -4412,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4952,7 +4955,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5158,7 +5161,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5570,7 +5573,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5651,7 +5654,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ22">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5776,7 +5779,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6188,7 +6191,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6394,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6806,7 +6809,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7090,10 +7093,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7836,7 +7839,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7917,7 +7920,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -8042,7 +8045,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8248,7 +8251,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8532,7 +8535,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>1.43</v>
@@ -8660,7 +8663,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8866,7 +8869,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9072,7 +9075,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9150,7 +9153,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ39">
         <v>1.77</v>
@@ -9484,7 +9487,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9565,7 +9568,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9896,7 +9899,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10183,7 +10186,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10389,7 +10392,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ45">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10514,7 +10517,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10592,7 +10595,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46">
         <v>0.62</v>
@@ -10720,7 +10723,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11004,7 +11007,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>0.62</v>
@@ -11132,7 +11135,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11338,7 +11341,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11956,7 +11959,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12162,7 +12165,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12243,7 +12246,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12449,7 +12452,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ55">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12574,7 +12577,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12780,7 +12783,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13192,7 +13195,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13398,7 +13401,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13476,7 +13479,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1.15</v>
@@ -13682,7 +13685,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ61">
         <v>1.15</v>
@@ -14016,7 +14019,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14222,7 +14225,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14634,7 +14637,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14840,7 +14843,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15046,7 +15049,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15124,7 +15127,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>1.23</v>
@@ -15252,7 +15255,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15458,7 +15461,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15664,7 +15667,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15745,7 +15748,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15870,7 +15873,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15951,7 +15954,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ72">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16569,7 +16572,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16694,7 +16697,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16900,7 +16903,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16978,7 +16981,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77">
         <v>0.6899999999999999</v>
@@ -17599,7 +17602,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ80">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17724,7 +17727,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17930,7 +17933,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18342,7 +18345,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18420,7 +18423,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
         <v>1.54</v>
@@ -19166,7 +19169,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19372,7 +19375,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19453,7 +19456,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -20814,7 +20817,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21020,7 +21023,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21098,7 +21101,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ97">
         <v>1.23</v>
@@ -21226,7 +21229,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21513,7 +21516,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ99">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -21638,7 +21641,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21844,7 +21847,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22050,7 +22053,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22334,10 +22337,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22540,7 +22543,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>0.62</v>
@@ -22668,7 +22671,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22874,7 +22877,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22955,7 +22958,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ106">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -23158,7 +23161,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ107">
         <v>1.54</v>
@@ -23286,7 +23289,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23492,7 +23495,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24394,7 +24397,7 @@
         <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ113">
         <v>1.54</v>
@@ -24728,7 +24731,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25140,7 +25143,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25346,7 +25349,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25758,7 +25761,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25839,7 +25842,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -25964,7 +25967,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26170,7 +26173,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26251,7 +26254,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ122">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26376,7 +26379,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26582,7 +26585,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26788,7 +26791,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26866,7 +26869,7 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125">
         <v>1.77</v>
@@ -26994,7 +26997,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27484,7 +27487,7 @@
         <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
         <v>1.38</v>
@@ -27612,7 +27615,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28311,7 +28314,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28436,7 +28439,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28514,7 +28517,7 @@
         <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
         <v>0.62</v>
@@ -28848,7 +28851,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29054,7 +29057,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29260,7 +29263,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29466,7 +29469,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30165,7 +30168,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30290,7 +30293,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30496,7 +30499,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30574,7 +30577,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
         <v>1.23</v>
@@ -30780,10 +30783,10 @@
         <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ144">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -30908,7 +30911,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31114,7 +31117,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -32016,7 +32019,7 @@
         <v>0.36</v>
       </c>
       <c r="AP150">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>0.62</v>
@@ -32144,7 +32147,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32225,7 +32228,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ151">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR151">
         <v>1.58</v>
@@ -32350,7 +32353,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -33174,7 +33177,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33380,7 +33383,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33537,6 +33540,418 @@
       </c>
       <c r="BP157">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7321552</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45520.3125</v>
+      </c>
+      <c r="F158">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>195</v>
+      </c>
+      <c r="P158" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q158">
+        <v>3.58</v>
+      </c>
+      <c r="R158">
+        <v>2.15</v>
+      </c>
+      <c r="S158">
+        <v>2.88</v>
+      </c>
+      <c r="T158">
+        <v>1.38</v>
+      </c>
+      <c r="U158">
+        <v>2.91</v>
+      </c>
+      <c r="V158">
+        <v>2.78</v>
+      </c>
+      <c r="W158">
+        <v>1.41</v>
+      </c>
+      <c r="X158">
+        <v>6.95</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>2.73</v>
+      </c>
+      <c r="AA158">
+        <v>3.09</v>
+      </c>
+      <c r="AB158">
+        <v>2.27</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE158">
+        <v>1.26</v>
+      </c>
+      <c r="AF158">
+        <v>3.34</v>
+      </c>
+      <c r="AG158">
+        <v>1.96</v>
+      </c>
+      <c r="AH158">
+        <v>1.92</v>
+      </c>
+      <c r="AI158">
+        <v>1.72</v>
+      </c>
+      <c r="AJ158">
+        <v>2.05</v>
+      </c>
+      <c r="AK158">
+        <v>1.61</v>
+      </c>
+      <c r="AL158">
+        <v>1.31</v>
+      </c>
+      <c r="AM158">
+        <v>1.4</v>
+      </c>
+      <c r="AN158">
+        <v>1.15</v>
+      </c>
+      <c r="AO158">
+        <v>1.54</v>
+      </c>
+      <c r="AP158">
+        <v>1.29</v>
+      </c>
+      <c r="AQ158">
+        <v>1.43</v>
+      </c>
+      <c r="AR158">
+        <v>1.63</v>
+      </c>
+      <c r="AS158">
+        <v>1.46</v>
+      </c>
+      <c r="AT158">
+        <v>3.09</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>6</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>13</v>
+      </c>
+      <c r="AY158">
+        <v>10</v>
+      </c>
+      <c r="AZ158">
+        <v>19</v>
+      </c>
+      <c r="BA158">
+        <v>1</v>
+      </c>
+      <c r="BB158">
+        <v>9</v>
+      </c>
+      <c r="BC158">
+        <v>10</v>
+      </c>
+      <c r="BD158">
+        <v>2.2</v>
+      </c>
+      <c r="BE158">
+        <v>7.5</v>
+      </c>
+      <c r="BF158">
+        <v>1.91</v>
+      </c>
+      <c r="BG158">
+        <v>1.38</v>
+      </c>
+      <c r="BH158">
+        <v>2.8</v>
+      </c>
+      <c r="BI158">
+        <v>1.72</v>
+      </c>
+      <c r="BJ158">
+        <v>2.09</v>
+      </c>
+      <c r="BK158">
+        <v>2.16</v>
+      </c>
+      <c r="BL158">
+        <v>1.67</v>
+      </c>
+      <c r="BM158">
+        <v>2.88</v>
+      </c>
+      <c r="BN158">
+        <v>1.34</v>
+      </c>
+      <c r="BO158">
+        <v>4.1</v>
+      </c>
+      <c r="BP158">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7321553</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45520.3125</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>80</v>
+      </c>
+      <c r="H159" t="s">
+        <v>79</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>196</v>
+      </c>
+      <c r="P159" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q159">
+        <v>2.5</v>
+      </c>
+      <c r="R159">
+        <v>2.15</v>
+      </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>2.85</v>
+      </c>
+      <c r="V159">
+        <v>2.65</v>
+      </c>
+      <c r="W159">
+        <v>1.42</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.09</v>
+      </c>
+      <c r="Z159">
+        <v>1.92</v>
+      </c>
+      <c r="AA159">
+        <v>3.17</v>
+      </c>
+      <c r="AB159">
+        <v>3.42</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9</v>
+      </c>
+      <c r="AE159">
+        <v>1.28</v>
+      </c>
+      <c r="AF159">
+        <v>3.55</v>
+      </c>
+      <c r="AG159">
+        <v>1.92</v>
+      </c>
+      <c r="AH159">
+        <v>1.96</v>
+      </c>
+      <c r="AI159">
+        <v>1.67</v>
+      </c>
+      <c r="AJ159">
+        <v>2.05</v>
+      </c>
+      <c r="AK159">
+        <v>1.25</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.83</v>
+      </c>
+      <c r="AN159">
+        <v>1.58</v>
+      </c>
+      <c r="AO159">
+        <v>0.67</v>
+      </c>
+      <c r="AP159">
+        <v>1.69</v>
+      </c>
+      <c r="AQ159">
+        <v>0.62</v>
+      </c>
+      <c r="AR159">
+        <v>1.56</v>
+      </c>
+      <c r="AS159">
+        <v>1.55</v>
+      </c>
+      <c r="AT159">
+        <v>3.11</v>
+      </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>9</v>
+      </c>
+      <c r="AY159">
+        <v>12</v>
+      </c>
+      <c r="AZ159">
+        <v>14</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>6</v>
+      </c>
+      <c r="BC159">
+        <v>10</v>
+      </c>
+      <c r="BD159">
+        <v>1.85</v>
+      </c>
+      <c r="BE159">
+        <v>7.5</v>
+      </c>
+      <c r="BF159">
+        <v>2.33</v>
+      </c>
+      <c r="BG159">
+        <v>1.36</v>
+      </c>
+      <c r="BH159">
+        <v>2.9</v>
+      </c>
+      <c r="BI159">
+        <v>1.7</v>
+      </c>
+      <c r="BJ159">
+        <v>2.05</v>
+      </c>
+      <c r="BK159">
+        <v>2.13</v>
+      </c>
+      <c r="BL159">
+        <v>1.68</v>
+      </c>
+      <c r="BM159">
+        <v>2.9</v>
+      </c>
+      <c r="BN159">
+        <v>1.36</v>
+      </c>
+      <c r="BO159">
+        <v>4.05</v>
+      </c>
+      <c r="BP159">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['44', '90+10']</t>
+  </si>
+  <si>
+    <t>['36', '90+6']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1540,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ2">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1659,7 +1665,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>0.62</v>
@@ -2071,7 +2077,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2483,7 +2489,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2689,7 +2695,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3101,7 +3107,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3307,7 +3313,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3594,7 +3600,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3719,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3925,7 +3931,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ14">
         <v>1.54</v>
@@ -4955,7 +4961,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5036,7 +5042,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5161,7 +5167,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5239,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -5573,7 +5579,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5779,7 +5785,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5860,7 +5866,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6191,7 +6197,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6397,7 +6403,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6681,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>1.15</v>
@@ -6809,7 +6815,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6890,7 +6896,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -7839,7 +7845,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8045,7 +8051,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8251,7 +8257,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8329,7 +8335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.54</v>
@@ -8663,7 +8669,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8741,10 +8747,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8869,7 +8875,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8947,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>1.23</v>
@@ -9075,7 +9081,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9156,7 +9162,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ39">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9487,7 +9493,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9899,7 +9905,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10517,7 +10523,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10723,7 +10729,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10804,7 +10810,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11135,7 +11141,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11213,7 +11219,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11341,7 +11347,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11834,7 +11840,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11959,7 +11965,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12037,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
         <v>0.6899999999999999</v>
@@ -12165,7 +12171,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12449,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -12577,7 +12583,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12783,7 +12789,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12864,7 +12870,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ57">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -13195,7 +13201,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13401,7 +13407,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -14019,7 +14025,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14225,7 +14231,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14306,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14637,7 +14643,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14843,7 +14849,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15049,7 +15055,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15255,7 +15261,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15461,7 +15467,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15539,7 +15545,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>1.54</v>
@@ -15667,7 +15673,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15873,7 +15879,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16363,10 +16369,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16697,7 +16703,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16903,7 +16909,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17396,7 +17402,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ79">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17599,7 +17605,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>1.43</v>
@@ -17727,7 +17733,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17933,7 +17939,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18345,7 +18351,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -19044,7 +19050,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ87">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19169,7 +19175,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19375,7 +19381,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19453,7 +19459,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>0.62</v>
@@ -20280,7 +20286,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20486,7 +20492,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20689,7 +20695,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>0.6899999999999999</v>
@@ -20817,7 +20823,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21023,7 +21029,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21229,7 +21235,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21641,7 +21647,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21847,7 +21853,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22053,7 +22059,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22131,10 +22137,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22671,7 +22677,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22749,7 +22755,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
         <v>1.23</v>
@@ -22877,7 +22883,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23289,7 +23295,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23370,7 +23376,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ108">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23495,7 +23501,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24194,7 +24200,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24731,7 +24737,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24809,10 +24815,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ115">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25143,7 +25149,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25221,7 +25227,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1.43</v>
@@ -25349,7 +25355,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25427,7 +25433,7 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118">
         <v>1.54</v>
@@ -25967,7 +25973,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26173,7 +26179,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26379,7 +26385,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26585,7 +26591,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26791,7 +26797,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26872,7 +26878,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
@@ -26997,7 +27003,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27075,7 +27081,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ126">
         <v>0.62</v>
@@ -27490,7 +27496,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -27615,7 +27621,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28311,7 +28317,7 @@
         <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>0.62</v>
@@ -28439,7 +28445,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28851,7 +28857,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28932,7 +28938,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ135">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR135">
         <v>1.61</v>
@@ -29057,7 +29063,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29135,7 +29141,7 @@
         <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ136">
         <v>1.54</v>
@@ -29263,7 +29269,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29344,7 +29350,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29469,7 +29475,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29959,7 +29965,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140">
         <v>1.15</v>
@@ -30293,7 +30299,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30499,7 +30505,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30911,7 +30917,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -30989,10 +30995,10 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ145">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR145">
         <v>1.26</v>
@@ -31117,7 +31123,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -32147,7 +32153,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32353,7 +32359,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32431,7 +32437,7 @@
         <v>1.08</v>
       </c>
       <c r="AP152">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ152">
         <v>1.23</v>
@@ -33052,7 +33058,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33177,7 +33183,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33383,7 +33389,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33952,6 +33958,418 @@
       </c>
       <c r="BP159">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7321554</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q160">
+        <v>3.5</v>
+      </c>
+      <c r="R160">
+        <v>2.15</v>
+      </c>
+      <c r="S160">
+        <v>2.88</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.48</v>
+      </c>
+      <c r="X160">
+        <v>5.75</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>2.65</v>
+      </c>
+      <c r="AA160">
+        <v>3.1</v>
+      </c>
+      <c r="AB160">
+        <v>2.32</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.6</v>
+      </c>
+      <c r="AG160">
+        <v>1.88</v>
+      </c>
+      <c r="AH160">
+        <v>1.96</v>
+      </c>
+      <c r="AI160">
+        <v>1.65</v>
+      </c>
+      <c r="AJ160">
+        <v>2.1</v>
+      </c>
+      <c r="AK160">
+        <v>1.57</v>
+      </c>
+      <c r="AL160">
+        <v>1.33</v>
+      </c>
+      <c r="AM160">
+        <v>1.4</v>
+      </c>
+      <c r="AN160">
+        <v>1.15</v>
+      </c>
+      <c r="AO160">
+        <v>1.77</v>
+      </c>
+      <c r="AP160">
+        <v>1.29</v>
+      </c>
+      <c r="AQ160">
+        <v>1.64</v>
+      </c>
+      <c r="AR160">
+        <v>1.48</v>
+      </c>
+      <c r="AS160">
+        <v>1.39</v>
+      </c>
+      <c r="AT160">
+        <v>2.87</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>6</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>5</v>
+      </c>
+      <c r="BD160">
+        <v>2.2</v>
+      </c>
+      <c r="BE160">
+        <v>7.5</v>
+      </c>
+      <c r="BF160">
+        <v>1.91</v>
+      </c>
+      <c r="BG160">
+        <v>1.49</v>
+      </c>
+      <c r="BH160">
+        <v>2.44</v>
+      </c>
+      <c r="BI160">
+        <v>1.92</v>
+      </c>
+      <c r="BJ160">
+        <v>1.88</v>
+      </c>
+      <c r="BK160">
+        <v>2.46</v>
+      </c>
+      <c r="BL160">
+        <v>1.48</v>
+      </c>
+      <c r="BM160">
+        <v>3.42</v>
+      </c>
+      <c r="BN160">
+        <v>1.25</v>
+      </c>
+      <c r="BO160">
+        <v>4.95</v>
+      </c>
+      <c r="BP160">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7321555</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45521.3125</v>
+      </c>
+      <c r="F161">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>81</v>
+      </c>
+      <c r="H161" t="s">
+        <v>73</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q161">
+        <v>3.4</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
+        <v>3.38</v>
+      </c>
+      <c r="T161">
+        <v>1.43</v>
+      </c>
+      <c r="U161">
+        <v>2.82</v>
+      </c>
+      <c r="V161">
+        <v>3.17</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>8</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>2.48</v>
+      </c>
+      <c r="AA161">
+        <v>3</v>
+      </c>
+      <c r="AB161">
+        <v>2.55</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>8.1</v>
+      </c>
+      <c r="AE161">
+        <v>1.36</v>
+      </c>
+      <c r="AF161">
+        <v>2.95</v>
+      </c>
+      <c r="AG161">
+        <v>2.1</v>
+      </c>
+      <c r="AH161">
+        <v>1.68</v>
+      </c>
+      <c r="AI161">
+        <v>1.84</v>
+      </c>
+      <c r="AJ161">
+        <v>1.9</v>
+      </c>
+      <c r="AK161">
+        <v>1.48</v>
+      </c>
+      <c r="AL161">
+        <v>1.33</v>
+      </c>
+      <c r="AM161">
+        <v>1.48</v>
+      </c>
+      <c r="AN161">
+        <v>1.23</v>
+      </c>
+      <c r="AO161">
+        <v>1.38</v>
+      </c>
+      <c r="AP161">
+        <v>1.36</v>
+      </c>
+      <c r="AQ161">
+        <v>1.29</v>
+      </c>
+      <c r="AR161">
+        <v>1.26</v>
+      </c>
+      <c r="AS161">
+        <v>1.44</v>
+      </c>
+      <c r="AT161">
+        <v>2.7</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>11</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>14</v>
+      </c>
+      <c r="BA161">
+        <v>3</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>2.1</v>
+      </c>
+      <c r="BE161">
+        <v>7.5</v>
+      </c>
+      <c r="BF161">
+        <v>1.95</v>
+      </c>
+      <c r="BG161">
+        <v>1.46</v>
+      </c>
+      <c r="BH161">
+        <v>2.52</v>
+      </c>
+      <c r="BI161">
+        <v>1.9</v>
+      </c>
+      <c r="BJ161">
+        <v>1.9</v>
+      </c>
+      <c r="BK161">
+        <v>2.39</v>
+      </c>
+      <c r="BL161">
+        <v>1.51</v>
+      </c>
+      <c r="BM161">
+        <v>3.28</v>
+      </c>
+      <c r="BN161">
+        <v>1.27</v>
+      </c>
+      <c r="BO161">
+        <v>4.7</v>
+      </c>
+      <c r="BP161">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['36', '90+6']</t>
   </si>
   <si>
+    <t>['45+4', '50', '75']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -839,6 +842,12 @@
   </si>
   <si>
     <t>['4', '62']</t>
+  </si>
+  <si>
+    <t>['42', '55']</t>
+  </si>
+  <si>
+    <t>['15', '22']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2">
         <v>1.64</v>
@@ -1665,7 +1674,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2077,7 +2086,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2158,7 +2167,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ5">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2361,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>0.62</v>
@@ -2489,7 +2498,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2695,7 +2704,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3107,7 +3116,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3313,7 +3322,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3725,7 +3734,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3931,7 +3940,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4218,7 +4227,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4630,7 +4639,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ17">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4961,7 +4970,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5039,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ19">
         <v>1.29</v>
@@ -5167,7 +5176,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5579,7 +5588,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5785,7 +5794,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6069,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -6197,7 +6206,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6403,7 +6412,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6484,7 +6493,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ26">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6815,7 +6824,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7511,7 +7520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31">
         <v>0.6899999999999999</v>
@@ -7717,10 +7726,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ32">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7845,7 +7854,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8051,7 +8060,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8132,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8257,7 +8266,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8669,7 +8678,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8875,7 +8884,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8956,7 +8965,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -9081,7 +9090,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9365,7 +9374,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
         <v>1.54</v>
@@ -9493,7 +9502,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9905,7 +9914,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10523,7 +10532,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10729,7 +10738,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10807,7 +10816,7 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -11141,7 +11150,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11347,7 +11356,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11428,7 +11437,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ50">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11965,7 +11974,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12171,7 +12180,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12249,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ54">
         <v>0.62</v>
@@ -12583,7 +12592,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12789,7 +12798,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12867,7 +12876,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57">
         <v>1.64</v>
@@ -13201,7 +13210,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13282,7 +13291,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ59">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13407,7 +13416,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -14025,7 +14034,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14231,7 +14240,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14643,7 +14652,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14849,7 +14858,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15055,7 +15064,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15136,7 +15145,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15261,7 +15270,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15339,7 +15348,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
         <v>0.62</v>
@@ -15467,7 +15476,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15548,7 +15557,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15673,7 +15682,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15879,7 +15888,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15957,7 +15966,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72">
         <v>1.43</v>
@@ -16703,7 +16712,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16909,7 +16918,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17193,7 +17202,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
         <v>1.15</v>
@@ -17733,7 +17742,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17811,7 +17820,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ81">
         <v>0.62</v>
@@ -17939,7 +17948,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18226,7 +18235,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ83">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18351,7 +18360,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18638,7 +18647,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -19175,7 +19184,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19381,7 +19390,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19871,7 +19880,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ91">
         <v>0.62</v>
@@ -20077,7 +20086,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ92">
         <v>0.62</v>
@@ -20823,7 +20832,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21029,7 +21038,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21110,7 +21119,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ97">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21235,7 +21244,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21647,7 +21656,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21725,10 +21734,10 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21853,7 +21862,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21931,7 +21940,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>1.43</v>
@@ -22059,7 +22068,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22677,7 +22686,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22758,7 +22767,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22883,7 +22892,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22961,7 +22970,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ106">
         <v>1.43</v>
@@ -23170,7 +23179,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ107">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23295,7 +23304,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23501,7 +23510,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23788,7 +23797,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ110">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24609,7 +24618,7 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ114">
         <v>0.6899999999999999</v>
@@ -24737,7 +24746,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25149,7 +25158,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25355,7 +25364,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25436,7 +25445,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ118">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25973,7 +25982,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26179,7 +26188,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26385,7 +26394,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26591,7 +26600,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26797,7 +26806,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27003,7 +27012,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27287,10 +27296,10 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27621,7 +27630,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27702,7 +27711,7 @@
         <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -27905,10 +27914,10 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ130">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28445,7 +28454,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28729,7 +28738,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ134">
         <v>1.43</v>
@@ -28857,7 +28866,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29063,7 +29072,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29269,7 +29278,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29475,7 +29484,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30171,7 +30180,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ141">
         <v>0.62</v>
@@ -30299,7 +30308,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30380,7 +30389,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ142">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR142">
         <v>1.43</v>
@@ -30505,7 +30514,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30586,7 +30595,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ143">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR143">
         <v>1.61</v>
@@ -30917,7 +30926,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31123,7 +31132,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31201,7 +31210,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ146">
         <v>0.62</v>
@@ -31616,7 +31625,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ148">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR148">
         <v>1.76</v>
@@ -32153,7 +32162,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32359,7 +32368,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32440,7 +32449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ152">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32849,7 +32858,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ154">
         <v>0.6899999999999999</v>
@@ -33183,7 +33192,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33389,7 +33398,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34213,7 +34222,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34370,6 +34379,418 @@
       </c>
       <c r="BP161">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7321556</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F162">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>123</v>
+      </c>
+      <c r="P162" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.3</v>
+      </c>
+      <c r="S162">
+        <v>4.33</v>
+      </c>
+      <c r="T162">
+        <v>1.33</v>
+      </c>
+      <c r="U162">
+        <v>3.25</v>
+      </c>
+      <c r="V162">
+        <v>2.63</v>
+      </c>
+      <c r="W162">
+        <v>1.44</v>
+      </c>
+      <c r="X162">
+        <v>6.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.11</v>
+      </c>
+      <c r="Z162">
+        <v>3.05</v>
+      </c>
+      <c r="AA162">
+        <v>1.74</v>
+      </c>
+      <c r="AB162">
+        <v>4.87</v>
+      </c>
+      <c r="AC162">
+        <v>1.05</v>
+      </c>
+      <c r="AD162">
+        <v>9.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.25</v>
+      </c>
+      <c r="AF162">
+        <v>3.95</v>
+      </c>
+      <c r="AG162">
+        <v>1.7</v>
+      </c>
+      <c r="AH162">
+        <v>2.08</v>
+      </c>
+      <c r="AI162">
+        <v>1.67</v>
+      </c>
+      <c r="AJ162">
+        <v>2.1</v>
+      </c>
+      <c r="AK162">
+        <v>1.25</v>
+      </c>
+      <c r="AL162">
+        <v>1.22</v>
+      </c>
+      <c r="AM162">
+        <v>1.85</v>
+      </c>
+      <c r="AN162">
+        <v>2.31</v>
+      </c>
+      <c r="AO162">
+        <v>1.54</v>
+      </c>
+      <c r="AP162">
+        <v>2.14</v>
+      </c>
+      <c r="AQ162">
+        <v>1.64</v>
+      </c>
+      <c r="AR162">
+        <v>1.91</v>
+      </c>
+      <c r="AS162">
+        <v>1.5</v>
+      </c>
+      <c r="AT162">
+        <v>3.41</v>
+      </c>
+      <c r="AU162">
+        <v>2</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>10</v>
+      </c>
+      <c r="AX162">
+        <v>11</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>14</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.45</v>
+      </c>
+      <c r="BE162">
+        <v>8.5</v>
+      </c>
+      <c r="BF162">
+        <v>3.33</v>
+      </c>
+      <c r="BG162">
+        <v>1.31</v>
+      </c>
+      <c r="BH162">
+        <v>3.04</v>
+      </c>
+      <c r="BI162">
+        <v>1.7</v>
+      </c>
+      <c r="BJ162">
+        <v>2.05</v>
+      </c>
+      <c r="BK162">
+        <v>2.02</v>
+      </c>
+      <c r="BL162">
+        <v>1.74</v>
+      </c>
+      <c r="BM162">
+        <v>2.65</v>
+      </c>
+      <c r="BN162">
+        <v>1.42</v>
+      </c>
+      <c r="BO162">
+        <v>3.65</v>
+      </c>
+      <c r="BP162">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7321557</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F163">
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>199</v>
+      </c>
+      <c r="P163" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.5</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>2.75</v>
+      </c>
+      <c r="W163">
+        <v>1.4</v>
+      </c>
+      <c r="X163">
+        <v>8</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>2.32</v>
+      </c>
+      <c r="AA163">
+        <v>3.25</v>
+      </c>
+      <c r="AB163">
+        <v>2.71</v>
+      </c>
+      <c r="AC163">
+        <v>1.03</v>
+      </c>
+      <c r="AD163">
+        <v>8.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.25</v>
+      </c>
+      <c r="AF163">
+        <v>3.5</v>
+      </c>
+      <c r="AG163">
+        <v>1.96</v>
+      </c>
+      <c r="AH163">
+        <v>1.85</v>
+      </c>
+      <c r="AI163">
+        <v>1.73</v>
+      </c>
+      <c r="AJ163">
+        <v>2</v>
+      </c>
+      <c r="AK163">
+        <v>1.38</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.57</v>
+      </c>
+      <c r="AN163">
+        <v>2.08</v>
+      </c>
+      <c r="AO163">
+        <v>1.23</v>
+      </c>
+      <c r="AP163">
+        <v>2.14</v>
+      </c>
+      <c r="AQ163">
+        <v>1.14</v>
+      </c>
+      <c r="AR163">
+        <v>1.75</v>
+      </c>
+      <c r="AS163">
+        <v>1.33</v>
+      </c>
+      <c r="AT163">
+        <v>3.08</v>
+      </c>
+      <c r="AU163">
+        <v>10</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>13</v>
+      </c>
+      <c r="AY163">
+        <v>15</v>
+      </c>
+      <c r="AZ163">
+        <v>18</v>
+      </c>
+      <c r="BA163">
+        <v>8</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>13</v>
+      </c>
+      <c r="BD163">
+        <v>1.85</v>
+      </c>
+      <c r="BE163">
+        <v>7.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.33</v>
+      </c>
+      <c r="BG163">
+        <v>1.47</v>
+      </c>
+      <c r="BH163">
+        <v>2.49</v>
+      </c>
+      <c r="BI163">
+        <v>2</v>
+      </c>
+      <c r="BJ163">
+        <v>1.8</v>
+      </c>
+      <c r="BK163">
+        <v>2.41</v>
+      </c>
+      <c r="BL163">
+        <v>1.5</v>
+      </c>
+      <c r="BM163">
+        <v>3.28</v>
+      </c>
+      <c r="BN163">
+        <v>1.27</v>
+      </c>
+      <c r="BO163">
+        <v>4.75</v>
+      </c>
+      <c r="BP163">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['45+4', '50', '75']</t>
   </si>
   <si>
+    <t>['32', '41']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -848,6 +851,12 @@
   </si>
   <si>
     <t>['15', '22']</t>
+  </si>
+  <si>
+    <t>['45+6', '50']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1683,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2086,7 +2095,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2164,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ5">
         <v>1.64</v>
@@ -2498,7 +2507,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2704,7 +2713,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2785,7 +2794,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ8">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2988,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3116,7 +3125,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3322,7 +3331,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3606,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3734,7 +3743,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3815,7 +3824,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ13">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3940,7 +3949,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4021,7 +4030,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4430,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
         <v>0.62</v>
@@ -4636,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.14</v>
@@ -4845,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4970,7 +4979,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5176,7 +5185,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5460,7 +5469,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ21">
         <v>0.62</v>
@@ -5588,7 +5597,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5794,7 +5803,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6206,7 +6215,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6287,7 +6296,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ25">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6412,7 +6421,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6490,7 +6499,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.64</v>
@@ -6824,7 +6833,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7108,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -7317,7 +7326,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7523,7 +7532,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ31">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7854,7 +7863,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7932,7 +7941,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33">
         <v>0.62</v>
@@ -8060,7 +8069,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8266,7 +8275,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8347,7 +8356,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8678,7 +8687,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8884,7 +8893,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9090,7 +9099,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9168,7 +9177,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ39">
         <v>1.64</v>
@@ -9377,7 +9386,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9502,7 +9511,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9914,7 +9923,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9992,10 +10001,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10404,7 +10413,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10532,7 +10541,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10610,10 +10619,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10738,7 +10747,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11150,7 +11159,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11356,7 +11365,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11643,7 +11652,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11846,7 +11855,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11974,7 +11983,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12055,7 +12064,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12180,7 +12189,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12592,7 +12601,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12798,7 +12807,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13082,10 +13091,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13210,7 +13219,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13416,7 +13425,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13700,7 +13709,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ61">
         <v>1.15</v>
@@ -13906,10 +13915,10 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14034,7 +14043,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14115,7 +14124,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14240,7 +14249,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14527,7 +14536,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14652,7 +14661,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14858,7 +14867,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14936,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ67">
         <v>1.43</v>
@@ -15064,7 +15073,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15270,7 +15279,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15476,7 +15485,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15682,7 +15691,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15760,7 +15769,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.62</v>
@@ -15888,7 +15897,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16712,7 +16721,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16793,7 +16802,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ76">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16918,7 +16927,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -16996,10 +17005,10 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ77">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17742,7 +17751,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17948,7 +17957,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18026,7 +18035,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1.43</v>
@@ -18232,7 +18241,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18360,7 +18369,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18441,7 +18450,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -19184,7 +19193,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19262,7 +19271,7 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ88">
         <v>1.15</v>
@@ -19390,7 +19399,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19677,7 +19686,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ90">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -19883,7 +19892,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ91">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -20089,7 +20098,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ92">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20707,7 +20716,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR95">
         <v>1.34</v>
@@ -20832,7 +20841,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20913,7 +20922,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21038,7 +21047,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21116,7 +21125,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21244,7 +21253,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21322,7 +21331,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>0.62</v>
@@ -21656,7 +21665,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21862,7 +21871,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22068,7 +22077,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22561,7 +22570,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22686,7 +22695,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22892,7 +22901,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23176,7 +23185,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ107">
         <v>1.64</v>
@@ -23304,7 +23313,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23382,7 +23391,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ108">
         <v>1.64</v>
@@ -23510,7 +23519,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24412,10 +24421,10 @@
         <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24621,7 +24630,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ114">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -24746,7 +24755,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25033,7 +25042,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
         <v>1.52</v>
@@ -25158,7 +25167,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25364,7 +25373,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25648,7 +25657,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>1.15</v>
@@ -25982,7 +25991,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26060,10 +26069,10 @@
         <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ121">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26188,7 +26197,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26266,7 +26275,7 @@
         <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ122">
         <v>1.43</v>
@@ -26394,7 +26403,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26600,7 +26609,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26806,7 +26815,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27012,7 +27021,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27093,7 +27102,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ126">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27630,7 +27639,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28120,10 +28129,10 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28454,7 +28463,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28532,7 +28541,7 @@
         <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ133">
         <v>0.62</v>
@@ -28866,7 +28875,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29072,7 +29081,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29153,7 +29162,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ136">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29278,7 +29287,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29484,7 +29493,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29565,7 +29574,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ138">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR138">
         <v>1.69</v>
@@ -29771,7 +29780,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -30308,7 +30317,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30386,7 +30395,7 @@
         <v>1.55</v>
       </c>
       <c r="AP142">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ142">
         <v>1.64</v>
@@ -30514,7 +30523,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30798,7 +30807,7 @@
         <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ144">
         <v>1.43</v>
@@ -30926,7 +30935,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31132,7 +31141,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31213,7 +31222,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ146">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -31828,7 +31837,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ149">
         <v>1.43</v>
@@ -32162,7 +32171,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32240,7 +32249,7 @@
         <v>1.42</v>
       </c>
       <c r="AP151">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>1.43</v>
@@ -32368,7 +32377,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32655,7 +32664,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR153">
         <v>1.69</v>
@@ -32861,7 +32870,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ154">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR154">
         <v>1.9</v>
@@ -33192,7 +33201,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33398,7 +33407,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33476,7 +33485,7 @@
         <v>1.31</v>
       </c>
       <c r="AP157">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1.43</v>
@@ -33888,7 +33897,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ159">
         <v>0.62</v>
@@ -34222,7 +34231,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34428,7 +34437,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34634,7 +34643,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34790,6 +34799,624 @@
         <v>4.75</v>
       </c>
       <c r="BP163">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7321558</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>123</v>
+      </c>
+      <c r="P164" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q164">
+        <v>2.59</v>
+      </c>
+      <c r="R164">
+        <v>2.12</v>
+      </c>
+      <c r="S164">
+        <v>4.25</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.82</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.42</v>
+      </c>
+      <c r="X164">
+        <v>6.9</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>2.05</v>
+      </c>
+      <c r="AA164">
+        <v>3.25</v>
+      </c>
+      <c r="AB164">
+        <v>3.45</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>8.9</v>
+      </c>
+      <c r="AE164">
+        <v>1.26</v>
+      </c>
+      <c r="AF164">
+        <v>3.34</v>
+      </c>
+      <c r="AG164">
+        <v>1.88</v>
+      </c>
+      <c r="AH164">
+        <v>1.88</v>
+      </c>
+      <c r="AI164">
+        <v>1.74</v>
+      </c>
+      <c r="AJ164">
+        <v>2.02</v>
+      </c>
+      <c r="AK164">
+        <v>1.28</v>
+      </c>
+      <c r="AL164">
+        <v>1.31</v>
+      </c>
+      <c r="AM164">
+        <v>1.79</v>
+      </c>
+      <c r="AN164">
+        <v>1.62</v>
+      </c>
+      <c r="AO164">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP164">
+        <v>1.5</v>
+      </c>
+      <c r="AQ164">
+        <v>0.86</v>
+      </c>
+      <c r="AR164">
+        <v>1.62</v>
+      </c>
+      <c r="AS164">
+        <v>1.56</v>
+      </c>
+      <c r="AT164">
+        <v>3.18</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>18</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>22</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>9</v>
+      </c>
+      <c r="BB164">
+        <v>6</v>
+      </c>
+      <c r="BC164">
+        <v>15</v>
+      </c>
+      <c r="BD164">
+        <v>1.64</v>
+      </c>
+      <c r="BE164">
+        <v>7.5</v>
+      </c>
+      <c r="BF164">
+        <v>2.89</v>
+      </c>
+      <c r="BG164">
+        <v>1.7</v>
+      </c>
+      <c r="BH164">
+        <v>2.05</v>
+      </c>
+      <c r="BI164">
+        <v>1.8</v>
+      </c>
+      <c r="BJ164">
+        <v>1.91</v>
+      </c>
+      <c r="BK164">
+        <v>2.39</v>
+      </c>
+      <c r="BL164">
+        <v>1.51</v>
+      </c>
+      <c r="BM164">
+        <v>3.2</v>
+      </c>
+      <c r="BN164">
+        <v>1.28</v>
+      </c>
+      <c r="BO164">
+        <v>4.7</v>
+      </c>
+      <c r="BP164">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7321559</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45528.3125</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>71</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>85</v>
+      </c>
+      <c r="P165" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q165">
+        <v>3</v>
+      </c>
+      <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>3.35</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
+        <v>2.75</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>7.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.45</v>
+      </c>
+      <c r="AA165">
+        <v>3.15</v>
+      </c>
+      <c r="AB165">
+        <v>2.75</v>
+      </c>
+      <c r="AC165">
+        <v>1.06</v>
+      </c>
+      <c r="AD165">
+        <v>8.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.4</v>
+      </c>
+      <c r="AG165">
+        <v>1.93</v>
+      </c>
+      <c r="AH165">
+        <v>1.83</v>
+      </c>
+      <c r="AI165">
+        <v>1.7</v>
+      </c>
+      <c r="AJ165">
+        <v>2</v>
+      </c>
+      <c r="AK165">
+        <v>1.43</v>
+      </c>
+      <c r="AL165">
+        <v>1.33</v>
+      </c>
+      <c r="AM165">
+        <v>1.53</v>
+      </c>
+      <c r="AN165">
+        <v>0.77</v>
+      </c>
+      <c r="AO165">
+        <v>0.62</v>
+      </c>
+      <c r="AP165">
+        <v>0.71</v>
+      </c>
+      <c r="AQ165">
+        <v>0.79</v>
+      </c>
+      <c r="AR165">
+        <v>1.37</v>
+      </c>
+      <c r="AS165">
+        <v>1.21</v>
+      </c>
+      <c r="AT165">
+        <v>2.58</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>7</v>
+      </c>
+      <c r="AY165">
+        <v>14</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>8</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>1.82</v>
+      </c>
+      <c r="BE165">
+        <v>7.5</v>
+      </c>
+      <c r="BF165">
+        <v>2.34</v>
+      </c>
+      <c r="BG165">
+        <v>1.49</v>
+      </c>
+      <c r="BH165">
+        <v>2.44</v>
+      </c>
+      <c r="BI165">
+        <v>1.89</v>
+      </c>
+      <c r="BJ165">
+        <v>1.85</v>
+      </c>
+      <c r="BK165">
+        <v>2.49</v>
+      </c>
+      <c r="BL165">
+        <v>1.47</v>
+      </c>
+      <c r="BM165">
+        <v>3.42</v>
+      </c>
+      <c r="BN165">
+        <v>1.25</v>
+      </c>
+      <c r="BO165">
+        <v>5</v>
+      </c>
+      <c r="BP165">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7321560</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45528.3125</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>80</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>200</v>
+      </c>
+      <c r="P166" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q166">
+        <v>2.85</v>
+      </c>
+      <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
+        <v>3.6</v>
+      </c>
+      <c r="T166">
+        <v>1.41</v>
+      </c>
+      <c r="U166">
+        <v>2.78</v>
+      </c>
+      <c r="V166">
+        <v>2.82</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>7.2</v>
+      </c>
+      <c r="Y166">
+        <v>1.08</v>
+      </c>
+      <c r="Z166">
+        <v>2.25</v>
+      </c>
+      <c r="AA166">
+        <v>3.1</v>
+      </c>
+      <c r="AB166">
+        <v>3.1</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE166">
+        <v>1.28</v>
+      </c>
+      <c r="AF166">
+        <v>3.22</v>
+      </c>
+      <c r="AG166">
+        <v>1.93</v>
+      </c>
+      <c r="AH166">
+        <v>1.83</v>
+      </c>
+      <c r="AI166">
+        <v>1.72</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>1.35</v>
+      </c>
+      <c r="AL166">
+        <v>1.32</v>
+      </c>
+      <c r="AM166">
+        <v>1.65</v>
+      </c>
+      <c r="AN166">
+        <v>1.69</v>
+      </c>
+      <c r="AO166">
+        <v>1.54</v>
+      </c>
+      <c r="AP166">
+        <v>1.79</v>
+      </c>
+      <c r="AQ166">
+        <v>1.43</v>
+      </c>
+      <c r="AR166">
+        <v>1.57</v>
+      </c>
+      <c r="AS166">
+        <v>1.36</v>
+      </c>
+      <c r="AT166">
+        <v>2.93</v>
+      </c>
+      <c r="AU166">
+        <v>9</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>6</v>
+      </c>
+      <c r="AX166">
+        <v>8</v>
+      </c>
+      <c r="AY166">
+        <v>15</v>
+      </c>
+      <c r="AZ166">
+        <v>11</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>9</v>
+      </c>
+      <c r="BC166">
+        <v>14</v>
+      </c>
+      <c r="BD166">
+        <v>2.05</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>2.05</v>
+      </c>
+      <c r="BG166">
+        <v>1.48</v>
+      </c>
+      <c r="BH166">
+        <v>2.47</v>
+      </c>
+      <c r="BI166">
+        <v>1.95</v>
+      </c>
+      <c r="BJ166">
+        <v>1.77</v>
+      </c>
+      <c r="BK166">
+        <v>2.44</v>
+      </c>
+      <c r="BL166">
+        <v>1.49</v>
+      </c>
+      <c r="BM166">
+        <v>3.34</v>
+      </c>
+      <c r="BN166">
+        <v>1.26</v>
+      </c>
+      <c r="BO166">
+        <v>4.85</v>
+      </c>
+      <c r="BP166">
         <v>1.13</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,12 @@
     <t>['32', '41']</t>
   </si>
   <si>
+    <t>['7', '45+4', '60', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['43', '47']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -857,6 +863,9 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['71', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1692,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1764,7 +1773,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1967,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.43</v>
@@ -2095,7 +2104,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2382,7 +2391,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2507,7 +2516,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2713,7 +2722,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2791,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
         <v>0.79</v>
@@ -3125,7 +3134,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3203,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ10">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3331,7 +3340,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3412,7 +3421,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3743,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3821,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3949,7 +3958,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4442,7 +4451,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4851,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
         <v>0.79</v>
@@ -4979,7 +4988,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5185,7 +5194,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5266,7 +5275,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5472,7 +5481,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5597,7 +5606,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5675,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -5803,7 +5812,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6215,7 +6224,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6293,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6421,7 +6430,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6708,7 +6717,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6833,7 +6842,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6911,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -7863,7 +7872,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7944,7 +7953,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ33">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -8069,7 +8078,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8147,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8275,7 +8284,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8687,7 +8696,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8893,7 +8902,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9099,7 +9108,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9511,7 +9520,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9795,10 +9804,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9923,7 +9932,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10207,10 +10216,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10541,7 +10550,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10747,7 +10756,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11034,7 +11043,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11159,7 +11168,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11365,7 +11374,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11443,7 +11452,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.64</v>
@@ -11649,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -11983,7 +11992,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12189,7 +12198,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12270,7 +12279,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ54">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12601,7 +12610,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12679,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12807,7 +12816,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13219,7 +13228,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13425,7 +13434,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13506,7 +13515,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13712,7 +13721,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ61">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -14043,7 +14052,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14121,7 +14130,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14249,7 +14258,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14327,7 +14336,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14661,7 +14670,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14739,10 +14748,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14867,7 +14876,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15073,7 +15082,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15279,7 +15288,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15360,7 +15369,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ69">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15485,7 +15494,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15691,7 +15700,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15772,7 +15781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15897,7 +15906,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16181,10 +16190,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16593,10 +16602,10 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ75">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16721,7 +16730,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16799,7 +16808,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.79</v>
@@ -16927,7 +16936,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17214,7 +17223,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17417,7 +17426,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
         <v>1.64</v>
@@ -17751,7 +17760,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17832,7 +17841,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ81">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17957,7 +17966,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18369,7 +18378,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18859,7 +18868,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ86">
         <v>1.43</v>
@@ -19065,7 +19074,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.64</v>
@@ -19193,7 +19202,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19274,7 +19283,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ88">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19399,7 +19408,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19480,7 +19489,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19683,7 +19692,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>0.86</v>
@@ -20301,7 +20310,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20507,7 +20516,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ94">
         <v>1.64</v>
@@ -20841,7 +20850,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21047,7 +21056,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21253,7 +21262,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21334,7 +21343,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21537,7 +21546,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.43</v>
@@ -21665,7 +21674,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21871,7 +21880,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22077,7 +22086,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22364,7 +22373,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22695,7 +22704,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22901,7 +22910,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23313,7 +23322,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23519,7 +23528,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23600,7 +23609,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ109">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -23803,7 +23812,7 @@
         <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -24009,10 +24018,10 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ111">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24755,7 +24764,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25039,7 +25048,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ116">
         <v>0.86</v>
@@ -25167,7 +25176,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25373,7 +25382,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25660,7 +25669,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25863,10 +25872,10 @@
         <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -25991,7 +26000,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26197,7 +26206,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26403,7 +26412,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26481,10 +26490,10 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.74</v>
@@ -26609,7 +26618,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26815,7 +26824,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27021,7 +27030,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27639,7 +27648,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27717,7 +27726,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ129">
         <v>1.64</v>
@@ -28338,7 +28347,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28463,7 +28472,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28544,7 +28553,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ133">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28875,7 +28884,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29081,7 +29090,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29287,7 +29296,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29365,7 +29374,7 @@
         <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.29</v>
@@ -29493,7 +29502,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29571,7 +29580,7 @@
         <v>0.73</v>
       </c>
       <c r="AP138">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138">
         <v>0.86</v>
@@ -29777,7 +29786,7 @@
         <v>0.73</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ139">
         <v>0.79</v>
@@ -29986,7 +29995,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ140">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR140">
         <v>1.43</v>
@@ -30192,7 +30201,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ141">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30317,7 +30326,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30523,7 +30532,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30935,7 +30944,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31141,7 +31150,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31428,7 +31437,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ147">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.62</v>
@@ -31631,7 +31640,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>1.64</v>
@@ -32046,7 +32055,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ150">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR150">
         <v>1.59</v>
@@ -32171,7 +32180,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32377,7 +32386,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32661,7 +32670,7 @@
         <v>1.42</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ153">
         <v>1.43</v>
@@ -33201,7 +33210,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33279,10 +33288,10 @@
         <v>0.42</v>
       </c>
       <c r="AP156">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ156">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -33407,7 +33416,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33900,7 +33909,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ159">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34231,7 +34240,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34437,7 +34446,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34643,7 +34652,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34849,7 +34858,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35055,7 +35064,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35418,6 +35427,624 @@
       </c>
       <c r="BP166">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7321561</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>72</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>85</v>
+      </c>
+      <c r="P167" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q167">
+        <v>3.4</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>3.1</v>
+      </c>
+      <c r="T167">
+        <v>1.36</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <v>2.75</v>
+      </c>
+      <c r="W167">
+        <v>1.4</v>
+      </c>
+      <c r="X167">
+        <v>8</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>2.65</v>
+      </c>
+      <c r="AA167">
+        <v>3.3</v>
+      </c>
+      <c r="AB167">
+        <v>2.5</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>9.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.22</v>
+      </c>
+      <c r="AF167">
+        <v>3.7</v>
+      </c>
+      <c r="AG167">
+        <v>1.87</v>
+      </c>
+      <c r="AH167">
+        <v>1.87</v>
+      </c>
+      <c r="AI167">
+        <v>1.67</v>
+      </c>
+      <c r="AJ167">
+        <v>2.1</v>
+      </c>
+      <c r="AK167">
+        <v>1.52</v>
+      </c>
+      <c r="AL167">
+        <v>1.33</v>
+      </c>
+      <c r="AM167">
+        <v>1.32</v>
+      </c>
+      <c r="AN167">
+        <v>1.62</v>
+      </c>
+      <c r="AO167">
+        <v>1.15</v>
+      </c>
+      <c r="AP167">
+        <v>1.5</v>
+      </c>
+      <c r="AQ167">
+        <v>1.29</v>
+      </c>
+      <c r="AR167">
+        <v>1.7</v>
+      </c>
+      <c r="AS167">
+        <v>1.43</v>
+      </c>
+      <c r="AT167">
+        <v>3.13</v>
+      </c>
+      <c r="AU167">
+        <v>2</v>
+      </c>
+      <c r="AV167">
+        <v>7</v>
+      </c>
+      <c r="AW167">
+        <v>10</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>12</v>
+      </c>
+      <c r="AZ167">
+        <v>11</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>2.1</v>
+      </c>
+      <c r="BE167">
+        <v>7.5</v>
+      </c>
+      <c r="BF167">
+        <v>2</v>
+      </c>
+      <c r="BG167">
+        <v>1.37</v>
+      </c>
+      <c r="BH167">
+        <v>2.84</v>
+      </c>
+      <c r="BI167">
+        <v>1.77</v>
+      </c>
+      <c r="BJ167">
+        <v>1.95</v>
+      </c>
+      <c r="BK167">
+        <v>2.14</v>
+      </c>
+      <c r="BL167">
+        <v>1.63</v>
+      </c>
+      <c r="BM167">
+        <v>2.84</v>
+      </c>
+      <c r="BN167">
+        <v>1.35</v>
+      </c>
+      <c r="BO167">
+        <v>4.05</v>
+      </c>
+      <c r="BP167">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7321562</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F168">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>5</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>201</v>
+      </c>
+      <c r="P168" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q168">
+        <v>2.6</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>1.36</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>7</v>
+      </c>
+      <c r="Y168">
+        <v>1.1</v>
+      </c>
+      <c r="Z168">
+        <v>1.95</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>3.5</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>9.6</v>
+      </c>
+      <c r="AE168">
+        <v>1.24</v>
+      </c>
+      <c r="AF168">
+        <v>3.5</v>
+      </c>
+      <c r="AG168">
+        <v>1.83</v>
+      </c>
+      <c r="AH168">
+        <v>1.9</v>
+      </c>
+      <c r="AI168">
+        <v>1.67</v>
+      </c>
+      <c r="AJ168">
+        <v>2.1</v>
+      </c>
+      <c r="AK168">
+        <v>1.28</v>
+      </c>
+      <c r="AL168">
+        <v>1.29</v>
+      </c>
+      <c r="AM168">
+        <v>1.83</v>
+      </c>
+      <c r="AN168">
+        <v>1.62</v>
+      </c>
+      <c r="AO168">
+        <v>0.62</v>
+      </c>
+      <c r="AP168">
+        <v>1.71</v>
+      </c>
+      <c r="AQ168">
+        <v>0.57</v>
+      </c>
+      <c r="AR168">
+        <v>1.76</v>
+      </c>
+      <c r="AS168">
+        <v>1.57</v>
+      </c>
+      <c r="AT168">
+        <v>3.33</v>
+      </c>
+      <c r="AU168">
+        <v>10</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>17</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>4</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>10</v>
+      </c>
+      <c r="BD168">
+        <v>1.72</v>
+      </c>
+      <c r="BE168">
+        <v>6.55</v>
+      </c>
+      <c r="BF168">
+        <v>2.78</v>
+      </c>
+      <c r="BG168">
+        <v>1.31</v>
+      </c>
+      <c r="BH168">
+        <v>3.04</v>
+      </c>
+      <c r="BI168">
+        <v>1.59</v>
+      </c>
+      <c r="BJ168">
+        <v>2.21</v>
+      </c>
+      <c r="BK168">
+        <v>2.03</v>
+      </c>
+      <c r="BL168">
+        <v>1.73</v>
+      </c>
+      <c r="BM168">
+        <v>2.65</v>
+      </c>
+      <c r="BN168">
+        <v>1.42</v>
+      </c>
+      <c r="BO168">
+        <v>3.65</v>
+      </c>
+      <c r="BP168">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7321563</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F169">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s">
+        <v>81</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>202</v>
+      </c>
+      <c r="P169" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q169">
+        <v>2.5</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>4.5</v>
+      </c>
+      <c r="T169">
+        <v>1.4</v>
+      </c>
+      <c r="U169">
+        <v>2.75</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>1.83</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>4</v>
+      </c>
+      <c r="AC169">
+        <v>1.05</v>
+      </c>
+      <c r="AD169">
+        <v>7.8</v>
+      </c>
+      <c r="AE169">
+        <v>1.25</v>
+      </c>
+      <c r="AF169">
+        <v>3.5</v>
+      </c>
+      <c r="AG169">
+        <v>1.9</v>
+      </c>
+      <c r="AH169">
+        <v>1.83</v>
+      </c>
+      <c r="AI169">
+        <v>1.8</v>
+      </c>
+      <c r="AJ169">
+        <v>1.91</v>
+      </c>
+      <c r="AK169">
+        <v>1.14</v>
+      </c>
+      <c r="AL169">
+        <v>1.28</v>
+      </c>
+      <c r="AM169">
+        <v>1.97</v>
+      </c>
+      <c r="AN169">
+        <v>2</v>
+      </c>
+      <c r="AO169">
+        <v>0.62</v>
+      </c>
+      <c r="AP169">
+        <v>1.93</v>
+      </c>
+      <c r="AQ169">
+        <v>0.64</v>
+      </c>
+      <c r="AR169">
+        <v>1.68</v>
+      </c>
+      <c r="AS169">
+        <v>1.27</v>
+      </c>
+      <c r="AT169">
+        <v>2.95</v>
+      </c>
+      <c r="AU169">
+        <v>9</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>9</v>
+      </c>
+      <c r="AX169">
+        <v>7</v>
+      </c>
+      <c r="AY169">
+        <v>18</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>3</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>1.45</v>
+      </c>
+      <c r="BE169">
+        <v>8.5</v>
+      </c>
+      <c r="BF169">
+        <v>3.46</v>
+      </c>
+      <c r="BG169">
+        <v>1.43</v>
+      </c>
+      <c r="BH169">
+        <v>2.62</v>
+      </c>
+      <c r="BI169">
+        <v>1.7</v>
+      </c>
+      <c r="BJ169">
+        <v>2.05</v>
+      </c>
+      <c r="BK169">
+        <v>2.29</v>
+      </c>
+      <c r="BL169">
+        <v>1.55</v>
+      </c>
+      <c r="BM169">
+        <v>3.08</v>
+      </c>
+      <c r="BN169">
+        <v>1.3</v>
+      </c>
+      <c r="BO169">
+        <v>4.5</v>
+      </c>
+      <c r="BP169">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,21 @@
     <t>['43', '47']</t>
   </si>
   <si>
+    <t>['6', '36', '58', '79', '88']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['3', '48']</t>
+  </si>
+  <si>
+    <t>['1', '80']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -823,9 +838,6 @@
     <t>['10', '45', '78']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['44', '83']</t>
   </si>
   <si>
@@ -866,6 +878,12 @@
   </si>
   <si>
     <t>['71', '90+1']</t>
+  </si>
+  <si>
+    <t>['10', '84', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['50', '64']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1692,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1770,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3">
         <v>0.64</v>
@@ -1979,7 +1997,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2104,7 +2122,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2185,7 +2203,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ5">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2388,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2516,7 +2534,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2594,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2722,7 +2740,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3134,7 +3152,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3340,7 +3358,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3418,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
         <v>0.64</v>
@@ -3627,7 +3645,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3752,7 +3770,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3958,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4036,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
         <v>1.43</v>
@@ -4242,10 +4260,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4657,7 +4675,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR17">
         <v>1.55</v>
@@ -4988,7 +5006,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5066,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5194,7 +5212,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5272,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -5606,7 +5624,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5687,7 +5705,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5812,7 +5830,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5890,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6096,10 +6114,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6224,7 +6242,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6430,7 +6448,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6511,7 +6529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6714,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -6842,7 +6860,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6923,7 +6941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -7129,7 +7147,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7332,7 +7350,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>0.79</v>
@@ -7538,7 +7556,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ31">
         <v>0.86</v>
@@ -7744,10 +7762,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7872,7 +7890,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8078,7 +8096,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8159,7 +8177,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.28</v>
@@ -8284,7 +8302,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8362,7 +8380,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8568,10 +8586,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8696,7 +8714,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8774,10 +8792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8902,7 +8920,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8980,10 +8998,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR38">
         <v>1.51</v>
@@ -9108,7 +9126,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9189,7 +9207,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ39">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9392,7 +9410,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9520,7 +9538,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9598,10 +9616,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9932,7 +9950,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10425,7 +10443,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10550,7 +10568,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10756,7 +10774,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10834,10 +10852,10 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11040,7 +11058,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>0.64</v>
@@ -11168,7 +11186,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11246,10 +11264,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11374,7 +11392,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11455,7 +11473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>2.02</v>
@@ -11867,7 +11885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -11992,7 +12010,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12070,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12198,7 +12216,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12276,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12482,10 +12500,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12610,7 +12628,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12691,7 +12709,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12816,7 +12834,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12894,10 +12912,10 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ57">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -13228,7 +13246,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13306,10 +13324,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13434,7 +13452,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13512,7 +13530,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
         <v>1.29</v>
@@ -14052,7 +14070,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14258,7 +14276,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14339,7 +14357,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14542,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14670,7 +14688,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14876,7 +14894,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14957,7 +14975,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15082,7 +15100,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15160,10 +15178,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15288,7 +15306,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15366,7 +15384,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ69">
         <v>0.64</v>
@@ -15494,7 +15512,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15572,10 +15590,10 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ70">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.5</v>
@@ -15700,7 +15718,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15906,7 +15924,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -15984,10 +16002,10 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16396,10 +16414,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16730,7 +16748,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16936,7 +16954,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17220,7 +17238,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ78">
         <v>1.29</v>
@@ -17429,7 +17447,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17632,10 +17650,10 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17760,7 +17778,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17838,7 +17856,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ81">
         <v>0.64</v>
@@ -17966,7 +17984,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18047,7 +18065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18253,7 +18271,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18378,7 +18396,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18456,7 +18474,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>1.43</v>
@@ -18662,10 +18680,10 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR85">
         <v>1.56</v>
@@ -18871,7 +18889,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19077,7 +19095,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19202,7 +19220,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19408,7 +19426,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19486,7 +19504,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>0.57</v>
@@ -19898,7 +19916,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ91">
         <v>0.79</v>
@@ -20104,7 +20122,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ92">
         <v>0.79</v>
@@ -20313,7 +20331,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20519,7 +20537,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ94">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20722,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95">
         <v>0.86</v>
@@ -20850,7 +20868,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20928,7 +20946,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21056,7 +21074,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21137,7 +21155,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21262,7 +21280,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21549,7 +21567,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -21674,7 +21692,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21752,10 +21770,10 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ100">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR100">
         <v>1.82</v>
@@ -21880,7 +21898,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21958,10 +21976,10 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22086,7 +22104,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22164,10 +22182,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22370,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ103">
         <v>0.57</v>
@@ -22576,7 +22594,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ104">
         <v>0.79</v>
@@ -22704,7 +22722,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22782,10 +22800,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR105">
         <v>1.33</v>
@@ -22910,7 +22928,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -22988,10 +23006,10 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -23197,7 +23215,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ107">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23322,7 +23340,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23403,7 +23421,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ108">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23528,7 +23546,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23606,7 +23624,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ109">
         <v>1.29</v>
@@ -23815,7 +23833,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24224,10 +24242,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24636,7 +24654,7 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -24764,7 +24782,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24842,10 +24860,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25176,7 +25194,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25254,10 +25272,10 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25382,7 +25400,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25460,10 +25478,10 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -26000,7 +26018,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26206,7 +26224,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26287,7 +26305,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26412,7 +26430,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26618,7 +26636,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26696,10 +26714,10 @@
         <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ124">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26824,7 +26842,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26902,10 +26920,10 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
@@ -27030,7 +27048,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27108,7 +27126,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126">
         <v>0.79</v>
@@ -27314,10 +27332,10 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ127">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR127">
         <v>1.74</v>
@@ -27520,10 +27538,10 @@
         <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -27648,7 +27666,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27729,7 +27747,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ129">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR129">
         <v>1.59</v>
@@ -27932,10 +27950,10 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28344,7 +28362,7 @@
         <v>0.8</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132">
         <v>0.57</v>
@@ -28472,7 +28490,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28756,10 +28774,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR134">
         <v>1.98</v>
@@ -28884,7 +28902,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28962,10 +28980,10 @@
         <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ135">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR135">
         <v>1.61</v>
@@ -29090,7 +29108,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29168,7 +29186,7 @@
         <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
         <v>1.43</v>
@@ -29296,7 +29314,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29377,7 +29395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29502,7 +29520,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29992,7 +30010,7 @@
         <v>1.36</v>
       </c>
       <c r="AP140">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140">
         <v>1.29</v>
@@ -30198,7 +30216,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ141">
         <v>0.57</v>
@@ -30326,7 +30344,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30407,7 +30425,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ142">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR142">
         <v>1.43</v>
@@ -30532,7 +30550,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30610,10 +30628,10 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ143">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR143">
         <v>1.61</v>
@@ -30819,7 +30837,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ144">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -30944,7 +30962,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31022,10 +31040,10 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR145">
         <v>1.26</v>
@@ -31150,7 +31168,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31228,7 +31246,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ146">
         <v>0.79</v>
@@ -31434,7 +31452,7 @@
         <v>1.25</v>
       </c>
       <c r="AP147">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -31643,7 +31661,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR148">
         <v>1.76</v>
@@ -31849,7 +31867,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32052,7 +32070,7 @@
         <v>0.36</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ150">
         <v>0.64</v>
@@ -32180,7 +32198,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32261,7 +32279,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.58</v>
@@ -32386,7 +32404,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32464,10 +32482,10 @@
         <v>1.08</v>
       </c>
       <c r="AP152">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32876,7 +32894,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ154">
         <v>0.86</v>
@@ -33082,10 +33100,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33210,7 +33228,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33416,7 +33434,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33497,7 +33515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -33700,10 +33718,10 @@
         <v>1.54</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -34112,10 +34130,10 @@
         <v>1.77</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ160">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34240,7 +34258,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34318,10 +34336,10 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ161">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34446,7 +34464,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34524,10 +34542,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ162">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AR162">
         <v>1.91</v>
@@ -34652,7 +34670,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34730,10 +34748,10 @@
         <v>1.23</v>
       </c>
       <c r="AP163">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR163">
         <v>1.75</v>
@@ -34858,7 +34876,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35064,7 +35082,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35888,7 +35906,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36045,6 +36063,1242 @@
       </c>
       <c r="BP169">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7321564</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F170">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>77</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
+        <v>9</v>
+      </c>
+      <c r="O170" t="s">
+        <v>203</v>
+      </c>
+      <c r="P170" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q170">
+        <v>2.55</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>3.9</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>2.85</v>
+      </c>
+      <c r="V170">
+        <v>2.65</v>
+      </c>
+      <c r="W170">
+        <v>1.42</v>
+      </c>
+      <c r="X170">
+        <v>6.65</v>
+      </c>
+      <c r="Y170">
+        <v>1.09</v>
+      </c>
+      <c r="Z170">
+        <v>1.98</v>
+      </c>
+      <c r="AA170">
+        <v>3.5</v>
+      </c>
+      <c r="AB170">
+        <v>3.5</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>9.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.28</v>
+      </c>
+      <c r="AF170">
+        <v>3.65</v>
+      </c>
+      <c r="AG170">
+        <v>1.83</v>
+      </c>
+      <c r="AH170">
+        <v>1.93</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.05</v>
+      </c>
+      <c r="AK170">
+        <v>1.28</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.77</v>
+      </c>
+      <c r="AN170">
+        <v>2.14</v>
+      </c>
+      <c r="AO170">
+        <v>1.64</v>
+      </c>
+      <c r="AP170">
+        <v>2.2</v>
+      </c>
+      <c r="AQ170">
+        <v>1.53</v>
+      </c>
+      <c r="AR170">
+        <v>1.87</v>
+      </c>
+      <c r="AS170">
+        <v>1.38</v>
+      </c>
+      <c r="AT170">
+        <v>3.25</v>
+      </c>
+      <c r="AU170">
+        <v>-1</v>
+      </c>
+      <c r="AV170">
+        <v>-1</v>
+      </c>
+      <c r="AW170">
+        <v>-1</v>
+      </c>
+      <c r="AX170">
+        <v>-1</v>
+      </c>
+      <c r="AY170">
+        <v>-1</v>
+      </c>
+      <c r="AZ170">
+        <v>-1</v>
+      </c>
+      <c r="BA170">
+        <v>-1</v>
+      </c>
+      <c r="BB170">
+        <v>-1</v>
+      </c>
+      <c r="BC170">
+        <v>-1</v>
+      </c>
+      <c r="BD170">
+        <v>1.59</v>
+      </c>
+      <c r="BE170">
+        <v>7.9</v>
+      </c>
+      <c r="BF170">
+        <v>2.96</v>
+      </c>
+      <c r="BG170">
+        <v>1.55</v>
+      </c>
+      <c r="BH170">
+        <v>2.33</v>
+      </c>
+      <c r="BI170">
+        <v>1.92</v>
+      </c>
+      <c r="BJ170">
+        <v>1.88</v>
+      </c>
+      <c r="BK170">
+        <v>2.53</v>
+      </c>
+      <c r="BL170">
+        <v>1.47</v>
+      </c>
+      <c r="BM170">
+        <v>3.28</v>
+      </c>
+      <c r="BN170">
+        <v>1.27</v>
+      </c>
+      <c r="BO170">
+        <v>4.75</v>
+      </c>
+      <c r="BP170">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7321565</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="F171">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>204</v>
+      </c>
+      <c r="P171" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q171">
+        <v>2.77</v>
+      </c>
+      <c r="R171">
+        <v>1.97</v>
+      </c>
+      <c r="S171">
+        <v>3.33</v>
+      </c>
+      <c r="T171">
+        <v>1.45</v>
+      </c>
+      <c r="U171">
+        <v>2.55</v>
+      </c>
+      <c r="V171">
+        <v>3.05</v>
+      </c>
+      <c r="W171">
+        <v>1.32</v>
+      </c>
+      <c r="X171">
+        <v>9</v>
+      </c>
+      <c r="Y171">
+        <v>1.07</v>
+      </c>
+      <c r="Z171">
+        <v>2.35</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>2.95</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>10</v>
+      </c>
+      <c r="AE171">
+        <v>1.35</v>
+      </c>
+      <c r="AF171">
+        <v>3</v>
+      </c>
+      <c r="AG171">
+        <v>2.08</v>
+      </c>
+      <c r="AH171">
+        <v>1.71</v>
+      </c>
+      <c r="AI171">
+        <v>1.85</v>
+      </c>
+      <c r="AJ171">
+        <v>1.85</v>
+      </c>
+      <c r="AK171">
+        <v>1.38</v>
+      </c>
+      <c r="AL171">
+        <v>1.33</v>
+      </c>
+      <c r="AM171">
+        <v>1.6</v>
+      </c>
+      <c r="AN171">
+        <v>1.29</v>
+      </c>
+      <c r="AO171">
+        <v>1.29</v>
+      </c>
+      <c r="AP171">
+        <v>1.2</v>
+      </c>
+      <c r="AQ171">
+        <v>1.4</v>
+      </c>
+      <c r="AR171">
+        <v>1.62</v>
+      </c>
+      <c r="AS171">
+        <v>1.46</v>
+      </c>
+      <c r="AT171">
+        <v>3.08</v>
+      </c>
+      <c r="AU171">
+        <v>-1</v>
+      </c>
+      <c r="AV171">
+        <v>-1</v>
+      </c>
+      <c r="AW171">
+        <v>-1</v>
+      </c>
+      <c r="AX171">
+        <v>-1</v>
+      </c>
+      <c r="AY171">
+        <v>-1</v>
+      </c>
+      <c r="AZ171">
+        <v>-1</v>
+      </c>
+      <c r="BA171">
+        <v>-1</v>
+      </c>
+      <c r="BB171">
+        <v>-1</v>
+      </c>
+      <c r="BC171">
+        <v>-1</v>
+      </c>
+      <c r="BD171">
+        <v>1.88</v>
+      </c>
+      <c r="BE171">
+        <v>6.8</v>
+      </c>
+      <c r="BF171">
+        <v>2.41</v>
+      </c>
+      <c r="BG171">
+        <v>1.4</v>
+      </c>
+      <c r="BH171">
+        <v>2.72</v>
+      </c>
+      <c r="BI171">
+        <v>1.77</v>
+      </c>
+      <c r="BJ171">
+        <v>1.95</v>
+      </c>
+      <c r="BK171">
+        <v>2.19</v>
+      </c>
+      <c r="BL171">
+        <v>1.64</v>
+      </c>
+      <c r="BM171">
+        <v>2.98</v>
+      </c>
+      <c r="BN171">
+        <v>1.32</v>
+      </c>
+      <c r="BO171">
+        <v>4.3</v>
+      </c>
+      <c r="BP171">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7321566</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="F172">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>79</v>
+      </c>
+      <c r="H172" t="s">
+        <v>78</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>205</v>
+      </c>
+      <c r="P172" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q172">
+        <v>3.17</v>
+      </c>
+      <c r="R172">
+        <v>2.03</v>
+      </c>
+      <c r="S172">
+        <v>2.77</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
+        <v>2.82</v>
+      </c>
+      <c r="V172">
+        <v>2.86</v>
+      </c>
+      <c r="W172">
+        <v>1.39</v>
+      </c>
+      <c r="X172">
+        <v>7.3</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>2.9</v>
+      </c>
+      <c r="AA172">
+        <v>3.2</v>
+      </c>
+      <c r="AB172">
+        <v>2.25</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE172">
+        <v>1.28</v>
+      </c>
+      <c r="AF172">
+        <v>3.22</v>
+      </c>
+      <c r="AG172">
+        <v>1.93</v>
+      </c>
+      <c r="AH172">
+        <v>1.83</v>
+      </c>
+      <c r="AI172">
+        <v>1.7</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1.48</v>
+      </c>
+      <c r="AL172">
+        <v>1.27</v>
+      </c>
+      <c r="AM172">
+        <v>1.37</v>
+      </c>
+      <c r="AN172">
+        <v>1.71</v>
+      </c>
+      <c r="AO172">
+        <v>1.43</v>
+      </c>
+      <c r="AP172">
+        <v>1.8</v>
+      </c>
+      <c r="AQ172">
+        <v>1.33</v>
+      </c>
+      <c r="AR172">
+        <v>1.56</v>
+      </c>
+      <c r="AS172">
+        <v>1.54</v>
+      </c>
+      <c r="AT172">
+        <v>3.1</v>
+      </c>
+      <c r="AU172">
+        <v>-1</v>
+      </c>
+      <c r="AV172">
+        <v>-1</v>
+      </c>
+      <c r="AW172">
+        <v>-1</v>
+      </c>
+      <c r="AX172">
+        <v>-1</v>
+      </c>
+      <c r="AY172">
+        <v>-1</v>
+      </c>
+      <c r="AZ172">
+        <v>-1</v>
+      </c>
+      <c r="BA172">
+        <v>-1</v>
+      </c>
+      <c r="BB172">
+        <v>-1</v>
+      </c>
+      <c r="BC172">
+        <v>-1</v>
+      </c>
+      <c r="BD172">
+        <v>2.49</v>
+      </c>
+      <c r="BE172">
+        <v>6.85</v>
+      </c>
+      <c r="BF172">
+        <v>1.83</v>
+      </c>
+      <c r="BG172">
+        <v>1.34</v>
+      </c>
+      <c r="BH172">
+        <v>2.88</v>
+      </c>
+      <c r="BI172">
+        <v>1.7</v>
+      </c>
+      <c r="BJ172">
+        <v>2.09</v>
+      </c>
+      <c r="BK172">
+        <v>2.15</v>
+      </c>
+      <c r="BL172">
+        <v>1.67</v>
+      </c>
+      <c r="BM172">
+        <v>2.8</v>
+      </c>
+      <c r="BN172">
+        <v>1.38</v>
+      </c>
+      <c r="BO172">
+        <v>3.95</v>
+      </c>
+      <c r="BP172">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7321569</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F173">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" t="s">
+        <v>76</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>206</v>
+      </c>
+      <c r="P173" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q173">
+        <v>2.69</v>
+      </c>
+      <c r="R173">
+        <v>2.04</v>
+      </c>
+      <c r="S173">
+        <v>3.25</v>
+      </c>
+      <c r="T173">
+        <v>1.37</v>
+      </c>
+      <c r="U173">
+        <v>2.95</v>
+      </c>
+      <c r="V173">
+        <v>2.71</v>
+      </c>
+      <c r="W173">
+        <v>1.43</v>
+      </c>
+      <c r="X173">
+        <v>6.7</v>
+      </c>
+      <c r="Y173">
+        <v>1.09</v>
+      </c>
+      <c r="Z173">
+        <v>2.2</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>2.9</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.28</v>
+      </c>
+      <c r="AF173">
+        <v>3.6</v>
+      </c>
+      <c r="AG173">
+        <v>1.83</v>
+      </c>
+      <c r="AH173">
+        <v>1.93</v>
+      </c>
+      <c r="AI173">
+        <v>1.62</v>
+      </c>
+      <c r="AJ173">
+        <v>2.1</v>
+      </c>
+      <c r="AK173">
+        <v>1.34</v>
+      </c>
+      <c r="AL173">
+        <v>1.27</v>
+      </c>
+      <c r="AM173">
+        <v>1.52</v>
+      </c>
+      <c r="AN173">
+        <v>2.14</v>
+      </c>
+      <c r="AO173">
+        <v>1.64</v>
+      </c>
+      <c r="AP173">
+        <v>2.07</v>
+      </c>
+      <c r="AQ173">
+        <v>1.6</v>
+      </c>
+      <c r="AR173">
+        <v>1.77</v>
+      </c>
+      <c r="AS173">
+        <v>1.5</v>
+      </c>
+      <c r="AT173">
+        <v>3.27</v>
+      </c>
+      <c r="AU173">
+        <v>-1</v>
+      </c>
+      <c r="AV173">
+        <v>-1</v>
+      </c>
+      <c r="AW173">
+        <v>-1</v>
+      </c>
+      <c r="AX173">
+        <v>-1</v>
+      </c>
+      <c r="AY173">
+        <v>-1</v>
+      </c>
+      <c r="AZ173">
+        <v>-1</v>
+      </c>
+      <c r="BA173">
+        <v>-1</v>
+      </c>
+      <c r="BB173">
+        <v>-1</v>
+      </c>
+      <c r="BC173">
+        <v>-1</v>
+      </c>
+      <c r="BD173">
+        <v>1.67</v>
+      </c>
+      <c r="BE173">
+        <v>8.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.45</v>
+      </c>
+      <c r="BG173">
+        <v>1.33</v>
+      </c>
+      <c r="BH173">
+        <v>2.93</v>
+      </c>
+      <c r="BI173">
+        <v>1.77</v>
+      </c>
+      <c r="BJ173">
+        <v>1.95</v>
+      </c>
+      <c r="BK173">
+        <v>2.07</v>
+      </c>
+      <c r="BL173">
+        <v>1.72</v>
+      </c>
+      <c r="BM173">
+        <v>2.72</v>
+      </c>
+      <c r="BN173">
+        <v>1.4</v>
+      </c>
+      <c r="BO173">
+        <v>3.74</v>
+      </c>
+      <c r="BP173">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7321568</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F174">
+        <v>29</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>207</v>
+      </c>
+      <c r="P174" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q174">
+        <v>3.33</v>
+      </c>
+      <c r="R174">
+        <v>1.97</v>
+      </c>
+      <c r="S174">
+        <v>2.77</v>
+      </c>
+      <c r="T174">
+        <v>1.42</v>
+      </c>
+      <c r="U174">
+        <v>2.62</v>
+      </c>
+      <c r="V174">
+        <v>3</v>
+      </c>
+      <c r="W174">
+        <v>1.33</v>
+      </c>
+      <c r="X174">
+        <v>8.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>3.1</v>
+      </c>
+      <c r="AA174">
+        <v>3.2</v>
+      </c>
+      <c r="AB174">
+        <v>2.16</v>
+      </c>
+      <c r="AC174">
+        <v>1.06</v>
+      </c>
+      <c r="AD174">
+        <v>8.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.33</v>
+      </c>
+      <c r="AF174">
+        <v>3.25</v>
+      </c>
+      <c r="AG174">
+        <v>2.07</v>
+      </c>
+      <c r="AH174">
+        <v>1.71</v>
+      </c>
+      <c r="AI174">
+        <v>1.77</v>
+      </c>
+      <c r="AJ174">
+        <v>1.91</v>
+      </c>
+      <c r="AK174">
+        <v>1.53</v>
+      </c>
+      <c r="AL174">
+        <v>1.29</v>
+      </c>
+      <c r="AM174">
+        <v>1.32</v>
+      </c>
+      <c r="AN174">
+        <v>1.36</v>
+      </c>
+      <c r="AO174">
+        <v>1.14</v>
+      </c>
+      <c r="AP174">
+        <v>1.47</v>
+      </c>
+      <c r="AQ174">
+        <v>1.07</v>
+      </c>
+      <c r="AR174">
+        <v>1.27</v>
+      </c>
+      <c r="AS174">
+        <v>1.37</v>
+      </c>
+      <c r="AT174">
+        <v>2.64</v>
+      </c>
+      <c r="AU174">
+        <v>-1</v>
+      </c>
+      <c r="AV174">
+        <v>-1</v>
+      </c>
+      <c r="AW174">
+        <v>-1</v>
+      </c>
+      <c r="AX174">
+        <v>-1</v>
+      </c>
+      <c r="AY174">
+        <v>-1</v>
+      </c>
+      <c r="AZ174">
+        <v>-1</v>
+      </c>
+      <c r="BA174">
+        <v>-1</v>
+      </c>
+      <c r="BB174">
+        <v>-1</v>
+      </c>
+      <c r="BC174">
+        <v>-1</v>
+      </c>
+      <c r="BD174">
+        <v>2.3</v>
+      </c>
+      <c r="BE174">
+        <v>6.75</v>
+      </c>
+      <c r="BF174">
+        <v>1.96</v>
+      </c>
+      <c r="BG174">
+        <v>1.46</v>
+      </c>
+      <c r="BH174">
+        <v>2.59</v>
+      </c>
+      <c r="BI174">
+        <v>1.98</v>
+      </c>
+      <c r="BJ174">
+        <v>1.82</v>
+      </c>
+      <c r="BK174">
+        <v>2.27</v>
+      </c>
+      <c r="BL174">
+        <v>1.6</v>
+      </c>
+      <c r="BM174">
+        <v>3.14</v>
+      </c>
+      <c r="BN174">
+        <v>1.29</v>
+      </c>
+      <c r="BO174">
+        <v>4.55</v>
+      </c>
+      <c r="BP174">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7321567</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F175">
+        <v>29</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>80</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>85</v>
+      </c>
+      <c r="P175" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q175">
+        <v>2.98</v>
+      </c>
+      <c r="R175">
+        <v>2.03</v>
+      </c>
+      <c r="S175">
+        <v>2.94</v>
+      </c>
+      <c r="T175">
+        <v>1.4</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>7.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.09</v>
+      </c>
+      <c r="Z175">
+        <v>2.55</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.55</v>
+      </c>
+      <c r="AC175">
+        <v>1.06</v>
+      </c>
+      <c r="AD175">
+        <v>8.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.3</v>
+      </c>
+      <c r="AF175">
+        <v>3.4</v>
+      </c>
+      <c r="AG175">
+        <v>1.88</v>
+      </c>
+      <c r="AH175">
+        <v>1.87</v>
+      </c>
+      <c r="AI175">
+        <v>1.67</v>
+      </c>
+      <c r="AJ175">
+        <v>2.05</v>
+      </c>
+      <c r="AK175">
+        <v>1.43</v>
+      </c>
+      <c r="AL175">
+        <v>1.28</v>
+      </c>
+      <c r="AM175">
+        <v>1.42</v>
+      </c>
+      <c r="AN175">
+        <v>1.29</v>
+      </c>
+      <c r="AO175">
+        <v>1.43</v>
+      </c>
+      <c r="AP175">
+        <v>1.27</v>
+      </c>
+      <c r="AQ175">
+        <v>1.4</v>
+      </c>
+      <c r="AR175">
+        <v>1.51</v>
+      </c>
+      <c r="AS175">
+        <v>1.4</v>
+      </c>
+      <c r="AT175">
+        <v>2.91</v>
+      </c>
+      <c r="AU175">
+        <v>-1</v>
+      </c>
+      <c r="AV175">
+        <v>-1</v>
+      </c>
+      <c r="AW175">
+        <v>-1</v>
+      </c>
+      <c r="AX175">
+        <v>-1</v>
+      </c>
+      <c r="AY175">
+        <v>-1</v>
+      </c>
+      <c r="AZ175">
+        <v>-1</v>
+      </c>
+      <c r="BA175">
+        <v>-1</v>
+      </c>
+      <c r="BB175">
+        <v>-1</v>
+      </c>
+      <c r="BC175">
+        <v>-1</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>1.48</v>
+      </c>
+      <c r="BH175">
+        <v>2.53</v>
+      </c>
+      <c r="BI175">
+        <v>1.92</v>
+      </c>
+      <c r="BJ175">
+        <v>1.88</v>
+      </c>
+      <c r="BK175">
+        <v>2.33</v>
+      </c>
+      <c r="BL175">
+        <v>1.57</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -36205,31 +36205,31 @@
         <v>3.25</v>
       </c>
       <c r="AU170">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV170">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW170">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX170">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY170">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ170">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA170">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB170">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC170">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD170">
         <v>1.59</v>
@@ -36411,31 +36411,31 @@
         <v>3.08</v>
       </c>
       <c r="AU171">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV171">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW171">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX171">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY171">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ171">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA171">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB171">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC171">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD171">
         <v>1.88</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -36429,13 +36429,13 @@
         <v>13</v>
       </c>
       <c r="BA171">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB171">
         <v>7</v>
       </c>
       <c r="BC171">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD171">
         <v>1.88</v>
@@ -36617,31 +36617,31 @@
         <v>3.1</v>
       </c>
       <c r="AU172">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV172">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW172">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX172">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY172">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ172">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA172">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB172">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC172">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD172">
         <v>2.49</v>
@@ -36823,31 +36823,31 @@
         <v>3.27</v>
       </c>
       <c r="AU173">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW173">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX173">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY173">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ173">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA173">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB173">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC173">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD173">
         <v>1.67</v>
@@ -37029,31 +37029,31 @@
         <v>2.64</v>
       </c>
       <c r="AU174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW174">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY174">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ174">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB174">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC174">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD174">
         <v>2.3</v>
@@ -37235,31 +37235,31 @@
         <v>2.91</v>
       </c>
       <c r="AU175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX175">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY175">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ175">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB175">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC175">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD175">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,12 @@
     <t>['1', '80']</t>
   </si>
   <si>
+    <t>['15', '79']</t>
+  </si>
+  <si>
+    <t>['49', '72']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1245,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1710,7 +1716,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -2122,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2534,7 +2540,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2740,7 +2746,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3152,7 +3158,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3358,7 +3364,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3770,7 +3776,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3848,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3976,7 +3982,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4057,7 +4063,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5006,7 +5012,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5084,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5212,7 +5218,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5624,7 +5630,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5830,7 +5836,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5911,7 +5917,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -6242,7 +6248,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6320,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6448,7 +6454,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6860,7 +6866,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6938,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -7762,7 +7768,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7890,7 +7896,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8096,7 +8102,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8302,7 +8308,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8383,7 +8389,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8714,7 +8720,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8795,7 +8801,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8920,7 +8926,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9126,7 +9132,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9207,7 +9213,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ39">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9410,10 +9416,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9538,7 +9544,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9950,7 +9956,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10568,7 +10574,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10774,7 +10780,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11186,7 +11192,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11392,7 +11398,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11470,7 +11476,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11679,7 +11685,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -12010,7 +12016,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12216,7 +12222,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12294,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12628,7 +12634,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12834,7 +12840,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -12915,7 +12921,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ57">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>1.91</v>
@@ -13246,7 +13252,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13452,7 +13458,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -14070,7 +14076,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14151,7 +14157,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14276,7 +14282,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14688,7 +14694,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14766,7 +14772,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
         <v>0.64</v>
@@ -14894,7 +14900,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15100,7 +15106,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15306,7 +15312,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15512,7 +15518,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15718,7 +15724,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15924,7 +15930,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16002,7 +16008,7 @@
         <v>1.83</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16208,7 +16214,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
         <v>1.29</v>
@@ -16748,7 +16754,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16826,7 +16832,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>0.79</v>
@@ -16954,7 +16960,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17447,7 +17453,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR79">
         <v>1.91</v>
@@ -17778,7 +17784,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17856,7 +17862,7 @@
         <v>0.43</v>
       </c>
       <c r="AP81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
         <v>0.64</v>
@@ -17984,7 +17990,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18396,7 +18402,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18477,7 +18483,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -19092,10 +19098,10 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ87">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19220,7 +19226,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19426,7 +19432,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -20122,7 +20128,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ92">
         <v>0.79</v>
@@ -20537,7 +20543,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ94">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.47</v>
@@ -20868,7 +20874,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20949,7 +20955,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21074,7 +21080,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21280,7 +21286,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21564,7 +21570,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -21692,7 +21698,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21898,7 +21904,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -21976,7 +21982,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
         <v>1.4</v>
@@ -22104,7 +22110,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22722,7 +22728,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22928,7 +22934,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23340,7 +23346,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23421,7 +23427,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ108">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23546,7 +23552,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24451,7 +24457,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ113">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24654,7 +24660,7 @@
         <v>0.89</v>
       </c>
       <c r="AP114">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -24782,7 +24788,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -24863,7 +24869,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25194,7 +25200,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25400,7 +25406,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25890,7 +25896,7 @@
         <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
         <v>0.57</v>
@@ -26018,7 +26024,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26099,7 +26105,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ121">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26224,7 +26230,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26430,7 +26436,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26636,7 +26642,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26842,7 +26848,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26923,7 +26929,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR125">
         <v>1.57</v>
@@ -27048,7 +27054,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27666,7 +27672,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27950,7 +27956,7 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28159,7 +28165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28490,7 +28496,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28774,7 +28780,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ134">
         <v>1.4</v>
@@ -28983,7 +28989,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ135">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.61</v>
@@ -29108,7 +29114,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29189,7 +29195,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29314,7 +29320,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29392,7 +29398,7 @@
         <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ137">
         <v>1.4</v>
@@ -29520,7 +29526,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30344,7 +30350,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30550,7 +30556,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30962,7 +30968,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31043,7 +31049,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.26</v>
@@ -31168,7 +31174,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31658,7 +31664,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ148">
         <v>1.6</v>
@@ -32198,7 +32204,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32404,7 +32410,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32691,7 +32697,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR153">
         <v>1.69</v>
@@ -32894,7 +32900,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ154">
         <v>0.86</v>
@@ -33228,7 +33234,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33434,7 +33440,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -34133,7 +34139,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34258,7 +34264,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34464,7 +34470,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34542,7 +34548,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ162">
         <v>1.6</v>
@@ -34670,7 +34676,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34876,7 +34882,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35082,7 +35088,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35369,7 +35375,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ166">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR166">
         <v>1.57</v>
@@ -35572,7 +35578,7 @@
         <v>1.15</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ167">
         <v>1.29</v>
@@ -35906,7 +35912,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36112,7 +36118,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36190,10 +36196,10 @@
         <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ170">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR170">
         <v>1.87</v>
@@ -36318,7 +36324,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -37298,6 +37304,418 @@
         <v>0</v>
       </c>
       <c r="BP175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7321570</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45548.3125</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>70</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>208</v>
+      </c>
+      <c r="P176" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176">
+        <v>2.75</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>4</v>
+      </c>
+      <c r="T176">
+        <v>1.36</v>
+      </c>
+      <c r="U176">
+        <v>3</v>
+      </c>
+      <c r="V176">
+        <v>2.75</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>7</v>
+      </c>
+      <c r="Y176">
+        <v>1.1</v>
+      </c>
+      <c r="Z176">
+        <v>2</v>
+      </c>
+      <c r="AA176">
+        <v>3.4</v>
+      </c>
+      <c r="AB176">
+        <v>3.05</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>3.7</v>
+      </c>
+      <c r="AG176">
+        <v>1.8</v>
+      </c>
+      <c r="AH176">
+        <v>1.9</v>
+      </c>
+      <c r="AI176">
+        <v>1.67</v>
+      </c>
+      <c r="AJ176">
+        <v>2.1</v>
+      </c>
+      <c r="AK176">
+        <v>1.32</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>1.7</v>
+      </c>
+      <c r="AN176">
+        <v>2.2</v>
+      </c>
+      <c r="AO176">
+        <v>1.43</v>
+      </c>
+      <c r="AP176">
+        <v>2.25</v>
+      </c>
+      <c r="AQ176">
+        <v>1.33</v>
+      </c>
+      <c r="AR176">
+        <v>1.92</v>
+      </c>
+      <c r="AS176">
+        <v>1.38</v>
+      </c>
+      <c r="AT176">
+        <v>3.3</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>2</v>
+      </c>
+      <c r="AX176">
+        <v>9</v>
+      </c>
+      <c r="AY176">
+        <v>6</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>6</v>
+      </c>
+      <c r="BD176">
+        <v>1.63</v>
+      </c>
+      <c r="BE176">
+        <v>6.55</v>
+      </c>
+      <c r="BF176">
+        <v>3.06</v>
+      </c>
+      <c r="BG176">
+        <v>1.45</v>
+      </c>
+      <c r="BH176">
+        <v>2.58</v>
+      </c>
+      <c r="BI176">
+        <v>2.05</v>
+      </c>
+      <c r="BJ176">
+        <v>1.75</v>
+      </c>
+      <c r="BK176">
+        <v>2.27</v>
+      </c>
+      <c r="BL176">
+        <v>1.58</v>
+      </c>
+      <c r="BM176">
+        <v>3.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.5</v>
+      </c>
+      <c r="BP176">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7321571</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45548.3125</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>209</v>
+      </c>
+      <c r="P177" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q177">
+        <v>2.88</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>2.2</v>
+      </c>
+      <c r="AA177">
+        <v>3.15</v>
+      </c>
+      <c r="AB177">
+        <v>2.9</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.3</v>
+      </c>
+      <c r="AF177">
+        <v>3.3</v>
+      </c>
+      <c r="AG177">
+        <v>1.9</v>
+      </c>
+      <c r="AH177">
+        <v>1.8</v>
+      </c>
+      <c r="AI177">
+        <v>1.73</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
+        <v>1.36</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.6</v>
+      </c>
+      <c r="AN177">
+        <v>1.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.53</v>
+      </c>
+      <c r="AP177">
+        <v>1.6</v>
+      </c>
+      <c r="AQ177">
+        <v>1.44</v>
+      </c>
+      <c r="AR177">
+        <v>1.68</v>
+      </c>
+      <c r="AS177">
+        <v>1.37</v>
+      </c>
+      <c r="AT177">
+        <v>3.05</v>
+      </c>
+      <c r="AU177">
+        <v>6</v>
+      </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
+      <c r="AW177">
+        <v>1</v>
+      </c>
+      <c r="AX177">
+        <v>1</v>
+      </c>
+      <c r="AY177">
+        <v>7</v>
+      </c>
+      <c r="AZ177">
+        <v>3</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>4</v>
+      </c>
+      <c r="BC177">
+        <v>10</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>1.46</v>
+      </c>
+      <c r="BH177">
+        <v>2.58</v>
+      </c>
+      <c r="BI177">
+        <v>1.85</v>
+      </c>
+      <c r="BJ177">
+        <v>1.95</v>
+      </c>
+      <c r="BK177">
+        <v>2.29</v>
+      </c>
+      <c r="BL177">
+        <v>1.58</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,12 @@
     <t>['49', '72']</t>
   </si>
   <si>
+    <t>['9', '48']</t>
+  </si>
+  <si>
+    <t>['61', '90+8']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -890,6 +896,15 @@
   </si>
   <si>
     <t>['50', '64']</t>
+  </si>
+  <si>
+    <t>['4', '6', '83']</t>
+  </si>
+  <si>
+    <t>['56', '62', '82', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '53', '70', '87', '90+2', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1731,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1797,7 +1812,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2128,7 +2143,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2540,7 +2555,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2746,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2824,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3033,7 +3048,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3158,7 +3173,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3236,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3364,7 +3379,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3442,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ11">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3648,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3776,7 +3791,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3982,7 +3997,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4472,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.57</v>
@@ -4884,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -5012,7 +5027,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5093,7 +5108,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5218,7 +5233,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5505,7 +5520,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ21">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5630,7 +5645,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5708,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5836,7 +5851,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5914,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6248,7 +6263,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6329,7 +6344,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6454,7 +6469,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6866,7 +6881,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6947,7 +6962,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -7150,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7356,10 +7371,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ30">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7565,7 +7580,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>2.01</v>
@@ -7896,7 +7911,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8102,7 +8117,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8180,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.07</v>
@@ -8308,7 +8323,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8720,7 +8735,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8926,7 +8941,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9132,7 +9147,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9210,7 +9225,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1.44</v>
@@ -9544,7 +9559,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9622,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9828,10 +9843,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9956,7 +9971,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10037,7 +10052,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.75</v>
@@ -10240,7 +10255,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10574,7 +10589,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10652,10 +10667,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10780,7 +10795,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10861,7 +10876,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11067,7 +11082,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11192,7 +11207,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11398,7 +11413,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11682,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11891,7 +11906,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -12016,7 +12031,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12097,7 +12112,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.47</v>
@@ -12222,7 +12237,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12634,7 +12649,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12712,7 +12727,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -12840,7 +12855,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13127,7 +13142,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13252,7 +13267,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13330,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59">
         <v>1.07</v>
@@ -13458,7 +13473,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13742,7 +13757,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13951,7 +13966,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14076,7 +14091,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14154,7 +14169,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14282,7 +14297,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14360,10 +14375,10 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -14566,10 +14581,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14694,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14775,7 +14790,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.85</v>
@@ -14900,7 +14915,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15106,7 +15121,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15312,7 +15327,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15393,7 +15408,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>2.07</v>
@@ -15518,7 +15533,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15724,7 +15739,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15930,7 +15945,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16423,7 +16438,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16626,7 +16641,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.57</v>
@@ -16754,7 +16769,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16835,7 +16850,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16960,7 +16975,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17038,10 +17053,10 @@
         <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.48</v>
@@ -17450,7 +17465,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
         <v>1.44</v>
@@ -17784,7 +17799,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -17865,7 +17880,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ81">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>2.08</v>
@@ -17990,7 +18005,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18402,7 +18417,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18686,7 +18701,7 @@
         <v>1.83</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ85">
         <v>1.6</v>
@@ -18892,7 +18907,7 @@
         <v>1.29</v>
       </c>
       <c r="AP86">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>1.4</v>
@@ -19226,7 +19241,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19432,7 +19447,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19716,10 +19731,10 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.81</v>
@@ -19925,7 +19940,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ91">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -20131,7 +20146,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20334,10 +20349,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20540,7 +20555,7 @@
         <v>2.14</v>
       </c>
       <c r="AP94">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -20749,7 +20764,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ95">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.34</v>
@@ -20874,7 +20889,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20952,7 +20967,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21080,7 +21095,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21158,7 +21173,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
         <v>1.07</v>
@@ -21286,7 +21301,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21367,7 +21382,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21698,7 +21713,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21904,7 +21919,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22110,7 +22125,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22191,7 +22206,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22603,7 +22618,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ104">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22728,7 +22743,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22934,7 +22949,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23218,7 +23233,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -23346,7 +23361,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23552,7 +23567,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23630,7 +23645,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ109">
         <v>1.29</v>
@@ -23836,7 +23851,7 @@
         <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ110">
         <v>1.07</v>
@@ -24042,10 +24057,10 @@
         <v>0.44</v>
       </c>
       <c r="AP111">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.51</v>
@@ -24248,10 +24263,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -24454,7 +24469,7 @@
         <v>1.63</v>
       </c>
       <c r="AP113">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24663,7 +24678,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -24788,7 +24803,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25072,10 +25087,10 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.52</v>
@@ -25200,7 +25215,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25406,7 +25421,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26024,7 +26039,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26230,7 +26245,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26436,7 +26451,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26514,7 +26529,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ123">
         <v>1.29</v>
@@ -26642,7 +26657,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26720,7 +26735,7 @@
         <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ124">
         <v>1.4</v>
@@ -26848,7 +26863,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27054,7 +27069,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27135,7 +27150,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27547,7 +27562,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ128">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -27672,7 +27687,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27750,7 +27765,7 @@
         <v>1.4</v>
       </c>
       <c r="AP129">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1.6</v>
@@ -28496,7 +28511,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28574,10 +28589,10 @@
         <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -28986,7 +29001,7 @@
         <v>1.82</v>
       </c>
       <c r="AP135">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135">
         <v>1.44</v>
@@ -29114,7 +29129,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29320,7 +29335,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29401,7 +29416,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ137">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29526,7 +29541,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29604,10 +29619,10 @@
         <v>0.73</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.69</v>
@@ -29810,10 +29825,10 @@
         <v>0.73</v>
       </c>
       <c r="AP139">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -30350,7 +30365,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30556,7 +30571,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30840,7 +30855,7 @@
         <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -30968,7 +30983,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31174,7 +31189,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31255,7 +31270,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ146">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -31458,7 +31473,7 @@
         <v>1.25</v>
       </c>
       <c r="AP147">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -32079,7 +32094,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ150">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR150">
         <v>1.59</v>
@@ -32204,7 +32219,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32410,7 +32425,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32694,7 +32709,7 @@
         <v>1.42</v>
       </c>
       <c r="AP153">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>1.33</v>
@@ -32903,7 +32918,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ154">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>1.9</v>
@@ -33106,10 +33121,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33234,7 +33249,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33312,10 +33327,10 @@
         <v>0.42</v>
       </c>
       <c r="AP156">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ156">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR156">
         <v>1.71</v>
@@ -33440,7 +33455,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33930,7 +33945,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
         <v>0.57</v>
@@ -34264,7 +34279,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34345,7 +34360,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ161">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34470,7 +34485,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34676,7 +34691,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34882,7 +34897,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -34963,7 +34978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.62</v>
@@ -35088,7 +35103,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35169,7 +35184,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ165">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR165">
         <v>1.37</v>
@@ -35372,7 +35387,7 @@
         <v>1.54</v>
       </c>
       <c r="AP166">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
         <v>1.33</v>
@@ -35784,7 +35799,7 @@
         <v>0.62</v>
       </c>
       <c r="AP168">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ168">
         <v>0.57</v>
@@ -35912,7 +35927,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -35990,10 +36005,10 @@
         <v>0.62</v>
       </c>
       <c r="AP169">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36118,7 +36133,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36324,7 +36339,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -36405,7 +36420,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR171">
         <v>1.62</v>
@@ -36608,7 +36623,7 @@
         <v>1.43</v>
       </c>
       <c r="AP172">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ172">
         <v>1.33</v>
@@ -37717,6 +37732,830 @@
       </c>
       <c r="BP177">
         <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7321572</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45549.1875</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>80</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>5</v>
+      </c>
+      <c r="O178" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q178">
+        <v>2.5</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>4.75</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>1.8</v>
+      </c>
+      <c r="AA178">
+        <v>3.45</v>
+      </c>
+      <c r="AB178">
+        <v>4.33</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>8.6</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>3.1</v>
+      </c>
+      <c r="AG178">
+        <v>1.95</v>
+      </c>
+      <c r="AH178">
+        <v>1.75</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.83</v>
+      </c>
+      <c r="AK178">
+        <v>1.17</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.9</v>
+      </c>
+      <c r="AN178">
+        <v>1.79</v>
+      </c>
+      <c r="AO178">
+        <v>0.64</v>
+      </c>
+      <c r="AP178">
+        <v>1.67</v>
+      </c>
+      <c r="AQ178">
+        <v>0.8</v>
+      </c>
+      <c r="AR178">
+        <v>1.59</v>
+      </c>
+      <c r="AS178">
+        <v>1.27</v>
+      </c>
+      <c r="AT178">
+        <v>2.86</v>
+      </c>
+      <c r="AU178">
+        <v>6</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>11</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>17</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>6</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>8</v>
+      </c>
+      <c r="BD178">
+        <v>1.53</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.8</v>
+      </c>
+      <c r="BG178">
+        <v>1.46</v>
+      </c>
+      <c r="BH178">
+        <v>2.55</v>
+      </c>
+      <c r="BI178">
+        <v>1.8</v>
+      </c>
+      <c r="BJ178">
+        <v>2</v>
+      </c>
+      <c r="BK178">
+        <v>2.3</v>
+      </c>
+      <c r="BL178">
+        <v>1.55</v>
+      </c>
+      <c r="BM178">
+        <v>3.1</v>
+      </c>
+      <c r="BN178">
+        <v>1.33</v>
+      </c>
+      <c r="BO178">
+        <v>4.4</v>
+      </c>
+      <c r="BP178">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7321573</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45549.29166666666</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>79</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>85</v>
+      </c>
+      <c r="P179" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>3.5</v>
+      </c>
+      <c r="T179">
+        <v>1.4</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>2.4</v>
+      </c>
+      <c r="AA179">
+        <v>3.2</v>
+      </c>
+      <c r="AB179">
+        <v>2.75</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>9</v>
+      </c>
+      <c r="AE179">
+        <v>1.3</v>
+      </c>
+      <c r="AF179">
+        <v>3.3</v>
+      </c>
+      <c r="AG179">
+        <v>1.85</v>
+      </c>
+      <c r="AH179">
+        <v>1.96</v>
+      </c>
+      <c r="AI179">
+        <v>1.73</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.42</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.55</v>
+      </c>
+      <c r="AN179">
+        <v>1.8</v>
+      </c>
+      <c r="AO179">
+        <v>0.86</v>
+      </c>
+      <c r="AP179">
+        <v>1.69</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>1.57</v>
+      </c>
+      <c r="AS179">
+        <v>1.55</v>
+      </c>
+      <c r="AT179">
+        <v>3.12</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>8</v>
+      </c>
+      <c r="AW179">
+        <v>11</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>16</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>9</v>
+      </c>
+      <c r="BD179">
+        <v>1.75</v>
+      </c>
+      <c r="BE179">
+        <v>8.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.25</v>
+      </c>
+      <c r="BG179">
+        <v>1.3</v>
+      </c>
+      <c r="BH179">
+        <v>3.35</v>
+      </c>
+      <c r="BI179">
+        <v>1.8</v>
+      </c>
+      <c r="BJ179">
+        <v>2</v>
+      </c>
+      <c r="BK179">
+        <v>1.87</v>
+      </c>
+      <c r="BL179">
+        <v>1.84</v>
+      </c>
+      <c r="BM179">
+        <v>2.45</v>
+      </c>
+      <c r="BN179">
+        <v>1.5</v>
+      </c>
+      <c r="BO179">
+        <v>3.15</v>
+      </c>
+      <c r="BP179">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7321574</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45549.29166666666</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>6</v>
+      </c>
+      <c r="N180">
+        <v>6</v>
+      </c>
+      <c r="O180" t="s">
+        <v>85</v>
+      </c>
+      <c r="P180" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q180">
+        <v>2.6</v>
+      </c>
+      <c r="R180">
+        <v>2.3</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3.25</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>6.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.11</v>
+      </c>
+      <c r="Z180">
+        <v>2.1</v>
+      </c>
+      <c r="AA180">
+        <v>3.3</v>
+      </c>
+      <c r="AB180">
+        <v>3.25</v>
+      </c>
+      <c r="AC180">
+        <v>1.05</v>
+      </c>
+      <c r="AD180">
+        <v>9.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.22</v>
+      </c>
+      <c r="AF180">
+        <v>4</v>
+      </c>
+      <c r="AG180">
+        <v>1.7</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.62</v>
+      </c>
+      <c r="AJ180">
+        <v>2.2</v>
+      </c>
+      <c r="AK180">
+        <v>1.28</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>1.78</v>
+      </c>
+      <c r="AN180">
+        <v>1.71</v>
+      </c>
+      <c r="AO180">
+        <v>0.79</v>
+      </c>
+      <c r="AP180">
+        <v>1.6</v>
+      </c>
+      <c r="AQ180">
+        <v>0.93</v>
+      </c>
+      <c r="AR180">
+        <v>1.8</v>
+      </c>
+      <c r="AS180">
+        <v>1.19</v>
+      </c>
+      <c r="AT180">
+        <v>2.99</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>8</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>11</v>
+      </c>
+      <c r="AZ180">
+        <v>16</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>11</v>
+      </c>
+      <c r="BD180">
+        <v>1.6</v>
+      </c>
+      <c r="BE180">
+        <v>6.75</v>
+      </c>
+      <c r="BF180">
+        <v>3.12</v>
+      </c>
+      <c r="BG180">
+        <v>1.33</v>
+      </c>
+      <c r="BH180">
+        <v>2.93</v>
+      </c>
+      <c r="BI180">
+        <v>1.62</v>
+      </c>
+      <c r="BJ180">
+        <v>2.16</v>
+      </c>
+      <c r="BK180">
+        <v>2.08</v>
+      </c>
+      <c r="BL180">
+        <v>1.7</v>
+      </c>
+      <c r="BM180">
+        <v>2.76</v>
+      </c>
+      <c r="BN180">
+        <v>1.39</v>
+      </c>
+      <c r="BO180">
+        <v>3.74</v>
+      </c>
+      <c r="BP180">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7321575</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45550.1875</v>
+      </c>
+      <c r="F181">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>211</v>
+      </c>
+      <c r="P181" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q181">
+        <v>2.6</v>
+      </c>
+      <c r="R181">
+        <v>2.1</v>
+      </c>
+      <c r="S181">
+        <v>4.5</v>
+      </c>
+      <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>3</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>9</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>1.93</v>
+      </c>
+      <c r="AA181">
+        <v>3.4</v>
+      </c>
+      <c r="AB181">
+        <v>3.25</v>
+      </c>
+      <c r="AC181">
+        <v>1.03</v>
+      </c>
+      <c r="AD181">
+        <v>9</v>
+      </c>
+      <c r="AE181">
+        <v>1.3</v>
+      </c>
+      <c r="AF181">
+        <v>3.2</v>
+      </c>
+      <c r="AG181">
+        <v>1.95</v>
+      </c>
+      <c r="AH181">
+        <v>1.75</v>
+      </c>
+      <c r="AI181">
+        <v>1.83</v>
+      </c>
+      <c r="AJ181">
+        <v>1.83</v>
+      </c>
+      <c r="AK181">
+        <v>1.18</v>
+      </c>
+      <c r="AL181">
+        <v>1.23</v>
+      </c>
+      <c r="AM181">
+        <v>1.87</v>
+      </c>
+      <c r="AN181">
+        <v>1.93</v>
+      </c>
+      <c r="AO181">
+        <v>1.4</v>
+      </c>
+      <c r="AP181">
+        <v>2</v>
+      </c>
+      <c r="AQ181">
+        <v>1.31</v>
+      </c>
+      <c r="AR181">
+        <v>1.72</v>
+      </c>
+      <c r="AS181">
+        <v>1.48</v>
+      </c>
+      <c r="AT181">
+        <v>3.2</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>8</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>12</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.64</v>
+      </c>
+      <c r="BE181">
+        <v>7.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.78</v>
+      </c>
+      <c r="BG181">
+        <v>1.39</v>
+      </c>
+      <c r="BH181">
+        <v>2.76</v>
+      </c>
+      <c r="BI181">
+        <v>1.73</v>
+      </c>
+      <c r="BJ181">
+        <v>2.04</v>
+      </c>
+      <c r="BK181">
+        <v>2.19</v>
+      </c>
+      <c r="BL181">
+        <v>1.6</v>
+      </c>
+      <c r="BM181">
+        <v>2.93</v>
+      </c>
+      <c r="BN181">
+        <v>1.33</v>
+      </c>
+      <c r="BO181">
+        <v>4.2</v>
+      </c>
+      <c r="BP181">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,12 @@
     <t>['61', '90+8']</t>
   </si>
   <si>
+    <t>['45+4', '72']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -905,6 +911,12 @@
   </si>
   <si>
     <t>['18', '53', '70', '87', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['27', '38', '51', '89']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,7 +1743,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2018,7 +2030,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2143,7 +2155,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2555,7 +2567,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2633,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2761,7 +2773,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2839,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0.93</v>
@@ -3173,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3379,7 +3391,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3791,7 +3803,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3997,7 +4009,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4281,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -5027,7 +5039,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5233,7 +5245,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5645,7 +5657,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5723,10 +5735,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5851,7 +5863,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6138,7 +6150,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6263,7 +6275,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6469,7 +6481,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6881,7 +6893,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7168,7 +7180,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7911,7 +7923,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8117,7 +8129,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8323,7 +8335,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8607,10 +8619,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8735,7 +8747,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8941,7 +8953,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9147,7 +9159,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9559,7 +9571,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9640,7 +9652,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9843,7 +9855,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9971,7 +9983,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10255,7 +10267,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10464,7 +10476,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.84</v>
@@ -10589,7 +10601,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10795,7 +10807,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11079,7 +11091,7 @@
         <v>0.25</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11207,7 +11219,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11288,7 +11300,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11413,7 +11425,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -12031,7 +12043,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12237,7 +12249,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12524,7 +12536,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.13</v>
@@ -12649,7 +12661,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12727,10 +12739,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12855,7 +12867,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13267,7 +13279,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13473,7 +13485,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13551,7 +13563,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ60">
         <v>1.29</v>
@@ -14091,7 +14103,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14169,7 +14181,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14297,7 +14309,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14709,7 +14721,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14915,7 +14927,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -14996,7 +15008,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15121,7 +15133,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15199,7 +15211,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15327,7 +15339,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15533,7 +15545,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15739,7 +15751,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15945,7 +15957,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16026,7 +16038,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16769,7 +16781,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16975,7 +16987,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17465,7 +17477,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.44</v>
@@ -17674,7 +17686,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -17799,7 +17811,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -18005,7 +18017,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18086,7 +18098,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18417,7 +18429,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18495,7 +18507,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
         <v>1.33</v>
@@ -18910,7 +18922,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19241,7 +19253,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19447,7 +19459,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19731,7 +19743,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20349,7 +20361,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.31</v>
@@ -20889,7 +20901,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -21095,7 +21107,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21301,7 +21313,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21588,7 +21600,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>1.82</v>
@@ -21713,7 +21725,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21919,7 +21931,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22000,7 +22012,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22125,7 +22137,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22409,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ103">
         <v>0.57</v>
@@ -22615,7 +22627,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -22743,7 +22755,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22949,7 +22961,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23030,7 +23042,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.8</v>
@@ -23361,7 +23373,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23567,7 +23579,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23851,7 +23863,7 @@
         <v>0.88</v>
       </c>
       <c r="AP110">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.07</v>
@@ -24803,7 +24815,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25215,7 +25227,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25296,7 +25308,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25421,7 +25433,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26039,7 +26051,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26245,7 +26257,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26326,7 +26338,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26451,7 +26463,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26529,7 +26541,7 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>1.29</v>
@@ -26657,7 +26669,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26738,7 +26750,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26863,7 +26875,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -26941,7 +26953,7 @@
         <v>1.9</v>
       </c>
       <c r="AP125">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ125">
         <v>1.44</v>
@@ -27069,7 +27081,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27559,7 +27571,7 @@
         <v>1.1</v>
       </c>
       <c r="AP128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ128">
         <v>1.31</v>
@@ -27687,7 +27699,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28511,7 +28523,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -28798,7 +28810,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ134">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
         <v>1.98</v>
@@ -29129,7 +29141,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29335,7 +29347,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29541,7 +29553,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29619,7 +29631,7 @@
         <v>0.73</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -30365,7 +30377,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30571,7 +30583,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30649,7 +30661,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ143">
         <v>1.07</v>
@@ -30858,7 +30870,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -30983,7 +30995,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31189,7 +31201,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31888,7 +31900,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ149">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR149">
         <v>1.38</v>
@@ -32091,7 +32103,7 @@
         <v>0.36</v>
       </c>
       <c r="AP150">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ150">
         <v>0.8</v>
@@ -32219,7 +32231,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32300,7 +32312,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
         <v>1.58</v>
@@ -32425,7 +32437,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -33249,7 +33261,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33327,7 +33339,7 @@
         <v>0.42</v>
       </c>
       <c r="AP156">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
         <v>0.8</v>
@@ -33455,7 +33467,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33536,7 +33548,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -33739,10 +33751,10 @@
         <v>1.54</v>
       </c>
       <c r="AP158">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -34279,7 +34291,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34485,7 +34497,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34691,7 +34703,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34897,7 +34909,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -35103,7 +35115,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35799,7 +35811,7 @@
         <v>0.62</v>
       </c>
       <c r="AP168">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>0.57</v>
@@ -35927,7 +35939,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36133,7 +36145,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36339,7 +36351,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -36417,7 +36429,7 @@
         <v>1.29</v>
       </c>
       <c r="AP171">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ171">
         <v>1.31</v>
@@ -36626,7 +36638,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ172">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR172">
         <v>1.56</v>
@@ -37244,7 +37256,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ175">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR175">
         <v>1.51</v>
@@ -37781,7 +37793,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -37987,7 +37999,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38193,7 +38205,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>2.6</v>
@@ -38271,7 +38283,7 @@
         <v>0.79</v>
       </c>
       <c r="AP180">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180">
         <v>0.93</v>
@@ -38556,6 +38568,418 @@
       </c>
       <c r="BP181">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7321576</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45556.1875</v>
+      </c>
+      <c r="F182">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
+        <v>76</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>6</v>
+      </c>
+      <c r="O182" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q182">
+        <v>2.91</v>
+      </c>
+      <c r="R182">
+        <v>2.08</v>
+      </c>
+      <c r="S182">
+        <v>2.91</v>
+      </c>
+      <c r="T182">
+        <v>1.38</v>
+      </c>
+      <c r="U182">
+        <v>2.85</v>
+      </c>
+      <c r="V182">
+        <v>2.65</v>
+      </c>
+      <c r="W182">
+        <v>1.42</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.09</v>
+      </c>
+      <c r="Z182">
+        <v>2.62</v>
+      </c>
+      <c r="AA182">
+        <v>3.3</v>
+      </c>
+      <c r="AB182">
+        <v>2.55</v>
+      </c>
+      <c r="AC182">
+        <v>1.02</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.22</v>
+      </c>
+      <c r="AF182">
+        <v>3.8</v>
+      </c>
+      <c r="AG182">
+        <v>1.8</v>
+      </c>
+      <c r="AH182">
+        <v>1.91</v>
+      </c>
+      <c r="AI182">
+        <v>1.62</v>
+      </c>
+      <c r="AJ182">
+        <v>2.25</v>
+      </c>
+      <c r="AK182">
+        <v>1.42</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.42</v>
+      </c>
+      <c r="AN182">
+        <v>1.6</v>
+      </c>
+      <c r="AO182">
+        <v>1.33</v>
+      </c>
+      <c r="AP182">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182">
+        <v>1.44</v>
+      </c>
+      <c r="AR182">
+        <v>1.77</v>
+      </c>
+      <c r="AS182">
+        <v>1.59</v>
+      </c>
+      <c r="AT182">
+        <v>3.36</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>8</v>
+      </c>
+      <c r="AW182">
+        <v>4</v>
+      </c>
+      <c r="AX182">
+        <v>7</v>
+      </c>
+      <c r="AY182">
+        <v>10</v>
+      </c>
+      <c r="AZ182">
+        <v>15</v>
+      </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
+      <c r="BB182">
+        <v>9</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>2.14</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>2.13</v>
+      </c>
+      <c r="BG182">
+        <v>0</v>
+      </c>
+      <c r="BH182">
+        <v>0</v>
+      </c>
+      <c r="BI182">
+        <v>1.59</v>
+      </c>
+      <c r="BJ182">
+        <v>2.28</v>
+      </c>
+      <c r="BK182">
+        <v>1.98</v>
+      </c>
+      <c r="BL182">
+        <v>1.81</v>
+      </c>
+      <c r="BM182">
+        <v>2.52</v>
+      </c>
+      <c r="BN182">
+        <v>1.49</v>
+      </c>
+      <c r="BO182">
+        <v>0</v>
+      </c>
+      <c r="BP182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7321577</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45556.29166666666</v>
+      </c>
+      <c r="F183">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>213</v>
+      </c>
+      <c r="P183" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q183">
+        <v>3.25</v>
+      </c>
+      <c r="R183">
+        <v>2.05</v>
+      </c>
+      <c r="S183">
+        <v>3.1</v>
+      </c>
+      <c r="T183">
+        <v>1.4</v>
+      </c>
+      <c r="U183">
+        <v>2.75</v>
+      </c>
+      <c r="V183">
+        <v>2.8</v>
+      </c>
+      <c r="W183">
+        <v>1.38</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>2.75</v>
+      </c>
+      <c r="AA183">
+        <v>3.25</v>
+      </c>
+      <c r="AB183">
+        <v>2.5</v>
+      </c>
+      <c r="AC183">
+        <v>1.06</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.33</v>
+      </c>
+      <c r="AF183">
+        <v>3.3</v>
+      </c>
+      <c r="AG183">
+        <v>1.95</v>
+      </c>
+      <c r="AH183">
+        <v>1.75</v>
+      </c>
+      <c r="AI183">
+        <v>1.7</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.5</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.42</v>
+      </c>
+      <c r="AN183">
+        <v>1.2</v>
+      </c>
+      <c r="AO183">
+        <v>1.4</v>
+      </c>
+      <c r="AP183">
+        <v>1.19</v>
+      </c>
+      <c r="AQ183">
+        <v>1.38</v>
+      </c>
+      <c r="AR183">
+        <v>1.63</v>
+      </c>
+      <c r="AS183">
+        <v>1.37</v>
+      </c>
+      <c r="AT183">
+        <v>3</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>1</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>5</v>
+      </c>
+      <c r="AZ183">
+        <v>6</v>
+      </c>
+      <c r="BA183">
+        <v>2</v>
+      </c>
+      <c r="BB183">
+        <v>12</v>
+      </c>
+      <c r="BC183">
+        <v>14</v>
+      </c>
+      <c r="BD183">
+        <v>2</v>
+      </c>
+      <c r="BE183">
+        <v>6.4</v>
+      </c>
+      <c r="BF183">
+        <v>2.29</v>
+      </c>
+      <c r="BG183">
+        <v>1.3</v>
+      </c>
+      <c r="BH183">
+        <v>2.88</v>
+      </c>
+      <c r="BI183">
+        <v>1.59</v>
+      </c>
+      <c r="BJ183">
+        <v>2.16</v>
+      </c>
+      <c r="BK183">
+        <v>2.06</v>
+      </c>
+      <c r="BL183">
+        <v>1.71</v>
+      </c>
+      <c r="BM183">
+        <v>2.67</v>
+      </c>
+      <c r="BN183">
+        <v>1.39</v>
+      </c>
+      <c r="BO183">
+        <v>3.62</v>
+      </c>
+      <c r="BP183">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,9 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['6', '90+6']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['67', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,7 +1749,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.38</v>
@@ -2155,7 +2161,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2233,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -2442,7 +2448,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2567,7 +2573,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2773,7 +2779,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2854,7 +2860,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3185,7 +3191,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3266,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3391,7 +3397,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3803,7 +3809,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3881,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -4009,7 +4015,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4087,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4502,7 +4508,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4705,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1.07</v>
@@ -4914,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -5039,7 +5045,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5245,7 +5251,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5326,7 +5332,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5529,7 +5535,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ21">
         <v>0.8</v>
@@ -5657,7 +5663,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5863,7 +5869,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6275,7 +6281,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6353,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6481,7 +6487,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6559,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6765,10 +6771,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6893,7 +6899,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6971,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.31</v>
@@ -7386,7 +7392,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ30">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7923,7 +7929,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8001,10 +8007,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -8129,7 +8135,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8335,7 +8341,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8416,7 +8422,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8747,7 +8753,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8825,7 +8831,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>1.44</v>
@@ -8953,7 +8959,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9159,7 +9165,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9446,7 +9452,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9571,7 +9577,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9983,7 +9989,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10061,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10270,7 +10276,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10473,7 +10479,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10601,7 +10607,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10682,7 +10688,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10807,7 +10813,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -11219,7 +11225,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3.52</v>
@@ -11297,7 +11303,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11425,7 +11431,7 @@
         <v>100</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>2.9</v>
@@ -11503,7 +11509,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11712,7 +11718,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11915,7 +11921,7 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
         <v>1.31</v>
@@ -12043,7 +12049,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>2.42</v>
@@ -12249,7 +12255,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12330,7 +12336,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
         <v>2.02</v>
@@ -12533,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12661,7 +12667,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>3.52</v>
@@ -12867,7 +12873,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3.84</v>
@@ -13151,10 +13157,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
         <v>1.64</v>
@@ -13279,7 +13285,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>3.35</v>
@@ -13485,7 +13491,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>4.2</v>
@@ -13566,7 +13572,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13772,7 +13778,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13975,10 +13981,10 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62">
         <v>1.62</v>
@@ -14103,7 +14109,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>3.25</v>
@@ -14184,7 +14190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14309,7 +14315,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>3.2</v>
@@ -14721,7 +14727,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14799,7 +14805,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.8</v>
@@ -14927,7 +14933,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.95</v>
@@ -15005,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15133,7 +15139,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15339,7 +15345,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>2.89</v>
@@ -15545,7 +15551,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15751,7 +15757,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15829,10 +15835,10 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR71">
         <v>1.65</v>
@@ -15957,7 +15963,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.15</v>
@@ -16241,10 +16247,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16447,7 +16453,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>1.31</v>
@@ -16656,7 +16662,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
         <v>1.46</v>
@@ -16781,7 +16787,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16859,10 +16865,10 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16987,7 +16993,7 @@
         <v>95</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>2.57</v>
@@ -17274,7 +17280,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17811,7 +17817,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -18017,7 +18023,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.82</v>
@@ -18095,7 +18101,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -18301,7 +18307,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ83">
         <v>1.07</v>
@@ -18429,7 +18435,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18510,7 +18516,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.46</v>
@@ -19125,7 +19131,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.44</v>
@@ -19253,7 +19259,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19331,10 +19337,10 @@
         <v>1.43</v>
       </c>
       <c r="AP88">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19459,7 +19465,7 @@
         <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>2.9</v>
@@ -19537,10 +19543,10 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>1.24</v>
@@ -19952,7 +19958,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ91">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91">
         <v>1.86</v>
@@ -20158,7 +20164,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ92">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>2.21</v>
@@ -20773,7 +20779,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20901,7 +20907,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>3.4</v>
@@ -20982,7 +20988,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21107,7 +21113,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>3.28</v>
@@ -21313,7 +21319,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>2.15</v>
@@ -21391,7 +21397,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -21597,7 +21603,7 @@
         <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -21725,7 +21731,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21931,7 +21937,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>2.3</v>
@@ -22137,7 +22143,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22424,7 +22430,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22630,7 +22636,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.52</v>
@@ -22755,7 +22761,7 @@
         <v>156</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22833,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105">
         <v>1.07</v>
@@ -22961,7 +22967,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q106">
         <v>2.95</v>
@@ -23373,7 +23379,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>3.25</v>
@@ -23451,7 +23457,7 @@
         <v>1.88</v>
       </c>
       <c r="AP108">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ108">
         <v>1.44</v>
@@ -23579,7 +23585,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23660,7 +23666,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24484,7 +24490,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24815,7 +24821,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>3.1</v>
@@ -25227,7 +25233,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25433,7 +25439,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25511,7 +25517,7 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118">
         <v>1.6</v>
@@ -25717,10 +25723,10 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25923,10 +25929,10 @@
         <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -26051,7 +26057,7 @@
         <v>85</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26129,10 +26135,10 @@
         <v>1.44</v>
       </c>
       <c r="AP121">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26257,7 +26263,7 @@
         <v>118</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>3.2</v>
@@ -26335,7 +26341,7 @@
         <v>1.6</v>
       </c>
       <c r="AP122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ122">
         <v>1.44</v>
@@ -26463,7 +26469,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26544,7 +26550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR123">
         <v>1.74</v>
@@ -26669,7 +26675,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>3.4</v>
@@ -26875,7 +26881,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>3.5</v>
@@ -27081,7 +27087,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27159,10 +27165,10 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27699,7 +27705,7 @@
         <v>175</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28189,10 +28195,10 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28398,7 +28404,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ132">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
         <v>1.43</v>
@@ -28523,7 +28529,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -29141,7 +29147,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q136">
         <v>3.5</v>
@@ -29219,10 +29225,10 @@
         <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29347,7 +29353,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>2.63</v>
@@ -29425,7 +29431,7 @@
         <v>1.09</v>
       </c>
       <c r="AP137">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.31</v>
@@ -29553,7 +29559,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29840,7 +29846,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.63</v>
@@ -30046,7 +30052,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ140">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR140">
         <v>1.43</v>
@@ -30252,7 +30258,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ141">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30377,7 +30383,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30455,7 +30461,7 @@
         <v>1.55</v>
       </c>
       <c r="AP142">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ142">
         <v>1.6</v>
@@ -30583,7 +30589,7 @@
         <v>85</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30995,7 +31001,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31073,7 +31079,7 @@
         <v>1.67</v>
       </c>
       <c r="AP145">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31201,7 +31207,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>2.55</v>
@@ -31282,7 +31288,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ146">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -31488,7 +31494,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR147">
         <v>1.62</v>
@@ -31691,7 +31697,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>1.6</v>
@@ -31897,7 +31903,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ149">
         <v>1.38</v>
@@ -32231,7 +32237,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>2.88</v>
@@ -32309,7 +32315,7 @@
         <v>1.42</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ151">
         <v>1.44</v>
@@ -32437,7 +32443,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q152">
         <v>3.4</v>
@@ -32724,7 +32730,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
         <v>1.69</v>
@@ -33261,7 +33267,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>2.43</v>
@@ -33467,7 +33473,7 @@
         <v>82</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33545,7 +33551,7 @@
         <v>1.31</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ157">
         <v>1.38</v>
@@ -33960,7 +33966,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR159">
         <v>1.56</v>
@@ -34291,7 +34297,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>3.4</v>
@@ -34369,7 +34375,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
         <v>1.31</v>
@@ -34497,7 +34503,7 @@
         <v>123</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34703,7 +34709,7 @@
         <v>199</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34909,7 +34915,7 @@
         <v>123</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>2.59</v>
@@ -34987,7 +34993,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35115,7 +35121,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35193,10 +35199,10 @@
         <v>0.62</v>
       </c>
       <c r="AP165">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ165">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR165">
         <v>1.37</v>
@@ -35402,7 +35408,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
         <v>1.57</v>
@@ -35605,10 +35611,10 @@
         <v>1.15</v>
       </c>
       <c r="AP167">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35814,7 +35820,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ168">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR168">
         <v>1.76</v>
@@ -35939,7 +35945,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36145,7 +36151,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>2.55</v>
@@ -36351,7 +36357,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>2.77</v>
@@ -37047,7 +37053,7 @@
         <v>1.14</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
         <v>1.07</v>
@@ -37462,7 +37468,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.92</v>
@@ -37665,7 +37671,7 @@
         <v>1.53</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.44</v>
@@ -37793,7 +37799,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -37999,7 +38005,7 @@
         <v>85</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38205,7 +38211,7 @@
         <v>85</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>2.6</v>
@@ -38286,7 +38292,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.8</v>
@@ -38617,7 +38623,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q182">
         <v>2.91</v>
@@ -38823,7 +38829,7 @@
         <v>213</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>3.25</v>
@@ -38980,6 +38986,830 @@
       </c>
       <c r="BP183">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7321579</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45557.1875</v>
+      </c>
+      <c r="F184">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>79</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>85</v>
+      </c>
+      <c r="P184" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q184">
+        <v>2.63</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.4</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
+        <v>2.75</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.08</v>
+      </c>
+      <c r="Z184">
+        <v>2.16</v>
+      </c>
+      <c r="AA184">
+        <v>3.35</v>
+      </c>
+      <c r="AB184">
+        <v>3.45</v>
+      </c>
+      <c r="AC184">
+        <v>1.03</v>
+      </c>
+      <c r="AD184">
+        <v>9</v>
+      </c>
+      <c r="AE184">
+        <v>1.25</v>
+      </c>
+      <c r="AF184">
+        <v>3.6</v>
+      </c>
+      <c r="AG184">
+        <v>1.99</v>
+      </c>
+      <c r="AH184">
+        <v>1.82</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.91</v>
+      </c>
+      <c r="AK184">
+        <v>1.27</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.65</v>
+      </c>
+      <c r="AN184">
+        <v>1.6</v>
+      </c>
+      <c r="AO184">
+        <v>0.57</v>
+      </c>
+      <c r="AP184">
+        <v>1.5</v>
+      </c>
+      <c r="AQ184">
+        <v>0.73</v>
+      </c>
+      <c r="AR184">
+        <v>1.67</v>
+      </c>
+      <c r="AS184">
+        <v>1.55</v>
+      </c>
+      <c r="AT184">
+        <v>3.22</v>
+      </c>
+      <c r="AU184">
+        <v>0</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>4</v>
+      </c>
+      <c r="AX184">
+        <v>3</v>
+      </c>
+      <c r="AY184">
+        <v>4</v>
+      </c>
+      <c r="AZ184">
+        <v>7</v>
+      </c>
+      <c r="BA184">
+        <v>4</v>
+      </c>
+      <c r="BB184">
+        <v>9</v>
+      </c>
+      <c r="BC184">
+        <v>13</v>
+      </c>
+      <c r="BD184">
+        <v>1.62</v>
+      </c>
+      <c r="BE184">
+        <v>8.1</v>
+      </c>
+      <c r="BF184">
+        <v>2.86</v>
+      </c>
+      <c r="BG184">
+        <v>1.35</v>
+      </c>
+      <c r="BH184">
+        <v>3</v>
+      </c>
+      <c r="BI184">
+        <v>1.6</v>
+      </c>
+      <c r="BJ184">
+        <v>2.27</v>
+      </c>
+      <c r="BK184">
+        <v>2</v>
+      </c>
+      <c r="BL184">
+        <v>1.8</v>
+      </c>
+      <c r="BM184">
+        <v>2.55</v>
+      </c>
+      <c r="BN184">
+        <v>1.48</v>
+      </c>
+      <c r="BO184">
+        <v>3.55</v>
+      </c>
+      <c r="BP184">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7321578</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45557.1875</v>
+      </c>
+      <c r="F185">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" t="s">
+        <v>74</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>214</v>
+      </c>
+      <c r="P185" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>2.2</v>
+      </c>
+      <c r="S185">
+        <v>3.4</v>
+      </c>
+      <c r="T185">
+        <v>1.36</v>
+      </c>
+      <c r="U185">
+        <v>3</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>7</v>
+      </c>
+      <c r="Y185">
+        <v>1.1</v>
+      </c>
+      <c r="Z185">
+        <v>2.49</v>
+      </c>
+      <c r="AA185">
+        <v>3.35</v>
+      </c>
+      <c r="AB185">
+        <v>2.85</v>
+      </c>
+      <c r="AC185">
+        <v>1.05</v>
+      </c>
+      <c r="AD185">
+        <v>9</v>
+      </c>
+      <c r="AE185">
+        <v>1.28</v>
+      </c>
+      <c r="AF185">
+        <v>3.5</v>
+      </c>
+      <c r="AG185">
+        <v>1.92</v>
+      </c>
+      <c r="AH185">
+        <v>1.89</v>
+      </c>
+      <c r="AI185">
+        <v>1.67</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.4</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.55</v>
+      </c>
+      <c r="AN185">
+        <v>1.5</v>
+      </c>
+      <c r="AO185">
+        <v>1.33</v>
+      </c>
+      <c r="AP185">
+        <v>1.6</v>
+      </c>
+      <c r="AQ185">
+        <v>1.25</v>
+      </c>
+      <c r="AR185">
+        <v>1.67</v>
+      </c>
+      <c r="AS185">
+        <v>1.38</v>
+      </c>
+      <c r="AT185">
+        <v>3.05</v>
+      </c>
+      <c r="AU185">
+        <v>3</v>
+      </c>
+      <c r="AV185">
+        <v>6</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>9</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>15</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>5</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
+        <v>1.73</v>
+      </c>
+      <c r="BE185">
+        <v>6.4</v>
+      </c>
+      <c r="BF185">
+        <v>2.85</v>
+      </c>
+      <c r="BG185">
+        <v>1.46</v>
+      </c>
+      <c r="BH185">
+        <v>2.45</v>
+      </c>
+      <c r="BI185">
+        <v>1.87</v>
+      </c>
+      <c r="BJ185">
+        <v>1.87</v>
+      </c>
+      <c r="BK185">
+        <v>2.4</v>
+      </c>
+      <c r="BL185">
+        <v>1.48</v>
+      </c>
+      <c r="BM185">
+        <v>3.22</v>
+      </c>
+      <c r="BN185">
+        <v>1.24</v>
+      </c>
+      <c r="BO185">
+        <v>4.6</v>
+      </c>
+      <c r="BP185">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7321580</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45557.29166666666</v>
+      </c>
+      <c r="F186">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>85</v>
+      </c>
+      <c r="P186" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q186">
+        <v>3.75</v>
+      </c>
+      <c r="R186">
+        <v>2.2</v>
+      </c>
+      <c r="S186">
+        <v>2.88</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>2.75</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>3.1</v>
+      </c>
+      <c r="AA186">
+        <v>3.4</v>
+      </c>
+      <c r="AB186">
+        <v>2.2</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.25</v>
+      </c>
+      <c r="AF186">
+        <v>3.6</v>
+      </c>
+      <c r="AG186">
+        <v>1.9</v>
+      </c>
+      <c r="AH186">
+        <v>1.9</v>
+      </c>
+      <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.6</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.36</v>
+      </c>
+      <c r="AN186">
+        <v>0.71</v>
+      </c>
+      <c r="AO186">
+        <v>1.29</v>
+      </c>
+      <c r="AP186">
+        <v>0.73</v>
+      </c>
+      <c r="AQ186">
+        <v>1.27</v>
+      </c>
+      <c r="AR186">
+        <v>1.4</v>
+      </c>
+      <c r="AS186">
+        <v>1.46</v>
+      </c>
+      <c r="AT186">
+        <v>2.86</v>
+      </c>
+      <c r="AU186">
+        <v>0</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>11</v>
+      </c>
+      <c r="AY186">
+        <v>7</v>
+      </c>
+      <c r="AZ186">
+        <v>14</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>9</v>
+      </c>
+      <c r="BC186">
+        <v>11</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>0</v>
+      </c>
+      <c r="BG186">
+        <v>1.48</v>
+      </c>
+      <c r="BH186">
+        <v>2.55</v>
+      </c>
+      <c r="BI186">
+        <v>2</v>
+      </c>
+      <c r="BJ186">
+        <v>1.8</v>
+      </c>
+      <c r="BK186">
+        <v>2.3</v>
+      </c>
+      <c r="BL186">
+        <v>1.58</v>
+      </c>
+      <c r="BM186">
+        <v>0</v>
+      </c>
+      <c r="BN186">
+        <v>0</v>
+      </c>
+      <c r="BO186">
+        <v>0</v>
+      </c>
+      <c r="BP186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7321581</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45557.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" t="s">
+        <v>71</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>85</v>
+      </c>
+      <c r="P187" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q187">
+        <v>3.4</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>3</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>2.75</v>
+      </c>
+      <c r="AA187">
+        <v>3.4</v>
+      </c>
+      <c r="AB187">
+        <v>2.4</v>
+      </c>
+      <c r="AC187">
+        <v>1.03</v>
+      </c>
+      <c r="AD187">
+        <v>9</v>
+      </c>
+      <c r="AE187">
+        <v>1.28</v>
+      </c>
+      <c r="AF187">
+        <v>3.5</v>
+      </c>
+      <c r="AG187">
+        <v>1.94</v>
+      </c>
+      <c r="AH187">
+        <v>1.86</v>
+      </c>
+      <c r="AI187">
+        <v>1.73</v>
+      </c>
+      <c r="AJ187">
+        <v>2</v>
+      </c>
+      <c r="AK187">
+        <v>1.53</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.4</v>
+      </c>
+      <c r="AN187">
+        <v>1.47</v>
+      </c>
+      <c r="AO187">
+        <v>0.93</v>
+      </c>
+      <c r="AP187">
+        <v>1.44</v>
+      </c>
+      <c r="AQ187">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR187">
+        <v>1.27</v>
+      </c>
+      <c r="AS187">
+        <v>1.25</v>
+      </c>
+      <c r="AT187">
+        <v>2.52</v>
+      </c>
+      <c r="AU187">
+        <v>0</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>7</v>
+      </c>
+      <c r="AX187">
+        <v>4</v>
+      </c>
+      <c r="AY187">
+        <v>7</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>2</v>
+      </c>
+      <c r="BC187">
+        <v>6</v>
+      </c>
+      <c r="BD187">
+        <v>2.13</v>
+      </c>
+      <c r="BE187">
+        <v>6.15</v>
+      </c>
+      <c r="BF187">
+        <v>2.17</v>
+      </c>
+      <c r="BG187">
+        <v>1.52</v>
+      </c>
+      <c r="BH187">
+        <v>2.41</v>
+      </c>
+      <c r="BI187">
+        <v>1.85</v>
+      </c>
+      <c r="BJ187">
+        <v>1.95</v>
+      </c>
+      <c r="BK187">
+        <v>2.42</v>
+      </c>
+      <c r="BL187">
+        <v>1.52</v>
+      </c>
+      <c r="BM187">
+        <v>0</v>
+      </c>
+      <c r="BN187">
+        <v>0</v>
+      </c>
+      <c r="BO187">
+        <v>0</v>
+      </c>
+      <c r="BP187">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['6', '90+6']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -706,9 +712,6 @@
     <t>['33', '50', '90+7']</t>
   </si>
   <si>
-    <t>['70']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -716,9 +719,6 @@
   </si>
   <si>
     <t>['82', '90+3']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['15', '73', '77', '90+4']</t>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>['67', '90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,7 +1752,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -2161,7 +2164,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2445,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.73</v>
@@ -2573,7 +2576,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2779,7 +2782,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -3063,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3191,7 +3194,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -3272,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3397,7 +3400,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3684,7 +3687,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3809,7 +3812,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -4015,7 +4018,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4093,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -4711,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ17">
         <v>1.07</v>
@@ -5045,7 +5048,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -5126,7 +5129,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5251,7 +5254,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5332,7 +5335,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ20">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5663,7 +5666,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5869,7 +5872,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6153,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6281,7 +6284,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6487,7 +6490,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6565,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ26">
         <v>1.6</v>
@@ -6771,10 +6774,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.56</v>
@@ -6899,7 +6902,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6980,7 +6983,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -7595,7 +7598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7929,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -8135,7 +8138,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8341,7 +8344,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8753,7 +8756,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8831,7 +8834,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>1.44</v>
@@ -8959,7 +8962,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -9989,7 +9992,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10479,7 +10482,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10891,10 +10894,10 @@
         <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -11303,7 +11306,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11921,10 +11924,10 @@
         <v>1.25</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR52">
         <v>1.65</v>
@@ -12539,7 +12542,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12951,7 +12954,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13572,7 +13575,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13778,7 +13781,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.48</v>
@@ -13981,7 +13984,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ62">
         <v>0.9399999999999999</v>
@@ -14396,7 +14399,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR64">
         <v>1.38</v>
@@ -15423,7 +15426,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15835,7 +15838,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ71">
         <v>0.73</v>
@@ -16250,7 +16253,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.78</v>
@@ -16453,10 +16456,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ74">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -17277,10 +17280,10 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
         <v>2.04</v>
@@ -17817,7 +17820,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>2.24</v>
@@ -18101,7 +18104,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -19340,7 +19343,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ88">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.58</v>
@@ -19543,7 +19546,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ89">
         <v>0.73</v>
@@ -19955,7 +19958,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.9399999999999999</v>
@@ -20370,7 +20373,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR93">
         <v>1.86</v>
@@ -20779,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21397,7 +21400,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -21809,7 +21812,7 @@
         <v>1.57</v>
       </c>
       <c r="AP100">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.6</v>
@@ -22224,7 +22227,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22839,7 +22842,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ105">
         <v>1.07</v>
@@ -23045,7 +23048,7 @@
         <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -23666,7 +23669,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ109">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24284,7 +24287,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ112">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR112">
         <v>1.61</v>
@@ -25517,7 +25520,7 @@
         <v>1.22</v>
       </c>
       <c r="AP118">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
         <v>1.6</v>
@@ -25723,10 +25726,10 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26550,7 +26553,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.74</v>
@@ -27165,7 +27168,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -27371,7 +27374,7 @@
         <v>0.78</v>
       </c>
       <c r="AP127">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>1.07</v>
@@ -27580,7 +27583,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR128">
         <v>1.62</v>
@@ -28195,7 +28198,7 @@
         <v>1.6</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28529,7 +28532,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q133">
         <v>2.34</v>
@@ -29147,7 +29150,7 @@
         <v>181</v>
       </c